--- a/template/取引成立台帳.xlsx
+++ b/template/取引成立台帳.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\03_帳票\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1366492F-CA4B-420A-9538-FE5EF8A87B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4A7B16-B98A-48D6-B3CE-30C29EDB6753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D08DF634-D05B-48EB-A5E5-3C43C6308EA5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D08DF634-D05B-48EB-A5E5-3C43C6308EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="買主" sheetId="1" r:id="rId1"/>
     <sheet name="売主" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1012,10 +1012,6 @@
   </si>
   <si>
     <t>$salesFixedTax$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$salesFixedConsumptionTax$</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1221,6 +1217,10 @@
   </si>
   <si>
     <t>$fixedBuildingTaxOnlyTax$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$salesFixedBuildingTaxOnlyTax$</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2219,10 +2219,355 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2231,21 +2576,177 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2261,557 +2762,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3141,60 +3141,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="241" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="R1" s="245" t="s">
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="R1" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="246"/>
-      <c r="T1" s="246"/>
-      <c r="U1" s="247" t="s">
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="248"/>
-      <c r="W1" s="248"/>
-      <c r="X1" s="248"/>
-      <c r="Y1" s="249"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="87"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="243"/>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="R2" s="245" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="R2" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="246"/>
-      <c r="T2" s="246"/>
-      <c r="U2" s="250" t="s">
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="V2" s="251"/>
-      <c r="W2" s="251"/>
-      <c r="X2" s="251"/>
-      <c r="Y2" s="252"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="90"/>
     </row>
     <row r="3" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -3224,26 +3224,26 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="255"/>
-      <c r="D4" s="115" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="231" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="94" t="s">
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="233"/>
+      <c r="L4" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="256"/>
-      <c r="N4" s="95"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="103"/>
       <c r="O4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3265,24 +3265,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="253" t="s">
+      <c r="A5" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="254"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="115" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="231" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="258"/>
-      <c r="N5" s="259"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
+      <c r="G5" s="232"/>
+      <c r="H5" s="232"/>
+      <c r="I5" s="232"/>
+      <c r="J5" s="232"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="106"/>
       <c r="O5" s="10" t="s">
         <v>71</v>
       </c>
@@ -3293,10 +3293,10 @@
       <c r="R5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="154" t="s">
+      <c r="S5" s="203" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="155"/>
+      <c r="T5" s="204"/>
       <c r="U5" s="11" t="s">
         <v>71</v>
       </c>
@@ -3314,333 +3314,333 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="79" t="s">
+      <c r="C6" s="92"/>
+      <c r="D6" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="99"/>
+      <c r="N6" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="101" t="s">
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="94"/>
+    </row>
+    <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="100"/>
+      <c r="B7" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="126"/>
-      <c r="N6" s="79" t="s">
+      <c r="M7" s="99"/>
+      <c r="N7" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="94"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="100"/>
+      <c r="B8" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="99"/>
+      <c r="N8" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="94"/>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="100"/>
+      <c r="B9" s="205" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="206"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="99"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="94"/>
+    </row>
+    <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="100"/>
-    </row>
-    <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="127"/>
-      <c r="B7" s="107" t="s">
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="99"/>
+      <c r="N10" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="94"/>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="100"/>
+      <c r="B11" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="101" t="s">
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="N7" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="100"/>
-    </row>
-    <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="127"/>
-      <c r="B8" s="107" t="s">
+      <c r="M11" s="99"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="94"/>
+    </row>
+    <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="100"/>
+      <c r="B12" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101" t="s">
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="126"/>
-      <c r="N8" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="100"/>
-    </row>
-    <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="127"/>
-      <c r="B9" s="156" t="s">
+      <c r="M12" s="99"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="94"/>
+    </row>
+    <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="100"/>
+      <c r="B13" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="101" t="s">
+      <c r="C13" s="206"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="126"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="100"/>
-    </row>
-    <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="127" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="126"/>
-      <c r="N10" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="100"/>
-    </row>
-    <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="127"/>
-      <c r="B11" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="126"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="100"/>
-    </row>
-    <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="127"/>
-      <c r="B12" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="126"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="100"/>
-    </row>
-    <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="127"/>
-      <c r="B13" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="157"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="126"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="100"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="94"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="81" t="s">
+      <c r="B14" s="229"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="229"/>
+      <c r="G14" s="196" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="82"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="196"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="196"/>
+      <c r="N14" s="196"/>
+      <c r="O14" s="196"/>
+      <c r="P14" s="196"/>
+      <c r="Q14" s="196"/>
+      <c r="R14" s="196"/>
+      <c r="S14" s="196"/>
+      <c r="T14" s="196"/>
+      <c r="U14" s="196"/>
+      <c r="V14" s="196"/>
+      <c r="W14" s="196"/>
+      <c r="X14" s="196"/>
+      <c r="Y14" s="197"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="128"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="129"/>
+      <c r="A15" s="217"/>
+      <c r="B15" s="218"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="218"/>
+      <c r="N15" s="218"/>
+      <c r="O15" s="218"/>
+      <c r="P15" s="218"/>
+      <c r="Q15" s="218"/>
+      <c r="R15" s="218"/>
+      <c r="S15" s="218"/>
+      <c r="T15" s="218"/>
+      <c r="U15" s="218"/>
+      <c r="V15" s="218"/>
+      <c r="W15" s="218"/>
+      <c r="X15" s="218"/>
+      <c r="Y15" s="219"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="147" t="s">
+      <c r="A16" s="230" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -3648,90 +3648,90 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="144" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="145"/>
+      <c r="E16" s="227" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="227"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="227"/>
+      <c r="J16" s="227"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="227"/>
+      <c r="M16" s="227"/>
+      <c r="N16" s="227"/>
+      <c r="O16" s="227"/>
+      <c r="P16" s="227"/>
+      <c r="Q16" s="227"/>
+      <c r="R16" s="227"/>
+      <c r="S16" s="227"/>
+      <c r="T16" s="227"/>
+      <c r="U16" s="227"/>
+      <c r="V16" s="227"/>
+      <c r="W16" s="227"/>
+      <c r="X16" s="227"/>
+      <c r="Y16" s="228"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="148"/>
-      <c r="B17" s="119" t="s">
+      <c r="A17" s="213"/>
+      <c r="B17" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="121"/>
+      <c r="C17" s="236"/>
+      <c r="D17" s="237"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="99" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
+      <c r="F17" s="241" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="123" t="s">
+      <c r="J17" s="242"/>
+      <c r="K17" s="242"/>
+      <c r="L17" s="242"/>
+      <c r="M17" s="243" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="125" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
+      <c r="N17" s="244"/>
+      <c r="O17" s="244"/>
+      <c r="P17" s="131" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="131" t="s">
+      <c r="U17" s="220" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="133"/>
+      <c r="V17" s="221"/>
+      <c r="W17" s="221"/>
+      <c r="X17" s="221"/>
+      <c r="Y17" s="222"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="148"/>
-      <c r="B18" s="85" t="s">
+      <c r="A18" s="213"/>
+      <c r="B18" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="118" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
+      <c r="G18" s="234" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="234"/>
+      <c r="I18" s="234"/>
+      <c r="J18" s="234"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -3740,81 +3740,81 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
+      <c r="O18" s="234"/>
+      <c r="P18" s="234"/>
+      <c r="Q18" s="234"/>
+      <c r="R18" s="234"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="23"/>
-      <c r="U18" s="96" t="s">
-        <v>143</v>
-      </c>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="98"/>
+      <c r="U18" s="170" t="s">
+        <v>142</v>
+      </c>
+      <c r="V18" s="171"/>
+      <c r="W18" s="171"/>
+      <c r="X18" s="171"/>
+      <c r="Y18" s="172"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="148"/>
-      <c r="B19" s="134" t="s">
+      <c r="A19" s="213"/>
+      <c r="B19" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="82"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="196"/>
+      <c r="N19" s="196"/>
+      <c r="O19" s="196"/>
+      <c r="P19" s="196"/>
+      <c r="Q19" s="196"/>
+      <c r="R19" s="196"/>
+      <c r="S19" s="196"/>
+      <c r="T19" s="196"/>
+      <c r="U19" s="196"/>
+      <c r="V19" s="196"/>
+      <c r="W19" s="196"/>
+      <c r="X19" s="196"/>
+      <c r="Y19" s="197"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="148"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="142"/>
-      <c r="U20" s="142"/>
-      <c r="V20" s="142"/>
-      <c r="W20" s="142"/>
-      <c r="X20" s="142"/>
-      <c r="Y20" s="143"/>
+      <c r="A20" s="213"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="134"/>
+      <c r="X20" s="134"/>
+      <c r="Y20" s="135"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="148"/>
-      <c r="B21" s="135"/>
+      <c r="A21" s="213"/>
+      <c r="B21" s="186"/>
       <c r="C21" s="173" t="s">
         <v>18</v>
       </c>
@@ -3828,48 +3828,48 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="139" t="s">
+      <c r="L21" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="183"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="184"/>
-      <c r="P21" s="184"/>
+      <c r="M21" s="188"/>
+      <c r="N21" s="189"/>
+      <c r="O21" s="189"/>
+      <c r="P21" s="189"/>
       <c r="Q21" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="R21" s="9"/>
+      <c r="S21" s="223" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" s="224"/>
+      <c r="U21" s="224"/>
+      <c r="V21" s="224"/>
+      <c r="W21" s="224"/>
+      <c r="X21" s="224"/>
+      <c r="Y21" s="225"/>
+    </row>
+    <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="179"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="174" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="174"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="216"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="176"/>
+      <c r="O22" s="176"/>
+      <c r="P22" s="176"/>
+      <c r="Q22" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="105"/>
-    </row>
-    <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="149"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="138"/>
-      <c r="Q22" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="R22" s="12"/>
       <c r="S22" s="27"/>
@@ -3887,133 +3887,133 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="161" t="s">
+      <c r="A23" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88" t="s">
+      <c r="C23" s="239"/>
+      <c r="D23" s="240"/>
+      <c r="E23" s="255" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="239"/>
+      <c r="G23" s="239"/>
+      <c r="H23" s="239"/>
+      <c r="I23" s="239"/>
+      <c r="J23" s="239"/>
+      <c r="K23" s="239"/>
+      <c r="L23" s="239"/>
+      <c r="M23" s="239"/>
+      <c r="N23" s="239"/>
+      <c r="O23" s="239"/>
+      <c r="P23" s="239"/>
+      <c r="Q23" s="239"/>
+      <c r="R23" s="239"/>
+      <c r="S23" s="239"/>
+      <c r="T23" s="239"/>
+      <c r="U23" s="239"/>
+      <c r="V23" s="239"/>
+      <c r="W23" s="239"/>
+      <c r="X23" s="239"/>
+      <c r="Y23" s="256"/>
+    </row>
+    <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="213"/>
+      <c r="B24" s="238" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="239"/>
+      <c r="D24" s="240"/>
+      <c r="E24" s="218" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="89"/>
-    </row>
-    <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="148"/>
-      <c r="B24" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="94" t="s">
+      <c r="F24" s="218"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="91" t="s">
+      <c r="P24" s="103"/>
+      <c r="Q24" s="257"/>
+      <c r="R24" s="257"/>
+      <c r="S24" s="258" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="92"/>
-      <c r="U24" s="83" t="s">
+      <c r="T24" s="259"/>
+      <c r="U24" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="84"/>
+      <c r="V24" s="253"/>
+      <c r="W24" s="253"/>
+      <c r="X24" s="253"/>
+      <c r="Y24" s="254"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="148"/>
-      <c r="B25" s="85" t="s">
+      <c r="A25" s="213"/>
+      <c r="B25" s="238" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="96" t="s">
+      <c r="C25" s="239"/>
+      <c r="D25" s="240"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="196"/>
+      <c r="P25" s="196"/>
+      <c r="Q25" s="196"/>
+      <c r="R25" s="196"/>
+      <c r="S25" s="196"/>
+      <c r="T25" s="197"/>
+      <c r="U25" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="98"/>
+      <c r="V25" s="171"/>
+      <c r="W25" s="171"/>
+      <c r="X25" s="171"/>
+      <c r="Y25" s="172"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="148"/>
-      <c r="B26" s="85" t="s">
+      <c r="A26" s="213"/>
+      <c r="B26" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="240"/>
+      <c r="E26" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
       <c r="O26" s="31"/>
       <c r="P26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="R26" s="99"/>
+      <c r="Q26" s="241" t="s">
+        <v>146</v>
+      </c>
+      <c r="R26" s="241"/>
       <c r="S26" s="33" t="s">
         <v>13</v>
       </c>
@@ -4021,91 +4021,91 @@
       <c r="U26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
+      <c r="V26" s="241"/>
+      <c r="W26" s="241"/>
       <c r="X26" s="33" t="s">
         <v>13</v>
       </c>
       <c r="Y26" s="23"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="148"/>
-      <c r="B27" s="85" t="s">
+      <c r="A27" s="213"/>
+      <c r="B27" s="238" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="101" t="s">
+      <c r="C27" s="239"/>
+      <c r="D27" s="240"/>
+      <c r="E27" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="99"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="112"/>
+      <c r="M27" s="241"/>
+      <c r="N27" s="245"/>
+      <c r="O27" s="249"/>
+      <c r="P27" s="241"/>
+      <c r="Q27" s="250"/>
       <c r="R27" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="103" t="s">
+      <c r="S27" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="105"/>
+      <c r="T27" s="224"/>
+      <c r="U27" s="224"/>
+      <c r="V27" s="224"/>
+      <c r="W27" s="224"/>
+      <c r="X27" s="224"/>
+      <c r="Y27" s="225"/>
       <c r="Z27" s="36"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="148"/>
-      <c r="B28" s="107" t="s">
+      <c r="A28" s="213"/>
+      <c r="B28" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="246"/>
+      <c r="E28" s="247" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="248"/>
+      <c r="G28" s="248"/>
+      <c r="H28" s="248"/>
+      <c r="I28" s="248"/>
+      <c r="J28" s="248"/>
+      <c r="K28" s="248"/>
+      <c r="L28" s="248"/>
+      <c r="M28" s="248"/>
+      <c r="N28" s="248"/>
+      <c r="O28" s="248"/>
+      <c r="P28" s="248"/>
+      <c r="Q28" s="248"/>
       <c r="R28" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="113" t="s">
-        <v>160</v>
-      </c>
-      <c r="T28" s="114"/>
+      <c r="S28" s="251" t="s">
+        <v>159</v>
+      </c>
+      <c r="T28" s="252"/>
       <c r="U28" s="29" t="s">
         <v>28</v>
       </c>
       <c r="V28" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W28" s="29" t="s">
         <v>20</v>
       </c>
       <c r="X28" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y28" s="30" t="s">
         <v>29</v>
@@ -4113,119 +4113,119 @@
       <c r="Z28" s="36"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="148"/>
-      <c r="B29" s="134" t="s">
+      <c r="A29" s="213"/>
+      <c r="B29" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="81"/>
-      <c r="W29" s="81"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="82"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="196"/>
+      <c r="L29" s="196"/>
+      <c r="M29" s="196"/>
+      <c r="N29" s="196"/>
+      <c r="O29" s="196"/>
+      <c r="P29" s="196"/>
+      <c r="Q29" s="196"/>
+      <c r="R29" s="196"/>
+      <c r="S29" s="196"/>
+      <c r="T29" s="196"/>
+      <c r="U29" s="196"/>
+      <c r="V29" s="196"/>
+      <c r="W29" s="196"/>
+      <c r="X29" s="196"/>
+      <c r="Y29" s="197"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="148"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="142"/>
-      <c r="R30" s="142"/>
-      <c r="S30" s="142"/>
-      <c r="T30" s="142"/>
-      <c r="U30" s="142"/>
-      <c r="V30" s="142"/>
-      <c r="W30" s="142"/>
-      <c r="X30" s="142"/>
-      <c r="Y30" s="143"/>
+      <c r="A30" s="213"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="134"/>
+      <c r="X30" s="134"/>
+      <c r="Y30" s="135"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="148"/>
-      <c r="B31" s="135"/>
+      <c r="A31" s="213"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="173" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="173"/>
-      <c r="E31" s="191" t="s">
+      <c r="E31" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="192"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="139" t="s">
+      <c r="F31" s="199"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="183"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="159"/>
-      <c r="R31" s="160"/>
-      <c r="S31" s="103" t="s">
+      <c r="M31" s="188"/>
+      <c r="N31" s="189"/>
+      <c r="O31" s="189"/>
+      <c r="P31" s="189"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="105"/>
+      <c r="T31" s="224"/>
+      <c r="U31" s="224"/>
+      <c r="V31" s="224"/>
+      <c r="W31" s="224"/>
+      <c r="X31" s="224"/>
+      <c r="Y31" s="225"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="149"/>
-      <c r="B32" s="136"/>
-      <c r="C32" s="106" t="s">
+      <c r="A32" s="179"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="106"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="199"/>
-      <c r="G32" s="199"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="200"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="137"/>
-      <c r="N32" s="138"/>
-      <c r="O32" s="138"/>
-      <c r="P32" s="138"/>
-      <c r="Q32" s="158" t="s">
-        <v>157</v>
-      </c>
-      <c r="R32" s="153"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="216"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="176"/>
+      <c r="O32" s="176"/>
+      <c r="P32" s="176"/>
+      <c r="Q32" s="207" t="s">
+        <v>156</v>
+      </c>
+      <c r="R32" s="202"/>
       <c r="S32" s="27"/>
       <c r="T32" s="28"/>
       <c r="U32" s="29" t="s">
@@ -4241,330 +4241,330 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="174" t="s">
+      <c r="A33" s="177" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="38"/>
-      <c r="D33" s="176" t="s">
+      <c r="D33" s="180" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="178"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="182"/>
       <c r="J33" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="185" t="s">
+      <c r="K33" s="190" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="40" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="38"/>
-      <c r="N33" s="222" t="s">
+      <c r="N33" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="O33" s="223"/>
-      <c r="P33" s="223"/>
-      <c r="Q33" s="223"/>
-      <c r="R33" s="223"/>
-      <c r="S33" s="223"/>
-      <c r="T33" s="223"/>
-      <c r="U33" s="196" t="s">
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="164"/>
+      <c r="S33" s="164"/>
+      <c r="T33" s="164"/>
+      <c r="U33" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="V33" s="197"/>
-      <c r="W33" s="197"/>
-      <c r="X33" s="197"/>
+      <c r="V33" s="129"/>
+      <c r="W33" s="129"/>
+      <c r="X33" s="129"/>
       <c r="Y33" s="41" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="36"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="175"/>
+      <c r="A34" s="178"/>
       <c r="B34" s="42" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="43"/>
-      <c r="D34" s="179" t="s">
+      <c r="D34" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="180"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
       <c r="J34" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="186"/>
+      <c r="K34" s="191"/>
       <c r="L34" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="43"/>
-      <c r="N34" s="209" t="s">
+      <c r="N34" s="150" t="s">
         <v>99</v>
       </c>
-      <c r="O34" s="210"/>
-      <c r="P34" s="210"/>
-      <c r="Q34" s="210"/>
-      <c r="R34" s="210"/>
-      <c r="S34" s="210"/>
-      <c r="T34" s="210"/>
-      <c r="U34" s="193" t="s">
+      <c r="O34" s="151"/>
+      <c r="P34" s="151"/>
+      <c r="Q34" s="151"/>
+      <c r="R34" s="151"/>
+      <c r="S34" s="151"/>
+      <c r="T34" s="151"/>
+      <c r="U34" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="V34" s="194"/>
-      <c r="W34" s="194"/>
-      <c r="X34" s="194"/>
+      <c r="V34" s="127"/>
+      <c r="W34" s="127"/>
+      <c r="X34" s="127"/>
       <c r="Y34" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="175"/>
+      <c r="A35" s="178"/>
       <c r="B35" s="42" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="43"/>
-      <c r="D35" s="179" t="s">
+      <c r="D35" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
       <c r="J35" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="186"/>
+      <c r="K35" s="191"/>
       <c r="L35" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="43"/>
-      <c r="N35" s="209" t="s">
+      <c r="N35" s="150" t="s">
         <v>101</v>
       </c>
-      <c r="O35" s="210"/>
-      <c r="P35" s="210"/>
-      <c r="Q35" s="210"/>
-      <c r="R35" s="210"/>
-      <c r="S35" s="210"/>
-      <c r="T35" s="210"/>
-      <c r="U35" s="193" t="s">
+      <c r="O35" s="151"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="151"/>
+      <c r="R35" s="151"/>
+      <c r="S35" s="151"/>
+      <c r="T35" s="151"/>
+      <c r="U35" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="V35" s="194"/>
-      <c r="W35" s="194"/>
-      <c r="X35" s="194"/>
+      <c r="V35" s="127"/>
+      <c r="W35" s="127"/>
+      <c r="X35" s="127"/>
       <c r="Y35" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="175"/>
+      <c r="A36" s="178"/>
       <c r="B36" s="42" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="47"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="180"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
       <c r="J36" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="187"/>
+      <c r="K36" s="192"/>
       <c r="L36" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M36" s="47"/>
-      <c r="N36" s="209" t="s">
+      <c r="N36" s="150" t="s">
         <v>103</v>
       </c>
-      <c r="O36" s="210"/>
-      <c r="P36" s="210"/>
-      <c r="Q36" s="210"/>
-      <c r="R36" s="210"/>
-      <c r="S36" s="210"/>
-      <c r="T36" s="210"/>
-      <c r="U36" s="193" t="s">
+      <c r="O36" s="151"/>
+      <c r="P36" s="151"/>
+      <c r="Q36" s="151"/>
+      <c r="R36" s="151"/>
+      <c r="S36" s="151"/>
+      <c r="T36" s="151"/>
+      <c r="U36" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="V36" s="194"/>
-      <c r="W36" s="194"/>
-      <c r="X36" s="194"/>
+      <c r="V36" s="127"/>
+      <c r="W36" s="127"/>
+      <c r="X36" s="127"/>
       <c r="Y36" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="175"/>
+      <c r="A37" s="178"/>
       <c r="B37" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C37" s="47"/>
-      <c r="D37" s="179" t="s">
+      <c r="D37" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
       <c r="J37" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="187"/>
+      <c r="K37" s="192"/>
       <c r="L37" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M37" s="47"/>
-      <c r="N37" s="209" t="s">
+      <c r="N37" s="150" t="s">
         <v>105</v>
       </c>
-      <c r="O37" s="210"/>
-      <c r="P37" s="210"/>
-      <c r="Q37" s="210"/>
-      <c r="R37" s="210"/>
-      <c r="S37" s="210"/>
-      <c r="T37" s="210"/>
-      <c r="U37" s="193" t="s">
+      <c r="O37" s="151"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="151"/>
+      <c r="R37" s="151"/>
+      <c r="S37" s="151"/>
+      <c r="T37" s="151"/>
+      <c r="U37" s="149" t="s">
         <v>104</v>
       </c>
-      <c r="V37" s="194"/>
-      <c r="W37" s="194"/>
-      <c r="X37" s="194"/>
+      <c r="V37" s="127"/>
+      <c r="W37" s="127"/>
+      <c r="X37" s="127"/>
       <c r="Y37" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="175"/>
-      <c r="B38" s="201" t="s">
+      <c r="A38" s="178"/>
+      <c r="B38" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="202"/>
-      <c r="D38" s="211" t="s">
+      <c r="C38" s="140"/>
+      <c r="D38" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="212"/>
-      <c r="F38" s="212"/>
-      <c r="G38" s="212"/>
-      <c r="H38" s="212"/>
-      <c r="I38" s="212"/>
-      <c r="J38" s="217" t="s">
+      <c r="E38" s="153"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="187"/>
+      <c r="K38" s="192"/>
       <c r="L38" s="45" t="s">
         <v>83</v>
       </c>
       <c r="M38" s="43"/>
-      <c r="N38" s="209" t="s">
+      <c r="N38" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="O38" s="210"/>
-      <c r="P38" s="210"/>
-      <c r="Q38" s="210"/>
-      <c r="R38" s="210"/>
-      <c r="S38" s="210"/>
-      <c r="T38" s="210"/>
-      <c r="U38" s="193" t="s">
+      <c r="O38" s="151"/>
+      <c r="P38" s="151"/>
+      <c r="Q38" s="151"/>
+      <c r="R38" s="151"/>
+      <c r="S38" s="151"/>
+      <c r="T38" s="151"/>
+      <c r="U38" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="V38" s="194"/>
-      <c r="W38" s="194"/>
-      <c r="X38" s="194"/>
+      <c r="V38" s="127"/>
+      <c r="W38" s="127"/>
+      <c r="X38" s="127"/>
       <c r="Y38" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="175"/>
-      <c r="B39" s="203"/>
-      <c r="C39" s="204"/>
-      <c r="D39" s="213"/>
-      <c r="E39" s="214"/>
-      <c r="F39" s="214"/>
-      <c r="G39" s="214"/>
-      <c r="H39" s="214"/>
-      <c r="I39" s="214"/>
-      <c r="J39" s="218"/>
-      <c r="K39" s="188"/>
+      <c r="A39" s="178"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="159"/>
+      <c r="K39" s="193"/>
       <c r="L39" s="49" t="s">
         <v>84</v>
       </c>
       <c r="M39" s="50"/>
-      <c r="N39" s="207" t="s">
+      <c r="N39" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="O39" s="208"/>
-      <c r="P39" s="208"/>
-      <c r="Q39" s="208"/>
-      <c r="R39" s="208"/>
-      <c r="S39" s="208"/>
-      <c r="T39" s="208"/>
-      <c r="U39" s="220" t="s">
+      <c r="O39" s="148"/>
+      <c r="P39" s="148"/>
+      <c r="Q39" s="148"/>
+      <c r="R39" s="148"/>
+      <c r="S39" s="148"/>
+      <c r="T39" s="148"/>
+      <c r="U39" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="V39" s="221"/>
-      <c r="W39" s="221"/>
-      <c r="X39" s="221"/>
+      <c r="V39" s="162"/>
+      <c r="W39" s="162"/>
+      <c r="X39" s="162"/>
       <c r="Y39" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="149"/>
-      <c r="B40" s="205"/>
-      <c r="C40" s="206"/>
-      <c r="D40" s="215"/>
-      <c r="E40" s="216"/>
-      <c r="F40" s="216"/>
-      <c r="G40" s="216"/>
-      <c r="H40" s="216"/>
-      <c r="I40" s="216"/>
-      <c r="J40" s="219"/>
-      <c r="K40" s="181" t="s">
+      <c r="A40" s="179"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="160"/>
+      <c r="K40" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="L40" s="80"/>
-      <c r="M40" s="182"/>
-      <c r="N40" s="189" t="s">
+      <c r="L40" s="92"/>
+      <c r="M40" s="184"/>
+      <c r="N40" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="O40" s="125"/>
-      <c r="P40" s="125"/>
+      <c r="O40" s="131"/>
+      <c r="P40" s="131"/>
       <c r="Q40" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="R40" s="190" t="s">
+      <c r="R40" s="194" t="s">
         <v>73</v>
       </c>
-      <c r="S40" s="80"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="80"/>
-      <c r="V40" s="189" t="s">
-        <v>163</v>
-      </c>
-      <c r="W40" s="125"/>
-      <c r="X40" s="125"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="92"/>
+      <c r="V40" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="W40" s="131"/>
+      <c r="X40" s="131"/>
       <c r="Y40" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="161" t="s">
+      <c r="A41" s="208" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="52" t="s">
@@ -4575,14 +4575,14 @@
         <v>56</v>
       </c>
       <c r="E41" s="55"/>
-      <c r="F41" s="229"/>
-      <c r="G41" s="230"/>
-      <c r="H41" s="230"/>
-      <c r="I41" s="230"/>
-      <c r="J41" s="195" t="s">
-        <v>159</v>
-      </c>
-      <c r="K41" s="195"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="K41" s="112"/>
       <c r="L41" s="56" t="s">
         <v>70</v>
       </c>
@@ -4598,16 +4598,16 @@
       <c r="R41" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="233"/>
-      <c r="T41" s="234"/>
-      <c r="U41" s="234"/>
-      <c r="V41" s="234"/>
-      <c r="W41" s="234"/>
-      <c r="X41" s="234"/>
-      <c r="Y41" s="235"/>
+      <c r="S41" s="120"/>
+      <c r="T41" s="121"/>
+      <c r="U41" s="121"/>
+      <c r="V41" s="121"/>
+      <c r="W41" s="121"/>
+      <c r="X41" s="121"/>
+      <c r="Y41" s="122"/>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="162"/>
+      <c r="A42" s="209"/>
       <c r="B42" s="60" t="s">
         <v>55</v>
       </c>
@@ -4616,14 +4616,14 @@
         <v>57</v>
       </c>
       <c r="E42" s="63"/>
-      <c r="F42" s="231"/>
-      <c r="G42" s="232"/>
-      <c r="H42" s="232"/>
-      <c r="I42" s="232"/>
-      <c r="J42" s="170" t="s">
-        <v>159</v>
-      </c>
-      <c r="K42" s="170"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="K42" s="119"/>
       <c r="L42" s="64" t="s">
         <v>70</v>
       </c>
@@ -4639,16 +4639,16 @@
       <c r="R42" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S42" s="236"/>
-      <c r="T42" s="237"/>
-      <c r="U42" s="237"/>
-      <c r="V42" s="237"/>
-      <c r="W42" s="237"/>
-      <c r="X42" s="237"/>
-      <c r="Y42" s="238"/>
+      <c r="S42" s="123"/>
+      <c r="T42" s="124"/>
+      <c r="U42" s="124"/>
+      <c r="V42" s="124"/>
+      <c r="W42" s="124"/>
+      <c r="X42" s="124"/>
+      <c r="Y42" s="125"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="162"/>
+      <c r="A43" s="209"/>
       <c r="B43" s="52" t="s">
         <v>59</v>
       </c>
@@ -4657,35 +4657,35 @@
         <v>60</v>
       </c>
       <c r="E43" s="55"/>
-      <c r="F43" s="195" t="s">
+      <c r="F43" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="195"/>
-      <c r="H43" s="195"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="227"/>
-      <c r="K43" s="227"/>
-      <c r="L43" s="228"/>
-      <c r="M43" s="240" t="s">
+      <c r="G43" s="112"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="N43" s="197"/>
-      <c r="O43" s="197"/>
-      <c r="P43" s="197"/>
-      <c r="Q43" s="195" t="s">
-        <v>159</v>
-      </c>
-      <c r="R43" s="195"/>
-      <c r="S43" s="233"/>
-      <c r="T43" s="234"/>
-      <c r="U43" s="234"/>
-      <c r="V43" s="234"/>
-      <c r="W43" s="234"/>
-      <c r="X43" s="234"/>
-      <c r="Y43" s="235"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="129"/>
+      <c r="P43" s="129"/>
+      <c r="Q43" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="R43" s="112"/>
+      <c r="S43" s="120"/>
+      <c r="T43" s="121"/>
+      <c r="U43" s="121"/>
+      <c r="V43" s="121"/>
+      <c r="W43" s="121"/>
+      <c r="X43" s="121"/>
+      <c r="Y43" s="122"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="162"/>
+      <c r="A44" s="209"/>
       <c r="B44" s="60" t="s">
         <v>55</v>
       </c>
@@ -4694,221 +4694,366 @@
         <v>60</v>
       </c>
       <c r="E44" s="63"/>
-      <c r="F44" s="170" t="s">
+      <c r="F44" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="171"/>
-      <c r="K44" s="171"/>
-      <c r="L44" s="172"/>
-      <c r="M44" s="239" t="s">
+      <c r="G44" s="119"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="168"/>
+      <c r="K44" s="168"/>
+      <c r="L44" s="169"/>
+      <c r="M44" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="N44" s="194"/>
-      <c r="O44" s="194"/>
-      <c r="P44" s="194"/>
-      <c r="Q44" s="170" t="s">
-        <v>159</v>
-      </c>
-      <c r="R44" s="170"/>
-      <c r="S44" s="236"/>
-      <c r="T44" s="237"/>
-      <c r="U44" s="237"/>
-      <c r="V44" s="237"/>
-      <c r="W44" s="237"/>
-      <c r="X44" s="237"/>
-      <c r="Y44" s="238"/>
+      <c r="N44" s="127"/>
+      <c r="O44" s="127"/>
+      <c r="P44" s="127"/>
+      <c r="Q44" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="R44" s="119"/>
+      <c r="S44" s="123"/>
+      <c r="T44" s="124"/>
+      <c r="U44" s="124"/>
+      <c r="V44" s="124"/>
+      <c r="W44" s="124"/>
+      <c r="X44" s="124"/>
+      <c r="Y44" s="125"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="79" t="s">
+      <c r="C45" s="92"/>
+      <c r="D45" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="101" t="s">
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="126"/>
-      <c r="N45" s="79" t="s">
+      <c r="M45" s="99"/>
+      <c r="N45" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="80"/>
-      <c r="R45" s="80"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="80"/>
-      <c r="U45" s="80"/>
-      <c r="V45" s="80"/>
-      <c r="W45" s="80"/>
-      <c r="X45" s="80"/>
-      <c r="Y45" s="100"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="92"/>
+      <c r="U45" s="92"/>
+      <c r="V45" s="92"/>
+      <c r="W45" s="92"/>
+      <c r="X45" s="92"/>
+      <c r="Y45" s="94"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="164"/>
-      <c r="B46" s="107" t="s">
+      <c r="A46" s="211"/>
+      <c r="B46" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="79" t="s">
+      <c r="C46" s="92"/>
+      <c r="D46" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="101" t="s">
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="126"/>
-      <c r="N46" s="79" t="s">
+      <c r="M46" s="99"/>
+      <c r="N46" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
-      <c r="Q46" s="80"/>
-      <c r="R46" s="80"/>
-      <c r="S46" s="80"/>
-      <c r="T46" s="80"/>
-      <c r="U46" s="80"/>
-      <c r="V46" s="80"/>
-      <c r="W46" s="80"/>
-      <c r="X46" s="80"/>
-      <c r="Y46" s="100"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="92"/>
+      <c r="U46" s="92"/>
+      <c r="V46" s="92"/>
+      <c r="W46" s="92"/>
+      <c r="X46" s="92"/>
+      <c r="Y46" s="94"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="165"/>
-      <c r="B47" s="107" t="s">
+      <c r="A47" s="212"/>
+      <c r="B47" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="80"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="101" t="s">
+      <c r="C47" s="92"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="126"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="80"/>
-      <c r="R47" s="80"/>
-      <c r="S47" s="80"/>
-      <c r="T47" s="80"/>
-      <c r="U47" s="80"/>
-      <c r="V47" s="80"/>
-      <c r="W47" s="80"/>
-      <c r="X47" s="80"/>
-      <c r="Y47" s="100"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="92"/>
+      <c r="T47" s="92"/>
+      <c r="U47" s="92"/>
+      <c r="V47" s="92"/>
+      <c r="W47" s="92"/>
+      <c r="X47" s="92"/>
+      <c r="Y47" s="94"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="224" t="s">
+      <c r="A48" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="225"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="226"/>
-      <c r="E48" s="226"/>
-      <c r="F48" s="226"/>
-      <c r="G48" s="226"/>
-      <c r="H48" s="226"/>
-      <c r="I48" s="226"/>
-      <c r="J48" s="226"/>
-      <c r="K48" s="226"/>
-      <c r="L48" s="226"/>
-      <c r="M48" s="226"/>
-      <c r="N48" s="226"/>
-      <c r="O48" s="226"/>
-      <c r="P48" s="226"/>
-      <c r="Q48" s="226"/>
-      <c r="R48" s="226"/>
-      <c r="S48" s="226"/>
-      <c r="T48" s="226"/>
-      <c r="U48" s="226"/>
-      <c r="V48" s="226"/>
-      <c r="W48" s="226"/>
-      <c r="X48" s="226"/>
-      <c r="Y48" s="160"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="110"/>
+      <c r="M48" s="110"/>
+      <c r="N48" s="110"/>
+      <c r="O48" s="110"/>
+      <c r="P48" s="110"/>
+      <c r="Q48" s="110"/>
+      <c r="R48" s="110"/>
+      <c r="S48" s="110"/>
+      <c r="T48" s="110"/>
+      <c r="U48" s="110"/>
+      <c r="V48" s="110"/>
+      <c r="W48" s="110"/>
+      <c r="X48" s="110"/>
+      <c r="Y48" s="111"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="167"/>
-      <c r="B49" s="168"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="168"/>
-      <c r="I49" s="168"/>
-      <c r="J49" s="168"/>
-      <c r="K49" s="168"/>
-      <c r="L49" s="168"/>
-      <c r="M49" s="168"/>
-      <c r="N49" s="168"/>
-      <c r="O49" s="168"/>
-      <c r="P49" s="168"/>
-      <c r="Q49" s="168"/>
-      <c r="R49" s="168"/>
-      <c r="S49" s="168"/>
-      <c r="T49" s="168"/>
-      <c r="U49" s="168"/>
-      <c r="V49" s="168"/>
-      <c r="W49" s="168"/>
-      <c r="X49" s="168"/>
-      <c r="Y49" s="169"/>
+      <c r="A49" s="165"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="166"/>
+      <c r="F49" s="166"/>
+      <c r="G49" s="166"/>
+      <c r="H49" s="166"/>
+      <c r="I49" s="166"/>
+      <c r="J49" s="166"/>
+      <c r="K49" s="166"/>
+      <c r="L49" s="166"/>
+      <c r="M49" s="166"/>
+      <c r="N49" s="166"/>
+      <c r="O49" s="166"/>
+      <c r="P49" s="166"/>
+      <c r="Q49" s="166"/>
+      <c r="R49" s="166"/>
+      <c r="S49" s="166"/>
+      <c r="T49" s="166"/>
+      <c r="U49" s="166"/>
+      <c r="V49" s="166"/>
+      <c r="W49" s="166"/>
+      <c r="X49" s="166"/>
+      <c r="Y49" s="167"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="151"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="152"/>
-      <c r="F50" s="152"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="152"/>
-      <c r="K50" s="152"/>
-      <c r="L50" s="152"/>
-      <c r="M50" s="152"/>
-      <c r="N50" s="152"/>
-      <c r="O50" s="152"/>
-      <c r="P50" s="152"/>
-      <c r="Q50" s="152"/>
-      <c r="R50" s="152"/>
-      <c r="S50" s="152"/>
-      <c r="T50" s="152"/>
-      <c r="U50" s="152"/>
-      <c r="V50" s="152"/>
-      <c r="W50" s="152"/>
-      <c r="X50" s="152"/>
-      <c r="Y50" s="153"/>
+      <c r="A50" s="200"/>
+      <c r="B50" s="201"/>
+      <c r="C50" s="201"/>
+      <c r="D50" s="201"/>
+      <c r="E50" s="201"/>
+      <c r="F50" s="201"/>
+      <c r="G50" s="201"/>
+      <c r="H50" s="201"/>
+      <c r="I50" s="201"/>
+      <c r="J50" s="201"/>
+      <c r="K50" s="201"/>
+      <c r="L50" s="201"/>
+      <c r="M50" s="201"/>
+      <c r="N50" s="201"/>
+      <c r="O50" s="201"/>
+      <c r="P50" s="201"/>
+      <c r="Q50" s="201"/>
+      <c r="R50" s="201"/>
+      <c r="S50" s="201"/>
+      <c r="T50" s="201"/>
+      <c r="U50" s="201"/>
+      <c r="V50" s="201"/>
+      <c r="W50" s="201"/>
+      <c r="X50" s="201"/>
+      <c r="Y50" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="169">
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E23:Y23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="N8:Y8"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A15:Y15"/>
+    <mergeCell ref="C19:Y19"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E16:Y16"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:Y14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="C20:Y20"/>
+    <mergeCell ref="A50:Y50"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:Y45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:Y46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:Y47"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="A49:Y49"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="K33:K39"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="C29:Y29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="C30:Y30"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="B38:C40"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="N39:T39"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="N38:T38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="D38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="N36:T36"/>
+    <mergeCell ref="N37:T37"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:Y48"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="S41:Y41"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="S43:Y43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="S44:Y44"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:L2"/>
     <mergeCell ref="R1:T1"/>
@@ -4933,151 +5078,6 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="L4:N5"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:Y48"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="S41:Y41"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="S43:Y43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="S44:Y44"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="C30:Y30"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="B38:C40"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="N39:T39"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="N38:T38"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="D38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N35:T35"/>
-    <mergeCell ref="N36:T36"/>
-    <mergeCell ref="N37:T37"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="A49:Y49"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="K33:K39"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="R40:U40"/>
-    <mergeCell ref="C29:Y29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="A50:Y50"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:Y45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:Y46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:Y47"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A15:Y15"/>
-    <mergeCell ref="C19:Y19"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E16:Y16"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:Y14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="C20:Y20"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="N8:Y8"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E23:Y23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="U25:Y25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
@@ -5109,60 +5109,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="241" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="R1" s="245" t="s">
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="R1" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="246"/>
-      <c r="T1" s="246"/>
-      <c r="U1" s="247" t="s">
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="248"/>
-      <c r="W1" s="248"/>
-      <c r="X1" s="248"/>
-      <c r="Y1" s="249"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="87"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="243"/>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="R2" s="245" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="R2" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="246"/>
-      <c r="T2" s="246"/>
-      <c r="U2" s="250" t="s">
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="V2" s="251"/>
-      <c r="W2" s="251"/>
-      <c r="X2" s="251"/>
-      <c r="Y2" s="252"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="90"/>
     </row>
     <row r="3" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -5192,26 +5192,26 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="255"/>
-      <c r="D4" s="115" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="94" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="231" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="233"/>
+      <c r="L4" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="256"/>
-      <c r="N4" s="95"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="103"/>
       <c r="O4" s="7" t="s">
         <v>77</v>
       </c>
@@ -5233,24 +5233,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="253" t="s">
+      <c r="A5" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="254"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="115" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="231" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="258"/>
-      <c r="N5" s="259"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
+      <c r="G5" s="232"/>
+      <c r="H5" s="232"/>
+      <c r="I5" s="232"/>
+      <c r="J5" s="232"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="106"/>
       <c r="O5" s="10" t="s">
         <v>71</v>
       </c>
@@ -5261,10 +5261,10 @@
       <c r="R5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="154" t="s">
+      <c r="S5" s="203" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="155"/>
+      <c r="T5" s="204"/>
       <c r="U5" s="11" t="s">
         <v>71</v>
       </c>
@@ -5282,325 +5282,325 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="101" t="s">
+      <c r="C6" s="92"/>
+      <c r="D6" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="126"/>
-      <c r="N6" s="79" t="s">
+      <c r="M6" s="99"/>
+      <c r="N6" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="100"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="94"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="127"/>
-      <c r="B7" s="107" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="101" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="100"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="94"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="127"/>
-      <c r="B8" s="107" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="126"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="100"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="94"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="127"/>
-      <c r="B9" s="156" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="101" t="s">
+      <c r="C9" s="206"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="126"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="100"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="94"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="79" t="s">
+      <c r="C10" s="92"/>
+      <c r="D10" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101" t="s">
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="126"/>
-      <c r="N10" s="79" t="s">
+      <c r="M10" s="99"/>
+      <c r="N10" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="100"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="94"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="127"/>
-      <c r="B11" s="107" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="101" t="s">
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="126"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="100"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="94"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="127"/>
-      <c r="B12" s="107" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101" t="s">
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="126"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="100"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="94"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="127"/>
-      <c r="B13" s="156" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="157"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101" t="s">
+      <c r="C13" s="206"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="126"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="100"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="94"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="81" t="s">
+      <c r="B14" s="229"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="229"/>
+      <c r="G14" s="196" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="82"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="196"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="196"/>
+      <c r="N14" s="196"/>
+      <c r="O14" s="196"/>
+      <c r="P14" s="196"/>
+      <c r="Q14" s="196"/>
+      <c r="R14" s="196"/>
+      <c r="S14" s="196"/>
+      <c r="T14" s="196"/>
+      <c r="U14" s="196"/>
+      <c r="V14" s="196"/>
+      <c r="W14" s="196"/>
+      <c r="X14" s="196"/>
+      <c r="Y14" s="197"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="128"/>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="142"/>
-      <c r="U15" s="142"/>
-      <c r="V15" s="142"/>
-      <c r="W15" s="142"/>
-      <c r="X15" s="142"/>
-      <c r="Y15" s="143"/>
+      <c r="A15" s="217"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="135"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="147" t="s">
+      <c r="A16" s="230" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -5608,90 +5608,90 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="144" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="145"/>
+      <c r="E16" s="227" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="227"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="227"/>
+      <c r="J16" s="227"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="227"/>
+      <c r="M16" s="227"/>
+      <c r="N16" s="227"/>
+      <c r="O16" s="227"/>
+      <c r="P16" s="227"/>
+      <c r="Q16" s="227"/>
+      <c r="R16" s="227"/>
+      <c r="S16" s="227"/>
+      <c r="T16" s="227"/>
+      <c r="U16" s="227"/>
+      <c r="V16" s="227"/>
+      <c r="W16" s="227"/>
+      <c r="X16" s="227"/>
+      <c r="Y16" s="228"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="260"/>
-      <c r="B17" s="119" t="s">
+      <c r="A17" s="275"/>
+      <c r="B17" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="121"/>
+      <c r="C17" s="236"/>
+      <c r="D17" s="237"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="99" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
+      <c r="F17" s="241" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="123" t="s">
+      <c r="J17" s="242"/>
+      <c r="K17" s="242"/>
+      <c r="L17" s="242"/>
+      <c r="M17" s="243" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="125" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
+      <c r="N17" s="244"/>
+      <c r="O17" s="244"/>
+      <c r="P17" s="131" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="131" t="s">
+      <c r="U17" s="220" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="133"/>
+      <c r="V17" s="221"/>
+      <c r="W17" s="221"/>
+      <c r="X17" s="221"/>
+      <c r="Y17" s="222"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="260"/>
-      <c r="B18" s="85" t="s">
+      <c r="A18" s="275"/>
+      <c r="B18" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="118" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
+      <c r="G18" s="234" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="234"/>
+      <c r="I18" s="234"/>
+      <c r="J18" s="234"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -5700,81 +5700,81 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
+      <c r="O18" s="234"/>
+      <c r="P18" s="234"/>
+      <c r="Q18" s="234"/>
+      <c r="R18" s="234"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="23"/>
-      <c r="U18" s="96" t="s">
-        <v>143</v>
-      </c>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="98"/>
+      <c r="U18" s="170" t="s">
+        <v>142</v>
+      </c>
+      <c r="V18" s="171"/>
+      <c r="W18" s="171"/>
+      <c r="X18" s="171"/>
+      <c r="Y18" s="172"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="260"/>
-      <c r="B19" s="134" t="s">
+      <c r="A19" s="275"/>
+      <c r="B19" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="82"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="196"/>
+      <c r="N19" s="196"/>
+      <c r="O19" s="196"/>
+      <c r="P19" s="196"/>
+      <c r="Q19" s="196"/>
+      <c r="R19" s="196"/>
+      <c r="S19" s="196"/>
+      <c r="T19" s="196"/>
+      <c r="U19" s="196"/>
+      <c r="V19" s="196"/>
+      <c r="W19" s="196"/>
+      <c r="X19" s="196"/>
+      <c r="Y19" s="197"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="260"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="142"/>
-      <c r="U20" s="142"/>
-      <c r="V20" s="142"/>
-      <c r="W20" s="142"/>
-      <c r="X20" s="142"/>
-      <c r="Y20" s="143"/>
+      <c r="A20" s="275"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="134"/>
+      <c r="X20" s="134"/>
+      <c r="Y20" s="135"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="260"/>
-      <c r="B21" s="135"/>
+      <c r="A21" s="275"/>
+      <c r="B21" s="186"/>
       <c r="C21" s="173" t="s">
         <v>18</v>
       </c>
@@ -5788,48 +5788,48 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="139" t="s">
+      <c r="L21" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="183"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="184"/>
-      <c r="P21" s="184"/>
+      <c r="M21" s="188"/>
+      <c r="N21" s="189"/>
+      <c r="O21" s="189"/>
+      <c r="P21" s="189"/>
       <c r="Q21" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="R21" s="9"/>
+      <c r="S21" s="223" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" s="224"/>
+      <c r="U21" s="224"/>
+      <c r="V21" s="224"/>
+      <c r="W21" s="224"/>
+      <c r="X21" s="224"/>
+      <c r="Y21" s="225"/>
+    </row>
+    <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="276"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="174" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="174"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="216"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="176"/>
+      <c r="O22" s="176"/>
+      <c r="P22" s="176"/>
+      <c r="Q22" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="105"/>
-    </row>
-    <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="261"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="138"/>
-      <c r="Q22" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="R22" s="12"/>
       <c r="S22" s="27"/>
@@ -5847,133 +5847,133 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="161" t="s">
+      <c r="A23" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88" t="s">
+      <c r="C23" s="239"/>
+      <c r="D23" s="240"/>
+      <c r="E23" s="255" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="239"/>
+      <c r="G23" s="239"/>
+      <c r="H23" s="239"/>
+      <c r="I23" s="239"/>
+      <c r="J23" s="239"/>
+      <c r="K23" s="239"/>
+      <c r="L23" s="239"/>
+      <c r="M23" s="239"/>
+      <c r="N23" s="239"/>
+      <c r="O23" s="239"/>
+      <c r="P23" s="239"/>
+      <c r="Q23" s="239"/>
+      <c r="R23" s="239"/>
+      <c r="S23" s="239"/>
+      <c r="T23" s="239"/>
+      <c r="U23" s="239"/>
+      <c r="V23" s="239"/>
+      <c r="W23" s="239"/>
+      <c r="X23" s="239"/>
+      <c r="Y23" s="256"/>
+    </row>
+    <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="213"/>
+      <c r="B24" s="238" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="239"/>
+      <c r="D24" s="240"/>
+      <c r="E24" s="218" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="89"/>
-    </row>
-    <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="148"/>
-      <c r="B24" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="94" t="s">
+      <c r="F24" s="218"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="91" t="s">
+      <c r="P24" s="103"/>
+      <c r="Q24" s="257"/>
+      <c r="R24" s="257"/>
+      <c r="S24" s="258" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="92"/>
-      <c r="U24" s="83" t="s">
+      <c r="T24" s="259"/>
+      <c r="U24" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="84"/>
+      <c r="V24" s="253"/>
+      <c r="W24" s="253"/>
+      <c r="X24" s="253"/>
+      <c r="Y24" s="254"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="148"/>
-      <c r="B25" s="85" t="s">
+      <c r="A25" s="213"/>
+      <c r="B25" s="238" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="96" t="s">
+      <c r="C25" s="239"/>
+      <c r="D25" s="240"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="196"/>
+      <c r="P25" s="196"/>
+      <c r="Q25" s="196"/>
+      <c r="R25" s="196"/>
+      <c r="S25" s="196"/>
+      <c r="T25" s="197"/>
+      <c r="U25" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="98"/>
+      <c r="V25" s="171"/>
+      <c r="W25" s="171"/>
+      <c r="X25" s="171"/>
+      <c r="Y25" s="172"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="148"/>
-      <c r="B26" s="85" t="s">
+      <c r="A26" s="213"/>
+      <c r="B26" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="240"/>
+      <c r="E26" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
       <c r="O26" s="31"/>
       <c r="P26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="R26" s="99"/>
+      <c r="Q26" s="241" t="s">
+        <v>146</v>
+      </c>
+      <c r="R26" s="241"/>
       <c r="S26" s="33" t="s">
         <v>13</v>
       </c>
@@ -5981,91 +5981,91 @@
       <c r="U26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
+      <c r="V26" s="241"/>
+      <c r="W26" s="241"/>
       <c r="X26" s="33" t="s">
         <v>13</v>
       </c>
       <c r="Y26" s="23"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="148"/>
-      <c r="B27" s="85" t="s">
+      <c r="A27" s="213"/>
+      <c r="B27" s="238" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="101" t="s">
+      <c r="C27" s="239"/>
+      <c r="D27" s="240"/>
+      <c r="E27" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="99"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="112"/>
+      <c r="M27" s="241"/>
+      <c r="N27" s="245"/>
+      <c r="O27" s="249"/>
+      <c r="P27" s="241"/>
+      <c r="Q27" s="250"/>
       <c r="R27" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="103" t="s">
+      <c r="S27" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="105"/>
+      <c r="T27" s="224"/>
+      <c r="U27" s="224"/>
+      <c r="V27" s="224"/>
+      <c r="W27" s="224"/>
+      <c r="X27" s="224"/>
+      <c r="Y27" s="225"/>
       <c r="Z27" s="36"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="148"/>
-      <c r="B28" s="107" t="s">
+      <c r="A28" s="213"/>
+      <c r="B28" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="246"/>
+      <c r="E28" s="247" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="248"/>
+      <c r="G28" s="248"/>
+      <c r="H28" s="248"/>
+      <c r="I28" s="248"/>
+      <c r="J28" s="248"/>
+      <c r="K28" s="248"/>
+      <c r="L28" s="248"/>
+      <c r="M28" s="248"/>
+      <c r="N28" s="248"/>
+      <c r="O28" s="248"/>
+      <c r="P28" s="248"/>
+      <c r="Q28" s="248"/>
       <c r="R28" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="113" t="s">
-        <v>160</v>
-      </c>
-      <c r="T28" s="114"/>
+      <c r="S28" s="251" t="s">
+        <v>159</v>
+      </c>
+      <c r="T28" s="252"/>
       <c r="U28" s="29" t="s">
         <v>28</v>
       </c>
       <c r="V28" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W28" s="29" t="s">
         <v>20</v>
       </c>
       <c r="X28" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y28" s="30" t="s">
         <v>29</v>
@@ -6073,119 +6073,119 @@
       <c r="Z28" s="36"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="148"/>
-      <c r="B29" s="134" t="s">
+      <c r="A29" s="213"/>
+      <c r="B29" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="81"/>
-      <c r="W29" s="81"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="82"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="196"/>
+      <c r="L29" s="196"/>
+      <c r="M29" s="196"/>
+      <c r="N29" s="196"/>
+      <c r="O29" s="196"/>
+      <c r="P29" s="196"/>
+      <c r="Q29" s="196"/>
+      <c r="R29" s="196"/>
+      <c r="S29" s="196"/>
+      <c r="T29" s="196"/>
+      <c r="U29" s="196"/>
+      <c r="V29" s="196"/>
+      <c r="W29" s="196"/>
+      <c r="X29" s="196"/>
+      <c r="Y29" s="197"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="148"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="142"/>
-      <c r="R30" s="142"/>
-      <c r="S30" s="142"/>
-      <c r="T30" s="142"/>
-      <c r="U30" s="142"/>
-      <c r="V30" s="142"/>
-      <c r="W30" s="142"/>
-      <c r="X30" s="142"/>
-      <c r="Y30" s="143"/>
+      <c r="A30" s="213"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="134"/>
+      <c r="X30" s="134"/>
+      <c r="Y30" s="135"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="148"/>
-      <c r="B31" s="135"/>
+      <c r="A31" s="213"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="173" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="173"/>
-      <c r="E31" s="191" t="s">
+      <c r="E31" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="192"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="139" t="s">
+      <c r="F31" s="199"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="183"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="159"/>
-      <c r="R31" s="160"/>
-      <c r="S31" s="103" t="s">
+      <c r="M31" s="188"/>
+      <c r="N31" s="189"/>
+      <c r="O31" s="189"/>
+      <c r="P31" s="189"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="105"/>
+      <c r="T31" s="224"/>
+      <c r="U31" s="224"/>
+      <c r="V31" s="224"/>
+      <c r="W31" s="224"/>
+      <c r="X31" s="224"/>
+      <c r="Y31" s="225"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="149"/>
-      <c r="B32" s="136"/>
-      <c r="C32" s="106" t="s">
+      <c r="A32" s="179"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="106"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="199"/>
-      <c r="G32" s="199"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="200"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="137"/>
-      <c r="N32" s="138"/>
-      <c r="O32" s="138"/>
-      <c r="P32" s="138"/>
-      <c r="Q32" s="158" t="s">
-        <v>157</v>
-      </c>
-      <c r="R32" s="153"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="216"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="176"/>
+      <c r="O32" s="176"/>
+      <c r="P32" s="176"/>
+      <c r="Q32" s="207" t="s">
+        <v>156</v>
+      </c>
+      <c r="R32" s="202"/>
       <c r="S32" s="27"/>
       <c r="T32" s="28"/>
       <c r="U32" s="29" t="s">
@@ -6201,260 +6201,260 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="174" t="s">
+      <c r="A33" s="177" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="38"/>
-      <c r="D33" s="176" t="s">
+      <c r="D33" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="178"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="182"/>
       <c r="J33" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="185" t="s">
+      <c r="K33" s="190" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="40" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="38"/>
-      <c r="N33" s="222" t="s">
+      <c r="N33" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="O33" s="223"/>
-      <c r="P33" s="223"/>
-      <c r="Q33" s="223"/>
-      <c r="R33" s="223"/>
-      <c r="S33" s="223"/>
-      <c r="T33" s="223"/>
-      <c r="U33" s="196" t="s">
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="164"/>
+      <c r="S33" s="164"/>
+      <c r="T33" s="164"/>
+      <c r="U33" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="V33" s="197"/>
-      <c r="W33" s="197"/>
-      <c r="X33" s="197"/>
+      <c r="V33" s="129"/>
+      <c r="W33" s="129"/>
+      <c r="X33" s="129"/>
       <c r="Y33" s="41" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="36"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="175"/>
+      <c r="A34" s="178"/>
       <c r="B34" s="42" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="43"/>
-      <c r="D34" s="179" t="s">
+      <c r="D34" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="180"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
       <c r="J34" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="186"/>
+      <c r="K34" s="191"/>
       <c r="L34" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="43"/>
-      <c r="N34" s="209" t="s">
+      <c r="N34" s="150" t="s">
         <v>126</v>
       </c>
-      <c r="O34" s="210"/>
-      <c r="P34" s="210"/>
-      <c r="Q34" s="210"/>
-      <c r="R34" s="210"/>
-      <c r="S34" s="210"/>
-      <c r="T34" s="210"/>
-      <c r="U34" s="193" t="s">
+      <c r="O34" s="151"/>
+      <c r="P34" s="151"/>
+      <c r="Q34" s="151"/>
+      <c r="R34" s="151"/>
+      <c r="S34" s="151"/>
+      <c r="T34" s="151"/>
+      <c r="U34" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="V34" s="194"/>
-      <c r="W34" s="194"/>
-      <c r="X34" s="194"/>
+      <c r="V34" s="127"/>
+      <c r="W34" s="127"/>
+      <c r="X34" s="127"/>
       <c r="Y34" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="175"/>
+      <c r="A35" s="178"/>
       <c r="B35" s="42" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="43"/>
-      <c r="D35" s="179" t="s">
+      <c r="D35" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
       <c r="J35" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="186"/>
+      <c r="K35" s="191"/>
       <c r="L35" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="43"/>
-      <c r="N35" s="209" t="s">
+      <c r="N35" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="O35" s="210"/>
-      <c r="P35" s="210"/>
-      <c r="Q35" s="210"/>
-      <c r="R35" s="210"/>
-      <c r="S35" s="210"/>
-      <c r="T35" s="210"/>
-      <c r="U35" s="193" t="s">
+      <c r="O35" s="151"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="151"/>
+      <c r="R35" s="151"/>
+      <c r="S35" s="151"/>
+      <c r="T35" s="151"/>
+      <c r="U35" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="V35" s="194"/>
-      <c r="W35" s="194"/>
-      <c r="X35" s="194"/>
+      <c r="V35" s="127"/>
+      <c r="W35" s="127"/>
+      <c r="X35" s="127"/>
       <c r="Y35" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="175"/>
+      <c r="A36" s="178"/>
       <c r="B36" s="42" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="47"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="180"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
       <c r="J36" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="187"/>
+      <c r="K36" s="192"/>
       <c r="L36" s="68" t="s">
         <v>85</v>
       </c>
       <c r="M36" s="47"/>
-      <c r="N36" s="209" t="s">
+      <c r="N36" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="O36" s="210"/>
-      <c r="P36" s="210"/>
-      <c r="Q36" s="210"/>
-      <c r="R36" s="210"/>
-      <c r="S36" s="210"/>
-      <c r="T36" s="210"/>
-      <c r="U36" s="193" t="s">
+      <c r="O36" s="151"/>
+      <c r="P36" s="151"/>
+      <c r="Q36" s="151"/>
+      <c r="R36" s="151"/>
+      <c r="S36" s="151"/>
+      <c r="T36" s="151"/>
+      <c r="U36" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="V36" s="194"/>
-      <c r="W36" s="194"/>
-      <c r="X36" s="194"/>
+      <c r="V36" s="127"/>
+      <c r="W36" s="127"/>
+      <c r="X36" s="127"/>
       <c r="Y36" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="175"/>
+      <c r="A37" s="178"/>
       <c r="B37" s="69" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="47"/>
-      <c r="D37" s="179" t="s">
+      <c r="D37" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
       <c r="J37" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="188"/>
+      <c r="K37" s="193"/>
       <c r="L37" s="71" t="s">
         <v>84</v>
       </c>
       <c r="M37" s="72"/>
-      <c r="N37" s="209" t="s">
+      <c r="N37" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="O37" s="210"/>
-      <c r="P37" s="210"/>
-      <c r="Q37" s="210"/>
-      <c r="R37" s="210"/>
-      <c r="S37" s="210"/>
-      <c r="T37" s="210"/>
-      <c r="U37" s="220" t="s">
+      <c r="O37" s="151"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="151"/>
+      <c r="R37" s="151"/>
+      <c r="S37" s="151"/>
+      <c r="T37" s="151"/>
+      <c r="U37" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="V37" s="221"/>
-      <c r="W37" s="221"/>
-      <c r="X37" s="221"/>
+      <c r="V37" s="162"/>
+      <c r="W37" s="162"/>
+      <c r="X37" s="162"/>
       <c r="Y37" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="149"/>
-      <c r="B38" s="262" t="s">
+      <c r="A38" s="179"/>
+      <c r="B38" s="272" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="263"/>
-      <c r="D38" s="263"/>
-      <c r="E38" s="263"/>
-      <c r="F38" s="264" t="s">
+      <c r="C38" s="273"/>
+      <c r="D38" s="273"/>
+      <c r="E38" s="273"/>
+      <c r="F38" s="274" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="264"/>
-      <c r="H38" s="264"/>
-      <c r="I38" s="264"/>
+      <c r="G38" s="274"/>
+      <c r="H38" s="274"/>
+      <c r="I38" s="274"/>
       <c r="J38" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="181" t="s">
+      <c r="K38" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="L38" s="80"/>
-      <c r="M38" s="182"/>
-      <c r="N38" s="189" t="s">
+      <c r="L38" s="92"/>
+      <c r="M38" s="184"/>
+      <c r="N38" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="O38" s="125"/>
-      <c r="P38" s="125"/>
+      <c r="O38" s="131"/>
+      <c r="P38" s="131"/>
       <c r="Q38" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="R38" s="190" t="s">
+      <c r="R38" s="194" t="s">
         <v>73</v>
       </c>
-      <c r="S38" s="80"/>
-      <c r="T38" s="80"/>
-      <c r="U38" s="80"/>
-      <c r="V38" s="189" t="s">
-        <v>134</v>
-      </c>
-      <c r="W38" s="125"/>
-      <c r="X38" s="125"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="92"/>
+      <c r="V38" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="W38" s="131"/>
+      <c r="X38" s="131"/>
       <c r="Y38" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="208" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="52" t="s">
@@ -6465,14 +6465,14 @@
         <v>56</v>
       </c>
       <c r="E39" s="55"/>
-      <c r="F39" s="229"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="230"/>
-      <c r="I39" s="230"/>
-      <c r="J39" s="195" t="s">
-        <v>159</v>
-      </c>
-      <c r="K39" s="195"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="K39" s="112"/>
       <c r="L39" s="56" t="s">
         <v>70</v>
       </c>
@@ -6488,16 +6488,16 @@
       <c r="R39" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="S39" s="233"/>
-      <c r="T39" s="234"/>
-      <c r="U39" s="234"/>
-      <c r="V39" s="234"/>
-      <c r="W39" s="234"/>
-      <c r="X39" s="234"/>
-      <c r="Y39" s="235"/>
+      <c r="S39" s="120"/>
+      <c r="T39" s="121"/>
+      <c r="U39" s="121"/>
+      <c r="V39" s="121"/>
+      <c r="W39" s="121"/>
+      <c r="X39" s="121"/>
+      <c r="Y39" s="122"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="162"/>
+      <c r="A40" s="209"/>
       <c r="B40" s="60" t="s">
         <v>55</v>
       </c>
@@ -6506,14 +6506,14 @@
         <v>57</v>
       </c>
       <c r="E40" s="63"/>
-      <c r="F40" s="231"/>
-      <c r="G40" s="232"/>
-      <c r="H40" s="232"/>
-      <c r="I40" s="232"/>
-      <c r="J40" s="170" t="s">
-        <v>159</v>
-      </c>
-      <c r="K40" s="170"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="K40" s="119"/>
       <c r="L40" s="64" t="s">
         <v>70</v>
       </c>
@@ -6529,28 +6529,28 @@
       <c r="R40" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S40" s="236"/>
-      <c r="T40" s="237"/>
-      <c r="U40" s="237"/>
-      <c r="V40" s="237"/>
-      <c r="W40" s="237"/>
-      <c r="X40" s="237"/>
-      <c r="Y40" s="238"/>
+      <c r="S40" s="123"/>
+      <c r="T40" s="124"/>
+      <c r="U40" s="124"/>
+      <c r="V40" s="124"/>
+      <c r="W40" s="124"/>
+      <c r="X40" s="124"/>
+      <c r="Y40" s="125"/>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="162"/>
-      <c r="B41" s="266"/>
-      <c r="C41" s="267"/>
+      <c r="A41" s="209"/>
+      <c r="B41" s="260"/>
+      <c r="C41" s="261"/>
       <c r="D41" s="74"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="268"/>
-      <c r="G41" s="269"/>
-      <c r="H41" s="269"/>
-      <c r="I41" s="269"/>
-      <c r="J41" s="270" t="s">
-        <v>159</v>
-      </c>
-      <c r="K41" s="270"/>
+      <c r="F41" s="271"/>
+      <c r="G41" s="266"/>
+      <c r="H41" s="266"/>
+      <c r="I41" s="266"/>
+      <c r="J41" s="262" t="s">
+        <v>158</v>
+      </c>
+      <c r="K41" s="262"/>
       <c r="L41" s="76" t="s">
         <v>70</v>
       </c>
@@ -6566,16 +6566,16 @@
       <c r="R41" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="271"/>
-      <c r="T41" s="272"/>
-      <c r="U41" s="272"/>
-      <c r="V41" s="272"/>
-      <c r="W41" s="272"/>
-      <c r="X41" s="272"/>
-      <c r="Y41" s="273"/>
+      <c r="S41" s="267"/>
+      <c r="T41" s="268"/>
+      <c r="U41" s="268"/>
+      <c r="V41" s="268"/>
+      <c r="W41" s="268"/>
+      <c r="X41" s="268"/>
+      <c r="Y41" s="269"/>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="162"/>
+      <c r="A42" s="209"/>
       <c r="B42" s="52" t="s">
         <v>59</v>
       </c>
@@ -6584,35 +6584,35 @@
         <v>60</v>
       </c>
       <c r="E42" s="55"/>
-      <c r="F42" s="195" t="s">
+      <c r="F42" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="195"/>
-      <c r="H42" s="195"/>
-      <c r="I42" s="195"/>
-      <c r="J42" s="227"/>
-      <c r="K42" s="227"/>
-      <c r="L42" s="228"/>
-      <c r="M42" s="240" t="s">
-        <v>136</v>
-      </c>
-      <c r="N42" s="197"/>
-      <c r="O42" s="197"/>
-      <c r="P42" s="197"/>
-      <c r="Q42" s="195" t="s">
-        <v>159</v>
-      </c>
-      <c r="R42" s="195"/>
-      <c r="S42" s="233"/>
-      <c r="T42" s="234"/>
-      <c r="U42" s="234"/>
-      <c r="V42" s="234"/>
-      <c r="W42" s="234"/>
-      <c r="X42" s="234"/>
-      <c r="Y42" s="235"/>
+      <c r="N42" s="129"/>
+      <c r="O42" s="129"/>
+      <c r="P42" s="129"/>
+      <c r="Q42" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="R42" s="112"/>
+      <c r="S42" s="120"/>
+      <c r="T42" s="121"/>
+      <c r="U42" s="121"/>
+      <c r="V42" s="121"/>
+      <c r="W42" s="121"/>
+      <c r="X42" s="121"/>
+      <c r="Y42" s="122"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="162"/>
+      <c r="A43" s="209"/>
       <c r="B43" s="60" t="s">
         <v>55</v>
       </c>
@@ -6621,278 +6621,375 @@
         <v>60</v>
       </c>
       <c r="E43" s="63"/>
-      <c r="F43" s="170" t="s">
+      <c r="F43" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="168"/>
+      <c r="L43" s="169"/>
+      <c r="M43" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="G43" s="170"/>
-      <c r="H43" s="170"/>
-      <c r="I43" s="170"/>
-      <c r="J43" s="171"/>
-      <c r="K43" s="171"/>
-      <c r="L43" s="172"/>
-      <c r="M43" s="239" t="s">
-        <v>138</v>
-      </c>
-      <c r="N43" s="194"/>
-      <c r="O43" s="194"/>
-      <c r="P43" s="194"/>
-      <c r="Q43" s="170" t="s">
-        <v>159</v>
-      </c>
-      <c r="R43" s="170"/>
-      <c r="S43" s="236"/>
-      <c r="T43" s="237"/>
-      <c r="U43" s="237"/>
-      <c r="V43" s="237"/>
-      <c r="W43" s="237"/>
-      <c r="X43" s="237"/>
-      <c r="Y43" s="238"/>
+      <c r="N43" s="127"/>
+      <c r="O43" s="127"/>
+      <c r="P43" s="127"/>
+      <c r="Q43" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="R43" s="119"/>
+      <c r="S43" s="123"/>
+      <c r="T43" s="124"/>
+      <c r="U43" s="124"/>
+      <c r="V43" s="124"/>
+      <c r="W43" s="124"/>
+      <c r="X43" s="124"/>
+      <c r="Y43" s="125"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="265"/>
-      <c r="B44" s="266"/>
-      <c r="C44" s="267"/>
+      <c r="A44" s="270"/>
+      <c r="B44" s="260"/>
+      <c r="C44" s="261"/>
       <c r="D44" s="74" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="75"/>
-      <c r="F44" s="270"/>
-      <c r="G44" s="270"/>
-      <c r="H44" s="270"/>
-      <c r="I44" s="270"/>
-      <c r="J44" s="274"/>
-      <c r="K44" s="274"/>
-      <c r="L44" s="275"/>
-      <c r="M44" s="276"/>
-      <c r="N44" s="269"/>
-      <c r="O44" s="269"/>
-      <c r="P44" s="269"/>
-      <c r="Q44" s="270" t="s">
-        <v>159</v>
-      </c>
-      <c r="R44" s="270"/>
-      <c r="S44" s="271"/>
-      <c r="T44" s="272"/>
-      <c r="U44" s="272"/>
-      <c r="V44" s="272"/>
-      <c r="W44" s="272"/>
-      <c r="X44" s="272"/>
-      <c r="Y44" s="273"/>
+      <c r="F44" s="262"/>
+      <c r="G44" s="262"/>
+      <c r="H44" s="262"/>
+      <c r="I44" s="262"/>
+      <c r="J44" s="263"/>
+      <c r="K44" s="263"/>
+      <c r="L44" s="264"/>
+      <c r="M44" s="265"/>
+      <c r="N44" s="266"/>
+      <c r="O44" s="266"/>
+      <c r="P44" s="266"/>
+      <c r="Q44" s="262" t="s">
+        <v>158</v>
+      </c>
+      <c r="R44" s="262"/>
+      <c r="S44" s="267"/>
+      <c r="T44" s="268"/>
+      <c r="U44" s="268"/>
+      <c r="V44" s="268"/>
+      <c r="W44" s="268"/>
+      <c r="X44" s="268"/>
+      <c r="Y44" s="269"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="101" t="s">
+      <c r="C45" s="92"/>
+      <c r="D45" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="126"/>
-      <c r="N45" s="79" t="s">
+      <c r="M45" s="99"/>
+      <c r="N45" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="92"/>
+      <c r="U45" s="92"/>
+      <c r="V45" s="92"/>
+      <c r="W45" s="92"/>
+      <c r="X45" s="92"/>
+      <c r="Y45" s="94"/>
+    </row>
+    <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="211"/>
+      <c r="B46" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="92"/>
+      <c r="D46" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" s="99"/>
+      <c r="N46" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="80"/>
-      <c r="R45" s="80"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="80"/>
-      <c r="U45" s="80"/>
-      <c r="V45" s="80"/>
-      <c r="W45" s="80"/>
-      <c r="X45" s="80"/>
-      <c r="Y45" s="100"/>
-    </row>
-    <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="164"/>
-      <c r="B46" s="107" t="s">
+      <c r="O46" s="92"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="92"/>
+      <c r="U46" s="92"/>
+      <c r="V46" s="92"/>
+      <c r="W46" s="92"/>
+      <c r="X46" s="92"/>
+      <c r="Y46" s="94"/>
+    </row>
+    <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="212"/>
+      <c r="B47" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="101" t="s">
+      <c r="C47" s="92"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="126"/>
-      <c r="N46" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
-      <c r="Q46" s="80"/>
-      <c r="R46" s="80"/>
-      <c r="S46" s="80"/>
-      <c r="T46" s="80"/>
-      <c r="U46" s="80"/>
-      <c r="V46" s="80"/>
-      <c r="W46" s="80"/>
-      <c r="X46" s="80"/>
-      <c r="Y46" s="100"/>
-    </row>
-    <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="165"/>
-      <c r="B47" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="80"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="M47" s="126"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="80"/>
-      <c r="R47" s="80"/>
-      <c r="S47" s="80"/>
-      <c r="T47" s="80"/>
-      <c r="U47" s="80"/>
-      <c r="V47" s="80"/>
-      <c r="W47" s="80"/>
-      <c r="X47" s="80"/>
-      <c r="Y47" s="100"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="92"/>
+      <c r="T47" s="92"/>
+      <c r="U47" s="92"/>
+      <c r="V47" s="92"/>
+      <c r="W47" s="92"/>
+      <c r="X47" s="92"/>
+      <c r="Y47" s="94"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="224" t="s">
+      <c r="A48" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="225"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="226"/>
-      <c r="E48" s="226"/>
-      <c r="F48" s="226"/>
-      <c r="G48" s="226"/>
-      <c r="H48" s="226"/>
-      <c r="I48" s="226"/>
-      <c r="J48" s="226"/>
-      <c r="K48" s="226"/>
-      <c r="L48" s="226"/>
-      <c r="M48" s="226"/>
-      <c r="N48" s="226"/>
-      <c r="O48" s="226"/>
-      <c r="P48" s="226"/>
-      <c r="Q48" s="226"/>
-      <c r="R48" s="226"/>
-      <c r="S48" s="226"/>
-      <c r="T48" s="226"/>
-      <c r="U48" s="226"/>
-      <c r="V48" s="226"/>
-      <c r="W48" s="226"/>
-      <c r="X48" s="226"/>
-      <c r="Y48" s="160"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="110"/>
+      <c r="M48" s="110"/>
+      <c r="N48" s="110"/>
+      <c r="O48" s="110"/>
+      <c r="P48" s="110"/>
+      <c r="Q48" s="110"/>
+      <c r="R48" s="110"/>
+      <c r="S48" s="110"/>
+      <c r="T48" s="110"/>
+      <c r="U48" s="110"/>
+      <c r="V48" s="110"/>
+      <c r="W48" s="110"/>
+      <c r="X48" s="110"/>
+      <c r="Y48" s="111"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="167"/>
-      <c r="B49" s="168"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="168"/>
-      <c r="I49" s="168"/>
-      <c r="J49" s="168"/>
-      <c r="K49" s="168"/>
-      <c r="L49" s="168"/>
-      <c r="M49" s="168"/>
-      <c r="N49" s="168"/>
-      <c r="O49" s="168"/>
-      <c r="P49" s="168"/>
-      <c r="Q49" s="168"/>
-      <c r="R49" s="168"/>
-      <c r="S49" s="168"/>
-      <c r="T49" s="168"/>
-      <c r="U49" s="168"/>
-      <c r="V49" s="168"/>
-      <c r="W49" s="168"/>
-      <c r="X49" s="168"/>
-      <c r="Y49" s="169"/>
+      <c r="A49" s="165"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="166"/>
+      <c r="F49" s="166"/>
+      <c r="G49" s="166"/>
+      <c r="H49" s="166"/>
+      <c r="I49" s="166"/>
+      <c r="J49" s="166"/>
+      <c r="K49" s="166"/>
+      <c r="L49" s="166"/>
+      <c r="M49" s="166"/>
+      <c r="N49" s="166"/>
+      <c r="O49" s="166"/>
+      <c r="P49" s="166"/>
+      <c r="Q49" s="166"/>
+      <c r="R49" s="166"/>
+      <c r="S49" s="166"/>
+      <c r="T49" s="166"/>
+      <c r="U49" s="166"/>
+      <c r="V49" s="166"/>
+      <c r="W49" s="166"/>
+      <c r="X49" s="166"/>
+      <c r="Y49" s="167"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="151"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="152"/>
-      <c r="F50" s="152"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="152"/>
-      <c r="K50" s="152"/>
-      <c r="L50" s="152"/>
-      <c r="M50" s="152"/>
-      <c r="N50" s="152"/>
-      <c r="O50" s="152"/>
-      <c r="P50" s="152"/>
-      <c r="Q50" s="152"/>
-      <c r="R50" s="152"/>
-      <c r="S50" s="152"/>
-      <c r="T50" s="152"/>
-      <c r="U50" s="152"/>
-      <c r="V50" s="152"/>
-      <c r="W50" s="152"/>
-      <c r="X50" s="152"/>
-      <c r="Y50" s="153"/>
+      <c r="A50" s="200"/>
+      <c r="B50" s="201"/>
+      <c r="C50" s="201"/>
+      <c r="D50" s="201"/>
+      <c r="E50" s="201"/>
+      <c r="F50" s="201"/>
+      <c r="G50" s="201"/>
+      <c r="H50" s="201"/>
+      <c r="I50" s="201"/>
+      <c r="J50" s="201"/>
+      <c r="K50" s="201"/>
+      <c r="L50" s="201"/>
+      <c r="M50" s="201"/>
+      <c r="N50" s="201"/>
+      <c r="O50" s="201"/>
+      <c r="P50" s="201"/>
+      <c r="Q50" s="201"/>
+      <c r="R50" s="201"/>
+      <c r="S50" s="201"/>
+      <c r="T50" s="201"/>
+      <c r="U50" s="201"/>
+      <c r="V50" s="201"/>
+      <c r="W50" s="201"/>
+      <c r="X50" s="201"/>
+      <c r="Y50" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="A50:Y50"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:Y47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:Y48"/>
-    <mergeCell ref="A49:Y49"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:Y45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:Y46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:Y43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="N37:T37"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="N36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:Y12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:Y14"/>
+    <mergeCell ref="A15:Y15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Y8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:Y6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:Y7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:Y13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:Y10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:Y11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E16:Y16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:Y19"/>
+    <mergeCell ref="C20:Y20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:Y29"/>
+    <mergeCell ref="C30:Y30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:Y23"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="F39:I39"/>
     <mergeCell ref="J39:K39"/>
@@ -6917,129 +7014,32 @@
     <mergeCell ref="S42:Y42"/>
     <mergeCell ref="N38:P38"/>
     <mergeCell ref="R38:U38"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:Y29"/>
-    <mergeCell ref="C30:Y30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:Y23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E16:Y16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:Y19"/>
-    <mergeCell ref="C20:Y20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:Y13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:Y10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:Y11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:Y9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:Y6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:Y7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:Y8"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N35:T35"/>
-    <mergeCell ref="N37:T37"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="N36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:Y12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:Y14"/>
-    <mergeCell ref="A15:Y15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:Y43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="A50:Y50"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:Y47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:Y48"/>
+    <mergeCell ref="A49:Y49"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:Y45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:Y46"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">

--- a/template/取引成立台帳.xlsx
+++ b/template/取引成立台帳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4A7B16-B98A-48D6-B3CE-30C29EDB6753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E991A7-8984-4DF9-BB69-CBAF50D6F43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D08DF634-D05B-48EB-A5E5-3C43C6308EA5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="185">
   <si>
     <t>成立年月日</t>
     <rPh sb="0" eb="2">
@@ -1221,6 +1221,83 @@
   </si>
   <si>
     <t>$salesFixedBuildingTaxOnlyTax$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$salesRemark$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$remarks$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$l2_lenderBorrower$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$l2_leasedAreaTitle$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$l2_leasedArea$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$l2_sharers$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$l2_landRent$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$b2_roomNo$</t>
+  </si>
+  <si>
+    <t>$b2_roomNo$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$b2_borrowerName$</t>
+  </si>
+  <si>
+    <t>$b2_borrowerName$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$b2_rentPrice$</t>
+  </si>
+  <si>
+    <t>$b2_rentPrice$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$b2_expirationDate_wareki$</t>
+  </si>
+  <si>
+    <t>$b2_expirationDate_wareki$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$b2_expirationDate_YY$</t>
+  </si>
+  <si>
+    <t>$b2_expirationDate_YY$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$b2_expirationDate_MM$</t>
+  </si>
+  <si>
+    <t>$b2_expirationDate_MM$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$b2_expirationDate_DD$</t>
+  </si>
+  <si>
+    <t>$b2_expirationDate_DD$</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2219,6 +2296,492 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2256,18 +2819,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2276,24 +2827,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2303,464 +2839,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2768,9 +2863,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2779,39 +2889,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3141,60 +3218,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="241" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="241" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="R1" s="83" t="s">
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="R1" s="245" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="85" t="s">
+      <c r="S1" s="246"/>
+      <c r="T1" s="246"/>
+      <c r="U1" s="247" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="87"/>
+      <c r="V1" s="248"/>
+      <c r="W1" s="248"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="249"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="R2" s="83" t="s">
+      <c r="A2" s="243"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="R2" s="245" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="88" t="s">
+      <c r="S2" s="246"/>
+      <c r="T2" s="246"/>
+      <c r="U2" s="250" t="s">
         <v>87</v>
       </c>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="90"/>
+      <c r="V2" s="251"/>
+      <c r="W2" s="251"/>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="252"/>
     </row>
     <row r="3" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -3224,26 +3301,26 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="231" t="s">
+      <c r="B4" s="254"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="233"/>
-      <c r="L4" s="101" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="102"/>
-      <c r="N4" s="103"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="95"/>
       <c r="O4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3265,24 +3342,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="253" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="231" t="s">
+      <c r="B5" s="254"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="232"/>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="232"/>
-      <c r="I5" s="232"/>
-      <c r="J5" s="232"/>
-      <c r="K5" s="233"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="106"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="257"/>
+      <c r="M5" s="258"/>
+      <c r="N5" s="259"/>
       <c r="O5" s="10" t="s">
         <v>71</v>
       </c>
@@ -3293,10 +3370,10 @@
       <c r="R5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="203" t="s">
+      <c r="S5" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="204"/>
+      <c r="T5" s="155"/>
       <c r="U5" s="11" t="s">
         <v>71</v>
       </c>
@@ -3314,333 +3391,333 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="98" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="99"/>
-      <c r="N6" s="93" t="s">
+      <c r="M6" s="126"/>
+      <c r="N6" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="94"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="100"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="100"/>
-      <c r="B7" s="91" t="s">
+      <c r="A7" s="127"/>
+      <c r="B7" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="98" t="s">
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="99"/>
-      <c r="N7" s="93" t="s">
+      <c r="M7" s="126"/>
+      <c r="N7" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="94"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="100"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="100"/>
-      <c r="B8" s="91" t="s">
+      <c r="A8" s="127"/>
+      <c r="B8" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="98" t="s">
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="99"/>
-      <c r="N8" s="93" t="s">
+      <c r="M8" s="126"/>
+      <c r="N8" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="94"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="100"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="100"/>
-      <c r="B9" s="205" t="s">
+      <c r="A9" s="127"/>
+      <c r="B9" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="206"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="98" t="s">
+      <c r="C9" s="157"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="99"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="94"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="100"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93" t="s">
+      <c r="C10" s="80"/>
+      <c r="D10" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="98" t="s">
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="99"/>
-      <c r="N10" s="93" t="s">
+      <c r="M10" s="126"/>
+      <c r="N10" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="94"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="100"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="100"/>
-      <c r="B11" s="91" t="s">
+      <c r="A11" s="127"/>
+      <c r="B11" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="98" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="99"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="94"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="100"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="100"/>
-      <c r="B12" s="91" t="s">
+      <c r="A12" s="127"/>
+      <c r="B12" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="98" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="99"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="94"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="100"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="100"/>
-      <c r="B13" s="205" t="s">
+      <c r="A13" s="127"/>
+      <c r="B13" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="206"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="98" t="s">
+      <c r="C13" s="157"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="99"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="94"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="100"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="229"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="229"/>
-      <c r="G14" s="196" t="s">
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="196"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="196"/>
-      <c r="L14" s="196"/>
-      <c r="M14" s="196"/>
-      <c r="N14" s="196"/>
-      <c r="O14" s="196"/>
-      <c r="P14" s="196"/>
-      <c r="Q14" s="196"/>
-      <c r="R14" s="196"/>
-      <c r="S14" s="196"/>
-      <c r="T14" s="196"/>
-      <c r="U14" s="196"/>
-      <c r="V14" s="196"/>
-      <c r="W14" s="196"/>
-      <c r="X14" s="196"/>
-      <c r="Y14" s="197"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="82"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="217"/>
-      <c r="B15" s="218"/>
-      <c r="C15" s="218"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="218"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="218"/>
-      <c r="L15" s="218"/>
-      <c r="M15" s="218"/>
-      <c r="N15" s="218"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="218"/>
-      <c r="Q15" s="218"/>
-      <c r="R15" s="218"/>
-      <c r="S15" s="218"/>
-      <c r="T15" s="218"/>
-      <c r="U15" s="218"/>
-      <c r="V15" s="218"/>
-      <c r="W15" s="218"/>
-      <c r="X15" s="218"/>
-      <c r="Y15" s="219"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="129"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="230" t="s">
+      <c r="A16" s="147" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -3648,90 +3725,90 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="227" t="s">
+      <c r="E16" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="227"/>
-      <c r="N16" s="227"/>
-      <c r="O16" s="227"/>
-      <c r="P16" s="227"/>
-      <c r="Q16" s="227"/>
-      <c r="R16" s="227"/>
-      <c r="S16" s="227"/>
-      <c r="T16" s="227"/>
-      <c r="U16" s="227"/>
-      <c r="V16" s="227"/>
-      <c r="W16" s="227"/>
-      <c r="X16" s="227"/>
-      <c r="Y16" s="228"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="144"/>
+      <c r="R16" s="144"/>
+      <c r="S16" s="144"/>
+      <c r="T16" s="144"/>
+      <c r="U16" s="144"/>
+      <c r="V16" s="144"/>
+      <c r="W16" s="144"/>
+      <c r="X16" s="144"/>
+      <c r="Y16" s="145"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="213"/>
-      <c r="B17" s="235" t="s">
+      <c r="A17" s="148"/>
+      <c r="B17" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="236"/>
-      <c r="D17" s="237"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="241" t="s">
+      <c r="F17" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="241"/>
-      <c r="H17" s="241"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="242"/>
-      <c r="K17" s="242"/>
-      <c r="L17" s="242"/>
-      <c r="M17" s="243" t="s">
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="244"/>
-      <c r="O17" s="244"/>
-      <c r="P17" s="131" t="s">
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="220" t="s">
+      <c r="U17" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="221"/>
-      <c r="W17" s="221"/>
-      <c r="X17" s="221"/>
-      <c r="Y17" s="222"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="133"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="213"/>
-      <c r="B18" s="238" t="s">
+      <c r="A18" s="148"/>
+      <c r="B18" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="239"/>
-      <c r="D18" s="240"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="234" t="s">
+      <c r="G18" s="118" t="s">
         <v>143</v>
       </c>
-      <c r="H18" s="234"/>
-      <c r="I18" s="234"/>
-      <c r="J18" s="234"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -3740,134 +3817,142 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="234"/>
-      <c r="P18" s="234"/>
-      <c r="Q18" s="234"/>
-      <c r="R18" s="234"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="23"/>
-      <c r="U18" s="170" t="s">
+      <c r="U18" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="V18" s="171"/>
-      <c r="W18" s="171"/>
-      <c r="X18" s="171"/>
-      <c r="Y18" s="172"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="98"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="213"/>
-      <c r="B19" s="185" t="s">
+      <c r="A19" s="148"/>
+      <c r="B19" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="195"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="196"/>
-      <c r="L19" s="196"/>
-      <c r="M19" s="196"/>
-      <c r="N19" s="196"/>
-      <c r="O19" s="196"/>
-      <c r="P19" s="196"/>
-      <c r="Q19" s="196"/>
-      <c r="R19" s="196"/>
-      <c r="S19" s="196"/>
-      <c r="T19" s="196"/>
-      <c r="U19" s="196"/>
-      <c r="V19" s="196"/>
-      <c r="W19" s="196"/>
-      <c r="X19" s="196"/>
-      <c r="Y19" s="197"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="82"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="213"/>
-      <c r="B20" s="186"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="134"/>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="134"/>
-      <c r="S20" s="134"/>
-      <c r="T20" s="134"/>
-      <c r="U20" s="134"/>
-      <c r="V20" s="134"/>
-      <c r="W20" s="134"/>
-      <c r="X20" s="134"/>
-      <c r="Y20" s="135"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="142"/>
+      <c r="T20" s="142"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="142"/>
+      <c r="W20" s="142"/>
+      <c r="X20" s="142"/>
+      <c r="Y20" s="143"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="213"/>
-      <c r="B21" s="186"/>
+      <c r="A21" s="148"/>
+      <c r="B21" s="135"/>
       <c r="C21" s="173" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="173"/>
       <c r="E21" s="24" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="25" t="s">
+        <v>167</v>
+      </c>
       <c r="H21" s="16"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="215" t="s">
+      <c r="L21" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="188"/>
-      <c r="N21" s="189"/>
-      <c r="O21" s="189"/>
-      <c r="P21" s="189"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="184"/>
+      <c r="O21" s="184"/>
+      <c r="P21" s="184"/>
       <c r="Q21" s="8" t="s">
         <v>155</v>
       </c>
       <c r="R21" s="9"/>
-      <c r="S21" s="223" t="s">
+      <c r="S21" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="224"/>
-      <c r="U21" s="224"/>
-      <c r="V21" s="224"/>
-      <c r="W21" s="224"/>
-      <c r="X21" s="224"/>
-      <c r="Y21" s="225"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="105"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="179"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="174" t="s">
+      <c r="A22" s="149"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="226"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="216"/>
-      <c r="M22" s="175"/>
-      <c r="N22" s="176"/>
-      <c r="O22" s="176"/>
-      <c r="P22" s="176"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="141" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="138"/>
       <c r="Q22" s="5" t="s">
         <v>156</v>
       </c>
@@ -3887,133 +3972,133 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="208" t="s">
+      <c r="A23" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="238" t="s">
+      <c r="B23" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="239"/>
-      <c r="D23" s="240"/>
-      <c r="E23" s="255" t="s">
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="239"/>
-      <c r="G23" s="239"/>
-      <c r="H23" s="239"/>
-      <c r="I23" s="239"/>
-      <c r="J23" s="239"/>
-      <c r="K23" s="239"/>
-      <c r="L23" s="239"/>
-      <c r="M23" s="239"/>
-      <c r="N23" s="239"/>
-      <c r="O23" s="239"/>
-      <c r="P23" s="239"/>
-      <c r="Q23" s="239"/>
-      <c r="R23" s="239"/>
-      <c r="S23" s="239"/>
-      <c r="T23" s="239"/>
-      <c r="U23" s="239"/>
-      <c r="V23" s="239"/>
-      <c r="W23" s="239"/>
-      <c r="X23" s="239"/>
-      <c r="Y23" s="256"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="89"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="213"/>
-      <c r="B24" s="238" t="s">
+      <c r="A24" s="148"/>
+      <c r="B24" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="239"/>
-      <c r="D24" s="240"/>
-      <c r="E24" s="218" t="s">
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="218"/>
-      <c r="G24" s="218"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="218"/>
-      <c r="K24" s="218"/>
-      <c r="L24" s="218"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="101" t="s">
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="257"/>
-      <c r="R24" s="257"/>
-      <c r="S24" s="258" t="s">
+      <c r="P24" s="95"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="259"/>
-      <c r="U24" s="253" t="s">
+      <c r="T24" s="92"/>
+      <c r="U24" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="253"/>
-      <c r="W24" s="253"/>
-      <c r="X24" s="253"/>
-      <c r="Y24" s="254"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="213"/>
-      <c r="B25" s="238" t="s">
+      <c r="A25" s="148"/>
+      <c r="B25" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="239"/>
-      <c r="D25" s="240"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="196"/>
-      <c r="P25" s="196"/>
-      <c r="Q25" s="196"/>
-      <c r="R25" s="196"/>
-      <c r="S25" s="196"/>
-      <c r="T25" s="197"/>
-      <c r="U25" s="170" t="s">
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="V25" s="171"/>
-      <c r="W25" s="171"/>
-      <c r="X25" s="171"/>
-      <c r="Y25" s="172"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="98"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="213"/>
-      <c r="B26" s="238" t="s">
+      <c r="A26" s="148"/>
+      <c r="B26" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="239"/>
-      <c r="D26" s="240"/>
-      <c r="E26" s="93" t="s">
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
       <c r="O26" s="31"/>
       <c r="P26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="241" t="s">
+      <c r="Q26" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="R26" s="241"/>
+      <c r="R26" s="99"/>
       <c r="S26" s="33" t="s">
         <v>13</v>
       </c>
@@ -4021,80 +4106,80 @@
       <c r="U26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="241"/>
-      <c r="W26" s="241"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
       <c r="X26" s="33" t="s">
         <v>13</v>
       </c>
       <c r="Y26" s="23"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="213"/>
-      <c r="B27" s="238" t="s">
+      <c r="A27" s="148"/>
+      <c r="B27" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="239"/>
-      <c r="D27" s="240"/>
-      <c r="E27" s="93" t="s">
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="98" t="s">
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="241"/>
-      <c r="N27" s="245"/>
-      <c r="O27" s="249"/>
-      <c r="P27" s="241"/>
-      <c r="Q27" s="250"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="112"/>
       <c r="R27" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="223" t="s">
+      <c r="S27" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="224"/>
-      <c r="U27" s="224"/>
-      <c r="V27" s="224"/>
-      <c r="W27" s="224"/>
-      <c r="X27" s="224"/>
-      <c r="Y27" s="225"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="105"/>
       <c r="Z27" s="36"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="213"/>
-      <c r="B28" s="91" t="s">
+      <c r="A28" s="148"/>
+      <c r="B28" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="246"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="247" t="s">
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="248"/>
-      <c r="G28" s="248"/>
-      <c r="H28" s="248"/>
-      <c r="I28" s="248"/>
-      <c r="J28" s="248"/>
-      <c r="K28" s="248"/>
-      <c r="L28" s="248"/>
-      <c r="M28" s="248"/>
-      <c r="N28" s="248"/>
-      <c r="O28" s="248"/>
-      <c r="P28" s="248"/>
-      <c r="Q28" s="248"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
       <c r="R28" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="251" t="s">
+      <c r="S28" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="T28" s="252"/>
+      <c r="T28" s="114"/>
       <c r="U28" s="29" t="s">
         <v>28</v>
       </c>
@@ -4113,458 +4198,472 @@
       <c r="Z28" s="36"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="213"/>
-      <c r="B29" s="185" t="s">
+      <c r="A29" s="148"/>
+      <c r="B29" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="196"/>
-      <c r="L29" s="196"/>
-      <c r="M29" s="196"/>
-      <c r="N29" s="196"/>
-      <c r="O29" s="196"/>
-      <c r="P29" s="196"/>
-      <c r="Q29" s="196"/>
-      <c r="R29" s="196"/>
-      <c r="S29" s="196"/>
-      <c r="T29" s="196"/>
-      <c r="U29" s="196"/>
-      <c r="V29" s="196"/>
-      <c r="W29" s="196"/>
-      <c r="X29" s="196"/>
-      <c r="Y29" s="197"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="81"/>
+      <c r="W29" s="81"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="82"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="213"/>
-      <c r="B30" s="186"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="134"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="134"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="134"/>
-      <c r="V30" s="134"/>
-      <c r="W30" s="134"/>
-      <c r="X30" s="134"/>
-      <c r="Y30" s="135"/>
+      <c r="A30" s="148"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="142"/>
+      <c r="R30" s="142"/>
+      <c r="S30" s="142"/>
+      <c r="T30" s="142"/>
+      <c r="U30" s="142"/>
+      <c r="V30" s="142"/>
+      <c r="W30" s="142"/>
+      <c r="X30" s="142"/>
+      <c r="Y30" s="143"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="213"/>
-      <c r="B31" s="186"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="135"/>
       <c r="C31" s="173" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="173"/>
-      <c r="E31" s="198" t="s">
+      <c r="E31" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="199"/>
-      <c r="G31" s="214"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="196"/>
-      <c r="L31" s="215" t="s">
+      <c r="F31" s="192"/>
+      <c r="G31" s="166" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="188"/>
-      <c r="N31" s="189"/>
-      <c r="O31" s="189"/>
-      <c r="P31" s="189"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="223" t="s">
+      <c r="M31" s="183"/>
+      <c r="N31" s="184"/>
+      <c r="O31" s="184"/>
+      <c r="P31" s="184"/>
+      <c r="Q31" s="159"/>
+      <c r="R31" s="160"/>
+      <c r="S31" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="224"/>
-      <c r="U31" s="224"/>
-      <c r="V31" s="224"/>
-      <c r="W31" s="224"/>
-      <c r="X31" s="224"/>
-      <c r="Y31" s="225"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="105"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="179"/>
-      <c r="B32" s="187"/>
-      <c r="C32" s="174" t="s">
+      <c r="A32" s="149"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="174"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="216"/>
-      <c r="M32" s="175"/>
-      <c r="N32" s="176"/>
-      <c r="O32" s="176"/>
-      <c r="P32" s="176"/>
-      <c r="Q32" s="207" t="s">
+      <c r="D32" s="106"/>
+      <c r="E32" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="199"/>
+      <c r="G32" s="199"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="199"/>
+      <c r="K32" s="200"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="138"/>
+      <c r="Q32" s="158" t="s">
         <v>156</v>
       </c>
-      <c r="R32" s="202"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="28"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="T32" s="28" t="s">
+        <v>180</v>
+      </c>
       <c r="U32" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="V32" s="29"/>
+      <c r="V32" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="W32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X32" s="29"/>
+      <c r="X32" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="Y32" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="177" t="s">
+      <c r="A33" s="174" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="38"/>
-      <c r="D33" s="180" t="s">
+      <c r="D33" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="181"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="182"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="178"/>
       <c r="J33" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="190" t="s">
+      <c r="K33" s="185" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="40" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="38"/>
-      <c r="N33" s="163" t="s">
+      <c r="N33" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="O33" s="164"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="164"/>
-      <c r="R33" s="164"/>
-      <c r="S33" s="164"/>
-      <c r="T33" s="164"/>
-      <c r="U33" s="132" t="s">
+      <c r="O33" s="223"/>
+      <c r="P33" s="223"/>
+      <c r="Q33" s="223"/>
+      <c r="R33" s="223"/>
+      <c r="S33" s="223"/>
+      <c r="T33" s="223"/>
+      <c r="U33" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="V33" s="129"/>
-      <c r="W33" s="129"/>
-      <c r="X33" s="129"/>
+      <c r="V33" s="197"/>
+      <c r="W33" s="197"/>
+      <c r="X33" s="197"/>
       <c r="Y33" s="41" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="36"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="178"/>
+      <c r="A34" s="175"/>
       <c r="B34" s="42" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="43"/>
-      <c r="D34" s="145" t="s">
+      <c r="D34" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="180"/>
       <c r="J34" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="191"/>
+      <c r="K34" s="186"/>
       <c r="L34" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="43"/>
-      <c r="N34" s="150" t="s">
+      <c r="N34" s="209" t="s">
         <v>99</v>
       </c>
-      <c r="O34" s="151"/>
-      <c r="P34" s="151"/>
-      <c r="Q34" s="151"/>
-      <c r="R34" s="151"/>
-      <c r="S34" s="151"/>
-      <c r="T34" s="151"/>
-      <c r="U34" s="149" t="s">
+      <c r="O34" s="210"/>
+      <c r="P34" s="210"/>
+      <c r="Q34" s="210"/>
+      <c r="R34" s="210"/>
+      <c r="S34" s="210"/>
+      <c r="T34" s="210"/>
+      <c r="U34" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="V34" s="127"/>
-      <c r="W34" s="127"/>
-      <c r="X34" s="127"/>
+      <c r="V34" s="194"/>
+      <c r="W34" s="194"/>
+      <c r="X34" s="194"/>
       <c r="Y34" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="178"/>
+      <c r="A35" s="175"/>
       <c r="B35" s="42" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="43"/>
-      <c r="D35" s="145" t="s">
+      <c r="D35" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="180"/>
       <c r="J35" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="191"/>
+      <c r="K35" s="186"/>
       <c r="L35" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="43"/>
-      <c r="N35" s="150" t="s">
+      <c r="N35" s="209" t="s">
         <v>101</v>
       </c>
-      <c r="O35" s="151"/>
-      <c r="P35" s="151"/>
-      <c r="Q35" s="151"/>
-      <c r="R35" s="151"/>
-      <c r="S35" s="151"/>
-      <c r="T35" s="151"/>
-      <c r="U35" s="149" t="s">
+      <c r="O35" s="210"/>
+      <c r="P35" s="210"/>
+      <c r="Q35" s="210"/>
+      <c r="R35" s="210"/>
+      <c r="S35" s="210"/>
+      <c r="T35" s="210"/>
+      <c r="U35" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="V35" s="127"/>
-      <c r="W35" s="127"/>
-      <c r="X35" s="127"/>
+      <c r="V35" s="194"/>
+      <c r="W35" s="194"/>
+      <c r="X35" s="194"/>
       <c r="Y35" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="178"/>
+      <c r="A36" s="175"/>
       <c r="B36" s="42" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="47"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
+      <c r="H36" s="180"/>
+      <c r="I36" s="180"/>
       <c r="J36" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="192"/>
+      <c r="K36" s="187"/>
       <c r="L36" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M36" s="47"/>
-      <c r="N36" s="150" t="s">
+      <c r="N36" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="O36" s="151"/>
-      <c r="P36" s="151"/>
-      <c r="Q36" s="151"/>
-      <c r="R36" s="151"/>
-      <c r="S36" s="151"/>
-      <c r="T36" s="151"/>
-      <c r="U36" s="149" t="s">
+      <c r="O36" s="210"/>
+      <c r="P36" s="210"/>
+      <c r="Q36" s="210"/>
+      <c r="R36" s="210"/>
+      <c r="S36" s="210"/>
+      <c r="T36" s="210"/>
+      <c r="U36" s="193" t="s">
         <v>102</v>
       </c>
-      <c r="V36" s="127"/>
-      <c r="W36" s="127"/>
-      <c r="X36" s="127"/>
+      <c r="V36" s="194"/>
+      <c r="W36" s="194"/>
+      <c r="X36" s="194"/>
       <c r="Y36" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="178"/>
+      <c r="A37" s="175"/>
       <c r="B37" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C37" s="47"/>
-      <c r="D37" s="145" t="s">
+      <c r="D37" s="179" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="180"/>
       <c r="J37" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="192"/>
+      <c r="K37" s="187"/>
       <c r="L37" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M37" s="47"/>
-      <c r="N37" s="150" t="s">
+      <c r="N37" s="209" t="s">
         <v>105</v>
       </c>
-      <c r="O37" s="151"/>
-      <c r="P37" s="151"/>
-      <c r="Q37" s="151"/>
-      <c r="R37" s="151"/>
-      <c r="S37" s="151"/>
-      <c r="T37" s="151"/>
-      <c r="U37" s="149" t="s">
+      <c r="O37" s="210"/>
+      <c r="P37" s="210"/>
+      <c r="Q37" s="210"/>
+      <c r="R37" s="210"/>
+      <c r="S37" s="210"/>
+      <c r="T37" s="210"/>
+      <c r="U37" s="193" t="s">
         <v>104</v>
       </c>
-      <c r="V37" s="127"/>
-      <c r="W37" s="127"/>
-      <c r="X37" s="127"/>
+      <c r="V37" s="194"/>
+      <c r="W37" s="194"/>
+      <c r="X37" s="194"/>
       <c r="Y37" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="178"/>
-      <c r="B38" s="139" t="s">
+      <c r="A38" s="175"/>
+      <c r="B38" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="140"/>
-      <c r="D38" s="152" t="s">
+      <c r="C38" s="202"/>
+      <c r="D38" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="158" t="s">
+      <c r="E38" s="212"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="212"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="212"/>
+      <c r="J38" s="217" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="192"/>
+      <c r="K38" s="187"/>
       <c r="L38" s="45" t="s">
         <v>83</v>
       </c>
       <c r="M38" s="43"/>
-      <c r="N38" s="150" t="s">
+      <c r="N38" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="151"/>
-      <c r="S38" s="151"/>
-      <c r="T38" s="151"/>
-      <c r="U38" s="149" t="s">
+      <c r="O38" s="210"/>
+      <c r="P38" s="210"/>
+      <c r="Q38" s="210"/>
+      <c r="R38" s="210"/>
+      <c r="S38" s="210"/>
+      <c r="T38" s="210"/>
+      <c r="U38" s="193" t="s">
         <v>106</v>
       </c>
-      <c r="V38" s="127"/>
-      <c r="W38" s="127"/>
-      <c r="X38" s="127"/>
+      <c r="V38" s="194"/>
+      <c r="W38" s="194"/>
+      <c r="X38" s="194"/>
       <c r="Y38" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="178"/>
-      <c r="B39" s="141"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="159"/>
-      <c r="K39" s="193"/>
+      <c r="A39" s="175"/>
+      <c r="B39" s="203"/>
+      <c r="C39" s="204"/>
+      <c r="D39" s="213"/>
+      <c r="E39" s="214"/>
+      <c r="F39" s="214"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="214"/>
+      <c r="I39" s="214"/>
+      <c r="J39" s="218"/>
+      <c r="K39" s="188"/>
       <c r="L39" s="49" t="s">
         <v>84</v>
       </c>
       <c r="M39" s="50"/>
-      <c r="N39" s="147" t="s">
+      <c r="N39" s="207" t="s">
         <v>107</v>
       </c>
-      <c r="O39" s="148"/>
-      <c r="P39" s="148"/>
-      <c r="Q39" s="148"/>
-      <c r="R39" s="148"/>
-      <c r="S39" s="148"/>
-      <c r="T39" s="148"/>
-      <c r="U39" s="161" t="s">
+      <c r="O39" s="208"/>
+      <c r="P39" s="208"/>
+      <c r="Q39" s="208"/>
+      <c r="R39" s="208"/>
+      <c r="S39" s="208"/>
+      <c r="T39" s="208"/>
+      <c r="U39" s="220" t="s">
         <v>108</v>
       </c>
-      <c r="V39" s="162"/>
-      <c r="W39" s="162"/>
-      <c r="X39" s="162"/>
+      <c r="V39" s="221"/>
+      <c r="W39" s="221"/>
+      <c r="X39" s="221"/>
       <c r="Y39" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="179"/>
-      <c r="B40" s="143"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="160"/>
-      <c r="K40" s="183" t="s">
+      <c r="A40" s="149"/>
+      <c r="B40" s="205"/>
+      <c r="C40" s="206"/>
+      <c r="D40" s="215"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
+      <c r="H40" s="216"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="219"/>
+      <c r="K40" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="L40" s="92"/>
-      <c r="M40" s="184"/>
-      <c r="N40" s="130" t="s">
+      <c r="L40" s="80"/>
+      <c r="M40" s="182"/>
+      <c r="N40" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="O40" s="131"/>
-      <c r="P40" s="131"/>
+      <c r="O40" s="125"/>
+      <c r="P40" s="125"/>
       <c r="Q40" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="R40" s="194" t="s">
+      <c r="R40" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="92"/>
-      <c r="V40" s="130" t="s">
+      <c r="S40" s="80"/>
+      <c r="T40" s="80"/>
+      <c r="U40" s="80"/>
+      <c r="V40" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="W40" s="131"/>
-      <c r="X40" s="131"/>
+      <c r="W40" s="125"/>
+      <c r="X40" s="125"/>
       <c r="Y40" s="23" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="208" t="s">
+      <c r="A41" s="161" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="52" t="s">
@@ -4575,14 +4674,14 @@
         <v>56</v>
       </c>
       <c r="E41" s="55"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="112" t="s">
+      <c r="F41" s="229"/>
+      <c r="G41" s="230"/>
+      <c r="H41" s="230"/>
+      <c r="I41" s="230"/>
+      <c r="J41" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="K41" s="112"/>
+      <c r="K41" s="195"/>
       <c r="L41" s="56" t="s">
         <v>70</v>
       </c>
@@ -4598,16 +4697,16 @@
       <c r="R41" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="120"/>
-      <c r="T41" s="121"/>
-      <c r="U41" s="121"/>
-      <c r="V41" s="121"/>
-      <c r="W41" s="121"/>
-      <c r="X41" s="121"/>
-      <c r="Y41" s="122"/>
+      <c r="S41" s="233"/>
+      <c r="T41" s="234"/>
+      <c r="U41" s="234"/>
+      <c r="V41" s="234"/>
+      <c r="W41" s="234"/>
+      <c r="X41" s="234"/>
+      <c r="Y41" s="235"/>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="209"/>
+      <c r="A42" s="162"/>
       <c r="B42" s="60" t="s">
         <v>55</v>
       </c>
@@ -4616,14 +4715,14 @@
         <v>57</v>
       </c>
       <c r="E42" s="63"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="119" t="s">
+      <c r="F42" s="231"/>
+      <c r="G42" s="232"/>
+      <c r="H42" s="232"/>
+      <c r="I42" s="232"/>
+      <c r="J42" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="K42" s="119"/>
+      <c r="K42" s="170"/>
       <c r="L42" s="64" t="s">
         <v>70</v>
       </c>
@@ -4639,16 +4738,16 @@
       <c r="R42" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S42" s="123"/>
-      <c r="T42" s="124"/>
-      <c r="U42" s="124"/>
-      <c r="V42" s="124"/>
-      <c r="W42" s="124"/>
-      <c r="X42" s="124"/>
-      <c r="Y42" s="125"/>
+      <c r="S42" s="236"/>
+      <c r="T42" s="237"/>
+      <c r="U42" s="237"/>
+      <c r="V42" s="237"/>
+      <c r="W42" s="237"/>
+      <c r="X42" s="237"/>
+      <c r="Y42" s="238"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="209"/>
+      <c r="A43" s="162"/>
       <c r="B43" s="52" t="s">
         <v>59</v>
       </c>
@@ -4657,35 +4756,35 @@
         <v>60</v>
       </c>
       <c r="E43" s="55"/>
-      <c r="F43" s="112" t="s">
+      <c r="F43" s="195" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="128" t="s">
+      <c r="G43" s="195"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="227"/>
+      <c r="K43" s="227"/>
+      <c r="L43" s="228"/>
+      <c r="M43" s="240" t="s">
         <v>111</v>
       </c>
-      <c r="N43" s="129"/>
-      <c r="O43" s="129"/>
-      <c r="P43" s="129"/>
-      <c r="Q43" s="112" t="s">
+      <c r="N43" s="197"/>
+      <c r="O43" s="197"/>
+      <c r="P43" s="197"/>
+      <c r="Q43" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="R43" s="112"/>
-      <c r="S43" s="120"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="121"/>
-      <c r="V43" s="121"/>
-      <c r="W43" s="121"/>
-      <c r="X43" s="121"/>
-      <c r="Y43" s="122"/>
+      <c r="R43" s="195"/>
+      <c r="S43" s="233"/>
+      <c r="T43" s="234"/>
+      <c r="U43" s="234"/>
+      <c r="V43" s="234"/>
+      <c r="W43" s="234"/>
+      <c r="X43" s="234"/>
+      <c r="Y43" s="235"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="209"/>
+      <c r="A44" s="162"/>
       <c r="B44" s="60" t="s">
         <v>55</v>
       </c>
@@ -4694,285 +4793,304 @@
         <v>60</v>
       </c>
       <c r="E44" s="63"/>
-      <c r="F44" s="119" t="s">
+      <c r="F44" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="119"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="168"/>
-      <c r="L44" s="169"/>
-      <c r="M44" s="126" t="s">
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="171"/>
+      <c r="K44" s="171"/>
+      <c r="L44" s="172"/>
+      <c r="M44" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="N44" s="127"/>
-      <c r="O44" s="127"/>
-      <c r="P44" s="127"/>
-      <c r="Q44" s="119" t="s">
+      <c r="N44" s="194"/>
+      <c r="O44" s="194"/>
+      <c r="P44" s="194"/>
+      <c r="Q44" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="R44" s="119"/>
-      <c r="S44" s="123"/>
-      <c r="T44" s="124"/>
-      <c r="U44" s="124"/>
-      <c r="V44" s="124"/>
-      <c r="W44" s="124"/>
-      <c r="X44" s="124"/>
-      <c r="Y44" s="125"/>
+      <c r="R44" s="170"/>
+      <c r="S44" s="236"/>
+      <c r="T44" s="237"/>
+      <c r="U44" s="237"/>
+      <c r="V44" s="237"/>
+      <c r="W44" s="237"/>
+      <c r="X44" s="237"/>
+      <c r="Y44" s="238"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="210" t="s">
+      <c r="A45" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="93" t="s">
+      <c r="C45" s="80"/>
+      <c r="D45" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="98" t="s">
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="99"/>
-      <c r="N45" s="93" t="s">
+      <c r="M45" s="126"/>
+      <c r="N45" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="O45" s="92"/>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="92"/>
-      <c r="U45" s="92"/>
-      <c r="V45" s="92"/>
-      <c r="W45" s="92"/>
-      <c r="X45" s="92"/>
-      <c r="Y45" s="94"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="100"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="211"/>
-      <c r="B46" s="91" t="s">
+      <c r="A46" s="164"/>
+      <c r="B46" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="93" t="s">
+      <c r="C46" s="80"/>
+      <c r="D46" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="98" t="s">
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="99"/>
-      <c r="N46" s="93" t="s">
+      <c r="M46" s="126"/>
+      <c r="N46" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="O46" s="92"/>
-      <c r="P46" s="92"/>
-      <c r="Q46" s="92"/>
-      <c r="R46" s="92"/>
-      <c r="S46" s="92"/>
-      <c r="T46" s="92"/>
-      <c r="U46" s="92"/>
-      <c r="V46" s="92"/>
-      <c r="W46" s="92"/>
-      <c r="X46" s="92"/>
-      <c r="Y46" s="94"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
+      <c r="Q46" s="80"/>
+      <c r="R46" s="80"/>
+      <c r="S46" s="80"/>
+      <c r="T46" s="80"/>
+      <c r="U46" s="80"/>
+      <c r="V46" s="80"/>
+      <c r="W46" s="80"/>
+      <c r="X46" s="80"/>
+      <c r="Y46" s="100"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="212"/>
-      <c r="B47" s="91" t="s">
+      <c r="A47" s="165"/>
+      <c r="B47" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="92"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="98" t="s">
+      <c r="C47" s="80"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="99"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="92"/>
-      <c r="Q47" s="92"/>
-      <c r="R47" s="92"/>
-      <c r="S47" s="92"/>
-      <c r="T47" s="92"/>
-      <c r="U47" s="92"/>
-      <c r="V47" s="92"/>
-      <c r="W47" s="92"/>
-      <c r="X47" s="92"/>
-      <c r="Y47" s="94"/>
+      <c r="M47" s="126"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="80"/>
+      <c r="Q47" s="80"/>
+      <c r="R47" s="80"/>
+      <c r="S47" s="80"/>
+      <c r="T47" s="80"/>
+      <c r="U47" s="80"/>
+      <c r="V47" s="80"/>
+      <c r="W47" s="80"/>
+      <c r="X47" s="80"/>
+      <c r="Y47" s="100"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="224" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="108"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="110"/>
-      <c r="N48" s="110"/>
-      <c r="O48" s="110"/>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="110"/>
-      <c r="S48" s="110"/>
-      <c r="T48" s="110"/>
-      <c r="U48" s="110"/>
-      <c r="V48" s="110"/>
-      <c r="W48" s="110"/>
-      <c r="X48" s="110"/>
-      <c r="Y48" s="111"/>
+      <c r="B48" s="225"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="226"/>
+      <c r="E48" s="226"/>
+      <c r="F48" s="226"/>
+      <c r="G48" s="226"/>
+      <c r="H48" s="226"/>
+      <c r="I48" s="226"/>
+      <c r="J48" s="226"/>
+      <c r="K48" s="226"/>
+      <c r="L48" s="226"/>
+      <c r="M48" s="226"/>
+      <c r="N48" s="226"/>
+      <c r="O48" s="226"/>
+      <c r="P48" s="226"/>
+      <c r="Q48" s="226"/>
+      <c r="R48" s="226"/>
+      <c r="S48" s="226"/>
+      <c r="T48" s="226"/>
+      <c r="U48" s="226"/>
+      <c r="V48" s="226"/>
+      <c r="W48" s="226"/>
+      <c r="X48" s="226"/>
+      <c r="Y48" s="160"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="165"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="166"/>
-      <c r="I49" s="166"/>
-      <c r="J49" s="166"/>
-      <c r="K49" s="166"/>
-      <c r="L49" s="166"/>
-      <c r="M49" s="166"/>
-      <c r="N49" s="166"/>
-      <c r="O49" s="166"/>
-      <c r="P49" s="166"/>
-      <c r="Q49" s="166"/>
-      <c r="R49" s="166"/>
-      <c r="S49" s="166"/>
-      <c r="T49" s="166"/>
-      <c r="U49" s="166"/>
-      <c r="V49" s="166"/>
-      <c r="W49" s="166"/>
-      <c r="X49" s="166"/>
-      <c r="Y49" s="167"/>
+      <c r="A49" s="167" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="168"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="168"/>
+      <c r="K49" s="168"/>
+      <c r="L49" s="168"/>
+      <c r="M49" s="168"/>
+      <c r="N49" s="168"/>
+      <c r="O49" s="168"/>
+      <c r="P49" s="168"/>
+      <c r="Q49" s="168"/>
+      <c r="R49" s="168"/>
+      <c r="S49" s="168"/>
+      <c r="T49" s="168"/>
+      <c r="U49" s="168"/>
+      <c r="V49" s="168"/>
+      <c r="W49" s="168"/>
+      <c r="X49" s="168"/>
+      <c r="Y49" s="169"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="200"/>
-      <c r="B50" s="201"/>
-      <c r="C50" s="201"/>
-      <c r="D50" s="201"/>
-      <c r="E50" s="201"/>
-      <c r="F50" s="201"/>
-      <c r="G50" s="201"/>
-      <c r="H50" s="201"/>
-      <c r="I50" s="201"/>
-      <c r="J50" s="201"/>
-      <c r="K50" s="201"/>
-      <c r="L50" s="201"/>
-      <c r="M50" s="201"/>
-      <c r="N50" s="201"/>
-      <c r="O50" s="201"/>
-      <c r="P50" s="201"/>
-      <c r="Q50" s="201"/>
-      <c r="R50" s="201"/>
-      <c r="S50" s="201"/>
-      <c r="T50" s="201"/>
-      <c r="U50" s="201"/>
-      <c r="V50" s="201"/>
-      <c r="W50" s="201"/>
-      <c r="X50" s="201"/>
-      <c r="Y50" s="202"/>
+      <c r="A50" s="151"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="152"/>
+      <c r="K50" s="152"/>
+      <c r="L50" s="152"/>
+      <c r="M50" s="152"/>
+      <c r="N50" s="152"/>
+      <c r="O50" s="152"/>
+      <c r="P50" s="152"/>
+      <c r="Q50" s="152"/>
+      <c r="R50" s="152"/>
+      <c r="S50" s="152"/>
+      <c r="T50" s="152"/>
+      <c r="U50" s="152"/>
+      <c r="V50" s="152"/>
+      <c r="W50" s="152"/>
+      <c r="X50" s="152"/>
+      <c r="Y50" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="169">
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E23:Y23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="N8:Y8"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A15:Y15"/>
-    <mergeCell ref="C19:Y19"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E16:Y16"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:Y14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="C20:Y20"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="N12:Y12"/>
+    <mergeCell ref="N13:Y13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="N6:Y6"/>
+    <mergeCell ref="N7:Y7"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="N10:Y10"/>
+    <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="N11:Y11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:Y48"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="S41:Y41"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="S43:Y43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="C30:Y30"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="B38:C40"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="N39:T39"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="N38:T38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="D38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="N36:T36"/>
+    <mergeCell ref="N37:T37"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="A49:Y49"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="K33:K39"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="C29:Y29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q43:R43"/>
     <mergeCell ref="A50:Y50"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="B9:C9"/>
@@ -4997,87 +5115,70 @@
     <mergeCell ref="A23:A32"/>
     <mergeCell ref="G31:K31"/>
     <mergeCell ref="L31:L32"/>
-    <mergeCell ref="A49:Y49"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="K33:K39"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="R40:U40"/>
-    <mergeCell ref="C29:Y29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="C30:Y30"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="B38:C40"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="N39:T39"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="N38:T38"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="D38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N35:T35"/>
-    <mergeCell ref="N36:T36"/>
-    <mergeCell ref="N37:T37"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:Y48"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="S41:Y41"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="S43:Y43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="S44:Y44"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="N12:Y12"/>
-    <mergeCell ref="N13:Y13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="N6:Y6"/>
-    <mergeCell ref="N7:Y7"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="N10:Y10"/>
-    <mergeCell ref="N9:Y9"/>
-    <mergeCell ref="N11:Y11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A15:Y15"/>
+    <mergeCell ref="C19:Y19"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E16:Y16"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:Y14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="C20:Y20"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="N8:Y8"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E23:Y23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="U25:Y25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
@@ -5109,60 +5210,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="241" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="241" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="R1" s="83" t="s">
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="R1" s="245" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="85" t="s">
+      <c r="S1" s="246"/>
+      <c r="T1" s="246"/>
+      <c r="U1" s="247" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="87"/>
+      <c r="V1" s="248"/>
+      <c r="W1" s="248"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="249"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="R2" s="83" t="s">
+      <c r="A2" s="243"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="R2" s="245" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="88" t="s">
+      <c r="S2" s="246"/>
+      <c r="T2" s="246"/>
+      <c r="U2" s="250" t="s">
         <v>87</v>
       </c>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="90"/>
+      <c r="V2" s="251"/>
+      <c r="W2" s="251"/>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="252"/>
     </row>
     <row r="3" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -5192,26 +5293,26 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="231" t="s">
+      <c r="B4" s="254"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="233"/>
-      <c r="L4" s="101" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="102"/>
-      <c r="N4" s="103"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="95"/>
       <c r="O4" s="7" t="s">
         <v>77</v>
       </c>
@@ -5233,24 +5334,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="253" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="231" t="s">
+      <c r="B5" s="254"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="232"/>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="232"/>
-      <c r="I5" s="232"/>
-      <c r="J5" s="232"/>
-      <c r="K5" s="233"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="106"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="257"/>
+      <c r="M5" s="258"/>
+      <c r="N5" s="259"/>
       <c r="O5" s="10" t="s">
         <v>71</v>
       </c>
@@ -5261,10 +5362,10 @@
       <c r="R5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="203" t="s">
+      <c r="S5" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="204"/>
+      <c r="T5" s="155"/>
       <c r="U5" s="11" t="s">
         <v>71</v>
       </c>
@@ -5282,325 +5383,325 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="98" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="99"/>
-      <c r="N6" s="93" t="s">
+      <c r="M6" s="126"/>
+      <c r="N6" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="94"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="100"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="100"/>
-      <c r="B7" s="91" t="s">
+      <c r="A7" s="127"/>
+      <c r="B7" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="98" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="99"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="94"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="100"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="100"/>
-      <c r="B8" s="91" t="s">
+      <c r="A8" s="127"/>
+      <c r="B8" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="98" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="99"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="94"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="100"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="100"/>
-      <c r="B9" s="205" t="s">
+      <c r="A9" s="127"/>
+      <c r="B9" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="206"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="98" t="s">
+      <c r="C9" s="157"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="99"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="94"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="100"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93" t="s">
+      <c r="C10" s="80"/>
+      <c r="D10" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="98" t="s">
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="99"/>
-      <c r="N10" s="93" t="s">
+      <c r="M10" s="126"/>
+      <c r="N10" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="94"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="100"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="100"/>
-      <c r="B11" s="91" t="s">
+      <c r="A11" s="127"/>
+      <c r="B11" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="98" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="99"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="94"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="100"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="100"/>
-      <c r="B12" s="91" t="s">
+      <c r="A12" s="127"/>
+      <c r="B12" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="98" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="99"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="94"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="100"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="100"/>
-      <c r="B13" s="205" t="s">
+      <c r="A13" s="127"/>
+      <c r="B13" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="206"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="98" t="s">
+      <c r="C13" s="157"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="99"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="94"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="100"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="229"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="229"/>
-      <c r="G14" s="196" t="s">
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="196"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="196"/>
-      <c r="L14" s="196"/>
-      <c r="M14" s="196"/>
-      <c r="N14" s="196"/>
-      <c r="O14" s="196"/>
-      <c r="P14" s="196"/>
-      <c r="Q14" s="196"/>
-      <c r="R14" s="196"/>
-      <c r="S14" s="196"/>
-      <c r="T14" s="196"/>
-      <c r="U14" s="196"/>
-      <c r="V14" s="196"/>
-      <c r="W14" s="196"/>
-      <c r="X14" s="196"/>
-      <c r="Y14" s="197"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="82"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="217"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="134"/>
-      <c r="R15" s="134"/>
-      <c r="S15" s="134"/>
-      <c r="T15" s="134"/>
-      <c r="U15" s="134"/>
-      <c r="V15" s="134"/>
-      <c r="W15" s="134"/>
-      <c r="X15" s="134"/>
-      <c r="Y15" s="135"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142"/>
+      <c r="S15" s="142"/>
+      <c r="T15" s="142"/>
+      <c r="U15" s="142"/>
+      <c r="V15" s="142"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="142"/>
+      <c r="Y15" s="143"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="230" t="s">
+      <c r="A16" s="147" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -5608,90 +5709,90 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="227" t="s">
+      <c r="E16" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="227"/>
-      <c r="N16" s="227"/>
-      <c r="O16" s="227"/>
-      <c r="P16" s="227"/>
-      <c r="Q16" s="227"/>
-      <c r="R16" s="227"/>
-      <c r="S16" s="227"/>
-      <c r="T16" s="227"/>
-      <c r="U16" s="227"/>
-      <c r="V16" s="227"/>
-      <c r="W16" s="227"/>
-      <c r="X16" s="227"/>
-      <c r="Y16" s="228"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="144"/>
+      <c r="R16" s="144"/>
+      <c r="S16" s="144"/>
+      <c r="T16" s="144"/>
+      <c r="U16" s="144"/>
+      <c r="V16" s="144"/>
+      <c r="W16" s="144"/>
+      <c r="X16" s="144"/>
+      <c r="Y16" s="145"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="275"/>
-      <c r="B17" s="235" t="s">
+      <c r="A17" s="260"/>
+      <c r="B17" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="236"/>
-      <c r="D17" s="237"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="241" t="s">
+      <c r="F17" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="241"/>
-      <c r="H17" s="241"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="242"/>
-      <c r="K17" s="242"/>
-      <c r="L17" s="242"/>
-      <c r="M17" s="243" t="s">
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="244"/>
-      <c r="O17" s="244"/>
-      <c r="P17" s="131" t="s">
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="220" t="s">
+      <c r="U17" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="221"/>
-      <c r="W17" s="221"/>
-      <c r="X17" s="221"/>
-      <c r="Y17" s="222"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="133"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="275"/>
-      <c r="B18" s="238" t="s">
+      <c r="A18" s="260"/>
+      <c r="B18" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="239"/>
-      <c r="D18" s="240"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="234" t="s">
+      <c r="G18" s="118" t="s">
         <v>143</v>
       </c>
-      <c r="H18" s="234"/>
-      <c r="I18" s="234"/>
-      <c r="J18" s="234"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -5700,81 +5801,81 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="234"/>
-      <c r="P18" s="234"/>
-      <c r="Q18" s="234"/>
-      <c r="R18" s="234"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="23"/>
-      <c r="U18" s="170" t="s">
+      <c r="U18" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="V18" s="171"/>
-      <c r="W18" s="171"/>
-      <c r="X18" s="171"/>
-      <c r="Y18" s="172"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="98"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="275"/>
-      <c r="B19" s="185" t="s">
+      <c r="A19" s="260"/>
+      <c r="B19" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="195"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="196"/>
-      <c r="L19" s="196"/>
-      <c r="M19" s="196"/>
-      <c r="N19" s="196"/>
-      <c r="O19" s="196"/>
-      <c r="P19" s="196"/>
-      <c r="Q19" s="196"/>
-      <c r="R19" s="196"/>
-      <c r="S19" s="196"/>
-      <c r="T19" s="196"/>
-      <c r="U19" s="196"/>
-      <c r="V19" s="196"/>
-      <c r="W19" s="196"/>
-      <c r="X19" s="196"/>
-      <c r="Y19" s="197"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="82"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="275"/>
-      <c r="B20" s="186"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="134"/>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="134"/>
-      <c r="S20" s="134"/>
-      <c r="T20" s="134"/>
-      <c r="U20" s="134"/>
-      <c r="V20" s="134"/>
-      <c r="W20" s="134"/>
-      <c r="X20" s="134"/>
-      <c r="Y20" s="135"/>
+      <c r="A20" s="260"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="142"/>
+      <c r="T20" s="142"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="142"/>
+      <c r="W20" s="142"/>
+      <c r="X20" s="142"/>
+      <c r="Y20" s="143"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="275"/>
-      <c r="B21" s="186"/>
+      <c r="A21" s="260"/>
+      <c r="B21" s="135"/>
       <c r="C21" s="173" t="s">
         <v>18</v>
       </c>
@@ -5788,46 +5889,46 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="215" t="s">
+      <c r="L21" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="188"/>
-      <c r="N21" s="189"/>
-      <c r="O21" s="189"/>
-      <c r="P21" s="189"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="184"/>
+      <c r="O21" s="184"/>
+      <c r="P21" s="184"/>
       <c r="Q21" s="8" t="s">
         <v>155</v>
       </c>
       <c r="R21" s="9"/>
-      <c r="S21" s="223" t="s">
+      <c r="S21" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="224"/>
-      <c r="U21" s="224"/>
-      <c r="V21" s="224"/>
-      <c r="W21" s="224"/>
-      <c r="X21" s="224"/>
-      <c r="Y21" s="225"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="105"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="276"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="174" t="s">
+      <c r="A22" s="261"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="226"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="216"/>
-      <c r="M22" s="175"/>
-      <c r="N22" s="176"/>
-      <c r="O22" s="176"/>
-      <c r="P22" s="176"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="138"/>
       <c r="Q22" s="5" t="s">
         <v>156</v>
       </c>
@@ -5847,133 +5948,133 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="208" t="s">
+      <c r="A23" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="238" t="s">
+      <c r="B23" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="239"/>
-      <c r="D23" s="240"/>
-      <c r="E23" s="255" t="s">
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="239"/>
-      <c r="G23" s="239"/>
-      <c r="H23" s="239"/>
-      <c r="I23" s="239"/>
-      <c r="J23" s="239"/>
-      <c r="K23" s="239"/>
-      <c r="L23" s="239"/>
-      <c r="M23" s="239"/>
-      <c r="N23" s="239"/>
-      <c r="O23" s="239"/>
-      <c r="P23" s="239"/>
-      <c r="Q23" s="239"/>
-      <c r="R23" s="239"/>
-      <c r="S23" s="239"/>
-      <c r="T23" s="239"/>
-      <c r="U23" s="239"/>
-      <c r="V23" s="239"/>
-      <c r="W23" s="239"/>
-      <c r="X23" s="239"/>
-      <c r="Y23" s="256"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="89"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="213"/>
-      <c r="B24" s="238" t="s">
+      <c r="A24" s="148"/>
+      <c r="B24" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="239"/>
-      <c r="D24" s="240"/>
-      <c r="E24" s="218" t="s">
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="218"/>
-      <c r="G24" s="218"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="218"/>
-      <c r="K24" s="218"/>
-      <c r="L24" s="218"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="101" t="s">
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="257"/>
-      <c r="R24" s="257"/>
-      <c r="S24" s="258" t="s">
+      <c r="P24" s="95"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="259"/>
-      <c r="U24" s="253" t="s">
+      <c r="T24" s="92"/>
+      <c r="U24" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="253"/>
-      <c r="W24" s="253"/>
-      <c r="X24" s="253"/>
-      <c r="Y24" s="254"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="213"/>
-      <c r="B25" s="238" t="s">
+      <c r="A25" s="148"/>
+      <c r="B25" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="239"/>
-      <c r="D25" s="240"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="196"/>
-      <c r="P25" s="196"/>
-      <c r="Q25" s="196"/>
-      <c r="R25" s="196"/>
-      <c r="S25" s="196"/>
-      <c r="T25" s="197"/>
-      <c r="U25" s="170" t="s">
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="V25" s="171"/>
-      <c r="W25" s="171"/>
-      <c r="X25" s="171"/>
-      <c r="Y25" s="172"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="98"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="213"/>
-      <c r="B26" s="238" t="s">
+      <c r="A26" s="148"/>
+      <c r="B26" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="239"/>
-      <c r="D26" s="240"/>
-      <c r="E26" s="93" t="s">
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
       <c r="O26" s="31"/>
       <c r="P26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="241" t="s">
+      <c r="Q26" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="R26" s="241"/>
+      <c r="R26" s="99"/>
       <c r="S26" s="33" t="s">
         <v>13</v>
       </c>
@@ -5981,80 +6082,80 @@
       <c r="U26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="241"/>
-      <c r="W26" s="241"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
       <c r="X26" s="33" t="s">
         <v>13</v>
       </c>
       <c r="Y26" s="23"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="213"/>
-      <c r="B27" s="238" t="s">
+      <c r="A27" s="148"/>
+      <c r="B27" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="239"/>
-      <c r="D27" s="240"/>
-      <c r="E27" s="93" t="s">
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="98" t="s">
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="241"/>
-      <c r="N27" s="245"/>
-      <c r="O27" s="249"/>
-      <c r="P27" s="241"/>
-      <c r="Q27" s="250"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="112"/>
       <c r="R27" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="223" t="s">
+      <c r="S27" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="224"/>
-      <c r="U27" s="224"/>
-      <c r="V27" s="224"/>
-      <c r="W27" s="224"/>
-      <c r="X27" s="224"/>
-      <c r="Y27" s="225"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="105"/>
       <c r="Z27" s="36"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="213"/>
-      <c r="B28" s="91" t="s">
+      <c r="A28" s="148"/>
+      <c r="B28" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="246"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="247" t="s">
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="248"/>
-      <c r="G28" s="248"/>
-      <c r="H28" s="248"/>
-      <c r="I28" s="248"/>
-      <c r="J28" s="248"/>
-      <c r="K28" s="248"/>
-      <c r="L28" s="248"/>
-      <c r="M28" s="248"/>
-      <c r="N28" s="248"/>
-      <c r="O28" s="248"/>
-      <c r="P28" s="248"/>
-      <c r="Q28" s="248"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
       <c r="R28" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="251" t="s">
+      <c r="S28" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="T28" s="252"/>
+      <c r="T28" s="114"/>
       <c r="U28" s="29" t="s">
         <v>28</v>
       </c>
@@ -6073,388 +6174,402 @@
       <c r="Z28" s="36"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="213"/>
-      <c r="B29" s="185" t="s">
+      <c r="A29" s="148"/>
+      <c r="B29" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="196"/>
-      <c r="L29" s="196"/>
-      <c r="M29" s="196"/>
-      <c r="N29" s="196"/>
-      <c r="O29" s="196"/>
-      <c r="P29" s="196"/>
-      <c r="Q29" s="196"/>
-      <c r="R29" s="196"/>
-      <c r="S29" s="196"/>
-      <c r="T29" s="196"/>
-      <c r="U29" s="196"/>
-      <c r="V29" s="196"/>
-      <c r="W29" s="196"/>
-      <c r="X29" s="196"/>
-      <c r="Y29" s="197"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="81"/>
+      <c r="W29" s="81"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="82"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="213"/>
-      <c r="B30" s="186"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="134"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="134"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="134"/>
-      <c r="V30" s="134"/>
-      <c r="W30" s="134"/>
-      <c r="X30" s="134"/>
-      <c r="Y30" s="135"/>
+      <c r="A30" s="148"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="142"/>
+      <c r="R30" s="142"/>
+      <c r="S30" s="142"/>
+      <c r="T30" s="142"/>
+      <c r="U30" s="142"/>
+      <c r="V30" s="142"/>
+      <c r="W30" s="142"/>
+      <c r="X30" s="142"/>
+      <c r="Y30" s="143"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="213"/>
-      <c r="B31" s="186"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="135"/>
       <c r="C31" s="173" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="173"/>
-      <c r="E31" s="198" t="s">
+      <c r="E31" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="199"/>
-      <c r="G31" s="214"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="196"/>
-      <c r="L31" s="215" t="s">
+      <c r="F31" s="192"/>
+      <c r="G31" s="166" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="188"/>
-      <c r="N31" s="189"/>
-      <c r="O31" s="189"/>
-      <c r="P31" s="189"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="223" t="s">
+      <c r="M31" s="183"/>
+      <c r="N31" s="184"/>
+      <c r="O31" s="184"/>
+      <c r="P31" s="184"/>
+      <c r="Q31" s="159"/>
+      <c r="R31" s="160"/>
+      <c r="S31" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="224"/>
-      <c r="U31" s="224"/>
-      <c r="V31" s="224"/>
-      <c r="W31" s="224"/>
-      <c r="X31" s="224"/>
-      <c r="Y31" s="225"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="105"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="179"/>
-      <c r="B32" s="187"/>
-      <c r="C32" s="174" t="s">
+      <c r="A32" s="149"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="174"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="216"/>
-      <c r="M32" s="175"/>
-      <c r="N32" s="176"/>
-      <c r="O32" s="176"/>
-      <c r="P32" s="176"/>
-      <c r="Q32" s="207" t="s">
+      <c r="D32" s="106"/>
+      <c r="E32" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="199"/>
+      <c r="G32" s="199"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="199"/>
+      <c r="K32" s="200"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="137" t="s">
+        <v>175</v>
+      </c>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="138"/>
+      <c r="Q32" s="158" t="s">
         <v>156</v>
       </c>
-      <c r="R32" s="202"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="28"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="T32" s="28" t="s">
+        <v>179</v>
+      </c>
       <c r="U32" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="V32" s="29"/>
+      <c r="V32" s="29" t="s">
+        <v>181</v>
+      </c>
       <c r="W32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X32" s="29"/>
+      <c r="X32" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="Y32" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="177" t="s">
+      <c r="A33" s="174" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="38"/>
-      <c r="D33" s="180" t="s">
+      <c r="D33" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="181"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="182"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="178"/>
       <c r="J33" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="190" t="s">
+      <c r="K33" s="185" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="40" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="38"/>
-      <c r="N33" s="163" t="s">
+      <c r="N33" s="222" t="s">
         <v>124</v>
       </c>
-      <c r="O33" s="164"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="164"/>
-      <c r="R33" s="164"/>
-      <c r="S33" s="164"/>
-      <c r="T33" s="164"/>
-      <c r="U33" s="132" t="s">
+      <c r="O33" s="223"/>
+      <c r="P33" s="223"/>
+      <c r="Q33" s="223"/>
+      <c r="R33" s="223"/>
+      <c r="S33" s="223"/>
+      <c r="T33" s="223"/>
+      <c r="U33" s="196" t="s">
         <v>123</v>
       </c>
-      <c r="V33" s="129"/>
-      <c r="W33" s="129"/>
-      <c r="X33" s="129"/>
+      <c r="V33" s="197"/>
+      <c r="W33" s="197"/>
+      <c r="X33" s="197"/>
       <c r="Y33" s="41" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="36"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="178"/>
+      <c r="A34" s="175"/>
       <c r="B34" s="42" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="43"/>
-      <c r="D34" s="145" t="s">
+      <c r="D34" s="179" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="180"/>
       <c r="J34" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="191"/>
+      <c r="K34" s="186"/>
       <c r="L34" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="43"/>
-      <c r="N34" s="150" t="s">
+      <c r="N34" s="209" t="s">
         <v>126</v>
       </c>
-      <c r="O34" s="151"/>
-      <c r="P34" s="151"/>
-      <c r="Q34" s="151"/>
-      <c r="R34" s="151"/>
-      <c r="S34" s="151"/>
-      <c r="T34" s="151"/>
-      <c r="U34" s="149" t="s">
+      <c r="O34" s="210"/>
+      <c r="P34" s="210"/>
+      <c r="Q34" s="210"/>
+      <c r="R34" s="210"/>
+      <c r="S34" s="210"/>
+      <c r="T34" s="210"/>
+      <c r="U34" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="V34" s="127"/>
-      <c r="W34" s="127"/>
-      <c r="X34" s="127"/>
+      <c r="V34" s="194"/>
+      <c r="W34" s="194"/>
+      <c r="X34" s="194"/>
       <c r="Y34" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="178"/>
+      <c r="A35" s="175"/>
       <c r="B35" s="42" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="43"/>
-      <c r="D35" s="145" t="s">
+      <c r="D35" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="180"/>
       <c r="J35" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="191"/>
+      <c r="K35" s="186"/>
       <c r="L35" s="45" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="43"/>
-      <c r="N35" s="150" t="s">
+      <c r="N35" s="209" t="s">
         <v>128</v>
       </c>
-      <c r="O35" s="151"/>
-      <c r="P35" s="151"/>
-      <c r="Q35" s="151"/>
-      <c r="R35" s="151"/>
-      <c r="S35" s="151"/>
-      <c r="T35" s="151"/>
-      <c r="U35" s="149" t="s">
+      <c r="O35" s="210"/>
+      <c r="P35" s="210"/>
+      <c r="Q35" s="210"/>
+      <c r="R35" s="210"/>
+      <c r="S35" s="210"/>
+      <c r="T35" s="210"/>
+      <c r="U35" s="193" t="s">
         <v>127</v>
       </c>
-      <c r="V35" s="127"/>
-      <c r="W35" s="127"/>
-      <c r="X35" s="127"/>
+      <c r="V35" s="194"/>
+      <c r="W35" s="194"/>
+      <c r="X35" s="194"/>
       <c r="Y35" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="178"/>
+      <c r="A36" s="175"/>
       <c r="B36" s="42" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="47"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
+      <c r="H36" s="180"/>
+      <c r="I36" s="180"/>
       <c r="J36" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="192"/>
+      <c r="K36" s="187"/>
       <c r="L36" s="68" t="s">
         <v>85</v>
       </c>
       <c r="M36" s="47"/>
-      <c r="N36" s="150" t="s">
+      <c r="N36" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="O36" s="151"/>
-      <c r="P36" s="151"/>
-      <c r="Q36" s="151"/>
-      <c r="R36" s="151"/>
-      <c r="S36" s="151"/>
-      <c r="T36" s="151"/>
-      <c r="U36" s="149" t="s">
+      <c r="O36" s="210"/>
+      <c r="P36" s="210"/>
+      <c r="Q36" s="210"/>
+      <c r="R36" s="210"/>
+      <c r="S36" s="210"/>
+      <c r="T36" s="210"/>
+      <c r="U36" s="193" t="s">
         <v>130</v>
       </c>
-      <c r="V36" s="127"/>
-      <c r="W36" s="127"/>
-      <c r="X36" s="127"/>
+      <c r="V36" s="194"/>
+      <c r="W36" s="194"/>
+      <c r="X36" s="194"/>
       <c r="Y36" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="178"/>
+      <c r="A37" s="175"/>
       <c r="B37" s="69" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="47"/>
-      <c r="D37" s="145" t="s">
+      <c r="D37" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="180"/>
       <c r="J37" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="193"/>
+      <c r="K37" s="188"/>
       <c r="L37" s="71" t="s">
         <v>84</v>
       </c>
       <c r="M37" s="72"/>
-      <c r="N37" s="150" t="s">
+      <c r="N37" s="209" t="s">
         <v>131</v>
       </c>
-      <c r="O37" s="151"/>
-      <c r="P37" s="151"/>
-      <c r="Q37" s="151"/>
-      <c r="R37" s="151"/>
-      <c r="S37" s="151"/>
-      <c r="T37" s="151"/>
-      <c r="U37" s="161" t="s">
+      <c r="O37" s="210"/>
+      <c r="P37" s="210"/>
+      <c r="Q37" s="210"/>
+      <c r="R37" s="210"/>
+      <c r="S37" s="210"/>
+      <c r="T37" s="210"/>
+      <c r="U37" s="220" t="s">
         <v>132</v>
       </c>
-      <c r="V37" s="162"/>
-      <c r="W37" s="162"/>
-      <c r="X37" s="162"/>
+      <c r="V37" s="221"/>
+      <c r="W37" s="221"/>
+      <c r="X37" s="221"/>
       <c r="Y37" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="179"/>
-      <c r="B38" s="272" t="s">
+      <c r="A38" s="149"/>
+      <c r="B38" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="273"/>
-      <c r="D38" s="273"/>
-      <c r="E38" s="273"/>
-      <c r="F38" s="274" t="s">
+      <c r="C38" s="263"/>
+      <c r="D38" s="263"/>
+      <c r="E38" s="263"/>
+      <c r="F38" s="264" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="274"/>
-      <c r="H38" s="274"/>
-      <c r="I38" s="274"/>
+      <c r="G38" s="264"/>
+      <c r="H38" s="264"/>
+      <c r="I38" s="264"/>
       <c r="J38" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="183" t="s">
+      <c r="K38" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="L38" s="92"/>
-      <c r="M38" s="184"/>
-      <c r="N38" s="130" t="s">
+      <c r="L38" s="80"/>
+      <c r="M38" s="182"/>
+      <c r="N38" s="189" t="s">
         <v>133</v>
       </c>
-      <c r="O38" s="131"/>
-      <c r="P38" s="131"/>
+      <c r="O38" s="125"/>
+      <c r="P38" s="125"/>
       <c r="Q38" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="R38" s="194" t="s">
+      <c r="R38" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="S38" s="92"/>
-      <c r="T38" s="92"/>
-      <c r="U38" s="92"/>
-      <c r="V38" s="130" t="s">
+      <c r="S38" s="80"/>
+      <c r="T38" s="80"/>
+      <c r="U38" s="80"/>
+      <c r="V38" s="189" t="s">
         <v>163</v>
       </c>
-      <c r="W38" s="131"/>
-      <c r="X38" s="131"/>
+      <c r="W38" s="125"/>
+      <c r="X38" s="125"/>
       <c r="Y38" s="23" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="208" t="s">
+      <c r="A39" s="161" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="52" t="s">
@@ -6465,14 +6580,14 @@
         <v>56</v>
       </c>
       <c r="E39" s="55"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="112" t="s">
+      <c r="F39" s="229"/>
+      <c r="G39" s="230"/>
+      <c r="H39" s="230"/>
+      <c r="I39" s="230"/>
+      <c r="J39" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="K39" s="112"/>
+      <c r="K39" s="195"/>
       <c r="L39" s="56" t="s">
         <v>70</v>
       </c>
@@ -6488,16 +6603,16 @@
       <c r="R39" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="S39" s="120"/>
-      <c r="T39" s="121"/>
-      <c r="U39" s="121"/>
-      <c r="V39" s="121"/>
-      <c r="W39" s="121"/>
-      <c r="X39" s="121"/>
-      <c r="Y39" s="122"/>
+      <c r="S39" s="233"/>
+      <c r="T39" s="234"/>
+      <c r="U39" s="234"/>
+      <c r="V39" s="234"/>
+      <c r="W39" s="234"/>
+      <c r="X39" s="234"/>
+      <c r="Y39" s="235"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="209"/>
+      <c r="A40" s="162"/>
       <c r="B40" s="60" t="s">
         <v>55</v>
       </c>
@@ -6506,14 +6621,14 @@
         <v>57</v>
       </c>
       <c r="E40" s="63"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="119" t="s">
+      <c r="F40" s="231"/>
+      <c r="G40" s="232"/>
+      <c r="H40" s="232"/>
+      <c r="I40" s="232"/>
+      <c r="J40" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="K40" s="119"/>
+      <c r="K40" s="170"/>
       <c r="L40" s="64" t="s">
         <v>70</v>
       </c>
@@ -6529,28 +6644,28 @@
       <c r="R40" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S40" s="123"/>
-      <c r="T40" s="124"/>
-      <c r="U40" s="124"/>
-      <c r="V40" s="124"/>
-      <c r="W40" s="124"/>
-      <c r="X40" s="124"/>
-      <c r="Y40" s="125"/>
+      <c r="S40" s="236"/>
+      <c r="T40" s="237"/>
+      <c r="U40" s="237"/>
+      <c r="V40" s="237"/>
+      <c r="W40" s="237"/>
+      <c r="X40" s="237"/>
+      <c r="Y40" s="238"/>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="209"/>
-      <c r="B41" s="260"/>
-      <c r="C41" s="261"/>
+      <c r="A41" s="162"/>
+      <c r="B41" s="266"/>
+      <c r="C41" s="267"/>
       <c r="D41" s="74"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="271"/>
-      <c r="G41" s="266"/>
-      <c r="H41" s="266"/>
-      <c r="I41" s="266"/>
-      <c r="J41" s="262" t="s">
+      <c r="F41" s="268"/>
+      <c r="G41" s="269"/>
+      <c r="H41" s="269"/>
+      <c r="I41" s="269"/>
+      <c r="J41" s="270" t="s">
         <v>158</v>
       </c>
-      <c r="K41" s="262"/>
+      <c r="K41" s="270"/>
       <c r="L41" s="76" t="s">
         <v>70</v>
       </c>
@@ -6566,16 +6681,16 @@
       <c r="R41" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="267"/>
-      <c r="T41" s="268"/>
-      <c r="U41" s="268"/>
-      <c r="V41" s="268"/>
-      <c r="W41" s="268"/>
-      <c r="X41" s="268"/>
-      <c r="Y41" s="269"/>
+      <c r="S41" s="271"/>
+      <c r="T41" s="272"/>
+      <c r="U41" s="272"/>
+      <c r="V41" s="272"/>
+      <c r="W41" s="272"/>
+      <c r="X41" s="272"/>
+      <c r="Y41" s="273"/>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="209"/>
+      <c r="A42" s="162"/>
       <c r="B42" s="52" t="s">
         <v>59</v>
       </c>
@@ -6584,35 +6699,35 @@
         <v>60</v>
       </c>
       <c r="E42" s="55"/>
-      <c r="F42" s="112" t="s">
+      <c r="F42" s="195" t="s">
         <v>134</v>
       </c>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="128" t="s">
+      <c r="G42" s="195"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="227"/>
+      <c r="K42" s="227"/>
+      <c r="L42" s="228"/>
+      <c r="M42" s="240" t="s">
         <v>135</v>
       </c>
-      <c r="N42" s="129"/>
-      <c r="O42" s="129"/>
-      <c r="P42" s="129"/>
-      <c r="Q42" s="112" t="s">
+      <c r="N42" s="197"/>
+      <c r="O42" s="197"/>
+      <c r="P42" s="197"/>
+      <c r="Q42" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="R42" s="112"/>
-      <c r="S42" s="120"/>
-      <c r="T42" s="121"/>
-      <c r="U42" s="121"/>
-      <c r="V42" s="121"/>
-      <c r="W42" s="121"/>
-      <c r="X42" s="121"/>
-      <c r="Y42" s="122"/>
+      <c r="R42" s="195"/>
+      <c r="S42" s="233"/>
+      <c r="T42" s="234"/>
+      <c r="U42" s="234"/>
+      <c r="V42" s="234"/>
+      <c r="W42" s="234"/>
+      <c r="X42" s="234"/>
+      <c r="Y42" s="235"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="209"/>
+      <c r="A43" s="162"/>
       <c r="B43" s="60" t="s">
         <v>55</v>
       </c>
@@ -6621,252 +6736,403 @@
         <v>60</v>
       </c>
       <c r="E43" s="63"/>
-      <c r="F43" s="119" t="s">
+      <c r="F43" s="170" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="168"/>
-      <c r="K43" s="168"/>
-      <c r="L43" s="169"/>
-      <c r="M43" s="126" t="s">
+      <c r="G43" s="170"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="170"/>
+      <c r="J43" s="171"/>
+      <c r="K43" s="171"/>
+      <c r="L43" s="172"/>
+      <c r="M43" s="239" t="s">
         <v>137</v>
       </c>
-      <c r="N43" s="127"/>
-      <c r="O43" s="127"/>
-      <c r="P43" s="127"/>
-      <c r="Q43" s="119" t="s">
+      <c r="N43" s="194"/>
+      <c r="O43" s="194"/>
+      <c r="P43" s="194"/>
+      <c r="Q43" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="R43" s="119"/>
-      <c r="S43" s="123"/>
-      <c r="T43" s="124"/>
-      <c r="U43" s="124"/>
-      <c r="V43" s="124"/>
-      <c r="W43" s="124"/>
-      <c r="X43" s="124"/>
-      <c r="Y43" s="125"/>
+      <c r="R43" s="170"/>
+      <c r="S43" s="236"/>
+      <c r="T43" s="237"/>
+      <c r="U43" s="237"/>
+      <c r="V43" s="237"/>
+      <c r="W43" s="237"/>
+      <c r="X43" s="237"/>
+      <c r="Y43" s="238"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="270"/>
-      <c r="B44" s="260"/>
-      <c r="C44" s="261"/>
+      <c r="A44" s="265"/>
+      <c r="B44" s="266"/>
+      <c r="C44" s="267"/>
       <c r="D44" s="74" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="75"/>
-      <c r="F44" s="262"/>
-      <c r="G44" s="262"/>
-      <c r="H44" s="262"/>
-      <c r="I44" s="262"/>
-      <c r="J44" s="263"/>
-      <c r="K44" s="263"/>
-      <c r="L44" s="264"/>
-      <c r="M44" s="265"/>
-      <c r="N44" s="266"/>
-      <c r="O44" s="266"/>
-      <c r="P44" s="266"/>
-      <c r="Q44" s="262" t="s">
+      <c r="F44" s="270"/>
+      <c r="G44" s="270"/>
+      <c r="H44" s="270"/>
+      <c r="I44" s="270"/>
+      <c r="J44" s="274"/>
+      <c r="K44" s="274"/>
+      <c r="L44" s="275"/>
+      <c r="M44" s="276"/>
+      <c r="N44" s="269"/>
+      <c r="O44" s="269"/>
+      <c r="P44" s="269"/>
+      <c r="Q44" s="270" t="s">
         <v>158</v>
       </c>
-      <c r="R44" s="262"/>
-      <c r="S44" s="267"/>
-      <c r="T44" s="268"/>
-      <c r="U44" s="268"/>
-      <c r="V44" s="268"/>
-      <c r="W44" s="268"/>
-      <c r="X44" s="268"/>
-      <c r="Y44" s="269"/>
+      <c r="R44" s="270"/>
+      <c r="S44" s="271"/>
+      <c r="T44" s="272"/>
+      <c r="U44" s="272"/>
+      <c r="V44" s="272"/>
+      <c r="W44" s="272"/>
+      <c r="X44" s="272"/>
+      <c r="Y44" s="273"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="210" t="s">
+      <c r="A45" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="93" t="s">
+      <c r="C45" s="80"/>
+      <c r="D45" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="98" t="s">
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="99"/>
-      <c r="N45" s="93" t="s">
+      <c r="M45" s="126"/>
+      <c r="N45" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="O45" s="92"/>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="92"/>
-      <c r="U45" s="92"/>
-      <c r="V45" s="92"/>
-      <c r="W45" s="92"/>
-      <c r="X45" s="92"/>
-      <c r="Y45" s="94"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="100"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="211"/>
-      <c r="B46" s="91" t="s">
+      <c r="A46" s="164"/>
+      <c r="B46" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="93" t="s">
+      <c r="C46" s="80"/>
+      <c r="D46" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="98" t="s">
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="99"/>
-      <c r="N46" s="93" t="s">
+      <c r="M46" s="126"/>
+      <c r="N46" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="O46" s="92"/>
-      <c r="P46" s="92"/>
-      <c r="Q46" s="92"/>
-      <c r="R46" s="92"/>
-      <c r="S46" s="92"/>
-      <c r="T46" s="92"/>
-      <c r="U46" s="92"/>
-      <c r="V46" s="92"/>
-      <c r="W46" s="92"/>
-      <c r="X46" s="92"/>
-      <c r="Y46" s="94"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
+      <c r="Q46" s="80"/>
+      <c r="R46" s="80"/>
+      <c r="S46" s="80"/>
+      <c r="T46" s="80"/>
+      <c r="U46" s="80"/>
+      <c r="V46" s="80"/>
+      <c r="W46" s="80"/>
+      <c r="X46" s="80"/>
+      <c r="Y46" s="100"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="212"/>
-      <c r="B47" s="91" t="s">
+      <c r="A47" s="165"/>
+      <c r="B47" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="92"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="98" t="s">
+      <c r="C47" s="80"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="99"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="92"/>
-      <c r="Q47" s="92"/>
-      <c r="R47" s="92"/>
-      <c r="S47" s="92"/>
-      <c r="T47" s="92"/>
-      <c r="U47" s="92"/>
-      <c r="V47" s="92"/>
-      <c r="W47" s="92"/>
-      <c r="X47" s="92"/>
-      <c r="Y47" s="94"/>
+      <c r="M47" s="126"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="80"/>
+      <c r="Q47" s="80"/>
+      <c r="R47" s="80"/>
+      <c r="S47" s="80"/>
+      <c r="T47" s="80"/>
+      <c r="U47" s="80"/>
+      <c r="V47" s="80"/>
+      <c r="W47" s="80"/>
+      <c r="X47" s="80"/>
+      <c r="Y47" s="100"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="224" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="108"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="110"/>
-      <c r="N48" s="110"/>
-      <c r="O48" s="110"/>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="110"/>
-      <c r="S48" s="110"/>
-      <c r="T48" s="110"/>
-      <c r="U48" s="110"/>
-      <c r="V48" s="110"/>
-      <c r="W48" s="110"/>
-      <c r="X48" s="110"/>
-      <c r="Y48" s="111"/>
+      <c r="B48" s="225"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="226"/>
+      <c r="E48" s="226"/>
+      <c r="F48" s="226"/>
+      <c r="G48" s="226"/>
+      <c r="H48" s="226"/>
+      <c r="I48" s="226"/>
+      <c r="J48" s="226"/>
+      <c r="K48" s="226"/>
+      <c r="L48" s="226"/>
+      <c r="M48" s="226"/>
+      <c r="N48" s="226"/>
+      <c r="O48" s="226"/>
+      <c r="P48" s="226"/>
+      <c r="Q48" s="226"/>
+      <c r="R48" s="226"/>
+      <c r="S48" s="226"/>
+      <c r="T48" s="226"/>
+      <c r="U48" s="226"/>
+      <c r="V48" s="226"/>
+      <c r="W48" s="226"/>
+      <c r="X48" s="226"/>
+      <c r="Y48" s="160"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="165"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="166"/>
-      <c r="I49" s="166"/>
-      <c r="J49" s="166"/>
-      <c r="K49" s="166"/>
-      <c r="L49" s="166"/>
-      <c r="M49" s="166"/>
-      <c r="N49" s="166"/>
-      <c r="O49" s="166"/>
-      <c r="P49" s="166"/>
-      <c r="Q49" s="166"/>
-      <c r="R49" s="166"/>
-      <c r="S49" s="166"/>
-      <c r="T49" s="166"/>
-      <c r="U49" s="166"/>
-      <c r="V49" s="166"/>
-      <c r="W49" s="166"/>
-      <c r="X49" s="166"/>
-      <c r="Y49" s="167"/>
+      <c r="A49" s="167" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="168"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="168"/>
+      <c r="K49" s="168"/>
+      <c r="L49" s="168"/>
+      <c r="M49" s="168"/>
+      <c r="N49" s="168"/>
+      <c r="O49" s="168"/>
+      <c r="P49" s="168"/>
+      <c r="Q49" s="168"/>
+      <c r="R49" s="168"/>
+      <c r="S49" s="168"/>
+      <c r="T49" s="168"/>
+      <c r="U49" s="168"/>
+      <c r="V49" s="168"/>
+      <c r="W49" s="168"/>
+      <c r="X49" s="168"/>
+      <c r="Y49" s="169"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="200"/>
-      <c r="B50" s="201"/>
-      <c r="C50" s="201"/>
-      <c r="D50" s="201"/>
-      <c r="E50" s="201"/>
-      <c r="F50" s="201"/>
-      <c r="G50" s="201"/>
-      <c r="H50" s="201"/>
-      <c r="I50" s="201"/>
-      <c r="J50" s="201"/>
-      <c r="K50" s="201"/>
-      <c r="L50" s="201"/>
-      <c r="M50" s="201"/>
-      <c r="N50" s="201"/>
-      <c r="O50" s="201"/>
-      <c r="P50" s="201"/>
-      <c r="Q50" s="201"/>
-      <c r="R50" s="201"/>
-      <c r="S50" s="201"/>
-      <c r="T50" s="201"/>
-      <c r="U50" s="201"/>
-      <c r="V50" s="201"/>
-      <c r="W50" s="201"/>
-      <c r="X50" s="201"/>
-      <c r="Y50" s="202"/>
+      <c r="A50" s="151"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="152"/>
+      <c r="K50" s="152"/>
+      <c r="L50" s="152"/>
+      <c r="M50" s="152"/>
+      <c r="N50" s="152"/>
+      <c r="O50" s="152"/>
+      <c r="P50" s="152"/>
+      <c r="Q50" s="152"/>
+      <c r="R50" s="152"/>
+      <c r="S50" s="152"/>
+      <c r="T50" s="152"/>
+      <c r="U50" s="152"/>
+      <c r="V50" s="152"/>
+      <c r="W50" s="152"/>
+      <c r="X50" s="152"/>
+      <c r="Y50" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="173">
+    <mergeCell ref="A50:Y50"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:Y47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:Y48"/>
+    <mergeCell ref="A49:Y49"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:Y45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:Y46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:Y43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="S39:Y39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="S40:Y40"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="S41:Y41"/>
+    <mergeCell ref="F42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:Y29"/>
+    <mergeCell ref="C30:Y30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:Y23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E16:Y16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:Y19"/>
+    <mergeCell ref="C20:Y20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:Y13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:Y10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:Y11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:Y6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:Y7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Y8"/>
     <mergeCell ref="N33:T33"/>
     <mergeCell ref="N34:T34"/>
     <mergeCell ref="N35:T35"/>
@@ -6891,155 +7157,6 @@
     <mergeCell ref="A15:Y15"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:Y8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:Y9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:Y6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:Y7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:Y13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:Y10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:Y11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E16:Y16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:Y19"/>
-    <mergeCell ref="C20:Y20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:Y29"/>
-    <mergeCell ref="C30:Y30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:Y23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="S39:Y39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="S40:Y40"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="S41:Y41"/>
-    <mergeCell ref="F42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:Y43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:Y44"/>
-    <mergeCell ref="A50:Y50"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:Y47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:Y48"/>
-    <mergeCell ref="A49:Y49"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:Y45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:Y46"/>
-    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">

--- a/template/取引成立台帳.xlsx
+++ b/template/取引成立台帳.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA1190A-3992-4D31-A7B9-E6FB339D53FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D08DA-2CFE-483C-85B7-7EA689B5B628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D08DF634-D05B-48EB-A5E5-3C43C6308EA5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="194">
   <si>
     <t>成立年月日</t>
     <rPh sb="0" eb="2">
@@ -1295,6 +1295,45 @@
   </si>
   <si>
     <t>$b_rightsForm$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属書類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出金履歴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$historyDay$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$historyName$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$historyPrice$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円</t>
+    <rPh sb="0" eb="1">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>合　　計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$historyPriceSum$</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1397,7 +1436,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -2053,13 +2092,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2284,6 +2332,552 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2314,522 +2908,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2838,39 +2958,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3186,7 +3273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CEB573-6056-4BD6-A209-3C128850A94F}">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H2"/>
@@ -3200,60 +3287,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="258" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="76" t="s">
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="R1" s="78" t="s">
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="R1" s="260" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="80" t="s">
+      <c r="S1" s="261"/>
+      <c r="T1" s="261"/>
+      <c r="U1" s="262" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="82"/>
+      <c r="V1" s="263"/>
+      <c r="W1" s="263"/>
+      <c r="X1" s="263"/>
+      <c r="Y1" s="264"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="R2" s="78" t="s">
+      <c r="A2" s="259"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
+      <c r="R2" s="260" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="83" t="s">
+      <c r="S2" s="261"/>
+      <c r="T2" s="261"/>
+      <c r="U2" s="265" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="85"/>
+      <c r="V2" s="266"/>
+      <c r="W2" s="266"/>
+      <c r="X2" s="266"/>
+      <c r="Y2" s="267"/>
     </row>
     <row r="3" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -3283,26 +3370,26 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="226" t="s">
+      <c r="B4" s="220"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
-      <c r="K4" s="228"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
       <c r="L4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="97"/>
       <c r="O4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3324,24 +3411,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="226" t="s">
+      <c r="B5" s="220"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="227"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="227"/>
-      <c r="K5" s="228"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="223"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="225"/>
       <c r="O5" s="10" t="s">
         <v>71</v>
       </c>
@@ -3352,10 +3439,10 @@
       <c r="R5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="198" t="s">
+      <c r="S5" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="199"/>
+      <c r="T5" s="162"/>
       <c r="U5" s="11" t="s">
         <v>71</v>
       </c>
@@ -3373,333 +3460,333 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="88" t="s">
+      <c r="C6" s="82"/>
+      <c r="D6" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="93" t="s">
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="88" t="s">
+      <c r="M6" s="130"/>
+      <c r="N6" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="89"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="102"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="95"/>
-      <c r="B7" s="86" t="s">
+      <c r="A7" s="134"/>
+      <c r="B7" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="88" t="s">
+      <c r="C7" s="82"/>
+      <c r="D7" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="93" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="88" t="s">
+      <c r="M7" s="130"/>
+      <c r="N7" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="89"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="102"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="95"/>
-      <c r="B8" s="86" t="s">
+      <c r="A8" s="134"/>
+      <c r="B8" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="93" t="s">
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="94"/>
-      <c r="N8" s="88" t="s">
+      <c r="M8" s="130"/>
+      <c r="N8" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="89"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="102"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="95"/>
-      <c r="B9" s="200" t="s">
+      <c r="A9" s="134"/>
+      <c r="B9" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="201"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="93" t="s">
+      <c r="C9" s="164"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="94"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="89"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="102"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88" t="s">
+      <c r="C10" s="82"/>
+      <c r="D10" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="93" t="s">
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="94"/>
-      <c r="N10" s="88" t="s">
+      <c r="M10" s="130"/>
+      <c r="N10" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="89"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="95"/>
-      <c r="B11" s="86" t="s">
+      <c r="A11" s="134"/>
+      <c r="B11" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="93" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="94"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="89"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="102"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="95"/>
-      <c r="B12" s="86" t="s">
+      <c r="A12" s="134"/>
+      <c r="B12" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="93" t="s">
+      <c r="C12" s="82"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="94"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="89"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="102"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="95"/>
-      <c r="B13" s="200" t="s">
+      <c r="A13" s="134"/>
+      <c r="B13" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="201"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="93" t="s">
+      <c r="C13" s="164"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="94"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="89"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="102"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="224"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="191" t="s">
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="191"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="191"/>
-      <c r="S14" s="191"/>
-      <c r="T14" s="191"/>
-      <c r="U14" s="191"/>
-      <c r="V14" s="191"/>
-      <c r="W14" s="191"/>
-      <c r="X14" s="191"/>
-      <c r="Y14" s="192"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="84"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="212"/>
-      <c r="B15" s="213"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="213"/>
-      <c r="L15" s="213"/>
-      <c r="M15" s="213"/>
-      <c r="N15" s="213"/>
-      <c r="O15" s="213"/>
-      <c r="P15" s="213"/>
-      <c r="Q15" s="213"/>
-      <c r="R15" s="213"/>
-      <c r="S15" s="213"/>
-      <c r="T15" s="213"/>
-      <c r="U15" s="213"/>
-      <c r="V15" s="213"/>
-      <c r="W15" s="213"/>
-      <c r="X15" s="213"/>
-      <c r="Y15" s="214"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="136"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="225" t="s">
+      <c r="A16" s="152" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -3707,90 +3794,90 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="222" t="s">
+      <c r="E16" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="222"/>
-      <c r="L16" s="222"/>
-      <c r="M16" s="222"/>
-      <c r="N16" s="222"/>
-      <c r="O16" s="222"/>
-      <c r="P16" s="222"/>
-      <c r="Q16" s="222"/>
-      <c r="R16" s="222"/>
-      <c r="S16" s="222"/>
-      <c r="T16" s="222"/>
-      <c r="U16" s="222"/>
-      <c r="V16" s="222"/>
-      <c r="W16" s="222"/>
-      <c r="X16" s="222"/>
-      <c r="Y16" s="223"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="149"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="150"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="208"/>
-      <c r="B17" s="230" t="s">
+      <c r="A17" s="153"/>
+      <c r="B17" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="231"/>
-      <c r="D17" s="232"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="125"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="236" t="s">
+      <c r="F17" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="236"/>
-      <c r="H17" s="236"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="237"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="237"/>
-      <c r="M17" s="238" t="s">
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="239"/>
-      <c r="O17" s="239"/>
-      <c r="P17" s="126" t="s">
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="126"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="215" t="s">
+      <c r="U17" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="216"/>
-      <c r="W17" s="216"/>
-      <c r="X17" s="216"/>
-      <c r="Y17" s="217"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="140"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="208"/>
-      <c r="B18" s="233" t="s">
+      <c r="A18" s="153"/>
+      <c r="B18" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="234"/>
-      <c r="D18" s="235"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="229" t="s">
+      <c r="G18" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="229"/>
-      <c r="I18" s="229"/>
-      <c r="J18" s="229"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -3799,85 +3886,85 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="229"/>
-      <c r="P18" s="229"/>
-      <c r="Q18" s="229"/>
-      <c r="R18" s="229"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="165" t="s">
+      <c r="U18" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="V18" s="166"/>
-      <c r="W18" s="166"/>
-      <c r="X18" s="166"/>
-      <c r="Y18" s="167"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="100"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="208"/>
-      <c r="B19" s="180" t="s">
+      <c r="A19" s="153"/>
+      <c r="B19" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="190"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="191"/>
-      <c r="K19" s="191"/>
-      <c r="L19" s="191"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="191"/>
-      <c r="O19" s="191"/>
-      <c r="P19" s="191"/>
-      <c r="Q19" s="191"/>
-      <c r="R19" s="191"/>
-      <c r="S19" s="191"/>
-      <c r="T19" s="191"/>
-      <c r="U19" s="191"/>
-      <c r="V19" s="191"/>
-      <c r="W19" s="191"/>
-      <c r="X19" s="191"/>
-      <c r="Y19" s="192"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="84"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="208"/>
-      <c r="B20" s="181"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="129"/>
-      <c r="Y20" s="130"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="147"/>
+      <c r="X20" s="147"/>
+      <c r="Y20" s="148"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="208"/>
-      <c r="B21" s="181"/>
-      <c r="C21" s="168" t="s">
+      <c r="A21" s="153"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="168"/>
+      <c r="D21" s="181"/>
       <c r="E21" s="23" t="s">
         <v>165</v>
       </c>
@@ -3891,50 +3978,50 @@
         <v>167</v>
       </c>
       <c r="K21" s="25"/>
-      <c r="L21" s="210" t="s">
+      <c r="L21" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="183"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="184"/>
-      <c r="P21" s="184"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
       <c r="Q21" s="8" t="s">
         <v>154</v>
       </c>
       <c r="R21" s="9"/>
-      <c r="S21" s="218" t="s">
+      <c r="S21" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="219"/>
-      <c r="U21" s="219"/>
-      <c r="V21" s="219"/>
-      <c r="W21" s="219"/>
-      <c r="X21" s="219"/>
-      <c r="Y21" s="220"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="107"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="174"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="169" t="s">
+      <c r="A22" s="154"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="169"/>
-      <c r="E22" s="221" t="s">
+      <c r="D22" s="108"/>
+      <c r="E22" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="211"/>
-      <c r="M22" s="170" t="s">
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171"/>
-      <c r="P22" s="171"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
       <c r="Q22" s="5" t="s">
         <v>155</v>
       </c>
@@ -3954,133 +4041,133 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="203" t="s">
+      <c r="A23" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="233" t="s">
+      <c r="B23" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="234"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="250" t="s">
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="234"/>
-      <c r="G23" s="234"/>
-      <c r="H23" s="234"/>
-      <c r="I23" s="234"/>
-      <c r="J23" s="234"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="234"/>
-      <c r="M23" s="234"/>
-      <c r="N23" s="234"/>
-      <c r="O23" s="234"/>
-      <c r="P23" s="234"/>
-      <c r="Q23" s="234"/>
-      <c r="R23" s="234"/>
-      <c r="S23" s="234"/>
-      <c r="T23" s="234"/>
-      <c r="U23" s="234"/>
-      <c r="V23" s="234"/>
-      <c r="W23" s="234"/>
-      <c r="X23" s="234"/>
-      <c r="Y23" s="251"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="91"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="208"/>
-      <c r="B24" s="233" t="s">
+      <c r="A24" s="153"/>
+      <c r="B24" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="234"/>
-      <c r="D24" s="235"/>
-      <c r="E24" s="213" t="s">
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="213"/>
-      <c r="L24" s="213"/>
-      <c r="M24" s="213"/>
-      <c r="N24" s="213"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
       <c r="O24" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="252"/>
-      <c r="R24" s="252"/>
-      <c r="S24" s="253" t="s">
+      <c r="P24" s="97"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="254"/>
-      <c r="U24" s="248" t="s">
+      <c r="T24" s="94"/>
+      <c r="U24" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="248"/>
-      <c r="W24" s="248"/>
-      <c r="X24" s="248"/>
-      <c r="Y24" s="249"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="86"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="208"/>
-      <c r="B25" s="233" t="s">
+      <c r="A25" s="153"/>
+      <c r="B25" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="234"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="191"/>
-      <c r="P25" s="191"/>
-      <c r="Q25" s="191"/>
-      <c r="R25" s="191"/>
-      <c r="S25" s="191"/>
-      <c r="T25" s="192"/>
-      <c r="U25" s="165" t="s">
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="V25" s="166"/>
-      <c r="W25" s="166"/>
-      <c r="X25" s="166"/>
-      <c r="Y25" s="167"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="100"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="208"/>
-      <c r="B26" s="233" t="s">
+      <c r="A26" s="153"/>
+      <c r="B26" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="234"/>
-      <c r="D26" s="235"/>
-      <c r="E26" s="88" t="s">
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
       <c r="O26" s="21"/>
       <c r="P26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="236" t="s">
+      <c r="Q26" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="R26" s="236"/>
+      <c r="R26" s="101"/>
       <c r="S26" s="31" t="s">
         <v>13</v>
       </c>
@@ -4088,80 +4175,80 @@
       <c r="U26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="236"/>
-      <c r="W26" s="236"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
       <c r="X26" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="208"/>
-      <c r="B27" s="233" t="s">
+      <c r="A27" s="153"/>
+      <c r="B27" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="234"/>
-      <c r="D27" s="235"/>
-      <c r="E27" s="88" t="s">
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="93" t="s">
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="236"/>
-      <c r="N27" s="240"/>
-      <c r="O27" s="244"/>
-      <c r="P27" s="236"/>
-      <c r="Q27" s="245"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="114"/>
       <c r="R27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="218" t="s">
+      <c r="S27" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="219"/>
-      <c r="U27" s="219"/>
-      <c r="V27" s="219"/>
-      <c r="W27" s="219"/>
-      <c r="X27" s="219"/>
-      <c r="Y27" s="220"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="107"/>
       <c r="Z27" s="33"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="208"/>
-      <c r="B28" s="86" t="s">
+      <c r="A28" s="153"/>
+      <c r="B28" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="242" t="s">
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="243"/>
-      <c r="G28" s="243"/>
-      <c r="H28" s="243"/>
-      <c r="I28" s="243"/>
-      <c r="J28" s="243"/>
-      <c r="K28" s="243"/>
-      <c r="L28" s="243"/>
-      <c r="M28" s="243"/>
-      <c r="N28" s="243"/>
-      <c r="O28" s="243"/>
-      <c r="P28" s="243"/>
-      <c r="Q28" s="243"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
       <c r="R28" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="246" t="s">
+      <c r="S28" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="T28" s="247"/>
+      <c r="T28" s="116"/>
       <c r="U28" s="28" t="s">
         <v>28</v>
       </c>
@@ -4180,125 +4267,125 @@
       <c r="Z28" s="33"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="208"/>
-      <c r="B29" s="180" t="s">
+      <c r="A29" s="153"/>
+      <c r="B29" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="190"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="191"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="191"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="191"/>
-      <c r="R29" s="191"/>
-      <c r="S29" s="191"/>
-      <c r="T29" s="191"/>
-      <c r="U29" s="191"/>
-      <c r="V29" s="191"/>
-      <c r="W29" s="191"/>
-      <c r="X29" s="191"/>
-      <c r="Y29" s="192"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="84"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="208"/>
-      <c r="B30" s="181"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="129"/>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="129"/>
-      <c r="T30" s="129"/>
-      <c r="U30" s="129"/>
-      <c r="V30" s="129"/>
-      <c r="W30" s="129"/>
-      <c r="X30" s="129"/>
-      <c r="Y30" s="130"/>
+      <c r="A30" s="153"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="147"/>
+      <c r="Q30" s="147"/>
+      <c r="R30" s="147"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="147"/>
+      <c r="W30" s="147"/>
+      <c r="X30" s="147"/>
+      <c r="Y30" s="148"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="208"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="168" t="s">
+      <c r="A31" s="153"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="168"/>
-      <c r="E31" s="193" t="s">
+      <c r="D31" s="181"/>
+      <c r="E31" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="194"/>
-      <c r="G31" s="209" t="s">
+      <c r="F31" s="118"/>
+      <c r="G31" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="H31" s="191"/>
-      <c r="I31" s="191"/>
-      <c r="J31" s="191"/>
-      <c r="K31" s="191"/>
-      <c r="L31" s="210" t="s">
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="183"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="218" t="s">
+      <c r="M31" s="156"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="166"/>
+      <c r="R31" s="167"/>
+      <c r="S31" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="219"/>
-      <c r="U31" s="219"/>
-      <c r="V31" s="219"/>
-      <c r="W31" s="219"/>
-      <c r="X31" s="219"/>
-      <c r="Y31" s="220"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="107"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="174"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="169" t="s">
+      <c r="A32" s="154"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="169"/>
-      <c r="E32" s="131" t="s">
+      <c r="D32" s="108"/>
+      <c r="E32" s="245" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="211"/>
-      <c r="M32" s="170" t="s">
+      <c r="F32" s="246"/>
+      <c r="G32" s="246"/>
+      <c r="H32" s="246"/>
+      <c r="I32" s="246"/>
+      <c r="J32" s="246"/>
+      <c r="K32" s="247"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="144" t="s">
         <v>175</v>
       </c>
-      <c r="N32" s="171"/>
-      <c r="O32" s="171"/>
-      <c r="P32" s="171"/>
-      <c r="Q32" s="202" t="s">
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="165" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="197"/>
+      <c r="R32" s="160"/>
       <c r="S32" s="26" t="s">
         <v>177</v>
       </c>
@@ -4322,330 +4409,330 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="172" t="s">
+      <c r="A33" s="182" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="175" t="s">
+      <c r="D33" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="177"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="186"/>
       <c r="J33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="185" t="s">
+      <c r="K33" s="191" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="35"/>
-      <c r="N33" s="158" t="s">
+      <c r="N33" s="217" t="s">
         <v>95</v>
       </c>
-      <c r="O33" s="159"/>
-      <c r="P33" s="159"/>
-      <c r="Q33" s="159"/>
-      <c r="R33" s="159"/>
-      <c r="S33" s="159"/>
-      <c r="T33" s="159"/>
-      <c r="U33" s="127" t="s">
+      <c r="O33" s="218"/>
+      <c r="P33" s="218"/>
+      <c r="Q33" s="218"/>
+      <c r="R33" s="218"/>
+      <c r="S33" s="218"/>
+      <c r="T33" s="218"/>
+      <c r="U33" s="244" t="s">
         <v>96</v>
       </c>
-      <c r="V33" s="124"/>
-      <c r="W33" s="124"/>
-      <c r="X33" s="124"/>
+      <c r="V33" s="243"/>
+      <c r="W33" s="243"/>
+      <c r="X33" s="243"/>
       <c r="Y33" s="38" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="33"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="173"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="40"/>
-      <c r="D34" s="140" t="s">
+      <c r="D34" s="187" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
       <c r="J34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="186"/>
+      <c r="K34" s="192"/>
       <c r="L34" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="40"/>
-      <c r="N34" s="145" t="s">
+      <c r="N34" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="O34" s="146"/>
-      <c r="P34" s="146"/>
-      <c r="Q34" s="146"/>
-      <c r="R34" s="146"/>
-      <c r="S34" s="146"/>
-      <c r="T34" s="146"/>
-      <c r="U34" s="144" t="s">
+      <c r="O34" s="174"/>
+      <c r="P34" s="174"/>
+      <c r="Q34" s="174"/>
+      <c r="R34" s="174"/>
+      <c r="S34" s="174"/>
+      <c r="T34" s="174"/>
+      <c r="U34" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="V34" s="122"/>
-      <c r="W34" s="122"/>
-      <c r="X34" s="122"/>
+      <c r="V34" s="204"/>
+      <c r="W34" s="204"/>
+      <c r="X34" s="204"/>
       <c r="Y34" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="173"/>
+      <c r="A35" s="183"/>
       <c r="B35" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="40"/>
-      <c r="D35" s="140" t="s">
+      <c r="D35" s="187" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="188"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="188"/>
       <c r="J35" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="186"/>
+      <c r="K35" s="192"/>
       <c r="L35" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="40"/>
-      <c r="N35" s="145" t="s">
+      <c r="N35" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="O35" s="146"/>
-      <c r="P35" s="146"/>
-      <c r="Q35" s="146"/>
-      <c r="R35" s="146"/>
-      <c r="S35" s="146"/>
-      <c r="T35" s="146"/>
-      <c r="U35" s="144" t="s">
+      <c r="O35" s="174"/>
+      <c r="P35" s="174"/>
+      <c r="Q35" s="174"/>
+      <c r="R35" s="174"/>
+      <c r="S35" s="174"/>
+      <c r="T35" s="174"/>
+      <c r="U35" s="203" t="s">
         <v>99</v>
       </c>
-      <c r="V35" s="122"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="122"/>
+      <c r="V35" s="204"/>
+      <c r="W35" s="204"/>
+      <c r="X35" s="204"/>
       <c r="Y35" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="173"/>
+      <c r="A36" s="183"/>
       <c r="B36" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="44"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="188"/>
       <c r="J36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="187"/>
+      <c r="K36" s="193"/>
       <c r="L36" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M36" s="44"/>
-      <c r="N36" s="145" t="s">
+      <c r="N36" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="O36" s="146"/>
-      <c r="P36" s="146"/>
-      <c r="Q36" s="146"/>
-      <c r="R36" s="146"/>
-      <c r="S36" s="146"/>
-      <c r="T36" s="146"/>
-      <c r="U36" s="144" t="s">
+      <c r="O36" s="174"/>
+      <c r="P36" s="174"/>
+      <c r="Q36" s="174"/>
+      <c r="R36" s="174"/>
+      <c r="S36" s="174"/>
+      <c r="T36" s="174"/>
+      <c r="U36" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="V36" s="122"/>
-      <c r="W36" s="122"/>
-      <c r="X36" s="122"/>
+      <c r="V36" s="204"/>
+      <c r="W36" s="204"/>
+      <c r="X36" s="204"/>
       <c r="Y36" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="173"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="45" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="44"/>
-      <c r="D37" s="140" t="s">
+      <c r="D37" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
       <c r="J37" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="187"/>
+      <c r="K37" s="193"/>
       <c r="L37" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M37" s="44"/>
-      <c r="N37" s="145" t="s">
+      <c r="N37" s="173" t="s">
         <v>104</v>
       </c>
-      <c r="O37" s="146"/>
-      <c r="P37" s="146"/>
-      <c r="Q37" s="146"/>
-      <c r="R37" s="146"/>
-      <c r="S37" s="146"/>
-      <c r="T37" s="146"/>
-      <c r="U37" s="144" t="s">
+      <c r="O37" s="174"/>
+      <c r="P37" s="174"/>
+      <c r="Q37" s="174"/>
+      <c r="R37" s="174"/>
+      <c r="S37" s="174"/>
+      <c r="T37" s="174"/>
+      <c r="U37" s="203" t="s">
         <v>103</v>
       </c>
-      <c r="V37" s="122"/>
-      <c r="W37" s="122"/>
-      <c r="X37" s="122"/>
+      <c r="V37" s="204"/>
+      <c r="W37" s="204"/>
+      <c r="X37" s="204"/>
       <c r="Y37" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="173"/>
-      <c r="B38" s="134" t="s">
+      <c r="A38" s="183"/>
+      <c r="B38" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="135"/>
-      <c r="D38" s="147" t="s">
+      <c r="C38" s="198"/>
+      <c r="D38" s="206" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="153" t="s">
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="187"/>
+      <c r="K38" s="193"/>
       <c r="L38" s="42" t="s">
         <v>82</v>
       </c>
       <c r="M38" s="40"/>
-      <c r="N38" s="145" t="s">
+      <c r="N38" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="O38" s="146"/>
-      <c r="P38" s="146"/>
-      <c r="Q38" s="146"/>
-      <c r="R38" s="146"/>
-      <c r="S38" s="146"/>
-      <c r="T38" s="146"/>
-      <c r="U38" s="144" t="s">
+      <c r="O38" s="174"/>
+      <c r="P38" s="174"/>
+      <c r="Q38" s="174"/>
+      <c r="R38" s="174"/>
+      <c r="S38" s="174"/>
+      <c r="T38" s="174"/>
+      <c r="U38" s="203" t="s">
         <v>105</v>
       </c>
-      <c r="V38" s="122"/>
-      <c r="W38" s="122"/>
-      <c r="X38" s="122"/>
+      <c r="V38" s="204"/>
+      <c r="W38" s="204"/>
+      <c r="X38" s="204"/>
       <c r="Y38" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="173"/>
-      <c r="B39" s="136"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="154"/>
-      <c r="K39" s="188"/>
+      <c r="A39" s="183"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="200"/>
+      <c r="D39" s="208"/>
+      <c r="E39" s="209"/>
+      <c r="F39" s="209"/>
+      <c r="G39" s="209"/>
+      <c r="H39" s="209"/>
+      <c r="I39" s="209"/>
+      <c r="J39" s="213"/>
+      <c r="K39" s="194"/>
       <c r="L39" s="46" t="s">
         <v>83</v>
       </c>
       <c r="M39" s="47"/>
-      <c r="N39" s="142" t="s">
+      <c r="N39" s="248" t="s">
         <v>106</v>
       </c>
-      <c r="O39" s="143"/>
-      <c r="P39" s="143"/>
-      <c r="Q39" s="143"/>
-      <c r="R39" s="143"/>
-      <c r="S39" s="143"/>
-      <c r="T39" s="143"/>
-      <c r="U39" s="156" t="s">
+      <c r="O39" s="249"/>
+      <c r="P39" s="249"/>
+      <c r="Q39" s="249"/>
+      <c r="R39" s="249"/>
+      <c r="S39" s="249"/>
+      <c r="T39" s="249"/>
+      <c r="U39" s="215" t="s">
         <v>107</v>
       </c>
-      <c r="V39" s="157"/>
-      <c r="W39" s="157"/>
-      <c r="X39" s="157"/>
+      <c r="V39" s="216"/>
+      <c r="W39" s="216"/>
+      <c r="X39" s="216"/>
       <c r="Y39" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="174"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="152"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="152"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="152"/>
-      <c r="J40" s="155"/>
-      <c r="K40" s="178" t="s">
+      <c r="A40" s="154"/>
+      <c r="B40" s="201"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="210"/>
+      <c r="E40" s="211"/>
+      <c r="F40" s="211"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="211"/>
+      <c r="I40" s="211"/>
+      <c r="J40" s="214"/>
+      <c r="K40" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="L40" s="87"/>
-      <c r="M40" s="179"/>
-      <c r="N40" s="125" t="s">
+      <c r="L40" s="82"/>
+      <c r="M40" s="190"/>
+      <c r="N40" s="195" t="s">
         <v>108</v>
       </c>
-      <c r="O40" s="126"/>
-      <c r="P40" s="126"/>
+      <c r="O40" s="129"/>
+      <c r="P40" s="129"/>
       <c r="Q40" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="R40" s="189" t="s">
+      <c r="R40" s="196" t="s">
         <v>73</v>
       </c>
-      <c r="S40" s="87"/>
-      <c r="T40" s="87"/>
-      <c r="U40" s="87"/>
-      <c r="V40" s="125" t="s">
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="82"/>
+      <c r="V40" s="195" t="s">
         <v>161</v>
       </c>
-      <c r="W40" s="126"/>
-      <c r="X40" s="126"/>
+      <c r="W40" s="129"/>
+      <c r="X40" s="129"/>
       <c r="Y40" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="203" t="s">
+      <c r="A41" s="168" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="49" t="s">
@@ -4656,14 +4743,14 @@
         <v>56</v>
       </c>
       <c r="E41" s="52"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="107" t="s">
+      <c r="F41" s="231"/>
+      <c r="G41" s="232"/>
+      <c r="H41" s="232"/>
+      <c r="I41" s="232"/>
+      <c r="J41" s="205" t="s">
         <v>157</v>
       </c>
-      <c r="K41" s="107"/>
+      <c r="K41" s="205"/>
       <c r="L41" s="53" t="s">
         <v>70</v>
       </c>
@@ -4679,16 +4766,16 @@
       <c r="R41" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="115"/>
-      <c r="T41" s="116"/>
-      <c r="U41" s="116"/>
-      <c r="V41" s="116"/>
-      <c r="W41" s="116"/>
-      <c r="X41" s="116"/>
-      <c r="Y41" s="117"/>
+      <c r="S41" s="235"/>
+      <c r="T41" s="236"/>
+      <c r="U41" s="236"/>
+      <c r="V41" s="236"/>
+      <c r="W41" s="236"/>
+      <c r="X41" s="236"/>
+      <c r="Y41" s="237"/>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="204"/>
+      <c r="A42" s="169"/>
       <c r="B42" s="57" t="s">
         <v>55</v>
       </c>
@@ -4697,14 +4784,14 @@
         <v>57</v>
       </c>
       <c r="E42" s="60"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="114" t="s">
+      <c r="F42" s="233"/>
+      <c r="G42" s="234"/>
+      <c r="H42" s="234"/>
+      <c r="I42" s="234"/>
+      <c r="J42" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="K42" s="114"/>
+      <c r="K42" s="178"/>
       <c r="L42" s="61" t="s">
         <v>70</v>
       </c>
@@ -4720,16 +4807,16 @@
       <c r="R42" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="S42" s="118"/>
-      <c r="T42" s="119"/>
-      <c r="U42" s="119"/>
-      <c r="V42" s="119"/>
-      <c r="W42" s="119"/>
-      <c r="X42" s="119"/>
-      <c r="Y42" s="120"/>
+      <c r="S42" s="238"/>
+      <c r="T42" s="239"/>
+      <c r="U42" s="239"/>
+      <c r="V42" s="239"/>
+      <c r="W42" s="239"/>
+      <c r="X42" s="239"/>
+      <c r="Y42" s="240"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="204"/>
+      <c r="A43" s="169"/>
       <c r="B43" s="49" t="s">
         <v>59</v>
       </c>
@@ -4738,35 +4825,35 @@
         <v>60</v>
       </c>
       <c r="E43" s="52"/>
-      <c r="F43" s="107" t="s">
+      <c r="F43" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="109"/>
-      <c r="M43" s="123" t="s">
+      <c r="G43" s="205"/>
+      <c r="H43" s="205"/>
+      <c r="I43" s="205"/>
+      <c r="J43" s="229"/>
+      <c r="K43" s="229"/>
+      <c r="L43" s="230"/>
+      <c r="M43" s="242" t="s">
         <v>110</v>
       </c>
-      <c r="N43" s="124"/>
-      <c r="O43" s="124"/>
-      <c r="P43" s="124"/>
-      <c r="Q43" s="107" t="s">
+      <c r="N43" s="243"/>
+      <c r="O43" s="243"/>
+      <c r="P43" s="243"/>
+      <c r="Q43" s="205" t="s">
         <v>157</v>
       </c>
-      <c r="R43" s="107"/>
-      <c r="S43" s="115"/>
-      <c r="T43" s="116"/>
-      <c r="U43" s="116"/>
-      <c r="V43" s="116"/>
-      <c r="W43" s="116"/>
-      <c r="X43" s="116"/>
-      <c r="Y43" s="117"/>
+      <c r="R43" s="205"/>
+      <c r="S43" s="235"/>
+      <c r="T43" s="236"/>
+      <c r="U43" s="236"/>
+      <c r="V43" s="236"/>
+      <c r="W43" s="236"/>
+      <c r="X43" s="236"/>
+      <c r="Y43" s="237"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="204"/>
+      <c r="A44" s="169"/>
       <c r="B44" s="57" t="s">
         <v>55</v>
       </c>
@@ -4775,266 +4862,520 @@
         <v>60</v>
       </c>
       <c r="E44" s="60"/>
-      <c r="F44" s="114" t="s">
+      <c r="F44" s="178" t="s">
         <v>111</v>
       </c>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="163"/>
-      <c r="K44" s="163"/>
-      <c r="L44" s="164"/>
-      <c r="M44" s="121" t="s">
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="179"/>
+      <c r="K44" s="179"/>
+      <c r="L44" s="180"/>
+      <c r="M44" s="241" t="s">
         <v>112</v>
       </c>
-      <c r="N44" s="122"/>
-      <c r="O44" s="122"/>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="114" t="s">
+      <c r="N44" s="204"/>
+      <c r="O44" s="204"/>
+      <c r="P44" s="204"/>
+      <c r="Q44" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="R44" s="114"/>
-      <c r="S44" s="118"/>
-      <c r="T44" s="119"/>
-      <c r="U44" s="119"/>
-      <c r="V44" s="119"/>
-      <c r="W44" s="119"/>
-      <c r="X44" s="119"/>
-      <c r="Y44" s="120"/>
+      <c r="R44" s="178"/>
+      <c r="S44" s="238"/>
+      <c r="T44" s="239"/>
+      <c r="U44" s="239"/>
+      <c r="V44" s="239"/>
+      <c r="W44" s="239"/>
+      <c r="X44" s="239"/>
+      <c r="Y44" s="240"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="205" t="s">
+      <c r="A45" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="88" t="s">
+      <c r="C45" s="82"/>
+      <c r="D45" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="93" t="s">
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="94"/>
-      <c r="N45" s="88" t="s">
+      <c r="M45" s="130"/>
+      <c r="N45" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="87"/>
-      <c r="S45" s="87"/>
-      <c r="T45" s="87"/>
-      <c r="U45" s="87"/>
-      <c r="V45" s="87"/>
-      <c r="W45" s="87"/>
-      <c r="X45" s="87"/>
-      <c r="Y45" s="89"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="102"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="206"/>
-      <c r="B46" s="86" t="s">
+      <c r="A46" s="171"/>
+      <c r="B46" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="88" t="s">
+      <c r="C46" s="82"/>
+      <c r="D46" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="93" t="s">
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="94"/>
-      <c r="N46" s="88" t="s">
+      <c r="M46" s="130"/>
+      <c r="N46" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
-      <c r="S46" s="87"/>
-      <c r="T46" s="87"/>
-      <c r="U46" s="87"/>
-      <c r="V46" s="87"/>
-      <c r="W46" s="87"/>
-      <c r="X46" s="87"/>
-      <c r="Y46" s="89"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="82"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="82"/>
+      <c r="U46" s="82"/>
+      <c r="V46" s="82"/>
+      <c r="W46" s="82"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="102"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="207"/>
-      <c r="B47" s="86" t="s">
+      <c r="A47" s="172"/>
+      <c r="B47" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="93" t="s">
+      <c r="C47" s="82"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="94"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="87"/>
-      <c r="V47" s="87"/>
-      <c r="W47" s="87"/>
-      <c r="X47" s="87"/>
-      <c r="Y47" s="89"/>
+      <c r="M47" s="130"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="82"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="82"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82"/>
+      <c r="Y47" s="102"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="102" t="s">
+      <c r="A48" s="226" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="103"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="M48" s="105"/>
-      <c r="N48" s="105"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="105"/>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="105"/>
-      <c r="S48" s="105"/>
-      <c r="T48" s="105"/>
-      <c r="U48" s="105"/>
-      <c r="V48" s="105"/>
-      <c r="W48" s="105"/>
-      <c r="X48" s="105"/>
-      <c r="Y48" s="106"/>
+      <c r="B48" s="227"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="228"/>
+      <c r="E48" s="228"/>
+      <c r="F48" s="228"/>
+      <c r="G48" s="228"/>
+      <c r="H48" s="228"/>
+      <c r="I48" s="228"/>
+      <c r="J48" s="228"/>
+      <c r="K48" s="228"/>
+      <c r="L48" s="228"/>
+      <c r="M48" s="228"/>
+      <c r="N48" s="228"/>
+      <c r="O48" s="228"/>
+      <c r="P48" s="228"/>
+      <c r="Q48" s="228"/>
+      <c r="R48" s="228"/>
+      <c r="S48" s="228"/>
+      <c r="T48" s="228"/>
+      <c r="U48" s="228"/>
+      <c r="V48" s="228"/>
+      <c r="W48" s="228"/>
+      <c r="X48" s="228"/>
+      <c r="Y48" s="167"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="160" t="s">
+      <c r="A49" s="175" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="161"/>
-      <c r="C49" s="161"/>
-      <c r="D49" s="161"/>
-      <c r="E49" s="161"/>
-      <c r="F49" s="161"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="161"/>
-      <c r="J49" s="161"/>
-      <c r="K49" s="161"/>
-      <c r="L49" s="161"/>
-      <c r="M49" s="161"/>
-      <c r="N49" s="161"/>
-      <c r="O49" s="161"/>
-      <c r="P49" s="161"/>
-      <c r="Q49" s="161"/>
-      <c r="R49" s="161"/>
-      <c r="S49" s="161"/>
-      <c r="T49" s="161"/>
-      <c r="U49" s="161"/>
-      <c r="V49" s="161"/>
-      <c r="W49" s="161"/>
-      <c r="X49" s="161"/>
-      <c r="Y49" s="162"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="176"/>
+      <c r="D49" s="176"/>
+      <c r="E49" s="176"/>
+      <c r="F49" s="176"/>
+      <c r="G49" s="176"/>
+      <c r="H49" s="176"/>
+      <c r="I49" s="176"/>
+      <c r="J49" s="176"/>
+      <c r="K49" s="176"/>
+      <c r="L49" s="176"/>
+      <c r="M49" s="176"/>
+      <c r="N49" s="176"/>
+      <c r="O49" s="176"/>
+      <c r="P49" s="176"/>
+      <c r="Q49" s="176"/>
+      <c r="R49" s="176"/>
+      <c r="S49" s="176"/>
+      <c r="T49" s="176"/>
+      <c r="U49" s="176"/>
+      <c r="V49" s="176"/>
+      <c r="W49" s="176"/>
+      <c r="X49" s="176"/>
+      <c r="Y49" s="177"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="195"/>
-      <c r="B50" s="196"/>
-      <c r="C50" s="196"/>
-      <c r="D50" s="196"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="196"/>
-      <c r="G50" s="196"/>
-      <c r="H50" s="196"/>
-      <c r="I50" s="196"/>
-      <c r="J50" s="196"/>
-      <c r="K50" s="196"/>
-      <c r="L50" s="196"/>
-      <c r="M50" s="196"/>
-      <c r="N50" s="196"/>
-      <c r="O50" s="196"/>
-      <c r="P50" s="196"/>
-      <c r="Q50" s="196"/>
-      <c r="R50" s="196"/>
-      <c r="S50" s="196"/>
-      <c r="T50" s="196"/>
-      <c r="U50" s="196"/>
-      <c r="V50" s="196"/>
-      <c r="W50" s="196"/>
-      <c r="X50" s="196"/>
-      <c r="Y50" s="197"/>
+      <c r="A50" s="158"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="159"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="159"/>
+      <c r="I50" s="159"/>
+      <c r="J50" s="159"/>
+      <c r="K50" s="159"/>
+      <c r="L50" s="159"/>
+      <c r="M50" s="159"/>
+      <c r="N50" s="159"/>
+      <c r="O50" s="159"/>
+      <c r="P50" s="159"/>
+      <c r="Q50" s="159"/>
+      <c r="R50" s="159"/>
+      <c r="S50" s="159"/>
+      <c r="T50" s="159"/>
+      <c r="U50" s="159"/>
+      <c r="V50" s="159"/>
+      <c r="W50" s="159"/>
+      <c r="X50" s="159"/>
+      <c r="Y50" s="160"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="250" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="124"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="124"/>
+      <c r="M51" s="124"/>
+      <c r="N51" s="124"/>
+      <c r="O51" s="124"/>
+      <c r="P51" s="124"/>
+      <c r="Q51" s="124"/>
+      <c r="R51" s="124"/>
+      <c r="S51" s="124"/>
+      <c r="T51" s="124"/>
+      <c r="U51" s="124"/>
+      <c r="V51" s="124"/>
+      <c r="W51" s="124"/>
+      <c r="X51" s="124"/>
+      <c r="Y51" s="251"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="252"/>
+      <c r="B52" s="253"/>
+      <c r="C52" s="253"/>
+      <c r="D52" s="253"/>
+      <c r="E52" s="253"/>
+      <c r="F52" s="253"/>
+      <c r="G52" s="253"/>
+      <c r="H52" s="253"/>
+      <c r="I52" s="253"/>
+      <c r="J52" s="253"/>
+      <c r="K52" s="253"/>
+      <c r="L52" s="253"/>
+      <c r="M52" s="253"/>
+      <c r="N52" s="253"/>
+      <c r="O52" s="253"/>
+      <c r="P52" s="253"/>
+      <c r="Q52" s="253"/>
+      <c r="R52" s="253"/>
+      <c r="S52" s="253"/>
+      <c r="T52" s="253"/>
+      <c r="U52" s="253"/>
+      <c r="V52" s="253"/>
+      <c r="W52" s="253"/>
+      <c r="X52" s="253"/>
+      <c r="Y52" s="254"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="255"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="161"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="161"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="161"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="161"/>
+      <c r="K53" s="161"/>
+      <c r="L53" s="161"/>
+      <c r="M53" s="161"/>
+      <c r="N53" s="161"/>
+      <c r="O53" s="161"/>
+      <c r="P53" s="161"/>
+      <c r="Q53" s="161"/>
+      <c r="R53" s="161"/>
+      <c r="S53" s="161"/>
+      <c r="T53" s="161"/>
+      <c r="U53" s="161"/>
+      <c r="V53" s="161"/>
+      <c r="W53" s="161"/>
+      <c r="X53" s="161"/>
+      <c r="Y53" s="256"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="9"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="77"/>
+      <c r="Y57" s="78"/>
+    </row>
+    <row r="58" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="77"/>
+      <c r="B58" s="253" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="253"/>
+      <c r="D58" s="253"/>
+      <c r="E58" s="253"/>
+      <c r="F58" s="253"/>
+      <c r="G58" s="253" t="s">
+        <v>188</v>
+      </c>
+      <c r="H58" s="253"/>
+      <c r="I58" s="253"/>
+      <c r="J58" s="253"/>
+      <c r="L58" s="209" t="s">
+        <v>189</v>
+      </c>
+      <c r="M58" s="209"/>
+      <c r="N58" s="209"/>
+      <c r="O58" s="209"/>
+      <c r="P58" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y58" s="78"/>
+    </row>
+    <row r="59" spans="1:25" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="77"/>
+      <c r="B59" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="257" t="s">
+        <v>193</v>
+      </c>
+      <c r="M59" s="257"/>
+      <c r="N59" s="257"/>
+      <c r="O59" s="257"/>
+      <c r="P59" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y59" s="78"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="77"/>
+      <c r="Y60" s="78"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="79"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="169">
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E23:Y23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="N8:Y8"/>
+  <mergeCells count="176">
+    <mergeCell ref="A51:Y51"/>
+    <mergeCell ref="A52:Y52"/>
+    <mergeCell ref="A53:Y53"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="N12:Y12"/>
+    <mergeCell ref="N13:Y13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="N6:Y6"/>
+    <mergeCell ref="N7:Y7"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="N10:Y10"/>
+    <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:Y48"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="S41:Y41"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="S43:Y43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="N38:T38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="D38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="N36:T36"/>
+    <mergeCell ref="N37:T37"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="N39:T39"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="A49:Y49"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="K33:K39"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="C29:Y29"/>
+    <mergeCell ref="B38:C40"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="A50:Y50"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:Y45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:Y46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="N47:Y47"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="A23:A32"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A15:Y15"/>
     <mergeCell ref="C19:Y19"/>
@@ -5056,111 +5397,62 @@
     <mergeCell ref="G14:Y14"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="C20:Y20"/>
-    <mergeCell ref="A50:Y50"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:Y45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:Y46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:Y47"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="A49:Y49"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="K33:K39"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="R40:U40"/>
-    <mergeCell ref="C29:Y29"/>
-    <mergeCell ref="E31:F31"/>
     <mergeCell ref="M21:P21"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="C30:Y30"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="B38:C40"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="N39:T39"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="N38:T38"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="D38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N35:T35"/>
-    <mergeCell ref="N36:T36"/>
-    <mergeCell ref="N37:T37"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:Y48"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="S41:Y41"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="S43:Y43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="S44:Y44"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="N12:Y12"/>
-    <mergeCell ref="N13:Y13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="N6:Y6"/>
-    <mergeCell ref="N7:Y7"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="N10:Y10"/>
-    <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="N8:Y8"/>
     <mergeCell ref="N11:Y11"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="D9:K9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="L9:M9"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="L4:N5"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="C30:Y30"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E23:Y23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="U25:Y25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
@@ -5192,60 +5484,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="258" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="76" t="s">
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="R1" s="78" t="s">
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="R1" s="260" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="80" t="s">
+      <c r="S1" s="261"/>
+      <c r="T1" s="261"/>
+      <c r="U1" s="262" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="82"/>
+      <c r="V1" s="263"/>
+      <c r="W1" s="263"/>
+      <c r="X1" s="263"/>
+      <c r="Y1" s="264"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="R2" s="78" t="s">
+      <c r="A2" s="259"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
+      <c r="R2" s="260" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="83" t="s">
+      <c r="S2" s="261"/>
+      <c r="T2" s="261"/>
+      <c r="U2" s="265" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="85"/>
+      <c r="V2" s="266"/>
+      <c r="W2" s="266"/>
+      <c r="X2" s="266"/>
+      <c r="Y2" s="267"/>
     </row>
     <row r="3" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -5275,26 +5567,26 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="226" t="s">
+      <c r="B4" s="220"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
-      <c r="K4" s="228"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
       <c r="L4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="97"/>
       <c r="O4" s="7" t="s">
         <v>77</v>
       </c>
@@ -5316,24 +5608,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="226" t="s">
+      <c r="B5" s="220"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="227"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="227"/>
-      <c r="K5" s="228"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="223"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="225"/>
       <c r="O5" s="10" t="s">
         <v>71</v>
       </c>
@@ -5344,10 +5636,10 @@
       <c r="R5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="198" t="s">
+      <c r="S5" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="199"/>
+      <c r="T5" s="162"/>
       <c r="U5" s="11" t="s">
         <v>71</v>
       </c>
@@ -5365,325 +5657,325 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="88" t="s">
+      <c r="C6" s="82"/>
+      <c r="D6" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="93" t="s">
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="88" t="s">
+      <c r="M6" s="130"/>
+      <c r="N6" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="89"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="102"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="95"/>
-      <c r="B7" s="86" t="s">
+      <c r="A7" s="134"/>
+      <c r="B7" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="93" t="s">
+      <c r="C7" s="82"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="89"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="102"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="95"/>
-      <c r="B8" s="86" t="s">
+      <c r="A8" s="134"/>
+      <c r="B8" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="93" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="94"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="89"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="102"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="95"/>
-      <c r="B9" s="200" t="s">
+      <c r="A9" s="134"/>
+      <c r="B9" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="201"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="93" t="s">
+      <c r="C9" s="164"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="94"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="89"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="102"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88" t="s">
+      <c r="C10" s="82"/>
+      <c r="D10" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="93" t="s">
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="94"/>
-      <c r="N10" s="88" t="s">
+      <c r="M10" s="130"/>
+      <c r="N10" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="89"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="95"/>
-      <c r="B11" s="86" t="s">
+      <c r="A11" s="134"/>
+      <c r="B11" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="93" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="94"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="89"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="102"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="95"/>
-      <c r="B12" s="86" t="s">
+      <c r="A12" s="134"/>
+      <c r="B12" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="93" t="s">
+      <c r="C12" s="82"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="94"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="89"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="102"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="95"/>
-      <c r="B13" s="200" t="s">
+      <c r="A13" s="134"/>
+      <c r="B13" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="201"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="93" t="s">
+      <c r="C13" s="164"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="94"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="89"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="102"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="224"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="191" t="s">
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="191"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="191"/>
-      <c r="S14" s="191"/>
-      <c r="T14" s="191"/>
-      <c r="U14" s="191"/>
-      <c r="V14" s="191"/>
-      <c r="W14" s="191"/>
-      <c r="X14" s="191"/>
-      <c r="Y14" s="192"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="84"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="212"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="130"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="147"/>
+      <c r="W15" s="147"/>
+      <c r="X15" s="147"/>
+      <c r="Y15" s="148"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="225" t="s">
+      <c r="A16" s="152" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -5691,90 +5983,90 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="222" t="s">
+      <c r="E16" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="222"/>
-      <c r="L16" s="222"/>
-      <c r="M16" s="222"/>
-      <c r="N16" s="222"/>
-      <c r="O16" s="222"/>
-      <c r="P16" s="222"/>
-      <c r="Q16" s="222"/>
-      <c r="R16" s="222"/>
-      <c r="S16" s="222"/>
-      <c r="T16" s="222"/>
-      <c r="U16" s="222"/>
-      <c r="V16" s="222"/>
-      <c r="W16" s="222"/>
-      <c r="X16" s="222"/>
-      <c r="Y16" s="223"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="149"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="150"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="270"/>
-      <c r="B17" s="230" t="s">
+      <c r="A17" s="268"/>
+      <c r="B17" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="231"/>
-      <c r="D17" s="232"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="125"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="236" t="s">
+      <c r="F17" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="236"/>
-      <c r="H17" s="236"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="237"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="237"/>
-      <c r="M17" s="238" t="s">
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="239"/>
-      <c r="O17" s="239"/>
-      <c r="P17" s="126" t="s">
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="126"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="215" t="s">
+      <c r="U17" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="216"/>
-      <c r="W17" s="216"/>
-      <c r="X17" s="216"/>
-      <c r="Y17" s="217"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="140"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="270"/>
-      <c r="B18" s="233" t="s">
+      <c r="A18" s="268"/>
+      <c r="B18" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="234"/>
-      <c r="D18" s="235"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="229" t="s">
+      <c r="G18" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="229"/>
-      <c r="I18" s="229"/>
-      <c r="J18" s="229"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -5783,85 +6075,85 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="229"/>
-      <c r="P18" s="229"/>
-      <c r="Q18" s="229"/>
-      <c r="R18" s="229"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="165" t="s">
+      <c r="U18" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="V18" s="166"/>
-      <c r="W18" s="166"/>
-      <c r="X18" s="166"/>
-      <c r="Y18" s="167"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="100"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="270"/>
-      <c r="B19" s="180" t="s">
+      <c r="A19" s="268"/>
+      <c r="B19" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="190"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="191"/>
-      <c r="K19" s="191"/>
-      <c r="L19" s="191"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="191"/>
-      <c r="O19" s="191"/>
-      <c r="P19" s="191"/>
-      <c r="Q19" s="191"/>
-      <c r="R19" s="191"/>
-      <c r="S19" s="191"/>
-      <c r="T19" s="191"/>
-      <c r="U19" s="191"/>
-      <c r="V19" s="191"/>
-      <c r="W19" s="191"/>
-      <c r="X19" s="191"/>
-      <c r="Y19" s="192"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="84"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="270"/>
-      <c r="B20" s="181"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="129"/>
-      <c r="Y20" s="130"/>
+      <c r="A20" s="268"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="147"/>
+      <c r="X20" s="147"/>
+      <c r="Y20" s="148"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="270"/>
-      <c r="B21" s="181"/>
-      <c r="C21" s="168" t="s">
+      <c r="A21" s="268"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="168"/>
+      <c r="D21" s="181"/>
       <c r="E21" s="23" t="s">
         <v>17</v>
       </c>
@@ -5871,46 +6163,46 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="210" t="s">
+      <c r="L21" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="183"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="184"/>
-      <c r="P21" s="184"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
       <c r="Q21" s="8" t="s">
         <v>154</v>
       </c>
       <c r="R21" s="9"/>
-      <c r="S21" s="218" t="s">
+      <c r="S21" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="219"/>
-      <c r="U21" s="219"/>
-      <c r="V21" s="219"/>
-      <c r="W21" s="219"/>
-      <c r="X21" s="219"/>
-      <c r="Y21" s="220"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="107"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="271"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="169" t="s">
+      <c r="A22" s="269"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="169"/>
-      <c r="E22" s="221"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="211"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171"/>
-      <c r="P22" s="171"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
       <c r="Q22" s="5" t="s">
         <v>155</v>
       </c>
@@ -5930,133 +6222,133 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="203" t="s">
+      <c r="A23" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="233" t="s">
+      <c r="B23" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="234"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="250" t="s">
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="234"/>
-      <c r="G23" s="234"/>
-      <c r="H23" s="234"/>
-      <c r="I23" s="234"/>
-      <c r="J23" s="234"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="234"/>
-      <c r="M23" s="234"/>
-      <c r="N23" s="234"/>
-      <c r="O23" s="234"/>
-      <c r="P23" s="234"/>
-      <c r="Q23" s="234"/>
-      <c r="R23" s="234"/>
-      <c r="S23" s="234"/>
-      <c r="T23" s="234"/>
-      <c r="U23" s="234"/>
-      <c r="V23" s="234"/>
-      <c r="W23" s="234"/>
-      <c r="X23" s="234"/>
-      <c r="Y23" s="251"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="91"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="208"/>
-      <c r="B24" s="233" t="s">
+      <c r="A24" s="153"/>
+      <c r="B24" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="234"/>
-      <c r="D24" s="235"/>
-      <c r="E24" s="213" t="s">
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="213"/>
-      <c r="L24" s="213"/>
-      <c r="M24" s="213"/>
-      <c r="N24" s="213"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
       <c r="O24" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="252"/>
-      <c r="R24" s="252"/>
-      <c r="S24" s="253" t="s">
+      <c r="P24" s="97"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="254"/>
-      <c r="U24" s="248" t="s">
+      <c r="T24" s="94"/>
+      <c r="U24" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="248"/>
-      <c r="W24" s="248"/>
-      <c r="X24" s="248"/>
-      <c r="Y24" s="249"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="86"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="208"/>
-      <c r="B25" s="233" t="s">
+      <c r="A25" s="153"/>
+      <c r="B25" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="234"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="191"/>
-      <c r="P25" s="191"/>
-      <c r="Q25" s="191"/>
-      <c r="R25" s="191"/>
-      <c r="S25" s="191"/>
-      <c r="T25" s="192"/>
-      <c r="U25" s="165" t="s">
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="V25" s="166"/>
-      <c r="W25" s="166"/>
-      <c r="X25" s="166"/>
-      <c r="Y25" s="167"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="100"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="208"/>
-      <c r="B26" s="233" t="s">
+      <c r="A26" s="153"/>
+      <c r="B26" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="234"/>
-      <c r="D26" s="235"/>
-      <c r="E26" s="88" t="s">
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
       <c r="O26" s="21"/>
       <c r="P26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="236" t="s">
+      <c r="Q26" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="R26" s="236"/>
+      <c r="R26" s="101"/>
       <c r="S26" s="31" t="s">
         <v>13</v>
       </c>
@@ -6064,80 +6356,80 @@
       <c r="U26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="236"/>
-      <c r="W26" s="236"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
       <c r="X26" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="208"/>
-      <c r="B27" s="233" t="s">
+      <c r="A27" s="153"/>
+      <c r="B27" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="234"/>
-      <c r="D27" s="235"/>
-      <c r="E27" s="88" t="s">
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="93" t="s">
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="236"/>
-      <c r="N27" s="240"/>
-      <c r="O27" s="244"/>
-      <c r="P27" s="236"/>
-      <c r="Q27" s="245"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="114"/>
       <c r="R27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="218" t="s">
+      <c r="S27" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="219"/>
-      <c r="U27" s="219"/>
-      <c r="V27" s="219"/>
-      <c r="W27" s="219"/>
-      <c r="X27" s="219"/>
-      <c r="Y27" s="220"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="107"/>
       <c r="Z27" s="33"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="208"/>
-      <c r="B28" s="86" t="s">
+      <c r="A28" s="153"/>
+      <c r="B28" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="242" t="s">
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="243"/>
-      <c r="G28" s="243"/>
-      <c r="H28" s="243"/>
-      <c r="I28" s="243"/>
-      <c r="J28" s="243"/>
-      <c r="K28" s="243"/>
-      <c r="L28" s="243"/>
-      <c r="M28" s="243"/>
-      <c r="N28" s="243"/>
-      <c r="O28" s="243"/>
-      <c r="P28" s="243"/>
-      <c r="Q28" s="243"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
       <c r="R28" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="246" t="s">
+      <c r="S28" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="T28" s="247"/>
+      <c r="T28" s="116"/>
       <c r="U28" s="28" t="s">
         <v>28</v>
       </c>
@@ -6156,125 +6448,125 @@
       <c r="Z28" s="33"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="208"/>
-      <c r="B29" s="180" t="s">
+      <c r="A29" s="153"/>
+      <c r="B29" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="190"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="191"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="191"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="191"/>
-      <c r="R29" s="191"/>
-      <c r="S29" s="191"/>
-      <c r="T29" s="191"/>
-      <c r="U29" s="191"/>
-      <c r="V29" s="191"/>
-      <c r="W29" s="191"/>
-      <c r="X29" s="191"/>
-      <c r="Y29" s="192"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="84"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="208"/>
-      <c r="B30" s="181"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="129"/>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="129"/>
-      <c r="T30" s="129"/>
-      <c r="U30" s="129"/>
-      <c r="V30" s="129"/>
-      <c r="W30" s="129"/>
-      <c r="X30" s="129"/>
-      <c r="Y30" s="130"/>
+      <c r="A30" s="153"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="147"/>
+      <c r="Q30" s="147"/>
+      <c r="R30" s="147"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="147"/>
+      <c r="W30" s="147"/>
+      <c r="X30" s="147"/>
+      <c r="Y30" s="148"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="208"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="168" t="s">
+      <c r="A31" s="153"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="168"/>
-      <c r="E31" s="193" t="s">
+      <c r="D31" s="181"/>
+      <c r="E31" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="194"/>
-      <c r="G31" s="209" t="s">
+      <c r="F31" s="118"/>
+      <c r="G31" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="191"/>
-      <c r="I31" s="191"/>
-      <c r="J31" s="191"/>
-      <c r="K31" s="191"/>
-      <c r="L31" s="210" t="s">
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="183"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="218" t="s">
+      <c r="M31" s="156"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="166"/>
+      <c r="R31" s="167"/>
+      <c r="S31" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="219"/>
-      <c r="U31" s="219"/>
-      <c r="V31" s="219"/>
-      <c r="W31" s="219"/>
-      <c r="X31" s="219"/>
-      <c r="Y31" s="220"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="107"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="174"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="169" t="s">
+      <c r="A32" s="154"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="169"/>
-      <c r="E32" s="131" t="s">
+      <c r="D32" s="108"/>
+      <c r="E32" s="245" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="211"/>
-      <c r="M32" s="170" t="s">
+      <c r="F32" s="246"/>
+      <c r="G32" s="246"/>
+      <c r="H32" s="246"/>
+      <c r="I32" s="246"/>
+      <c r="J32" s="246"/>
+      <c r="K32" s="247"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="144" t="s">
         <v>174</v>
       </c>
-      <c r="N32" s="171"/>
-      <c r="O32" s="171"/>
-      <c r="P32" s="171"/>
-      <c r="Q32" s="202" t="s">
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="165" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="197"/>
+      <c r="R32" s="160"/>
       <c r="S32" s="26" t="s">
         <v>176</v>
       </c>
@@ -6298,260 +6590,260 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="172" t="s">
+      <c r="A33" s="182" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="175" t="s">
+      <c r="D33" s="184" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="177"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="186"/>
       <c r="J33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="185" t="s">
+      <c r="K33" s="191" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="35"/>
-      <c r="N33" s="158" t="s">
+      <c r="N33" s="217" t="s">
         <v>123</v>
       </c>
-      <c r="O33" s="159"/>
-      <c r="P33" s="159"/>
-      <c r="Q33" s="159"/>
-      <c r="R33" s="159"/>
-      <c r="S33" s="159"/>
-      <c r="T33" s="159"/>
-      <c r="U33" s="127" t="s">
+      <c r="O33" s="218"/>
+      <c r="P33" s="218"/>
+      <c r="Q33" s="218"/>
+      <c r="R33" s="218"/>
+      <c r="S33" s="218"/>
+      <c r="T33" s="218"/>
+      <c r="U33" s="244" t="s">
         <v>122</v>
       </c>
-      <c r="V33" s="124"/>
-      <c r="W33" s="124"/>
-      <c r="X33" s="124"/>
+      <c r="V33" s="243"/>
+      <c r="W33" s="243"/>
+      <c r="X33" s="243"/>
       <c r="Y33" s="38" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="33"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="173"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="40"/>
-      <c r="D34" s="140" t="s">
+      <c r="D34" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
       <c r="J34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="186"/>
+      <c r="K34" s="192"/>
       <c r="L34" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="40"/>
-      <c r="N34" s="145" t="s">
+      <c r="N34" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="O34" s="146"/>
-      <c r="P34" s="146"/>
-      <c r="Q34" s="146"/>
-      <c r="R34" s="146"/>
-      <c r="S34" s="146"/>
-      <c r="T34" s="146"/>
-      <c r="U34" s="144" t="s">
+      <c r="O34" s="174"/>
+      <c r="P34" s="174"/>
+      <c r="Q34" s="174"/>
+      <c r="R34" s="174"/>
+      <c r="S34" s="174"/>
+      <c r="T34" s="174"/>
+      <c r="U34" s="203" t="s">
         <v>124</v>
       </c>
-      <c r="V34" s="122"/>
-      <c r="W34" s="122"/>
-      <c r="X34" s="122"/>
+      <c r="V34" s="204"/>
+      <c r="W34" s="204"/>
+      <c r="X34" s="204"/>
       <c r="Y34" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="173"/>
+      <c r="A35" s="183"/>
       <c r="B35" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="40"/>
-      <c r="D35" s="140" t="s">
+      <c r="D35" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="188"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="188"/>
       <c r="J35" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="186"/>
+      <c r="K35" s="192"/>
       <c r="L35" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="40"/>
-      <c r="N35" s="145" t="s">
+      <c r="N35" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="O35" s="146"/>
-      <c r="P35" s="146"/>
-      <c r="Q35" s="146"/>
-      <c r="R35" s="146"/>
-      <c r="S35" s="146"/>
-      <c r="T35" s="146"/>
-      <c r="U35" s="144" t="s">
+      <c r="O35" s="174"/>
+      <c r="P35" s="174"/>
+      <c r="Q35" s="174"/>
+      <c r="R35" s="174"/>
+      <c r="S35" s="174"/>
+      <c r="T35" s="174"/>
+      <c r="U35" s="203" t="s">
         <v>126</v>
       </c>
-      <c r="V35" s="122"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="122"/>
+      <c r="V35" s="204"/>
+      <c r="W35" s="204"/>
+      <c r="X35" s="204"/>
       <c r="Y35" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="173"/>
+      <c r="A36" s="183"/>
       <c r="B36" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="44"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="188"/>
       <c r="J36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="187"/>
+      <c r="K36" s="193"/>
       <c r="L36" s="65" t="s">
         <v>84</v>
       </c>
       <c r="M36" s="44"/>
-      <c r="N36" s="145" t="s">
+      <c r="N36" s="173" t="s">
         <v>128</v>
       </c>
-      <c r="O36" s="146"/>
-      <c r="P36" s="146"/>
-      <c r="Q36" s="146"/>
-      <c r="R36" s="146"/>
-      <c r="S36" s="146"/>
-      <c r="T36" s="146"/>
-      <c r="U36" s="144" t="s">
+      <c r="O36" s="174"/>
+      <c r="P36" s="174"/>
+      <c r="Q36" s="174"/>
+      <c r="R36" s="174"/>
+      <c r="S36" s="174"/>
+      <c r="T36" s="174"/>
+      <c r="U36" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="V36" s="122"/>
-      <c r="W36" s="122"/>
-      <c r="X36" s="122"/>
+      <c r="V36" s="204"/>
+      <c r="W36" s="204"/>
+      <c r="X36" s="204"/>
       <c r="Y36" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="173"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="66" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="44"/>
-      <c r="D37" s="140" t="s">
+      <c r="D37" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
       <c r="J37" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="188"/>
+      <c r="K37" s="194"/>
       <c r="L37" s="68" t="s">
         <v>83</v>
       </c>
       <c r="M37" s="69"/>
-      <c r="N37" s="145" t="s">
+      <c r="N37" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="146"/>
-      <c r="P37" s="146"/>
-      <c r="Q37" s="146"/>
-      <c r="R37" s="146"/>
-      <c r="S37" s="146"/>
-      <c r="T37" s="146"/>
-      <c r="U37" s="156" t="s">
+      <c r="O37" s="174"/>
+      <c r="P37" s="174"/>
+      <c r="Q37" s="174"/>
+      <c r="R37" s="174"/>
+      <c r="S37" s="174"/>
+      <c r="T37" s="174"/>
+      <c r="U37" s="215" t="s">
         <v>131</v>
       </c>
-      <c r="V37" s="157"/>
-      <c r="W37" s="157"/>
-      <c r="X37" s="157"/>
+      <c r="V37" s="216"/>
+      <c r="W37" s="216"/>
+      <c r="X37" s="216"/>
       <c r="Y37" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="174"/>
-      <c r="B38" s="267" t="s">
+      <c r="A38" s="154"/>
+      <c r="B38" s="270" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="268"/>
-      <c r="D38" s="268"/>
-      <c r="E38" s="268"/>
-      <c r="F38" s="269" t="s">
+      <c r="C38" s="271"/>
+      <c r="D38" s="271"/>
+      <c r="E38" s="271"/>
+      <c r="F38" s="272" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="269"/>
-      <c r="H38" s="269"/>
-      <c r="I38" s="269"/>
+      <c r="G38" s="272"/>
+      <c r="H38" s="272"/>
+      <c r="I38" s="272"/>
       <c r="J38" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="178" t="s">
+      <c r="K38" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="L38" s="87"/>
-      <c r="M38" s="179"/>
-      <c r="N38" s="125" t="s">
+      <c r="L38" s="82"/>
+      <c r="M38" s="190"/>
+      <c r="N38" s="195" t="s">
         <v>132</v>
       </c>
-      <c r="O38" s="126"/>
-      <c r="P38" s="126"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="129"/>
       <c r="Q38" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="R38" s="189" t="s">
+      <c r="R38" s="196" t="s">
         <v>73</v>
       </c>
-      <c r="S38" s="87"/>
-      <c r="T38" s="87"/>
-      <c r="U38" s="87"/>
-      <c r="V38" s="125" t="s">
+      <c r="S38" s="82"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="82"/>
+      <c r="V38" s="195" t="s">
         <v>162</v>
       </c>
-      <c r="W38" s="126"/>
-      <c r="X38" s="126"/>
+      <c r="W38" s="129"/>
+      <c r="X38" s="129"/>
       <c r="Y38" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="203" t="s">
+      <c r="A39" s="168" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="49" t="s">
@@ -6562,14 +6854,14 @@
         <v>56</v>
       </c>
       <c r="E39" s="52"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="107" t="s">
+      <c r="F39" s="231"/>
+      <c r="G39" s="232"/>
+      <c r="H39" s="232"/>
+      <c r="I39" s="232"/>
+      <c r="J39" s="205" t="s">
         <v>157</v>
       </c>
-      <c r="K39" s="107"/>
+      <c r="K39" s="205"/>
       <c r="L39" s="53" t="s">
         <v>70</v>
       </c>
@@ -6585,16 +6877,16 @@
       <c r="R39" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="S39" s="115"/>
-      <c r="T39" s="116"/>
-      <c r="U39" s="116"/>
-      <c r="V39" s="116"/>
-      <c r="W39" s="116"/>
-      <c r="X39" s="116"/>
-      <c r="Y39" s="117"/>
+      <c r="S39" s="235"/>
+      <c r="T39" s="236"/>
+      <c r="U39" s="236"/>
+      <c r="V39" s="236"/>
+      <c r="W39" s="236"/>
+      <c r="X39" s="236"/>
+      <c r="Y39" s="237"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="204"/>
+      <c r="A40" s="169"/>
       <c r="B40" s="57" t="s">
         <v>55</v>
       </c>
@@ -6603,14 +6895,14 @@
         <v>57</v>
       </c>
       <c r="E40" s="60"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="114" t="s">
+      <c r="F40" s="233"/>
+      <c r="G40" s="234"/>
+      <c r="H40" s="234"/>
+      <c r="I40" s="234"/>
+      <c r="J40" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="K40" s="114"/>
+      <c r="K40" s="178"/>
       <c r="L40" s="61" t="s">
         <v>70</v>
       </c>
@@ -6626,28 +6918,28 @@
       <c r="R40" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="S40" s="118"/>
-      <c r="T40" s="119"/>
-      <c r="U40" s="119"/>
-      <c r="V40" s="119"/>
-      <c r="W40" s="119"/>
-      <c r="X40" s="119"/>
-      <c r="Y40" s="120"/>
+      <c r="S40" s="238"/>
+      <c r="T40" s="239"/>
+      <c r="U40" s="239"/>
+      <c r="V40" s="239"/>
+      <c r="W40" s="239"/>
+      <c r="X40" s="239"/>
+      <c r="Y40" s="240"/>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="204"/>
-      <c r="B41" s="255"/>
-      <c r="C41" s="256"/>
+      <c r="A41" s="169"/>
+      <c r="B41" s="274"/>
+      <c r="C41" s="275"/>
       <c r="D41" s="71"/>
       <c r="E41" s="72"/>
-      <c r="F41" s="266"/>
-      <c r="G41" s="261"/>
-      <c r="H41" s="261"/>
-      <c r="I41" s="261"/>
-      <c r="J41" s="257" t="s">
+      <c r="F41" s="276"/>
+      <c r="G41" s="277"/>
+      <c r="H41" s="277"/>
+      <c r="I41" s="277"/>
+      <c r="J41" s="278" t="s">
         <v>157</v>
       </c>
-      <c r="K41" s="257"/>
+      <c r="K41" s="278"/>
       <c r="L41" s="73" t="s">
         <v>70</v>
       </c>
@@ -6663,16 +6955,16 @@
       <c r="R41" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="262"/>
-      <c r="T41" s="263"/>
-      <c r="U41" s="263"/>
-      <c r="V41" s="263"/>
-      <c r="W41" s="263"/>
-      <c r="X41" s="263"/>
-      <c r="Y41" s="264"/>
+      <c r="S41" s="279"/>
+      <c r="T41" s="280"/>
+      <c r="U41" s="280"/>
+      <c r="V41" s="280"/>
+      <c r="W41" s="280"/>
+      <c r="X41" s="280"/>
+      <c r="Y41" s="281"/>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="204"/>
+      <c r="A42" s="169"/>
       <c r="B42" s="49" t="s">
         <v>59</v>
       </c>
@@ -6681,35 +6973,35 @@
         <v>60</v>
       </c>
       <c r="E42" s="52"/>
-      <c r="F42" s="107" t="s">
+      <c r="F42" s="205" t="s">
         <v>133</v>
       </c>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="123" t="s">
+      <c r="G42" s="205"/>
+      <c r="H42" s="205"/>
+      <c r="I42" s="205"/>
+      <c r="J42" s="229"/>
+      <c r="K42" s="229"/>
+      <c r="L42" s="230"/>
+      <c r="M42" s="242" t="s">
         <v>134</v>
       </c>
-      <c r="N42" s="124"/>
-      <c r="O42" s="124"/>
-      <c r="P42" s="124"/>
-      <c r="Q42" s="107" t="s">
+      <c r="N42" s="243"/>
+      <c r="O42" s="243"/>
+      <c r="P42" s="243"/>
+      <c r="Q42" s="205" t="s">
         <v>157</v>
       </c>
-      <c r="R42" s="107"/>
-      <c r="S42" s="115"/>
-      <c r="T42" s="116"/>
-      <c r="U42" s="116"/>
-      <c r="V42" s="116"/>
-      <c r="W42" s="116"/>
-      <c r="X42" s="116"/>
-      <c r="Y42" s="117"/>
+      <c r="R42" s="205"/>
+      <c r="S42" s="235"/>
+      <c r="T42" s="236"/>
+      <c r="U42" s="236"/>
+      <c r="V42" s="236"/>
+      <c r="W42" s="236"/>
+      <c r="X42" s="236"/>
+      <c r="Y42" s="237"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="204"/>
+      <c r="A43" s="169"/>
       <c r="B43" s="57" t="s">
         <v>55</v>
       </c>
@@ -6718,254 +7010,403 @@
         <v>60</v>
       </c>
       <c r="E43" s="60"/>
-      <c r="F43" s="114" t="s">
+      <c r="F43" s="178" t="s">
         <v>135</v>
       </c>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
-      <c r="L43" s="164"/>
-      <c r="M43" s="121" t="s">
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="179"/>
+      <c r="K43" s="179"/>
+      <c r="L43" s="180"/>
+      <c r="M43" s="241" t="s">
         <v>136</v>
       </c>
-      <c r="N43" s="122"/>
-      <c r="O43" s="122"/>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="114" t="s">
+      <c r="N43" s="204"/>
+      <c r="O43" s="204"/>
+      <c r="P43" s="204"/>
+      <c r="Q43" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="R43" s="114"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="119"/>
-      <c r="U43" s="119"/>
-      <c r="V43" s="119"/>
-      <c r="W43" s="119"/>
-      <c r="X43" s="119"/>
-      <c r="Y43" s="120"/>
+      <c r="R43" s="178"/>
+      <c r="S43" s="238"/>
+      <c r="T43" s="239"/>
+      <c r="U43" s="239"/>
+      <c r="V43" s="239"/>
+      <c r="W43" s="239"/>
+      <c r="X43" s="239"/>
+      <c r="Y43" s="240"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="265"/>
-      <c r="B44" s="255"/>
-      <c r="C44" s="256"/>
+      <c r="A44" s="273"/>
+      <c r="B44" s="274"/>
+      <c r="C44" s="275"/>
       <c r="D44" s="71" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="72"/>
-      <c r="F44" s="257"/>
-      <c r="G44" s="257"/>
-      <c r="H44" s="257"/>
-      <c r="I44" s="257"/>
-      <c r="J44" s="258"/>
-      <c r="K44" s="258"/>
-      <c r="L44" s="259"/>
-      <c r="M44" s="260"/>
-      <c r="N44" s="261"/>
-      <c r="O44" s="261"/>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="257" t="s">
+      <c r="F44" s="278"/>
+      <c r="G44" s="278"/>
+      <c r="H44" s="278"/>
+      <c r="I44" s="278"/>
+      <c r="J44" s="282"/>
+      <c r="K44" s="282"/>
+      <c r="L44" s="283"/>
+      <c r="M44" s="284"/>
+      <c r="N44" s="277"/>
+      <c r="O44" s="277"/>
+      <c r="P44" s="277"/>
+      <c r="Q44" s="278" t="s">
         <v>157</v>
       </c>
-      <c r="R44" s="257"/>
-      <c r="S44" s="262"/>
-      <c r="T44" s="263"/>
-      <c r="U44" s="263"/>
-      <c r="V44" s="263"/>
-      <c r="W44" s="263"/>
-      <c r="X44" s="263"/>
-      <c r="Y44" s="264"/>
+      <c r="R44" s="278"/>
+      <c r="S44" s="279"/>
+      <c r="T44" s="280"/>
+      <c r="U44" s="280"/>
+      <c r="V44" s="280"/>
+      <c r="W44" s="280"/>
+      <c r="X44" s="280"/>
+      <c r="Y44" s="281"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="205" t="s">
+      <c r="A45" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="88" t="s">
+      <c r="C45" s="82"/>
+      <c r="D45" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="93" t="s">
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="94"/>
-      <c r="N45" s="88" t="s">
+      <c r="M45" s="130"/>
+      <c r="N45" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="87"/>
-      <c r="S45" s="87"/>
-      <c r="T45" s="87"/>
-      <c r="U45" s="87"/>
-      <c r="V45" s="87"/>
-      <c r="W45" s="87"/>
-      <c r="X45" s="87"/>
-      <c r="Y45" s="89"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="102"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="206"/>
-      <c r="B46" s="86" t="s">
+      <c r="A46" s="171"/>
+      <c r="B46" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="88" t="s">
+      <c r="C46" s="82"/>
+      <c r="D46" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="93" t="s">
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="94"/>
-      <c r="N46" s="88" t="s">
+      <c r="M46" s="130"/>
+      <c r="N46" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
-      <c r="S46" s="87"/>
-      <c r="T46" s="87"/>
-      <c r="U46" s="87"/>
-      <c r="V46" s="87"/>
-      <c r="W46" s="87"/>
-      <c r="X46" s="87"/>
-      <c r="Y46" s="89"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="82"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="82"/>
+      <c r="U46" s="82"/>
+      <c r="V46" s="82"/>
+      <c r="W46" s="82"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="102"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="207"/>
-      <c r="B47" s="86" t="s">
+      <c r="A47" s="172"/>
+      <c r="B47" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="93" t="s">
+      <c r="C47" s="82"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="94"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="87"/>
-      <c r="V47" s="87"/>
-      <c r="W47" s="87"/>
-      <c r="X47" s="87"/>
-      <c r="Y47" s="89"/>
+      <c r="M47" s="130"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="82"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="82"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82"/>
+      <c r="Y47" s="102"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="102" t="s">
+      <c r="A48" s="226" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="103"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="M48" s="105"/>
-      <c r="N48" s="105"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="105"/>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="105"/>
-      <c r="S48" s="105"/>
-      <c r="T48" s="105"/>
-      <c r="U48" s="105"/>
-      <c r="V48" s="105"/>
-      <c r="W48" s="105"/>
-      <c r="X48" s="105"/>
-      <c r="Y48" s="106"/>
+      <c r="B48" s="227"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="228"/>
+      <c r="E48" s="228"/>
+      <c r="F48" s="228"/>
+      <c r="G48" s="228"/>
+      <c r="H48" s="228"/>
+      <c r="I48" s="228"/>
+      <c r="J48" s="228"/>
+      <c r="K48" s="228"/>
+      <c r="L48" s="228"/>
+      <c r="M48" s="228"/>
+      <c r="N48" s="228"/>
+      <c r="O48" s="228"/>
+      <c r="P48" s="228"/>
+      <c r="Q48" s="228"/>
+      <c r="R48" s="228"/>
+      <c r="S48" s="228"/>
+      <c r="T48" s="228"/>
+      <c r="U48" s="228"/>
+      <c r="V48" s="228"/>
+      <c r="W48" s="228"/>
+      <c r="X48" s="228"/>
+      <c r="Y48" s="167"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="160" t="s">
+      <c r="A49" s="175" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="161"/>
-      <c r="C49" s="161"/>
-      <c r="D49" s="161"/>
-      <c r="E49" s="161"/>
-      <c r="F49" s="161"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="161"/>
-      <c r="J49" s="161"/>
-      <c r="K49" s="161"/>
-      <c r="L49" s="161"/>
-      <c r="M49" s="161"/>
-      <c r="N49" s="161"/>
-      <c r="O49" s="161"/>
-      <c r="P49" s="161"/>
-      <c r="Q49" s="161"/>
-      <c r="R49" s="161"/>
-      <c r="S49" s="161"/>
-      <c r="T49" s="161"/>
-      <c r="U49" s="161"/>
-      <c r="V49" s="161"/>
-      <c r="W49" s="161"/>
-      <c r="X49" s="161"/>
-      <c r="Y49" s="162"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="176"/>
+      <c r="D49" s="176"/>
+      <c r="E49" s="176"/>
+      <c r="F49" s="176"/>
+      <c r="G49" s="176"/>
+      <c r="H49" s="176"/>
+      <c r="I49" s="176"/>
+      <c r="J49" s="176"/>
+      <c r="K49" s="176"/>
+      <c r="L49" s="176"/>
+      <c r="M49" s="176"/>
+      <c r="N49" s="176"/>
+      <c r="O49" s="176"/>
+      <c r="P49" s="176"/>
+      <c r="Q49" s="176"/>
+      <c r="R49" s="176"/>
+      <c r="S49" s="176"/>
+      <c r="T49" s="176"/>
+      <c r="U49" s="176"/>
+      <c r="V49" s="176"/>
+      <c r="W49" s="176"/>
+      <c r="X49" s="176"/>
+      <c r="Y49" s="177"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="195"/>
-      <c r="B50" s="196"/>
-      <c r="C50" s="196"/>
-      <c r="D50" s="196"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="196"/>
-      <c r="G50" s="196"/>
-      <c r="H50" s="196"/>
-      <c r="I50" s="196"/>
-      <c r="J50" s="196"/>
-      <c r="K50" s="196"/>
-      <c r="L50" s="196"/>
-      <c r="M50" s="196"/>
-      <c r="N50" s="196"/>
-      <c r="O50" s="196"/>
-      <c r="P50" s="196"/>
-      <c r="Q50" s="196"/>
-      <c r="R50" s="196"/>
-      <c r="S50" s="196"/>
-      <c r="T50" s="196"/>
-      <c r="U50" s="196"/>
-      <c r="V50" s="196"/>
-      <c r="W50" s="196"/>
-      <c r="X50" s="196"/>
-      <c r="Y50" s="197"/>
+      <c r="A50" s="158"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="159"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="159"/>
+      <c r="I50" s="159"/>
+      <c r="J50" s="159"/>
+      <c r="K50" s="159"/>
+      <c r="L50" s="159"/>
+      <c r="M50" s="159"/>
+      <c r="N50" s="159"/>
+      <c r="O50" s="159"/>
+      <c r="P50" s="159"/>
+      <c r="Q50" s="159"/>
+      <c r="R50" s="159"/>
+      <c r="S50" s="159"/>
+      <c r="T50" s="159"/>
+      <c r="U50" s="159"/>
+      <c r="V50" s="159"/>
+      <c r="W50" s="159"/>
+      <c r="X50" s="159"/>
+      <c r="Y50" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="173">
+    <mergeCell ref="A50:Y50"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:Y47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:Y48"/>
+    <mergeCell ref="A49:Y49"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:Y45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:Y46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:Y43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="S39:Y39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="S40:Y40"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="S41:Y41"/>
+    <mergeCell ref="F42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:Y29"/>
+    <mergeCell ref="C30:Y30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:Y23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E16:Y16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:Y19"/>
+    <mergeCell ref="C20:Y20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:Y13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:Y10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:Y11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:Y6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:Y7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Y8"/>
     <mergeCell ref="N33:T33"/>
     <mergeCell ref="N34:T34"/>
     <mergeCell ref="N35:T35"/>
@@ -6990,155 +7431,6 @@
     <mergeCell ref="A15:Y15"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:Y8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:Y9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:Y6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:Y7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:Y13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:Y10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:Y11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E16:Y16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:Y19"/>
-    <mergeCell ref="C20:Y20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:Y29"/>
-    <mergeCell ref="C30:Y30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:Y23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="S39:Y39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="S40:Y40"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="S41:Y41"/>
-    <mergeCell ref="F42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:Y43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:Y44"/>
-    <mergeCell ref="A50:Y50"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:Y47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:Y48"/>
-    <mergeCell ref="A49:Y49"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:Y45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:Y46"/>
-    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">

--- a/template/取引成立台帳.xlsx
+++ b/template/取引成立台帳.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D08DA-2CFE-483C-85B7-7EA689B5B628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5ECD2-725D-41B3-9D72-BDBE634F2AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D08DF634-D05B-48EB-A5E5-3C43C6308EA5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="194">
   <si>
     <t>成立年月日</t>
     <rPh sb="0" eb="2">
@@ -2461,6 +2461,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2497,14 +2524,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -2545,12 +2584,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2569,9 +2602,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2761,26 +2791,17 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2832,27 +2853,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3370,25 +3370,25 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="219" t="s">
+      <c r="A4" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="119" t="s">
+      <c r="B4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="121"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
       <c r="L4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="222"/>
+      <c r="M4" s="143"/>
       <c r="N4" s="97"/>
       <c r="O4" s="7" t="s">
         <v>71</v>
@@ -3411,24 +3411,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="119" t="s">
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="223"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="225"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="146"/>
       <c r="O5" s="10" t="s">
         <v>71</v>
       </c>
@@ -3439,10 +3439,10 @@
       <c r="R5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="161" t="s">
+      <c r="S5" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="162"/>
+      <c r="T5" s="172"/>
       <c r="U5" s="11" t="s">
         <v>71</v>
       </c>
@@ -3460,7 +3460,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="147" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="109" t="s">
@@ -3480,7 +3480,7 @@
       <c r="L6" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="130"/>
+      <c r="M6" s="139"/>
       <c r="N6" s="81" t="s">
         <v>150</v>
       </c>
@@ -3497,7 +3497,7 @@
       <c r="Y6" s="102"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="134"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="109" t="s">
         <v>68</v>
       </c>
@@ -3515,7 +3515,7 @@
       <c r="L7" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="130"/>
+      <c r="M7" s="139"/>
       <c r="N7" s="81" t="s">
         <v>150</v>
       </c>
@@ -3532,7 +3532,7 @@
       <c r="Y7" s="102"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="134"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="109" t="s">
         <v>68</v>
       </c>
@@ -3550,7 +3550,7 @@
       <c r="L8" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="130"/>
+      <c r="M8" s="139"/>
       <c r="N8" s="81" t="s">
         <v>150</v>
       </c>
@@ -3567,11 +3567,11 @@
       <c r="Y8" s="102"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="134"/>
-      <c r="B9" s="163" t="s">
+      <c r="A9" s="147"/>
+      <c r="B9" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="164"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="81"/>
       <c r="E9" s="82"/>
       <c r="F9" s="82"/>
@@ -3583,7 +3583,7 @@
       <c r="L9" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="130"/>
+      <c r="M9" s="139"/>
       <c r="N9" s="81"/>
       <c r="O9" s="82"/>
       <c r="P9" s="82"/>
@@ -3598,7 +3598,7 @@
       <c r="Y9" s="102"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="147" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="109" t="s">
@@ -3618,7 +3618,7 @@
       <c r="L10" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="130"/>
+      <c r="M10" s="139"/>
       <c r="N10" s="81" t="s">
         <v>78</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="134"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="109" t="s">
         <v>68</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="L11" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="130"/>
+      <c r="M11" s="139"/>
       <c r="N11" s="81"/>
       <c r="O11" s="82"/>
       <c r="P11" s="82"/>
@@ -3666,7 +3666,7 @@
       <c r="Y11" s="102"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="134"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="109" t="s">
         <v>68</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="L12" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="130"/>
+      <c r="M12" s="139"/>
       <c r="N12" s="81"/>
       <c r="O12" s="82"/>
       <c r="P12" s="82"/>
@@ -3697,11 +3697,11 @@
       <c r="Y12" s="102"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="134"/>
-      <c r="B13" s="163" t="s">
+      <c r="A13" s="147"/>
+      <c r="B13" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="164"/>
+      <c r="C13" s="174"/>
       <c r="D13" s="81"/>
       <c r="E13" s="82"/>
       <c r="F13" s="82"/>
@@ -3713,7 +3713,7 @@
       <c r="L13" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="130"/>
+      <c r="M13" s="139"/>
       <c r="N13" s="81"/>
       <c r="O13" s="82"/>
       <c r="P13" s="82"/>
@@ -3728,14 +3728,14 @@
       <c r="Y13" s="102"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
       <c r="G14" s="83" t="s">
         <v>89</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="Y14" s="84"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="135"/>
+      <c r="A15" s="148"/>
       <c r="B15" s="95"/>
       <c r="C15" s="95"/>
       <c r="D15" s="95"/>
@@ -3783,10 +3783,10 @@
       <c r="V15" s="95"/>
       <c r="W15" s="95"/>
       <c r="X15" s="95"/>
-      <c r="Y15" s="136"/>
+      <c r="Y15" s="149"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="163" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -3794,37 +3794,37 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="149" t="s">
+      <c r="E16" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="149"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="149"/>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="149"/>
-      <c r="S16" s="149"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="149"/>
-      <c r="V16" s="149"/>
-      <c r="W16" s="149"/>
-      <c r="X16" s="149"/>
-      <c r="Y16" s="150"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="160"/>
+      <c r="R16" s="160"/>
+      <c r="S16" s="160"/>
+      <c r="T16" s="160"/>
+      <c r="U16" s="160"/>
+      <c r="V16" s="160"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="160"/>
+      <c r="Y16" s="161"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="153"/>
-      <c r="B17" s="123" t="s">
+      <c r="A17" s="164"/>
+      <c r="B17" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="125"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
@@ -3836,33 +3836,33 @@
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="127" t="s">
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="129" t="s">
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="138"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="138" t="s">
+      <c r="U17" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="139"/>
-      <c r="W17" s="139"/>
-      <c r="X17" s="139"/>
-      <c r="Y17" s="140"/>
+      <c r="V17" s="152"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="153"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="153"/>
+      <c r="A18" s="164"/>
       <c r="B18" s="87" t="s">
         <v>35</v>
       </c>
@@ -3872,12 +3872,12 @@
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="122" t="s">
+      <c r="G18" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -3886,10 +3886,10 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="122"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="131"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
@@ -3903,11 +3903,11 @@
       <c r="Y18" s="100"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="153"/>
-      <c r="B19" s="141" t="s">
+      <c r="A19" s="164"/>
+      <c r="B19" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="137"/>
+      <c r="C19" s="150"/>
       <c r="D19" s="83"/>
       <c r="E19" s="83"/>
       <c r="F19" s="83"/>
@@ -3932,39 +3932,39 @@
       <c r="Y19" s="84"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="153"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="147"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="147"/>
-      <c r="U20" s="147"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="147"/>
-      <c r="X20" s="147"/>
-      <c r="Y20" s="148"/>
+      <c r="A20" s="164"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="124"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="153"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="181" t="s">
+      <c r="A21" s="164"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="181"/>
+      <c r="D21" s="191"/>
       <c r="E21" s="23" t="s">
         <v>165</v>
       </c>
@@ -3978,13 +3978,13 @@
         <v>167</v>
       </c>
       <c r="K21" s="25"/>
-      <c r="L21" s="132" t="s">
+      <c r="L21" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="156"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="157"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="167"/>
+      <c r="O21" s="167"/>
+      <c r="P21" s="167"/>
       <c r="Q21" s="8" t="s">
         <v>154</v>
       </c>
@@ -4000,28 +4000,28 @@
       <c r="Y21" s="107"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="154"/>
-      <c r="B22" s="143"/>
+      <c r="A22" s="165"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="108"/>
-      <c r="E22" s="146" t="s">
+      <c r="E22" s="159" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="144" t="s">
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
       <c r="Q22" s="5" t="s">
         <v>155</v>
       </c>
@@ -4041,7 +4041,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="168" t="s">
+      <c r="A23" s="178" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="87" t="s">
@@ -4074,7 +4074,7 @@
       <c r="Y23" s="91"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="153"/>
+      <c r="A24" s="164"/>
       <c r="B24" s="87" t="s">
         <v>11</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="Y24" s="86"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="153"/>
+      <c r="A25" s="164"/>
       <c r="B25" s="87" t="s">
         <v>21</v>
       </c>
@@ -4142,7 +4142,7 @@
       <c r="Y25" s="100"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="153"/>
+      <c r="A26" s="164"/>
       <c r="B26" s="87" t="s">
         <v>36</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="153"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="87" t="s">
         <v>72</v>
       </c>
@@ -4221,7 +4221,7 @@
       <c r="Z27" s="33"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="153"/>
+      <c r="A28" s="164"/>
       <c r="B28" s="109" t="s">
         <v>69</v>
       </c>
@@ -4267,11 +4267,11 @@
       <c r="Z28" s="33"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="153"/>
-      <c r="B29" s="141" t="s">
+      <c r="A29" s="164"/>
+      <c r="B29" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="137"/>
+      <c r="C29" s="150"/>
       <c r="D29" s="83"/>
       <c r="E29" s="83"/>
       <c r="F29" s="83"/>
@@ -4296,59 +4296,59 @@
       <c r="Y29" s="84"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="153"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="147"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="147"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="147"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="147"/>
-      <c r="Y30" s="148"/>
+      <c r="A30" s="164"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="123"/>
+      <c r="V30" s="123"/>
+      <c r="W30" s="123"/>
+      <c r="X30" s="123"/>
+      <c r="Y30" s="124"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="153"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="181" t="s">
+      <c r="A31" s="164"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="181"/>
+      <c r="D31" s="191"/>
       <c r="E31" s="117" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="118"/>
-      <c r="G31" s="131" t="s">
+      <c r="G31" s="119" t="s">
         <v>171</v>
       </c>
       <c r="H31" s="83"/>
       <c r="I31" s="83"/>
       <c r="J31" s="83"/>
       <c r="K31" s="83"/>
-      <c r="L31" s="132" t="s">
+      <c r="L31" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="156"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="166"/>
-      <c r="R31" s="167"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="167"/>
+      <c r="O31" s="167"/>
+      <c r="P31" s="167"/>
+      <c r="Q31" s="176"/>
+      <c r="R31" s="177"/>
       <c r="S31" s="105" t="s">
         <v>27</v>
       </c>
@@ -4360,32 +4360,32 @@
       <c r="Y31" s="107"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="154"/>
-      <c r="B32" s="143"/>
+      <c r="A32" s="165"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="108"/>
-      <c r="E32" s="245" t="s">
+      <c r="E32" s="125" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="246"/>
-      <c r="G32" s="246"/>
-      <c r="H32" s="246"/>
-      <c r="I32" s="246"/>
-      <c r="J32" s="246"/>
-      <c r="K32" s="247"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="144" t="s">
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="N32" s="145"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="165" t="s">
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="158"/>
+      <c r="Q32" s="175" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="160"/>
+      <c r="R32" s="170"/>
       <c r="S32" s="26" t="s">
         <v>177</v>
       </c>
@@ -4409,330 +4409,330 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="182" t="s">
+      <c r="A33" s="192" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="184" t="s">
+      <c r="D33" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="185"/>
-      <c r="F33" s="185"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="186"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="196"/>
       <c r="J33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="191" t="s">
+      <c r="K33" s="201" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="35"/>
-      <c r="N33" s="217" t="s">
+      <c r="N33" s="227" t="s">
         <v>95</v>
       </c>
-      <c r="O33" s="218"/>
-      <c r="P33" s="218"/>
-      <c r="Q33" s="218"/>
-      <c r="R33" s="218"/>
-      <c r="S33" s="218"/>
-      <c r="T33" s="218"/>
-      <c r="U33" s="244" t="s">
+      <c r="O33" s="228"/>
+      <c r="P33" s="228"/>
+      <c r="Q33" s="228"/>
+      <c r="R33" s="228"/>
+      <c r="S33" s="228"/>
+      <c r="T33" s="228"/>
+      <c r="U33" s="229" t="s">
         <v>96</v>
       </c>
-      <c r="V33" s="243"/>
-      <c r="W33" s="243"/>
-      <c r="X33" s="243"/>
+      <c r="V33" s="230"/>
+      <c r="W33" s="230"/>
+      <c r="X33" s="230"/>
       <c r="Y33" s="38" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="33"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="183"/>
+      <c r="A34" s="193"/>
       <c r="B34" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="40"/>
-      <c r="D34" s="187" t="s">
+      <c r="D34" s="197" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="198"/>
+      <c r="G34" s="198"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="198"/>
       <c r="J34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="192"/>
+      <c r="K34" s="202"/>
       <c r="L34" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="40"/>
-      <c r="N34" s="173" t="s">
+      <c r="N34" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="O34" s="174"/>
-      <c r="P34" s="174"/>
-      <c r="Q34" s="174"/>
-      <c r="R34" s="174"/>
-      <c r="S34" s="174"/>
-      <c r="T34" s="174"/>
-      <c r="U34" s="203" t="s">
+      <c r="O34" s="184"/>
+      <c r="P34" s="184"/>
+      <c r="Q34" s="184"/>
+      <c r="R34" s="184"/>
+      <c r="S34" s="184"/>
+      <c r="T34" s="184"/>
+      <c r="U34" s="213" t="s">
         <v>97</v>
       </c>
-      <c r="V34" s="204"/>
-      <c r="W34" s="204"/>
-      <c r="X34" s="204"/>
+      <c r="V34" s="214"/>
+      <c r="W34" s="214"/>
+      <c r="X34" s="214"/>
       <c r="Y34" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="183"/>
+      <c r="A35" s="193"/>
       <c r="B35" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="40"/>
-      <c r="D35" s="187" t="s">
+      <c r="D35" s="197" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="188"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="198"/>
       <c r="J35" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="192"/>
+      <c r="K35" s="202"/>
       <c r="L35" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="40"/>
-      <c r="N35" s="173" t="s">
+      <c r="N35" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="O35" s="174"/>
-      <c r="P35" s="174"/>
-      <c r="Q35" s="174"/>
-      <c r="R35" s="174"/>
-      <c r="S35" s="174"/>
-      <c r="T35" s="174"/>
-      <c r="U35" s="203" t="s">
+      <c r="O35" s="184"/>
+      <c r="P35" s="184"/>
+      <c r="Q35" s="184"/>
+      <c r="R35" s="184"/>
+      <c r="S35" s="184"/>
+      <c r="T35" s="184"/>
+      <c r="U35" s="213" t="s">
         <v>99</v>
       </c>
-      <c r="V35" s="204"/>
-      <c r="W35" s="204"/>
-      <c r="X35" s="204"/>
+      <c r="V35" s="214"/>
+      <c r="W35" s="214"/>
+      <c r="X35" s="214"/>
       <c r="Y35" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="183"/>
+      <c r="A36" s="193"/>
       <c r="B36" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="44"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="198"/>
+      <c r="G36" s="198"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="198"/>
       <c r="J36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="193"/>
+      <c r="K36" s="203"/>
       <c r="L36" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M36" s="44"/>
-      <c r="N36" s="173" t="s">
+      <c r="N36" s="183" t="s">
         <v>102</v>
       </c>
-      <c r="O36" s="174"/>
-      <c r="P36" s="174"/>
-      <c r="Q36" s="174"/>
-      <c r="R36" s="174"/>
-      <c r="S36" s="174"/>
-      <c r="T36" s="174"/>
-      <c r="U36" s="203" t="s">
+      <c r="O36" s="184"/>
+      <c r="P36" s="184"/>
+      <c r="Q36" s="184"/>
+      <c r="R36" s="184"/>
+      <c r="S36" s="184"/>
+      <c r="T36" s="184"/>
+      <c r="U36" s="213" t="s">
         <v>101</v>
       </c>
-      <c r="V36" s="204"/>
-      <c r="W36" s="204"/>
-      <c r="X36" s="204"/>
+      <c r="V36" s="214"/>
+      <c r="W36" s="214"/>
+      <c r="X36" s="214"/>
       <c r="Y36" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="183"/>
+      <c r="A37" s="193"/>
       <c r="B37" s="45" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="44"/>
-      <c r="D37" s="187" t="s">
+      <c r="D37" s="197" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
+      <c r="E37" s="198"/>
+      <c r="F37" s="198"/>
+      <c r="G37" s="198"/>
+      <c r="H37" s="198"/>
+      <c r="I37" s="198"/>
       <c r="J37" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="193"/>
+      <c r="K37" s="203"/>
       <c r="L37" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M37" s="44"/>
-      <c r="N37" s="173" t="s">
+      <c r="N37" s="183" t="s">
         <v>104</v>
       </c>
-      <c r="O37" s="174"/>
-      <c r="P37" s="174"/>
-      <c r="Q37" s="174"/>
-      <c r="R37" s="174"/>
-      <c r="S37" s="174"/>
-      <c r="T37" s="174"/>
-      <c r="U37" s="203" t="s">
+      <c r="O37" s="184"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="184"/>
+      <c r="R37" s="184"/>
+      <c r="S37" s="184"/>
+      <c r="T37" s="184"/>
+      <c r="U37" s="213" t="s">
         <v>103</v>
       </c>
-      <c r="V37" s="204"/>
-      <c r="W37" s="204"/>
-      <c r="X37" s="204"/>
+      <c r="V37" s="214"/>
+      <c r="W37" s="214"/>
+      <c r="X37" s="214"/>
       <c r="Y37" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="183"/>
-      <c r="B38" s="197" t="s">
+      <c r="A38" s="193"/>
+      <c r="B38" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="198"/>
-      <c r="D38" s="206" t="s">
+      <c r="C38" s="208"/>
+      <c r="D38" s="216" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="207"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="207"/>
-      <c r="H38" s="207"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="212" t="s">
+      <c r="E38" s="217"/>
+      <c r="F38" s="217"/>
+      <c r="G38" s="217"/>
+      <c r="H38" s="217"/>
+      <c r="I38" s="217"/>
+      <c r="J38" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="193"/>
+      <c r="K38" s="203"/>
       <c r="L38" s="42" t="s">
         <v>82</v>
       </c>
       <c r="M38" s="40"/>
-      <c r="N38" s="173" t="s">
+      <c r="N38" s="183" t="s">
         <v>88</v>
       </c>
-      <c r="O38" s="174"/>
-      <c r="P38" s="174"/>
-      <c r="Q38" s="174"/>
-      <c r="R38" s="174"/>
-      <c r="S38" s="174"/>
-      <c r="T38" s="174"/>
-      <c r="U38" s="203" t="s">
+      <c r="O38" s="184"/>
+      <c r="P38" s="184"/>
+      <c r="Q38" s="184"/>
+      <c r="R38" s="184"/>
+      <c r="S38" s="184"/>
+      <c r="T38" s="184"/>
+      <c r="U38" s="213" t="s">
         <v>105</v>
       </c>
-      <c r="V38" s="204"/>
-      <c r="W38" s="204"/>
-      <c r="X38" s="204"/>
+      <c r="V38" s="214"/>
+      <c r="W38" s="214"/>
+      <c r="X38" s="214"/>
       <c r="Y38" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="183"/>
-      <c r="B39" s="199"/>
-      <c r="C39" s="200"/>
-      <c r="D39" s="208"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="209"/>
-      <c r="H39" s="209"/>
-      <c r="I39" s="209"/>
-      <c r="J39" s="213"/>
-      <c r="K39" s="194"/>
+      <c r="A39" s="193"/>
+      <c r="B39" s="209"/>
+      <c r="C39" s="210"/>
+      <c r="D39" s="218"/>
+      <c r="E39" s="219"/>
+      <c r="F39" s="219"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="219"/>
+      <c r="J39" s="223"/>
+      <c r="K39" s="204"/>
       <c r="L39" s="46" t="s">
         <v>83</v>
       </c>
       <c r="M39" s="47"/>
-      <c r="N39" s="248" t="s">
+      <c r="N39" s="231" t="s">
         <v>106</v>
       </c>
-      <c r="O39" s="249"/>
-      <c r="P39" s="249"/>
-      <c r="Q39" s="249"/>
-      <c r="R39" s="249"/>
-      <c r="S39" s="249"/>
-      <c r="T39" s="249"/>
-      <c r="U39" s="215" t="s">
+      <c r="O39" s="232"/>
+      <c r="P39" s="232"/>
+      <c r="Q39" s="232"/>
+      <c r="R39" s="232"/>
+      <c r="S39" s="232"/>
+      <c r="T39" s="232"/>
+      <c r="U39" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="V39" s="216"/>
-      <c r="W39" s="216"/>
-      <c r="X39" s="216"/>
+      <c r="V39" s="226"/>
+      <c r="W39" s="226"/>
+      <c r="X39" s="226"/>
       <c r="Y39" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="154"/>
-      <c r="B40" s="201"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="210"/>
-      <c r="E40" s="211"/>
-      <c r="F40" s="211"/>
-      <c r="G40" s="211"/>
-      <c r="H40" s="211"/>
-      <c r="I40" s="211"/>
-      <c r="J40" s="214"/>
-      <c r="K40" s="189" t="s">
+      <c r="A40" s="165"/>
+      <c r="B40" s="211"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="220"/>
+      <c r="E40" s="221"/>
+      <c r="F40" s="221"/>
+      <c r="G40" s="221"/>
+      <c r="H40" s="221"/>
+      <c r="I40" s="221"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="199" t="s">
         <v>54</v>
       </c>
       <c r="L40" s="82"/>
-      <c r="M40" s="190"/>
-      <c r="N40" s="195" t="s">
+      <c r="M40" s="200"/>
+      <c r="N40" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="O40" s="129"/>
-      <c r="P40" s="129"/>
+      <c r="O40" s="138"/>
+      <c r="P40" s="138"/>
       <c r="Q40" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="R40" s="196" t="s">
+      <c r="R40" s="206" t="s">
         <v>73</v>
       </c>
       <c r="S40" s="82"/>
       <c r="T40" s="82"/>
       <c r="U40" s="82"/>
-      <c r="V40" s="195" t="s">
+      <c r="V40" s="205" t="s">
         <v>161</v>
       </c>
-      <c r="W40" s="129"/>
-      <c r="X40" s="129"/>
+      <c r="W40" s="138"/>
+      <c r="X40" s="138"/>
       <c r="Y40" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="168" t="s">
+      <c r="A41" s="178" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="49" t="s">
@@ -4743,14 +4743,14 @@
         <v>56</v>
       </c>
       <c r="E41" s="52"/>
-      <c r="F41" s="231"/>
-      <c r="G41" s="232"/>
-      <c r="H41" s="232"/>
-      <c r="I41" s="232"/>
-      <c r="J41" s="205" t="s">
+      <c r="F41" s="238"/>
+      <c r="G41" s="239"/>
+      <c r="H41" s="239"/>
+      <c r="I41" s="239"/>
+      <c r="J41" s="215" t="s">
         <v>157</v>
       </c>
-      <c r="K41" s="205"/>
+      <c r="K41" s="215"/>
       <c r="L41" s="53" t="s">
         <v>70</v>
       </c>
@@ -4766,16 +4766,16 @@
       <c r="R41" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="235"/>
-      <c r="T41" s="236"/>
-      <c r="U41" s="236"/>
-      <c r="V41" s="236"/>
-      <c r="W41" s="236"/>
-      <c r="X41" s="236"/>
-      <c r="Y41" s="237"/>
+      <c r="S41" s="242"/>
+      <c r="T41" s="243"/>
+      <c r="U41" s="243"/>
+      <c r="V41" s="243"/>
+      <c r="W41" s="243"/>
+      <c r="X41" s="243"/>
+      <c r="Y41" s="244"/>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="169"/>
+      <c r="A42" s="179"/>
       <c r="B42" s="57" t="s">
         <v>55</v>
       </c>
@@ -4784,14 +4784,14 @@
         <v>57</v>
       </c>
       <c r="E42" s="60"/>
-      <c r="F42" s="233"/>
-      <c r="G42" s="234"/>
-      <c r="H42" s="234"/>
-      <c r="I42" s="234"/>
-      <c r="J42" s="178" t="s">
+      <c r="F42" s="240"/>
+      <c r="G42" s="241"/>
+      <c r="H42" s="241"/>
+      <c r="I42" s="241"/>
+      <c r="J42" s="188" t="s">
         <v>157</v>
       </c>
-      <c r="K42" s="178"/>
+      <c r="K42" s="188"/>
       <c r="L42" s="61" t="s">
         <v>70</v>
       </c>
@@ -4807,16 +4807,16 @@
       <c r="R42" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="S42" s="238"/>
-      <c r="T42" s="239"/>
-      <c r="U42" s="239"/>
-      <c r="V42" s="239"/>
-      <c r="W42" s="239"/>
-      <c r="X42" s="239"/>
-      <c r="Y42" s="240"/>
+      <c r="S42" s="245"/>
+      <c r="T42" s="246"/>
+      <c r="U42" s="246"/>
+      <c r="V42" s="246"/>
+      <c r="W42" s="246"/>
+      <c r="X42" s="246"/>
+      <c r="Y42" s="247"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="169"/>
+      <c r="A43" s="179"/>
       <c r="B43" s="49" t="s">
         <v>59</v>
       </c>
@@ -4825,35 +4825,35 @@
         <v>60</v>
       </c>
       <c r="E43" s="52"/>
-      <c r="F43" s="205" t="s">
+      <c r="F43" s="215" t="s">
         <v>109</v>
       </c>
-      <c r="G43" s="205"/>
-      <c r="H43" s="205"/>
-      <c r="I43" s="205"/>
-      <c r="J43" s="229"/>
-      <c r="K43" s="229"/>
-      <c r="L43" s="230"/>
-      <c r="M43" s="242" t="s">
+      <c r="G43" s="215"/>
+      <c r="H43" s="215"/>
+      <c r="I43" s="215"/>
+      <c r="J43" s="236"/>
+      <c r="K43" s="236"/>
+      <c r="L43" s="237"/>
+      <c r="M43" s="249" t="s">
         <v>110</v>
       </c>
-      <c r="N43" s="243"/>
-      <c r="O43" s="243"/>
-      <c r="P43" s="243"/>
-      <c r="Q43" s="205" t="s">
+      <c r="N43" s="230"/>
+      <c r="O43" s="230"/>
+      <c r="P43" s="230"/>
+      <c r="Q43" s="215" t="s">
         <v>157</v>
       </c>
-      <c r="R43" s="205"/>
-      <c r="S43" s="235"/>
-      <c r="T43" s="236"/>
-      <c r="U43" s="236"/>
-      <c r="V43" s="236"/>
-      <c r="W43" s="236"/>
-      <c r="X43" s="236"/>
-      <c r="Y43" s="237"/>
+      <c r="R43" s="215"/>
+      <c r="S43" s="242"/>
+      <c r="T43" s="243"/>
+      <c r="U43" s="243"/>
+      <c r="V43" s="243"/>
+      <c r="W43" s="243"/>
+      <c r="X43" s="243"/>
+      <c r="Y43" s="244"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="169"/>
+      <c r="A44" s="179"/>
       <c r="B44" s="57" t="s">
         <v>55</v>
       </c>
@@ -4862,35 +4862,35 @@
         <v>60</v>
       </c>
       <c r="E44" s="60"/>
-      <c r="F44" s="178" t="s">
+      <c r="F44" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="G44" s="178"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="179"/>
-      <c r="K44" s="179"/>
-      <c r="L44" s="180"/>
-      <c r="M44" s="241" t="s">
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="189"/>
+      <c r="K44" s="189"/>
+      <c r="L44" s="190"/>
+      <c r="M44" s="248" t="s">
         <v>112</v>
       </c>
-      <c r="N44" s="204"/>
-      <c r="O44" s="204"/>
-      <c r="P44" s="204"/>
-      <c r="Q44" s="178" t="s">
+      <c r="N44" s="214"/>
+      <c r="O44" s="214"/>
+      <c r="P44" s="214"/>
+      <c r="Q44" s="188" t="s">
         <v>157</v>
       </c>
-      <c r="R44" s="178"/>
-      <c r="S44" s="238"/>
-      <c r="T44" s="239"/>
-      <c r="U44" s="239"/>
-      <c r="V44" s="239"/>
-      <c r="W44" s="239"/>
-      <c r="X44" s="239"/>
-      <c r="Y44" s="240"/>
+      <c r="R44" s="188"/>
+      <c r="S44" s="245"/>
+      <c r="T44" s="246"/>
+      <c r="U44" s="246"/>
+      <c r="V44" s="246"/>
+      <c r="W44" s="246"/>
+      <c r="X44" s="246"/>
+      <c r="Y44" s="247"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="170" t="s">
+      <c r="A45" s="180" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="109" t="s">
@@ -4910,7 +4910,7 @@
       <c r="L45" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="130"/>
+      <c r="M45" s="139"/>
       <c r="N45" s="81" t="s">
         <v>113</v>
       </c>
@@ -4927,7 +4927,7 @@
       <c r="Y45" s="102"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="171"/>
+      <c r="A46" s="181"/>
       <c r="B46" s="109" t="s">
         <v>63</v>
       </c>
@@ -4945,7 +4945,7 @@
       <c r="L46" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="130"/>
+      <c r="M46" s="139"/>
       <c r="N46" s="81" t="s">
         <v>114</v>
       </c>
@@ -4962,7 +4962,7 @@
       <c r="Y46" s="102"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="172"/>
+      <c r="A47" s="182"/>
       <c r="B47" s="109" t="s">
         <v>63</v>
       </c>
@@ -4978,7 +4978,7 @@
       <c r="L47" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="130"/>
+      <c r="M47" s="139"/>
       <c r="N47" s="81"/>
       <c r="O47" s="82"/>
       <c r="P47" s="82"/>
@@ -4993,117 +4993,117 @@
       <c r="Y47" s="102"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="226" t="s">
+      <c r="A48" s="233" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="227"/>
-      <c r="C48" s="166"/>
-      <c r="D48" s="228"/>
-      <c r="E48" s="228"/>
-      <c r="F48" s="228"/>
-      <c r="G48" s="228"/>
-      <c r="H48" s="228"/>
-      <c r="I48" s="228"/>
-      <c r="J48" s="228"/>
-      <c r="K48" s="228"/>
-      <c r="L48" s="228"/>
-      <c r="M48" s="228"/>
-      <c r="N48" s="228"/>
-      <c r="O48" s="228"/>
-      <c r="P48" s="228"/>
-      <c r="Q48" s="228"/>
-      <c r="R48" s="228"/>
-      <c r="S48" s="228"/>
-      <c r="T48" s="228"/>
-      <c r="U48" s="228"/>
-      <c r="V48" s="228"/>
-      <c r="W48" s="228"/>
-      <c r="X48" s="228"/>
-      <c r="Y48" s="167"/>
+      <c r="B48" s="234"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="235"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="235"/>
+      <c r="G48" s="235"/>
+      <c r="H48" s="235"/>
+      <c r="I48" s="235"/>
+      <c r="J48" s="235"/>
+      <c r="K48" s="235"/>
+      <c r="L48" s="235"/>
+      <c r="M48" s="235"/>
+      <c r="N48" s="235"/>
+      <c r="O48" s="235"/>
+      <c r="P48" s="235"/>
+      <c r="Q48" s="235"/>
+      <c r="R48" s="235"/>
+      <c r="S48" s="235"/>
+      <c r="T48" s="235"/>
+      <c r="U48" s="235"/>
+      <c r="V48" s="235"/>
+      <c r="W48" s="235"/>
+      <c r="X48" s="235"/>
+      <c r="Y48" s="177"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="175" t="s">
+      <c r="A49" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="176"/>
-      <c r="E49" s="176"/>
-      <c r="F49" s="176"/>
-      <c r="G49" s="176"/>
-      <c r="H49" s="176"/>
-      <c r="I49" s="176"/>
-      <c r="J49" s="176"/>
-      <c r="K49" s="176"/>
-      <c r="L49" s="176"/>
-      <c r="M49" s="176"/>
-      <c r="N49" s="176"/>
-      <c r="O49" s="176"/>
-      <c r="P49" s="176"/>
-      <c r="Q49" s="176"/>
-      <c r="R49" s="176"/>
-      <c r="S49" s="176"/>
-      <c r="T49" s="176"/>
-      <c r="U49" s="176"/>
-      <c r="V49" s="176"/>
-      <c r="W49" s="176"/>
-      <c r="X49" s="176"/>
-      <c r="Y49" s="177"/>
+      <c r="B49" s="186"/>
+      <c r="C49" s="186"/>
+      <c r="D49" s="186"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="186"/>
+      <c r="G49" s="186"/>
+      <c r="H49" s="186"/>
+      <c r="I49" s="186"/>
+      <c r="J49" s="186"/>
+      <c r="K49" s="186"/>
+      <c r="L49" s="186"/>
+      <c r="M49" s="186"/>
+      <c r="N49" s="186"/>
+      <c r="O49" s="186"/>
+      <c r="P49" s="186"/>
+      <c r="Q49" s="186"/>
+      <c r="R49" s="186"/>
+      <c r="S49" s="186"/>
+      <c r="T49" s="186"/>
+      <c r="U49" s="186"/>
+      <c r="V49" s="186"/>
+      <c r="W49" s="186"/>
+      <c r="X49" s="186"/>
+      <c r="Y49" s="187"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="158"/>
-      <c r="B50" s="159"/>
-      <c r="C50" s="159"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="159"/>
-      <c r="I50" s="159"/>
-      <c r="J50" s="159"/>
-      <c r="K50" s="159"/>
-      <c r="L50" s="159"/>
-      <c r="M50" s="159"/>
-      <c r="N50" s="159"/>
-      <c r="O50" s="159"/>
-      <c r="P50" s="159"/>
-      <c r="Q50" s="159"/>
-      <c r="R50" s="159"/>
-      <c r="S50" s="159"/>
-      <c r="T50" s="159"/>
-      <c r="U50" s="159"/>
-      <c r="V50" s="159"/>
-      <c r="W50" s="159"/>
-      <c r="X50" s="159"/>
-      <c r="Y50" s="160"/>
+      <c r="A50" s="168"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
+      <c r="E50" s="169"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="169"/>
+      <c r="H50" s="169"/>
+      <c r="I50" s="169"/>
+      <c r="J50" s="169"/>
+      <c r="K50" s="169"/>
+      <c r="L50" s="169"/>
+      <c r="M50" s="169"/>
+      <c r="N50" s="169"/>
+      <c r="O50" s="169"/>
+      <c r="P50" s="169"/>
+      <c r="Q50" s="169"/>
+      <c r="R50" s="169"/>
+      <c r="S50" s="169"/>
+      <c r="T50" s="169"/>
+      <c r="U50" s="169"/>
+      <c r="V50" s="169"/>
+      <c r="W50" s="169"/>
+      <c r="X50" s="169"/>
+      <c r="Y50" s="170"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="250" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="124"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="124"/>
-      <c r="L51" s="124"/>
-      <c r="M51" s="124"/>
-      <c r="N51" s="124"/>
-      <c r="O51" s="124"/>
-      <c r="P51" s="124"/>
-      <c r="Q51" s="124"/>
-      <c r="R51" s="124"/>
-      <c r="S51" s="124"/>
-      <c r="T51" s="124"/>
-      <c r="U51" s="124"/>
-      <c r="V51" s="124"/>
-      <c r="W51" s="124"/>
-      <c r="X51" s="124"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="133"/>
+      <c r="M51" s="133"/>
+      <c r="N51" s="133"/>
+      <c r="O51" s="133"/>
+      <c r="P51" s="133"/>
+      <c r="Q51" s="133"/>
+      <c r="R51" s="133"/>
+      <c r="S51" s="133"/>
+      <c r="T51" s="133"/>
+      <c r="U51" s="133"/>
+      <c r="V51" s="133"/>
+      <c r="W51" s="133"/>
+      <c r="X51" s="133"/>
       <c r="Y51" s="251"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -5135,29 +5135,29 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="255"/>
-      <c r="B53" s="161"/>
-      <c r="C53" s="161"/>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="161"/>
-      <c r="G53" s="161"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="161"/>
-      <c r="J53" s="161"/>
-      <c r="K53" s="161"/>
-      <c r="L53" s="161"/>
-      <c r="M53" s="161"/>
-      <c r="N53" s="161"/>
-      <c r="O53" s="161"/>
-      <c r="P53" s="161"/>
-      <c r="Q53" s="161"/>
-      <c r="R53" s="161"/>
-      <c r="S53" s="161"/>
-      <c r="T53" s="161"/>
-      <c r="U53" s="161"/>
-      <c r="V53" s="161"/>
-      <c r="W53" s="161"/>
-      <c r="X53" s="161"/>
+      <c r="B53" s="171"/>
+      <c r="C53" s="171"/>
+      <c r="D53" s="171"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="171"/>
+      <c r="I53" s="171"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="171"/>
+      <c r="L53" s="171"/>
+      <c r="M53" s="171"/>
+      <c r="N53" s="171"/>
+      <c r="O53" s="171"/>
+      <c r="P53" s="171"/>
+      <c r="Q53" s="171"/>
+      <c r="R53" s="171"/>
+      <c r="S53" s="171"/>
+      <c r="T53" s="171"/>
+      <c r="U53" s="171"/>
+      <c r="V53" s="171"/>
+      <c r="W53" s="171"/>
+      <c r="X53" s="171"/>
       <c r="Y53" s="256"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -5208,12 +5208,12 @@
       <c r="H58" s="253"/>
       <c r="I58" s="253"/>
       <c r="J58" s="253"/>
-      <c r="L58" s="209" t="s">
+      <c r="L58" s="219" t="s">
         <v>189</v>
       </c>
-      <c r="M58" s="209"/>
-      <c r="N58" s="209"/>
-      <c r="O58" s="209"/>
+      <c r="M58" s="219"/>
+      <c r="N58" s="219"/>
+      <c r="O58" s="219"/>
       <c r="P58" s="1" t="s">
         <v>190</v>
       </c>
@@ -5301,6 +5301,12 @@
     <mergeCell ref="D8:K8"/>
     <mergeCell ref="N10:Y10"/>
     <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="N39:T39"/>
+    <mergeCell ref="U36:X36"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:Y48"/>
     <mergeCell ref="F43:L43"/>
@@ -5314,6 +5320,7 @@
     <mergeCell ref="S43:Y43"/>
     <mergeCell ref="M43:P43"/>
     <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="Q43:R43"/>
     <mergeCell ref="U37:X37"/>
     <mergeCell ref="N38:T38"/>
     <mergeCell ref="U38:X38"/>
@@ -5322,12 +5329,7 @@
     <mergeCell ref="U39:X39"/>
     <mergeCell ref="N36:T36"/>
     <mergeCell ref="N37:T37"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="N39:T39"/>
-    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="A23:A32"/>
     <mergeCell ref="A49:Y49"/>
     <mergeCell ref="Q44:R44"/>
     <mergeCell ref="F44:L44"/>
@@ -5351,7 +5353,7 @@
     <mergeCell ref="D36:I36"/>
     <mergeCell ref="U34:X34"/>
     <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="A50:Y50"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="B9:C9"/>
@@ -5375,8 +5377,6 @@
     <mergeCell ref="N35:T35"/>
     <mergeCell ref="N47:Y47"/>
     <mergeCell ref="D11:K11"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A6:A9"/>
     <mergeCell ref="A15:Y15"/>
     <mergeCell ref="C19:Y19"/>
     <mergeCell ref="L10:M10"/>
@@ -5399,7 +5399,6 @@
     <mergeCell ref="C20:Y20"/>
     <mergeCell ref="M21:P21"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="L9:M9"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="D5:K5"/>
     <mergeCell ref="O18:R18"/>
@@ -5423,6 +5422,7 @@
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="L4:N5"/>
+    <mergeCell ref="A6:A9"/>
     <mergeCell ref="Q26:R26"/>
     <mergeCell ref="E26:N26"/>
     <mergeCell ref="E27:K27"/>
@@ -5470,7 +5470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7884DA4D-1FDF-4CAB-9ACC-2D90368CE4EA}">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H2"/>
@@ -5567,25 +5567,25 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="219" t="s">
+      <c r="A4" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="119" t="s">
+      <c r="B4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="121"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
       <c r="L4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="222"/>
+      <c r="M4" s="143"/>
       <c r="N4" s="97"/>
       <c r="O4" s="7" t="s">
         <v>77</v>
@@ -5608,24 +5608,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="119" t="s">
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="223"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="225"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="146"/>
       <c r="O5" s="10" t="s">
         <v>71</v>
       </c>
@@ -5636,10 +5636,10 @@
       <c r="R5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="161" t="s">
+      <c r="S5" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="162"/>
+      <c r="T5" s="172"/>
       <c r="U5" s="11" t="s">
         <v>71</v>
       </c>
@@ -5657,7 +5657,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="147" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="109" t="s">
@@ -5677,7 +5677,7 @@
       <c r="L6" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="130"/>
+      <c r="M6" s="139"/>
       <c r="N6" s="81" t="s">
         <v>78</v>
       </c>
@@ -5694,7 +5694,7 @@
       <c r="Y6" s="102"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="134"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="109" t="s">
         <v>68</v>
       </c>
@@ -5710,7 +5710,7 @@
       <c r="L7" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="130"/>
+      <c r="M7" s="139"/>
       <c r="N7" s="81"/>
       <c r="O7" s="82"/>
       <c r="P7" s="82"/>
@@ -5725,7 +5725,7 @@
       <c r="Y7" s="102"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="134"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="109" t="s">
         <v>68</v>
       </c>
@@ -5741,7 +5741,7 @@
       <c r="L8" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="130"/>
+      <c r="M8" s="139"/>
       <c r="N8" s="81"/>
       <c r="O8" s="82"/>
       <c r="P8" s="82"/>
@@ -5756,11 +5756,11 @@
       <c r="Y8" s="102"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="134"/>
-      <c r="B9" s="163" t="s">
+      <c r="A9" s="147"/>
+      <c r="B9" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="164"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="81"/>
       <c r="E9" s="82"/>
       <c r="F9" s="82"/>
@@ -5772,7 +5772,7 @@
       <c r="L9" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="130"/>
+      <c r="M9" s="139"/>
       <c r="N9" s="81"/>
       <c r="O9" s="82"/>
       <c r="P9" s="82"/>
@@ -5787,7 +5787,7 @@
       <c r="Y9" s="102"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="147" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="109" t="s">
@@ -5807,7 +5807,7 @@
       <c r="L10" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="130"/>
+      <c r="M10" s="139"/>
       <c r="N10" s="81" t="s">
         <v>116</v>
       </c>
@@ -5824,7 +5824,7 @@
       <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="134"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="109" t="s">
         <v>68</v>
       </c>
@@ -5840,7 +5840,7 @@
       <c r="L11" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="130"/>
+      <c r="M11" s="139"/>
       <c r="N11" s="81"/>
       <c r="O11" s="82"/>
       <c r="P11" s="82"/>
@@ -5855,7 +5855,7 @@
       <c r="Y11" s="102"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="134"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="109" t="s">
         <v>68</v>
       </c>
@@ -5871,7 +5871,7 @@
       <c r="L12" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="130"/>
+      <c r="M12" s="139"/>
       <c r="N12" s="81"/>
       <c r="O12" s="82"/>
       <c r="P12" s="82"/>
@@ -5886,11 +5886,11 @@
       <c r="Y12" s="102"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="134"/>
-      <c r="B13" s="163" t="s">
+      <c r="A13" s="147"/>
+      <c r="B13" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="164"/>
+      <c r="C13" s="174"/>
       <c r="D13" s="81"/>
       <c r="E13" s="82"/>
       <c r="F13" s="82"/>
@@ -5902,7 +5902,7 @@
       <c r="L13" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="130"/>
+      <c r="M13" s="139"/>
       <c r="N13" s="81"/>
       <c r="O13" s="82"/>
       <c r="P13" s="82"/>
@@ -5917,14 +5917,14 @@
       <c r="Y13" s="102"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
       <c r="G14" s="83" t="s">
         <v>89</v>
       </c>
@@ -5948,34 +5948,34 @@
       <c r="Y14" s="84"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="135"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="147"/>
-      <c r="O15" s="147"/>
-      <c r="P15" s="147"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="147"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="147"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="147"/>
-      <c r="X15" s="147"/>
-      <c r="Y15" s="148"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="123"/>
+      <c r="W15" s="123"/>
+      <c r="X15" s="123"/>
+      <c r="Y15" s="124"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="163" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -5983,37 +5983,37 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="149" t="s">
+      <c r="E16" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="149"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="149"/>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="149"/>
-      <c r="S16" s="149"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="149"/>
-      <c r="V16" s="149"/>
-      <c r="W16" s="149"/>
-      <c r="X16" s="149"/>
-      <c r="Y16" s="150"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="160"/>
+      <c r="R16" s="160"/>
+      <c r="S16" s="160"/>
+      <c r="T16" s="160"/>
+      <c r="U16" s="160"/>
+      <c r="V16" s="160"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="160"/>
+      <c r="Y16" s="161"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="268"/>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="125"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
@@ -6025,30 +6025,30 @@
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="127" t="s">
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="129" t="s">
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="138"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="138" t="s">
+      <c r="U17" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="139"/>
-      <c r="W17" s="139"/>
-      <c r="X17" s="139"/>
-      <c r="Y17" s="140"/>
+      <c r="V17" s="152"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="153"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="268"/>
@@ -6061,12 +6061,12 @@
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="122" t="s">
+      <c r="G18" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -6075,10 +6075,10 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="122"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="131"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
@@ -6093,10 +6093,10 @@
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="268"/>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="137"/>
+      <c r="C19" s="150"/>
       <c r="D19" s="83"/>
       <c r="E19" s="83"/>
       <c r="F19" s="83"/>
@@ -6122,38 +6122,38 @@
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="268"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="147"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="147"/>
-      <c r="U20" s="147"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="147"/>
-      <c r="X20" s="147"/>
-      <c r="Y20" s="148"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="124"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="268"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="181" t="s">
+      <c r="B21" s="155"/>
+      <c r="C21" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="181"/>
+      <c r="D21" s="191"/>
       <c r="E21" s="23" t="s">
         <v>17</v>
       </c>
@@ -6163,13 +6163,13 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="132" t="s">
+      <c r="L21" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="156"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="157"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="167"/>
+      <c r="O21" s="167"/>
+      <c r="P21" s="167"/>
       <c r="Q21" s="8" t="s">
         <v>154</v>
       </c>
@@ -6186,23 +6186,23 @@
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="269"/>
-      <c r="B22" s="143"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="108"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
       <c r="Q22" s="5" t="s">
         <v>155</v>
       </c>
@@ -6222,7 +6222,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="168" t="s">
+      <c r="A23" s="178" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="87" t="s">
@@ -6255,7 +6255,7 @@
       <c r="Y23" s="91"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="153"/>
+      <c r="A24" s="164"/>
       <c r="B24" s="87" t="s">
         <v>11</v>
       </c>
@@ -6292,7 +6292,7 @@
       <c r="Y24" s="86"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="153"/>
+      <c r="A25" s="164"/>
       <c r="B25" s="87" t="s">
         <v>21</v>
       </c>
@@ -6323,7 +6323,7 @@
       <c r="Y25" s="100"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="153"/>
+      <c r="A26" s="164"/>
       <c r="B26" s="87" t="s">
         <v>36</v>
       </c>
@@ -6364,7 +6364,7 @@
       <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="153"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="87" t="s">
         <v>72</v>
       </c>
@@ -6402,7 +6402,7 @@
       <c r="Z27" s="33"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="153"/>
+      <c r="A28" s="164"/>
       <c r="B28" s="109" t="s">
         <v>69</v>
       </c>
@@ -6448,11 +6448,11 @@
       <c r="Z28" s="33"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="153"/>
-      <c r="B29" s="141" t="s">
+      <c r="A29" s="164"/>
+      <c r="B29" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="137"/>
+      <c r="C29" s="150"/>
       <c r="D29" s="83"/>
       <c r="E29" s="83"/>
       <c r="F29" s="83"/>
@@ -6477,59 +6477,59 @@
       <c r="Y29" s="84"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="153"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="147"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="147"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="147"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="147"/>
-      <c r="Y30" s="148"/>
+      <c r="A30" s="164"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="123"/>
+      <c r="V30" s="123"/>
+      <c r="W30" s="123"/>
+      <c r="X30" s="123"/>
+      <c r="Y30" s="124"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="153"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="181" t="s">
+      <c r="A31" s="164"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="181"/>
+      <c r="D31" s="191"/>
       <c r="E31" s="117" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="118"/>
-      <c r="G31" s="131" t="s">
+      <c r="G31" s="119" t="s">
         <v>170</v>
       </c>
       <c r="H31" s="83"/>
       <c r="I31" s="83"/>
       <c r="J31" s="83"/>
       <c r="K31" s="83"/>
-      <c r="L31" s="132" t="s">
+      <c r="L31" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="156"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="166"/>
-      <c r="R31" s="167"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="167"/>
+      <c r="O31" s="167"/>
+      <c r="P31" s="167"/>
+      <c r="Q31" s="176"/>
+      <c r="R31" s="177"/>
       <c r="S31" s="105" t="s">
         <v>27</v>
       </c>
@@ -6541,32 +6541,32 @@
       <c r="Y31" s="107"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="154"/>
-      <c r="B32" s="143"/>
+      <c r="A32" s="165"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="108"/>
-      <c r="E32" s="245" t="s">
+      <c r="E32" s="125" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="246"/>
-      <c r="G32" s="246"/>
-      <c r="H32" s="246"/>
-      <c r="I32" s="246"/>
-      <c r="J32" s="246"/>
-      <c r="K32" s="247"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="144" t="s">
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="N32" s="145"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="165" t="s">
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="158"/>
+      <c r="Q32" s="175" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="160"/>
+      <c r="R32" s="170"/>
       <c r="S32" s="26" t="s">
         <v>176</v>
       </c>
@@ -6590,215 +6590,215 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="182" t="s">
+      <c r="A33" s="192" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="184" t="s">
+      <c r="D33" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="185"/>
-      <c r="F33" s="185"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="186"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="196"/>
       <c r="J33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="191" t="s">
+      <c r="K33" s="201" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="35"/>
-      <c r="N33" s="217" t="s">
+      <c r="N33" s="227" t="s">
         <v>123</v>
       </c>
-      <c r="O33" s="218"/>
-      <c r="P33" s="218"/>
-      <c r="Q33" s="218"/>
-      <c r="R33" s="218"/>
-      <c r="S33" s="218"/>
-      <c r="T33" s="218"/>
-      <c r="U33" s="244" t="s">
+      <c r="O33" s="228"/>
+      <c r="P33" s="228"/>
+      <c r="Q33" s="228"/>
+      <c r="R33" s="228"/>
+      <c r="S33" s="228"/>
+      <c r="T33" s="228"/>
+      <c r="U33" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="V33" s="243"/>
-      <c r="W33" s="243"/>
-      <c r="X33" s="243"/>
+      <c r="V33" s="230"/>
+      <c r="W33" s="230"/>
+      <c r="X33" s="230"/>
       <c r="Y33" s="38" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="33"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="183"/>
+      <c r="A34" s="193"/>
       <c r="B34" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="40"/>
-      <c r="D34" s="187" t="s">
+      <c r="D34" s="197" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="198"/>
+      <c r="G34" s="198"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="198"/>
       <c r="J34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="192"/>
+      <c r="K34" s="202"/>
       <c r="L34" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="40"/>
-      <c r="N34" s="173" t="s">
+      <c r="N34" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="O34" s="174"/>
-      <c r="P34" s="174"/>
-      <c r="Q34" s="174"/>
-      <c r="R34" s="174"/>
-      <c r="S34" s="174"/>
-      <c r="T34" s="174"/>
-      <c r="U34" s="203" t="s">
+      <c r="O34" s="184"/>
+      <c r="P34" s="184"/>
+      <c r="Q34" s="184"/>
+      <c r="R34" s="184"/>
+      <c r="S34" s="184"/>
+      <c r="T34" s="184"/>
+      <c r="U34" s="213" t="s">
         <v>124</v>
       </c>
-      <c r="V34" s="204"/>
-      <c r="W34" s="204"/>
-      <c r="X34" s="204"/>
+      <c r="V34" s="214"/>
+      <c r="W34" s="214"/>
+      <c r="X34" s="214"/>
       <c r="Y34" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="183"/>
+      <c r="A35" s="193"/>
       <c r="B35" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="40"/>
-      <c r="D35" s="187" t="s">
+      <c r="D35" s="197" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="188"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="198"/>
       <c r="J35" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="192"/>
+      <c r="K35" s="202"/>
       <c r="L35" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="40"/>
-      <c r="N35" s="173" t="s">
+      <c r="N35" s="183" t="s">
         <v>127</v>
       </c>
-      <c r="O35" s="174"/>
-      <c r="P35" s="174"/>
-      <c r="Q35" s="174"/>
-      <c r="R35" s="174"/>
-      <c r="S35" s="174"/>
-      <c r="T35" s="174"/>
-      <c r="U35" s="203" t="s">
+      <c r="O35" s="184"/>
+      <c r="P35" s="184"/>
+      <c r="Q35" s="184"/>
+      <c r="R35" s="184"/>
+      <c r="S35" s="184"/>
+      <c r="T35" s="184"/>
+      <c r="U35" s="213" t="s">
         <v>126</v>
       </c>
-      <c r="V35" s="204"/>
-      <c r="W35" s="204"/>
-      <c r="X35" s="204"/>
+      <c r="V35" s="214"/>
+      <c r="W35" s="214"/>
+      <c r="X35" s="214"/>
       <c r="Y35" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="183"/>
+      <c r="A36" s="193"/>
       <c r="B36" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="44"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="198"/>
+      <c r="G36" s="198"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="198"/>
       <c r="J36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="193"/>
+      <c r="K36" s="203"/>
       <c r="L36" s="65" t="s">
         <v>84</v>
       </c>
       <c r="M36" s="44"/>
-      <c r="N36" s="173" t="s">
+      <c r="N36" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="O36" s="174"/>
-      <c r="P36" s="174"/>
-      <c r="Q36" s="174"/>
-      <c r="R36" s="174"/>
-      <c r="S36" s="174"/>
-      <c r="T36" s="174"/>
-      <c r="U36" s="203" t="s">
+      <c r="O36" s="184"/>
+      <c r="P36" s="184"/>
+      <c r="Q36" s="184"/>
+      <c r="R36" s="184"/>
+      <c r="S36" s="184"/>
+      <c r="T36" s="184"/>
+      <c r="U36" s="213" t="s">
         <v>129</v>
       </c>
-      <c r="V36" s="204"/>
-      <c r="W36" s="204"/>
-      <c r="X36" s="204"/>
+      <c r="V36" s="214"/>
+      <c r="W36" s="214"/>
+      <c r="X36" s="214"/>
       <c r="Y36" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="183"/>
+      <c r="A37" s="193"/>
       <c r="B37" s="66" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="44"/>
-      <c r="D37" s="187" t="s">
+      <c r="D37" s="197" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
+      <c r="E37" s="198"/>
+      <c r="F37" s="198"/>
+      <c r="G37" s="198"/>
+      <c r="H37" s="198"/>
+      <c r="I37" s="198"/>
       <c r="J37" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="194"/>
+      <c r="K37" s="204"/>
       <c r="L37" s="68" t="s">
         <v>83</v>
       </c>
       <c r="M37" s="69"/>
-      <c r="N37" s="173" t="s">
+      <c r="N37" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="174"/>
-      <c r="P37" s="174"/>
-      <c r="Q37" s="174"/>
-      <c r="R37" s="174"/>
-      <c r="S37" s="174"/>
-      <c r="T37" s="174"/>
-      <c r="U37" s="215" t="s">
+      <c r="O37" s="184"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="184"/>
+      <c r="R37" s="184"/>
+      <c r="S37" s="184"/>
+      <c r="T37" s="184"/>
+      <c r="U37" s="225" t="s">
         <v>131</v>
       </c>
-      <c r="V37" s="216"/>
-      <c r="W37" s="216"/>
-      <c r="X37" s="216"/>
+      <c r="V37" s="226"/>
+      <c r="W37" s="226"/>
+      <c r="X37" s="226"/>
       <c r="Y37" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="154"/>
+      <c r="A38" s="165"/>
       <c r="B38" s="270" t="s">
         <v>53</v>
       </c>
@@ -6814,36 +6814,36 @@
       <c r="J38" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="189" t="s">
+      <c r="K38" s="199" t="s">
         <v>54</v>
       </c>
       <c r="L38" s="82"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="195" t="s">
+      <c r="M38" s="200"/>
+      <c r="N38" s="205" t="s">
         <v>132</v>
       </c>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
+      <c r="O38" s="138"/>
+      <c r="P38" s="138"/>
       <c r="Q38" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="R38" s="196" t="s">
+      <c r="R38" s="206" t="s">
         <v>73</v>
       </c>
       <c r="S38" s="82"/>
       <c r="T38" s="82"/>
       <c r="U38" s="82"/>
-      <c r="V38" s="195" t="s">
+      <c r="V38" s="205" t="s">
         <v>162</v>
       </c>
-      <c r="W38" s="129"/>
-      <c r="X38" s="129"/>
+      <c r="W38" s="138"/>
+      <c r="X38" s="138"/>
       <c r="Y38" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="168" t="s">
+      <c r="A39" s="178" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="49" t="s">
@@ -6854,14 +6854,14 @@
         <v>56</v>
       </c>
       <c r="E39" s="52"/>
-      <c r="F39" s="231"/>
-      <c r="G39" s="232"/>
-      <c r="H39" s="232"/>
-      <c r="I39" s="232"/>
-      <c r="J39" s="205" t="s">
+      <c r="F39" s="238"/>
+      <c r="G39" s="239"/>
+      <c r="H39" s="239"/>
+      <c r="I39" s="239"/>
+      <c r="J39" s="215" t="s">
         <v>157</v>
       </c>
-      <c r="K39" s="205"/>
+      <c r="K39" s="215"/>
       <c r="L39" s="53" t="s">
         <v>70</v>
       </c>
@@ -6877,16 +6877,16 @@
       <c r="R39" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="S39" s="235"/>
-      <c r="T39" s="236"/>
-      <c r="U39" s="236"/>
-      <c r="V39" s="236"/>
-      <c r="W39" s="236"/>
-      <c r="X39" s="236"/>
-      <c r="Y39" s="237"/>
+      <c r="S39" s="242"/>
+      <c r="T39" s="243"/>
+      <c r="U39" s="243"/>
+      <c r="V39" s="243"/>
+      <c r="W39" s="243"/>
+      <c r="X39" s="243"/>
+      <c r="Y39" s="244"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="169"/>
+      <c r="A40" s="179"/>
       <c r="B40" s="57" t="s">
         <v>55</v>
       </c>
@@ -6895,14 +6895,14 @@
         <v>57</v>
       </c>
       <c r="E40" s="60"/>
-      <c r="F40" s="233"/>
-      <c r="G40" s="234"/>
-      <c r="H40" s="234"/>
-      <c r="I40" s="234"/>
-      <c r="J40" s="178" t="s">
+      <c r="F40" s="240"/>
+      <c r="G40" s="241"/>
+      <c r="H40" s="241"/>
+      <c r="I40" s="241"/>
+      <c r="J40" s="188" t="s">
         <v>157</v>
       </c>
-      <c r="K40" s="178"/>
+      <c r="K40" s="188"/>
       <c r="L40" s="61" t="s">
         <v>70</v>
       </c>
@@ -6918,16 +6918,16 @@
       <c r="R40" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="S40" s="238"/>
-      <c r="T40" s="239"/>
-      <c r="U40" s="239"/>
-      <c r="V40" s="239"/>
-      <c r="W40" s="239"/>
-      <c r="X40" s="239"/>
-      <c r="Y40" s="240"/>
+      <c r="S40" s="245"/>
+      <c r="T40" s="246"/>
+      <c r="U40" s="246"/>
+      <c r="V40" s="246"/>
+      <c r="W40" s="246"/>
+      <c r="X40" s="246"/>
+      <c r="Y40" s="247"/>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="169"/>
+      <c r="A41" s="179"/>
       <c r="B41" s="274"/>
       <c r="C41" s="275"/>
       <c r="D41" s="71"/>
@@ -6964,7 +6964,7 @@
       <c r="Y41" s="281"/>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="169"/>
+      <c r="A42" s="179"/>
       <c r="B42" s="49" t="s">
         <v>59</v>
       </c>
@@ -6973,35 +6973,35 @@
         <v>60</v>
       </c>
       <c r="E42" s="52"/>
-      <c r="F42" s="205" t="s">
+      <c r="F42" s="215" t="s">
         <v>133</v>
       </c>
-      <c r="G42" s="205"/>
-      <c r="H42" s="205"/>
-      <c r="I42" s="205"/>
-      <c r="J42" s="229"/>
-      <c r="K42" s="229"/>
-      <c r="L42" s="230"/>
-      <c r="M42" s="242" t="s">
+      <c r="G42" s="215"/>
+      <c r="H42" s="215"/>
+      <c r="I42" s="215"/>
+      <c r="J42" s="236"/>
+      <c r="K42" s="236"/>
+      <c r="L42" s="237"/>
+      <c r="M42" s="249" t="s">
         <v>134</v>
       </c>
-      <c r="N42" s="243"/>
-      <c r="O42" s="243"/>
-      <c r="P42" s="243"/>
-      <c r="Q42" s="205" t="s">
+      <c r="N42" s="230"/>
+      <c r="O42" s="230"/>
+      <c r="P42" s="230"/>
+      <c r="Q42" s="215" t="s">
         <v>157</v>
       </c>
-      <c r="R42" s="205"/>
-      <c r="S42" s="235"/>
-      <c r="T42" s="236"/>
-      <c r="U42" s="236"/>
-      <c r="V42" s="236"/>
-      <c r="W42" s="236"/>
-      <c r="X42" s="236"/>
-      <c r="Y42" s="237"/>
+      <c r="R42" s="215"/>
+      <c r="S42" s="242"/>
+      <c r="T42" s="243"/>
+      <c r="U42" s="243"/>
+      <c r="V42" s="243"/>
+      <c r="W42" s="243"/>
+      <c r="X42" s="243"/>
+      <c r="Y42" s="244"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="169"/>
+      <c r="A43" s="179"/>
       <c r="B43" s="57" t="s">
         <v>55</v>
       </c>
@@ -7010,32 +7010,32 @@
         <v>60</v>
       </c>
       <c r="E43" s="60"/>
-      <c r="F43" s="178" t="s">
+      <c r="F43" s="188" t="s">
         <v>135</v>
       </c>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="179"/>
-      <c r="K43" s="179"/>
-      <c r="L43" s="180"/>
-      <c r="M43" s="241" t="s">
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="188"/>
+      <c r="J43" s="189"/>
+      <c r="K43" s="189"/>
+      <c r="L43" s="190"/>
+      <c r="M43" s="248" t="s">
         <v>136</v>
       </c>
-      <c r="N43" s="204"/>
-      <c r="O43" s="204"/>
-      <c r="P43" s="204"/>
-      <c r="Q43" s="178" t="s">
+      <c r="N43" s="214"/>
+      <c r="O43" s="214"/>
+      <c r="P43" s="214"/>
+      <c r="Q43" s="188" t="s">
         <v>157</v>
       </c>
-      <c r="R43" s="178"/>
-      <c r="S43" s="238"/>
-      <c r="T43" s="239"/>
-      <c r="U43" s="239"/>
-      <c r="V43" s="239"/>
-      <c r="W43" s="239"/>
-      <c r="X43" s="239"/>
-      <c r="Y43" s="240"/>
+      <c r="R43" s="188"/>
+      <c r="S43" s="245"/>
+      <c r="T43" s="246"/>
+      <c r="U43" s="246"/>
+      <c r="V43" s="246"/>
+      <c r="W43" s="246"/>
+      <c r="X43" s="246"/>
+      <c r="Y43" s="247"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="273"/>
@@ -7069,7 +7069,7 @@
       <c r="Y44" s="281"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="170" t="s">
+      <c r="A45" s="180" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="109" t="s">
@@ -7089,7 +7089,7 @@
       <c r="L45" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="130"/>
+      <c r="M45" s="139"/>
       <c r="N45" s="81" t="s">
         <v>137</v>
       </c>
@@ -7106,7 +7106,7 @@
       <c r="Y45" s="102"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="171"/>
+      <c r="A46" s="181"/>
       <c r="B46" s="109" t="s">
         <v>63</v>
       </c>
@@ -7124,7 +7124,7 @@
       <c r="L46" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="130"/>
+      <c r="M46" s="139"/>
       <c r="N46" s="81" t="s">
         <v>138</v>
       </c>
@@ -7141,7 +7141,7 @@
       <c r="Y46" s="102"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="172"/>
+      <c r="A47" s="182"/>
       <c r="B47" s="109" t="s">
         <v>63</v>
       </c>
@@ -7157,7 +7157,7 @@
       <c r="L47" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="130"/>
+      <c r="M47" s="139"/>
       <c r="N47" s="81"/>
       <c r="O47" s="82"/>
       <c r="P47" s="82"/>
@@ -7172,92 +7172,290 @@
       <c r="Y47" s="102"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="226" t="s">
+      <c r="A48" s="233" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="227"/>
-      <c r="C48" s="166"/>
-      <c r="D48" s="228"/>
-      <c r="E48" s="228"/>
-      <c r="F48" s="228"/>
-      <c r="G48" s="228"/>
-      <c r="H48" s="228"/>
-      <c r="I48" s="228"/>
-      <c r="J48" s="228"/>
-      <c r="K48" s="228"/>
-      <c r="L48" s="228"/>
-      <c r="M48" s="228"/>
-      <c r="N48" s="228"/>
-      <c r="O48" s="228"/>
-      <c r="P48" s="228"/>
-      <c r="Q48" s="228"/>
-      <c r="R48" s="228"/>
-      <c r="S48" s="228"/>
-      <c r="T48" s="228"/>
-      <c r="U48" s="228"/>
-      <c r="V48" s="228"/>
-      <c r="W48" s="228"/>
-      <c r="X48" s="228"/>
-      <c r="Y48" s="167"/>
+      <c r="B48" s="234"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="235"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="235"/>
+      <c r="G48" s="235"/>
+      <c r="H48" s="235"/>
+      <c r="I48" s="235"/>
+      <c r="J48" s="235"/>
+      <c r="K48" s="235"/>
+      <c r="L48" s="235"/>
+      <c r="M48" s="235"/>
+      <c r="N48" s="235"/>
+      <c r="O48" s="235"/>
+      <c r="P48" s="235"/>
+      <c r="Q48" s="235"/>
+      <c r="R48" s="235"/>
+      <c r="S48" s="235"/>
+      <c r="T48" s="235"/>
+      <c r="U48" s="235"/>
+      <c r="V48" s="235"/>
+      <c r="W48" s="235"/>
+      <c r="X48" s="235"/>
+      <c r="Y48" s="177"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="175" t="s">
+      <c r="A49" s="185" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="176"/>
-      <c r="E49" s="176"/>
-      <c r="F49" s="176"/>
-      <c r="G49" s="176"/>
-      <c r="H49" s="176"/>
-      <c r="I49" s="176"/>
-      <c r="J49" s="176"/>
-      <c r="K49" s="176"/>
-      <c r="L49" s="176"/>
-      <c r="M49" s="176"/>
-      <c r="N49" s="176"/>
-      <c r="O49" s="176"/>
-      <c r="P49" s="176"/>
-      <c r="Q49" s="176"/>
-      <c r="R49" s="176"/>
-      <c r="S49" s="176"/>
-      <c r="T49" s="176"/>
-      <c r="U49" s="176"/>
-      <c r="V49" s="176"/>
-      <c r="W49" s="176"/>
-      <c r="X49" s="176"/>
-      <c r="Y49" s="177"/>
+      <c r="B49" s="186"/>
+      <c r="C49" s="186"/>
+      <c r="D49" s="186"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="186"/>
+      <c r="G49" s="186"/>
+      <c r="H49" s="186"/>
+      <c r="I49" s="186"/>
+      <c r="J49" s="186"/>
+      <c r="K49" s="186"/>
+      <c r="L49" s="186"/>
+      <c r="M49" s="186"/>
+      <c r="N49" s="186"/>
+      <c r="O49" s="186"/>
+      <c r="P49" s="186"/>
+      <c r="Q49" s="186"/>
+      <c r="R49" s="186"/>
+      <c r="S49" s="186"/>
+      <c r="T49" s="186"/>
+      <c r="U49" s="186"/>
+      <c r="V49" s="186"/>
+      <c r="W49" s="186"/>
+      <c r="X49" s="186"/>
+      <c r="Y49" s="187"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="158"/>
-      <c r="B50" s="159"/>
-      <c r="C50" s="159"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="159"/>
-      <c r="I50" s="159"/>
-      <c r="J50" s="159"/>
-      <c r="K50" s="159"/>
-      <c r="L50" s="159"/>
-      <c r="M50" s="159"/>
-      <c r="N50" s="159"/>
-      <c r="O50" s="159"/>
-      <c r="P50" s="159"/>
-      <c r="Q50" s="159"/>
-      <c r="R50" s="159"/>
-      <c r="S50" s="159"/>
-      <c r="T50" s="159"/>
-      <c r="U50" s="159"/>
-      <c r="V50" s="159"/>
-      <c r="W50" s="159"/>
-      <c r="X50" s="159"/>
-      <c r="Y50" s="160"/>
+      <c r="A50" s="168"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
+      <c r="E50" s="169"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="169"/>
+      <c r="H50" s="169"/>
+      <c r="I50" s="169"/>
+      <c r="J50" s="169"/>
+      <c r="K50" s="169"/>
+      <c r="L50" s="169"/>
+      <c r="M50" s="169"/>
+      <c r="N50" s="169"/>
+      <c r="O50" s="169"/>
+      <c r="P50" s="169"/>
+      <c r="Q50" s="169"/>
+      <c r="R50" s="169"/>
+      <c r="S50" s="169"/>
+      <c r="T50" s="169"/>
+      <c r="U50" s="169"/>
+      <c r="V50" s="169"/>
+      <c r="W50" s="169"/>
+      <c r="X50" s="169"/>
+      <c r="Y50" s="170"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="250" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="133"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="133"/>
+      <c r="M51" s="133"/>
+      <c r="N51" s="133"/>
+      <c r="O51" s="133"/>
+      <c r="P51" s="133"/>
+      <c r="Q51" s="133"/>
+      <c r="R51" s="133"/>
+      <c r="S51" s="133"/>
+      <c r="T51" s="133"/>
+      <c r="U51" s="133"/>
+      <c r="V51" s="133"/>
+      <c r="W51" s="133"/>
+      <c r="X51" s="133"/>
+      <c r="Y51" s="251"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="252"/>
+      <c r="B52" s="253"/>
+      <c r="C52" s="253"/>
+      <c r="D52" s="253"/>
+      <c r="E52" s="253"/>
+      <c r="F52" s="253"/>
+      <c r="G52" s="253"/>
+      <c r="H52" s="253"/>
+      <c r="I52" s="253"/>
+      <c r="J52" s="253"/>
+      <c r="K52" s="253"/>
+      <c r="L52" s="253"/>
+      <c r="M52" s="253"/>
+      <c r="N52" s="253"/>
+      <c r="O52" s="253"/>
+      <c r="P52" s="253"/>
+      <c r="Q52" s="253"/>
+      <c r="R52" s="253"/>
+      <c r="S52" s="253"/>
+      <c r="T52" s="253"/>
+      <c r="U52" s="253"/>
+      <c r="V52" s="253"/>
+      <c r="W52" s="253"/>
+      <c r="X52" s="253"/>
+      <c r="Y52" s="254"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="255"/>
+      <c r="B53" s="171"/>
+      <c r="C53" s="171"/>
+      <c r="D53" s="171"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="171"/>
+      <c r="I53" s="171"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="171"/>
+      <c r="L53" s="171"/>
+      <c r="M53" s="171"/>
+      <c r="N53" s="171"/>
+      <c r="O53" s="171"/>
+      <c r="P53" s="171"/>
+      <c r="Q53" s="171"/>
+      <c r="R53" s="171"/>
+      <c r="S53" s="171"/>
+      <c r="T53" s="171"/>
+      <c r="U53" s="171"/>
+      <c r="V53" s="171"/>
+      <c r="W53" s="171"/>
+      <c r="X53" s="171"/>
+      <c r="Y53" s="256"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="9"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="77"/>
+      <c r="Y57" s="78"/>
+    </row>
+    <row r="58" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="77"/>
+      <c r="B58" s="253" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="253"/>
+      <c r="D58" s="253"/>
+      <c r="E58" s="253"/>
+      <c r="F58" s="253"/>
+      <c r="G58" s="253" t="s">
+        <v>188</v>
+      </c>
+      <c r="H58" s="253"/>
+      <c r="I58" s="253"/>
+      <c r="J58" s="253"/>
+      <c r="L58" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="M58" s="219"/>
+      <c r="N58" s="219"/>
+      <c r="O58" s="219"/>
+      <c r="P58" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y58" s="78"/>
+    </row>
+    <row r="59" spans="1:25" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="77"/>
+      <c r="B59" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="257" t="s">
+        <v>193</v>
+      </c>
+      <c r="M59" s="257"/>
+      <c r="N59" s="257"/>
+      <c r="O59" s="257"/>
+      <c r="P59" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y59" s="78"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="77"/>
+      <c r="Y60" s="78"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="79"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="173">
+  <mergeCells count="180">
     <mergeCell ref="A50:Y50"/>
     <mergeCell ref="D47:K47"/>
     <mergeCell ref="L47:M47"/>
@@ -7284,16 +7482,6 @@
     <mergeCell ref="M44:P44"/>
     <mergeCell ref="Q44:R44"/>
     <mergeCell ref="S44:Y44"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="S39:Y39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="S40:Y40"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="U34:X34"/>
     <mergeCell ref="D35:I35"/>
     <mergeCell ref="U35:X35"/>
     <mergeCell ref="D37:I37"/>
@@ -7384,6 +7572,8 @@
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:Y11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Y8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="L9:M9"/>
@@ -7398,22 +7588,6 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:Y7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:Y8"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N35:T35"/>
-    <mergeCell ref="N37:T37"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="N36:T36"/>
-    <mergeCell ref="U36:X36"/>
     <mergeCell ref="U1:Y1"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:Y2"/>
@@ -7431,6 +7605,37 @@
     <mergeCell ref="A15:Y15"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A51:Y51"/>
+    <mergeCell ref="A52:Y52"/>
+    <mergeCell ref="A53:Y53"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="N37:T37"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="N36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="S39:Y39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="S40:Y40"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="U34:X34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">

--- a/template/取引成立台帳.xlsx
+++ b/template/取引成立台帳.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5ECD2-725D-41B3-9D72-BDBE634F2AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1BB48E-43AB-4A7C-BE98-6141BC031467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D08DF634-D05B-48EB-A5E5-3C43C6308EA5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="195">
   <si>
     <t>成立年月日</t>
     <rPh sb="0" eb="2">
@@ -1334,6 +1334,10 @@
   </si>
   <si>
     <t>$historyPriceSum$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$attach$</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2347,10 +2351,322 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2359,21 +2675,228 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2389,524 +2912,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -2914,50 +2960,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3287,60 +3291,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="258" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
-      <c r="R1" s="260" t="s">
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="R1" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="261"/>
-      <c r="T1" s="261"/>
-      <c r="U1" s="262" t="s">
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="263"/>
-      <c r="W1" s="263"/>
-      <c r="X1" s="263"/>
-      <c r="Y1" s="264"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="98"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="259"/>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="R2" s="260" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="R2" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="261"/>
-      <c r="T2" s="261"/>
-      <c r="U2" s="265" t="s">
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="266"/>
-      <c r="W2" s="266"/>
-      <c r="X2" s="266"/>
-      <c r="Y2" s="267"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="101"/>
     </row>
     <row r="3" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -3370,26 +3374,26 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="128" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="228" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="96" t="s">
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="229"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="230"/>
+      <c r="L4" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="143"/>
-      <c r="N4" s="97"/>
+      <c r="M4" s="242"/>
+      <c r="N4" s="243"/>
       <c r="O4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3411,24 +3415,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="128" t="s">
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="228" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="146"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="229"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="245"/>
+      <c r="N5" s="246"/>
       <c r="O5" s="10" t="s">
         <v>71</v>
       </c>
@@ -3439,10 +3443,10 @@
       <c r="R5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="171" t="s">
+      <c r="S5" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="172"/>
+      <c r="T5" s="200"/>
       <c r="U5" s="11" t="s">
         <v>71</v>
       </c>
@@ -3460,333 +3464,333 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="81" t="s">
+      <c r="C6" s="103"/>
+      <c r="D6" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="103" t="s">
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="139"/>
-      <c r="N6" s="81" t="s">
+      <c r="M6" s="196"/>
+      <c r="N6" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="102"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="105"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="147"/>
-      <c r="B7" s="109" t="s">
+      <c r="A7" s="227"/>
+      <c r="B7" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="81" t="s">
+      <c r="C7" s="103"/>
+      <c r="D7" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103" t="s">
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="139"/>
-      <c r="N7" s="81" t="s">
+      <c r="M7" s="196"/>
+      <c r="N7" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="102"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="105"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="147"/>
-      <c r="B8" s="109" t="s">
+      <c r="A8" s="227"/>
+      <c r="B8" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="81" t="s">
+      <c r="C8" s="103"/>
+      <c r="D8" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="103" t="s">
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="139"/>
-      <c r="N8" s="81" t="s">
+      <c r="M8" s="196"/>
+      <c r="N8" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="102"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="105"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="147"/>
-      <c r="B9" s="173" t="s">
+      <c r="A9" s="227"/>
+      <c r="B9" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="174"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="103" t="s">
+      <c r="C9" s="202"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="139"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="102"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="103"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="105"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="81" t="s">
+      <c r="C10" s="103"/>
+      <c r="D10" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="103" t="s">
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="139"/>
-      <c r="N10" s="81" t="s">
+      <c r="M10" s="196"/>
+      <c r="N10" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="102"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="105"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="147"/>
-      <c r="B11" s="109" t="s">
+      <c r="A11" s="227"/>
+      <c r="B11" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="103" t="s">
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="139"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="102"/>
+      <c r="M11" s="196"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="105"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="147"/>
-      <c r="B12" s="109" t="s">
+      <c r="A12" s="227"/>
+      <c r="B12" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="103" t="s">
+      <c r="C12" s="103"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="139"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="102"/>
+      <c r="M12" s="196"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="105"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="147"/>
-      <c r="B13" s="173" t="s">
+      <c r="A13" s="227"/>
+      <c r="B13" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="103" t="s">
+      <c r="C13" s="202"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="139"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="102"/>
+      <c r="M13" s="196"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="105"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="162"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="83" t="s">
+      <c r="B14" s="224"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="187" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="84"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="187"/>
+      <c r="N14" s="187"/>
+      <c r="O14" s="187"/>
+      <c r="P14" s="187"/>
+      <c r="Q14" s="187"/>
+      <c r="R14" s="187"/>
+      <c r="S14" s="187"/>
+      <c r="T14" s="187"/>
+      <c r="U14" s="187"/>
+      <c r="V14" s="187"/>
+      <c r="W14" s="187"/>
+      <c r="X14" s="187"/>
+      <c r="Y14" s="188"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="148"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="149"/>
+      <c r="A15" s="208"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="209"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="209"/>
+      <c r="K15" s="209"/>
+      <c r="L15" s="209"/>
+      <c r="M15" s="209"/>
+      <c r="N15" s="209"/>
+      <c r="O15" s="209"/>
+      <c r="P15" s="209"/>
+      <c r="Q15" s="209"/>
+      <c r="R15" s="209"/>
+      <c r="S15" s="209"/>
+      <c r="T15" s="209"/>
+      <c r="U15" s="209"/>
+      <c r="V15" s="209"/>
+      <c r="W15" s="209"/>
+      <c r="X15" s="209"/>
+      <c r="Y15" s="210"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="225" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -3794,90 +3798,90 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="160" t="s">
+      <c r="E16" s="222" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="160"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="160"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="161"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="222"/>
+      <c r="K16" s="222"/>
+      <c r="L16" s="222"/>
+      <c r="M16" s="222"/>
+      <c r="N16" s="222"/>
+      <c r="O16" s="222"/>
+      <c r="P16" s="222"/>
+      <c r="Q16" s="222"/>
+      <c r="R16" s="222"/>
+      <c r="S16" s="222"/>
+      <c r="T16" s="222"/>
+      <c r="U16" s="222"/>
+      <c r="V16" s="222"/>
+      <c r="W16" s="222"/>
+      <c r="X16" s="222"/>
+      <c r="Y16" s="223"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="164"/>
-      <c r="B17" s="132" t="s">
+      <c r="A17" s="155"/>
+      <c r="B17" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="134"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="233"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="101" t="s">
+      <c r="F17" s="237" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
+      <c r="G17" s="237"/>
+      <c r="H17" s="237"/>
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="136" t="s">
+      <c r="J17" s="238"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
+      <c r="M17" s="239" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="138" t="s">
+      <c r="N17" s="240"/>
+      <c r="O17" s="240"/>
+      <c r="P17" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="138"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="151" t="s">
+      <c r="U17" s="211" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="152"/>
-      <c r="W17" s="152"/>
-      <c r="X17" s="152"/>
-      <c r="Y17" s="153"/>
+      <c r="V17" s="212"/>
+      <c r="W17" s="212"/>
+      <c r="X17" s="212"/>
+      <c r="Y17" s="213"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="164"/>
-      <c r="B18" s="87" t="s">
+      <c r="A18" s="155"/>
+      <c r="B18" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
+      <c r="C18" s="235"/>
+      <c r="D18" s="236"/>
       <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="131" t="s">
+      <c r="G18" s="231" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
+      <c r="H18" s="231"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="231"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -3886,85 +3890,85 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="131"/>
+      <c r="O18" s="231"/>
+      <c r="P18" s="231"/>
+      <c r="Q18" s="231"/>
+      <c r="R18" s="231"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="98" t="s">
+      <c r="U18" s="162" t="s">
         <v>141</v>
       </c>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="99"/>
-      <c r="Y18" s="100"/>
+      <c r="V18" s="163"/>
+      <c r="W18" s="163"/>
+      <c r="X18" s="163"/>
+      <c r="Y18" s="164"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="164"/>
-      <c r="B19" s="154" t="s">
+      <c r="A19" s="155"/>
+      <c r="B19" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="150"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="84"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="187"/>
+      <c r="P19" s="187"/>
+      <c r="Q19" s="187"/>
+      <c r="R19" s="187"/>
+      <c r="S19" s="187"/>
+      <c r="T19" s="187"/>
+      <c r="U19" s="187"/>
+      <c r="V19" s="187"/>
+      <c r="W19" s="187"/>
+      <c r="X19" s="187"/>
+      <c r="Y19" s="188"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="164"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="123"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="124"/>
+      <c r="A20" s="155"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="220"/>
+      <c r="H20" s="220"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="220"/>
+      <c r="K20" s="220"/>
+      <c r="L20" s="220"/>
+      <c r="M20" s="220"/>
+      <c r="N20" s="220"/>
+      <c r="O20" s="220"/>
+      <c r="P20" s="220"/>
+      <c r="Q20" s="220"/>
+      <c r="R20" s="220"/>
+      <c r="S20" s="220"/>
+      <c r="T20" s="220"/>
+      <c r="U20" s="220"/>
+      <c r="V20" s="220"/>
+      <c r="W20" s="220"/>
+      <c r="X20" s="220"/>
+      <c r="Y20" s="221"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="164"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="191" t="s">
+      <c r="A21" s="155"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="191"/>
+      <c r="D21" s="165"/>
       <c r="E21" s="23" t="s">
         <v>165</v>
       </c>
@@ -3978,50 +3982,50 @@
         <v>167</v>
       </c>
       <c r="K21" s="25"/>
-      <c r="L21" s="120" t="s">
+      <c r="L21" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="166"/>
-      <c r="N21" s="167"/>
-      <c r="O21" s="167"/>
-      <c r="P21" s="167"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="180"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="180"/>
       <c r="Q21" s="8" t="s">
         <v>154</v>
       </c>
       <c r="R21" s="9"/>
-      <c r="S21" s="105" t="s">
+      <c r="S21" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="107"/>
+      <c r="T21" s="215"/>
+      <c r="U21" s="215"/>
+      <c r="V21" s="215"/>
+      <c r="W21" s="215"/>
+      <c r="X21" s="215"/>
+      <c r="Y21" s="216"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="165"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="108" t="s">
+      <c r="A22" s="156"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="159" t="s">
+      <c r="D22" s="166"/>
+      <c r="E22" s="219" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="157" t="s">
+      <c r="F22" s="220"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="220"/>
+      <c r="K22" s="221"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="167" t="s">
         <v>169</v>
       </c>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="158"/>
+      <c r="N22" s="168"/>
+      <c r="O22" s="168"/>
+      <c r="P22" s="168"/>
       <c r="Q22" s="5" t="s">
         <v>155</v>
       </c>
@@ -4041,133 +4045,133 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="178" t="s">
+      <c r="A23" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="234" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90" t="s">
+      <c r="C23" s="235"/>
+      <c r="D23" s="236"/>
+      <c r="E23" s="263" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="91"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
+      <c r="K23" s="235"/>
+      <c r="L23" s="235"/>
+      <c r="M23" s="235"/>
+      <c r="N23" s="235"/>
+      <c r="O23" s="235"/>
+      <c r="P23" s="235"/>
+      <c r="Q23" s="235"/>
+      <c r="R23" s="235"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="235"/>
+      <c r="U23" s="235"/>
+      <c r="V23" s="235"/>
+      <c r="W23" s="235"/>
+      <c r="X23" s="235"/>
+      <c r="Y23" s="264"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="164"/>
-      <c r="B24" s="87" t="s">
+      <c r="A24" s="155"/>
+      <c r="B24" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="95" t="s">
+      <c r="C24" s="235"/>
+      <c r="D24" s="236"/>
+      <c r="E24" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="96" t="s">
+      <c r="F24" s="209"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="209"/>
+      <c r="K24" s="209"/>
+      <c r="L24" s="209"/>
+      <c r="M24" s="209"/>
+      <c r="N24" s="209"/>
+      <c r="O24" s="241" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="93" t="s">
+      <c r="P24" s="243"/>
+      <c r="Q24" s="265"/>
+      <c r="R24" s="265"/>
+      <c r="S24" s="266" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="94"/>
-      <c r="U24" s="85" t="s">
+      <c r="T24" s="267"/>
+      <c r="U24" s="261" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="86"/>
+      <c r="V24" s="261"/>
+      <c r="W24" s="261"/>
+      <c r="X24" s="261"/>
+      <c r="Y24" s="262"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="164"/>
-      <c r="B25" s="87" t="s">
+      <c r="A25" s="155"/>
+      <c r="B25" s="234" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="98" t="s">
+      <c r="C25" s="235"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="187"/>
+      <c r="Q25" s="187"/>
+      <c r="R25" s="187"/>
+      <c r="S25" s="187"/>
+      <c r="T25" s="188"/>
+      <c r="U25" s="162" t="s">
         <v>184</v>
       </c>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="100"/>
+      <c r="V25" s="163"/>
+      <c r="W25" s="163"/>
+      <c r="X25" s="163"/>
+      <c r="Y25" s="164"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="164"/>
-      <c r="B26" s="87" t="s">
+      <c r="A26" s="155"/>
+      <c r="B26" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="81" t="s">
+      <c r="C26" s="235"/>
+      <c r="D26" s="236"/>
+      <c r="E26" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
       <c r="O26" s="21"/>
       <c r="P26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="101" t="s">
+      <c r="Q26" s="237" t="s">
         <v>145</v>
       </c>
-      <c r="R26" s="101"/>
+      <c r="R26" s="237"/>
       <c r="S26" s="31" t="s">
         <v>13</v>
       </c>
@@ -4175,80 +4179,80 @@
       <c r="U26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
+      <c r="V26" s="237"/>
+      <c r="W26" s="237"/>
       <c r="X26" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="164"/>
-      <c r="B27" s="87" t="s">
+      <c r="A27" s="155"/>
+      <c r="B27" s="234" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="81" t="s">
+      <c r="C27" s="235"/>
+      <c r="D27" s="236"/>
+      <c r="E27" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="103" t="s">
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="195" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="101"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="114"/>
+      <c r="M27" s="237"/>
+      <c r="N27" s="247"/>
+      <c r="O27" s="251"/>
+      <c r="P27" s="237"/>
+      <c r="Q27" s="252"/>
       <c r="R27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="105" t="s">
+      <c r="S27" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="107"/>
+      <c r="T27" s="215"/>
+      <c r="U27" s="215"/>
+      <c r="V27" s="215"/>
+      <c r="W27" s="215"/>
+      <c r="X27" s="215"/>
+      <c r="Y27" s="216"/>
       <c r="Z27" s="33"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="164"/>
-      <c r="B28" s="109" t="s">
+      <c r="A28" s="155"/>
+      <c r="B28" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="111" t="s">
+      <c r="C28" s="248"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="249" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
+      <c r="F28" s="250"/>
+      <c r="G28" s="250"/>
+      <c r="H28" s="250"/>
+      <c r="I28" s="250"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="250"/>
+      <c r="L28" s="250"/>
+      <c r="M28" s="250"/>
+      <c r="N28" s="250"/>
+      <c r="O28" s="250"/>
+      <c r="P28" s="250"/>
+      <c r="Q28" s="250"/>
       <c r="R28" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="115" t="s">
+      <c r="S28" s="253" t="s">
         <v>158</v>
       </c>
-      <c r="T28" s="116"/>
+      <c r="T28" s="254"/>
       <c r="U28" s="28" t="s">
         <v>28</v>
       </c>
@@ -4267,125 +4271,125 @@
       <c r="Z28" s="33"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="164"/>
-      <c r="B29" s="154" t="s">
+      <c r="A29" s="155"/>
+      <c r="B29" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="150"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="84"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="187"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="187"/>
+      <c r="P29" s="187"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="187"/>
+      <c r="U29" s="187"/>
+      <c r="V29" s="187"/>
+      <c r="W29" s="187"/>
+      <c r="X29" s="187"/>
+      <c r="Y29" s="188"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="164"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="123"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="123"/>
-      <c r="T30" s="123"/>
-      <c r="U30" s="123"/>
-      <c r="V30" s="123"/>
-      <c r="W30" s="123"/>
-      <c r="X30" s="123"/>
-      <c r="Y30" s="124"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="226"/>
+      <c r="D30" s="220"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="220"/>
+      <c r="K30" s="220"/>
+      <c r="L30" s="220"/>
+      <c r="M30" s="220"/>
+      <c r="N30" s="220"/>
+      <c r="O30" s="220"/>
+      <c r="P30" s="220"/>
+      <c r="Q30" s="220"/>
+      <c r="R30" s="220"/>
+      <c r="S30" s="220"/>
+      <c r="T30" s="220"/>
+      <c r="U30" s="220"/>
+      <c r="V30" s="220"/>
+      <c r="W30" s="220"/>
+      <c r="X30" s="220"/>
+      <c r="Y30" s="221"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="164"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="191" t="s">
+      <c r="A31" s="155"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="191"/>
-      <c r="E31" s="117" t="s">
+      <c r="D31" s="165"/>
+      <c r="E31" s="255" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="118"/>
-      <c r="G31" s="119" t="s">
+      <c r="F31" s="256"/>
+      <c r="G31" s="257" t="s">
         <v>171</v>
       </c>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="120" t="s">
+      <c r="H31" s="187"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="166"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="167"/>
-      <c r="P31" s="167"/>
-      <c r="Q31" s="176"/>
-      <c r="R31" s="177"/>
-      <c r="S31" s="105" t="s">
+      <c r="M31" s="179"/>
+      <c r="N31" s="180"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="180"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="125"/>
+      <c r="S31" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="106"/>
-      <c r="U31" s="106"/>
-      <c r="V31" s="106"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="106"/>
-      <c r="Y31" s="107"/>
+      <c r="T31" s="215"/>
+      <c r="U31" s="215"/>
+      <c r="V31" s="215"/>
+      <c r="W31" s="215"/>
+      <c r="X31" s="215"/>
+      <c r="Y31" s="216"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="165"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="108" t="s">
+      <c r="A32" s="156"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="108"/>
-      <c r="E32" s="125" t="s">
+      <c r="D32" s="166"/>
+      <c r="E32" s="258" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="157" t="s">
+      <c r="F32" s="259"/>
+      <c r="G32" s="259"/>
+      <c r="H32" s="259"/>
+      <c r="I32" s="259"/>
+      <c r="J32" s="259"/>
+      <c r="K32" s="260"/>
+      <c r="L32" s="218"/>
+      <c r="M32" s="167" t="s">
         <v>175</v>
       </c>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="175" t="s">
+      <c r="N32" s="168"/>
+      <c r="O32" s="168"/>
+      <c r="P32" s="168"/>
+      <c r="Q32" s="203" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="170"/>
+      <c r="R32" s="199"/>
       <c r="S32" s="26" t="s">
         <v>177</v>
       </c>
@@ -4409,330 +4413,330 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="192" t="s">
+      <c r="A33" s="169" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="194" t="s">
+      <c r="D33" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="195"/>
-      <c r="F33" s="195"/>
-      <c r="G33" s="195"/>
-      <c r="H33" s="195"/>
-      <c r="I33" s="196"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="173"/>
       <c r="J33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="201" t="s">
+      <c r="K33" s="181" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="35"/>
-      <c r="N33" s="227" t="s">
+      <c r="N33" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="O33" s="228"/>
-      <c r="P33" s="228"/>
-      <c r="Q33" s="228"/>
-      <c r="R33" s="228"/>
-      <c r="S33" s="228"/>
-      <c r="T33" s="228"/>
-      <c r="U33" s="229" t="s">
+      <c r="O33" s="110"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="110"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="V33" s="230"/>
-      <c r="W33" s="230"/>
-      <c r="X33" s="230"/>
+      <c r="V33" s="114"/>
+      <c r="W33" s="114"/>
+      <c r="X33" s="114"/>
       <c r="Y33" s="38" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="33"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="193"/>
+      <c r="A34" s="170"/>
       <c r="B34" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="40"/>
-      <c r="D34" s="197" t="s">
+      <c r="D34" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="198"/>
-      <c r="F34" s="198"/>
-      <c r="G34" s="198"/>
-      <c r="H34" s="198"/>
-      <c r="I34" s="198"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
       <c r="J34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="202"/>
+      <c r="K34" s="182"/>
       <c r="L34" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="40"/>
-      <c r="N34" s="183" t="s">
+      <c r="N34" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="O34" s="184"/>
-      <c r="P34" s="184"/>
-      <c r="Q34" s="184"/>
-      <c r="R34" s="184"/>
-      <c r="S34" s="184"/>
-      <c r="T34" s="184"/>
-      <c r="U34" s="213" t="s">
+      <c r="O34" s="143"/>
+      <c r="P34" s="143"/>
+      <c r="Q34" s="143"/>
+      <c r="R34" s="143"/>
+      <c r="S34" s="143"/>
+      <c r="T34" s="143"/>
+      <c r="U34" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="V34" s="214"/>
-      <c r="W34" s="214"/>
-      <c r="X34" s="214"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
       <c r="Y34" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="193"/>
+      <c r="A35" s="170"/>
       <c r="B35" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="40"/>
-      <c r="D35" s="197" t="s">
+      <c r="D35" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="198"/>
-      <c r="F35" s="198"/>
-      <c r="G35" s="198"/>
-      <c r="H35" s="198"/>
-      <c r="I35" s="198"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
       <c r="J35" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="202"/>
+      <c r="K35" s="182"/>
       <c r="L35" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="40"/>
-      <c r="N35" s="183" t="s">
+      <c r="N35" s="142" t="s">
         <v>100</v>
       </c>
-      <c r="O35" s="184"/>
-      <c r="P35" s="184"/>
-      <c r="Q35" s="184"/>
-      <c r="R35" s="184"/>
-      <c r="S35" s="184"/>
-      <c r="T35" s="184"/>
-      <c r="U35" s="213" t="s">
+      <c r="O35" s="143"/>
+      <c r="P35" s="143"/>
+      <c r="Q35" s="143"/>
+      <c r="R35" s="143"/>
+      <c r="S35" s="143"/>
+      <c r="T35" s="143"/>
+      <c r="U35" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="V35" s="214"/>
-      <c r="W35" s="214"/>
-      <c r="X35" s="214"/>
+      <c r="V35" s="120"/>
+      <c r="W35" s="120"/>
+      <c r="X35" s="120"/>
       <c r="Y35" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="193"/>
+      <c r="A36" s="170"/>
       <c r="B36" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="44"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="198"/>
-      <c r="G36" s="198"/>
-      <c r="H36" s="198"/>
-      <c r="I36" s="198"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
       <c r="J36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="203"/>
+      <c r="K36" s="183"/>
       <c r="L36" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M36" s="44"/>
-      <c r="N36" s="183" t="s">
+      <c r="N36" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="O36" s="184"/>
-      <c r="P36" s="184"/>
-      <c r="Q36" s="184"/>
-      <c r="R36" s="184"/>
-      <c r="S36" s="184"/>
-      <c r="T36" s="184"/>
-      <c r="U36" s="213" t="s">
+      <c r="O36" s="143"/>
+      <c r="P36" s="143"/>
+      <c r="Q36" s="143"/>
+      <c r="R36" s="143"/>
+      <c r="S36" s="143"/>
+      <c r="T36" s="143"/>
+      <c r="U36" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="V36" s="214"/>
-      <c r="W36" s="214"/>
-      <c r="X36" s="214"/>
+      <c r="V36" s="120"/>
+      <c r="W36" s="120"/>
+      <c r="X36" s="120"/>
       <c r="Y36" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="193"/>
+      <c r="A37" s="170"/>
       <c r="B37" s="45" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="44"/>
-      <c r="D37" s="197" t="s">
+      <c r="D37" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="198"/>
-      <c r="F37" s="198"/>
-      <c r="G37" s="198"/>
-      <c r="H37" s="198"/>
-      <c r="I37" s="198"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
       <c r="J37" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="203"/>
+      <c r="K37" s="183"/>
       <c r="L37" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M37" s="44"/>
-      <c r="N37" s="183" t="s">
+      <c r="N37" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="O37" s="184"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="184"/>
-      <c r="R37" s="184"/>
-      <c r="S37" s="184"/>
-      <c r="T37" s="184"/>
-      <c r="U37" s="213" t="s">
+      <c r="O37" s="143"/>
+      <c r="P37" s="143"/>
+      <c r="Q37" s="143"/>
+      <c r="R37" s="143"/>
+      <c r="S37" s="143"/>
+      <c r="T37" s="143"/>
+      <c r="U37" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="V37" s="214"/>
-      <c r="W37" s="214"/>
-      <c r="X37" s="214"/>
+      <c r="V37" s="120"/>
+      <c r="W37" s="120"/>
+      <c r="X37" s="120"/>
       <c r="Y37" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="193"/>
-      <c r="B38" s="207" t="s">
+      <c r="A38" s="170"/>
+      <c r="B38" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="208"/>
-      <c r="D38" s="216" t="s">
+      <c r="C38" s="190"/>
+      <c r="D38" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="217"/>
-      <c r="F38" s="217"/>
-      <c r="G38" s="217"/>
-      <c r="H38" s="217"/>
-      <c r="I38" s="217"/>
-      <c r="J38" s="222" t="s">
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="203"/>
+      <c r="K38" s="183"/>
       <c r="L38" s="42" t="s">
         <v>82</v>
       </c>
       <c r="M38" s="40"/>
-      <c r="N38" s="183" t="s">
+      <c r="N38" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="O38" s="184"/>
-      <c r="P38" s="184"/>
-      <c r="Q38" s="184"/>
-      <c r="R38" s="184"/>
-      <c r="S38" s="184"/>
-      <c r="T38" s="184"/>
-      <c r="U38" s="213" t="s">
+      <c r="O38" s="143"/>
+      <c r="P38" s="143"/>
+      <c r="Q38" s="143"/>
+      <c r="R38" s="143"/>
+      <c r="S38" s="143"/>
+      <c r="T38" s="143"/>
+      <c r="U38" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="V38" s="214"/>
-      <c r="W38" s="214"/>
-      <c r="X38" s="214"/>
+      <c r="V38" s="120"/>
+      <c r="W38" s="120"/>
+      <c r="X38" s="120"/>
       <c r="Y38" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="193"/>
-      <c r="B39" s="209"/>
-      <c r="C39" s="210"/>
-      <c r="D39" s="218"/>
-      <c r="E39" s="219"/>
-      <c r="F39" s="219"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="219"/>
-      <c r="J39" s="223"/>
-      <c r="K39" s="204"/>
+      <c r="A39" s="170"/>
+      <c r="B39" s="191"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="184"/>
       <c r="L39" s="46" t="s">
         <v>83</v>
       </c>
       <c r="M39" s="47"/>
-      <c r="N39" s="231" t="s">
+      <c r="N39" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="O39" s="232"/>
-      <c r="P39" s="232"/>
-      <c r="Q39" s="232"/>
-      <c r="R39" s="232"/>
-      <c r="S39" s="232"/>
-      <c r="T39" s="232"/>
-      <c r="U39" s="225" t="s">
+      <c r="O39" s="118"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="118"/>
+      <c r="R39" s="118"/>
+      <c r="S39" s="118"/>
+      <c r="T39" s="118"/>
+      <c r="U39" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="V39" s="226"/>
-      <c r="W39" s="226"/>
-      <c r="X39" s="226"/>
+      <c r="V39" s="153"/>
+      <c r="W39" s="153"/>
+      <c r="X39" s="153"/>
       <c r="Y39" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="165"/>
-      <c r="B40" s="211"/>
-      <c r="C40" s="212"/>
-      <c r="D40" s="220"/>
-      <c r="E40" s="221"/>
-      <c r="F40" s="221"/>
-      <c r="G40" s="221"/>
-      <c r="H40" s="221"/>
-      <c r="I40" s="221"/>
-      <c r="J40" s="224"/>
-      <c r="K40" s="199" t="s">
+      <c r="A40" s="156"/>
+      <c r="B40" s="193"/>
+      <c r="C40" s="194"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="L40" s="82"/>
-      <c r="M40" s="200"/>
-      <c r="N40" s="205" t="s">
+      <c r="L40" s="103"/>
+      <c r="M40" s="175"/>
+      <c r="N40" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="O40" s="138"/>
-      <c r="P40" s="138"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="112"/>
       <c r="Q40" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="R40" s="206" t="s">
+      <c r="R40" s="185" t="s">
         <v>73</v>
       </c>
-      <c r="S40" s="82"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="205" t="s">
+      <c r="S40" s="103"/>
+      <c r="T40" s="103"/>
+      <c r="U40" s="103"/>
+      <c r="V40" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="W40" s="138"/>
-      <c r="X40" s="138"/>
+      <c r="W40" s="112"/>
+      <c r="X40" s="112"/>
       <c r="Y40" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="178" t="s">
+      <c r="A41" s="154" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="49" t="s">
@@ -4743,14 +4747,14 @@
         <v>56</v>
       </c>
       <c r="E41" s="52"/>
-      <c r="F41" s="238"/>
-      <c r="G41" s="239"/>
-      <c r="H41" s="239"/>
-      <c r="I41" s="239"/>
-      <c r="J41" s="215" t="s">
+      <c r="F41" s="129"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="K41" s="215"/>
+      <c r="K41" s="126"/>
       <c r="L41" s="53" t="s">
         <v>70</v>
       </c>
@@ -4766,16 +4770,16 @@
       <c r="R41" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="242"/>
-      <c r="T41" s="243"/>
-      <c r="U41" s="243"/>
-      <c r="V41" s="243"/>
-      <c r="W41" s="243"/>
-      <c r="X41" s="243"/>
-      <c r="Y41" s="244"/>
+      <c r="S41" s="134"/>
+      <c r="T41" s="135"/>
+      <c r="U41" s="135"/>
+      <c r="V41" s="135"/>
+      <c r="W41" s="135"/>
+      <c r="X41" s="135"/>
+      <c r="Y41" s="136"/>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="179"/>
+      <c r="A42" s="204"/>
       <c r="B42" s="57" t="s">
         <v>55</v>
       </c>
@@ -4784,14 +4788,14 @@
         <v>57</v>
       </c>
       <c r="E42" s="60"/>
-      <c r="F42" s="240"/>
-      <c r="G42" s="241"/>
-      <c r="H42" s="241"/>
-      <c r="I42" s="241"/>
-      <c r="J42" s="188" t="s">
+      <c r="F42" s="131"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="K42" s="188"/>
+      <c r="K42" s="133"/>
       <c r="L42" s="61" t="s">
         <v>70</v>
       </c>
@@ -4807,16 +4811,16 @@
       <c r="R42" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="S42" s="245"/>
-      <c r="T42" s="246"/>
-      <c r="U42" s="246"/>
-      <c r="V42" s="246"/>
-      <c r="W42" s="246"/>
-      <c r="X42" s="246"/>
-      <c r="Y42" s="247"/>
+      <c r="S42" s="137"/>
+      <c r="T42" s="138"/>
+      <c r="U42" s="138"/>
+      <c r="V42" s="138"/>
+      <c r="W42" s="138"/>
+      <c r="X42" s="138"/>
+      <c r="Y42" s="139"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="179"/>
+      <c r="A43" s="204"/>
       <c r="B43" s="49" t="s">
         <v>59</v>
       </c>
@@ -4825,35 +4829,35 @@
         <v>60</v>
       </c>
       <c r="E43" s="52"/>
-      <c r="F43" s="215" t="s">
+      <c r="F43" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="G43" s="215"/>
-      <c r="H43" s="215"/>
-      <c r="I43" s="215"/>
-      <c r="J43" s="236"/>
-      <c r="K43" s="236"/>
-      <c r="L43" s="237"/>
-      <c r="M43" s="249" t="s">
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="N43" s="230"/>
-      <c r="O43" s="230"/>
-      <c r="P43" s="230"/>
-      <c r="Q43" s="215" t="s">
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="R43" s="215"/>
-      <c r="S43" s="242"/>
-      <c r="T43" s="243"/>
-      <c r="U43" s="243"/>
-      <c r="V43" s="243"/>
-      <c r="W43" s="243"/>
-      <c r="X43" s="243"/>
-      <c r="Y43" s="244"/>
+      <c r="R43" s="126"/>
+      <c r="S43" s="134"/>
+      <c r="T43" s="135"/>
+      <c r="U43" s="135"/>
+      <c r="V43" s="135"/>
+      <c r="W43" s="135"/>
+      <c r="X43" s="135"/>
+      <c r="Y43" s="136"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="179"/>
+      <c r="A44" s="204"/>
       <c r="B44" s="57" t="s">
         <v>55</v>
       </c>
@@ -4862,303 +4866,307 @@
         <v>60</v>
       </c>
       <c r="E44" s="60"/>
-      <c r="F44" s="188" t="s">
+      <c r="F44" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="G44" s="188"/>
-      <c r="H44" s="188"/>
-      <c r="I44" s="188"/>
-      <c r="J44" s="189"/>
-      <c r="K44" s="189"/>
-      <c r="L44" s="190"/>
-      <c r="M44" s="248" t="s">
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="160"/>
+      <c r="K44" s="160"/>
+      <c r="L44" s="161"/>
+      <c r="M44" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="N44" s="214"/>
-      <c r="O44" s="214"/>
-      <c r="P44" s="214"/>
-      <c r="Q44" s="188" t="s">
+      <c r="N44" s="120"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="120"/>
+      <c r="Q44" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="R44" s="188"/>
-      <c r="S44" s="245"/>
-      <c r="T44" s="246"/>
-      <c r="U44" s="246"/>
-      <c r="V44" s="246"/>
-      <c r="W44" s="246"/>
-      <c r="X44" s="246"/>
-      <c r="Y44" s="247"/>
+      <c r="R44" s="133"/>
+      <c r="S44" s="137"/>
+      <c r="T44" s="138"/>
+      <c r="U44" s="138"/>
+      <c r="V44" s="138"/>
+      <c r="W44" s="138"/>
+      <c r="X44" s="138"/>
+      <c r="Y44" s="139"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="180" t="s">
+      <c r="A45" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="109" t="s">
+      <c r="B45" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="81" t="s">
+      <c r="C45" s="103"/>
+      <c r="D45" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="102"/>
-      <c r="L45" s="103" t="s">
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="139"/>
-      <c r="N45" s="81" t="s">
+      <c r="M45" s="196"/>
+      <c r="N45" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="102"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="103"/>
+      <c r="T45" s="103"/>
+      <c r="U45" s="103"/>
+      <c r="V45" s="103"/>
+      <c r="W45" s="103"/>
+      <c r="X45" s="103"/>
+      <c r="Y45" s="105"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="181"/>
-      <c r="B46" s="109" t="s">
+      <c r="A46" s="206"/>
+      <c r="B46" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="81" t="s">
+      <c r="C46" s="103"/>
+      <c r="D46" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="102"/>
-      <c r="L46" s="103" t="s">
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="139"/>
-      <c r="N46" s="81" t="s">
+      <c r="M46" s="196"/>
+      <c r="N46" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="82"/>
-      <c r="T46" s="82"/>
-      <c r="U46" s="82"/>
-      <c r="V46" s="82"/>
-      <c r="W46" s="82"/>
-      <c r="X46" s="82"/>
-      <c r="Y46" s="102"/>
+      <c r="O46" s="103"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="103"/>
+      <c r="T46" s="103"/>
+      <c r="U46" s="103"/>
+      <c r="V46" s="103"/>
+      <c r="W46" s="103"/>
+      <c r="X46" s="103"/>
+      <c r="Y46" s="105"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="182"/>
-      <c r="B47" s="109" t="s">
+      <c r="A47" s="207"/>
+      <c r="B47" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="102"/>
-      <c r="L47" s="103" t="s">
+      <c r="C47" s="103"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="139"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="82"/>
-      <c r="T47" s="82"/>
-      <c r="U47" s="82"/>
-      <c r="V47" s="82"/>
-      <c r="W47" s="82"/>
-      <c r="X47" s="82"/>
-      <c r="Y47" s="102"/>
+      <c r="M47" s="196"/>
+      <c r="N47" s="104"/>
+      <c r="O47" s="103"/>
+      <c r="P47" s="103"/>
+      <c r="Q47" s="103"/>
+      <c r="R47" s="103"/>
+      <c r="S47" s="103"/>
+      <c r="T47" s="103"/>
+      <c r="U47" s="103"/>
+      <c r="V47" s="103"/>
+      <c r="W47" s="103"/>
+      <c r="X47" s="103"/>
+      <c r="Y47" s="105"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="233" t="s">
+      <c r="A48" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="234"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="235"/>
-      <c r="E48" s="235"/>
-      <c r="F48" s="235"/>
-      <c r="G48" s="235"/>
-      <c r="H48" s="235"/>
-      <c r="I48" s="235"/>
-      <c r="J48" s="235"/>
-      <c r="K48" s="235"/>
-      <c r="L48" s="235"/>
-      <c r="M48" s="235"/>
-      <c r="N48" s="235"/>
-      <c r="O48" s="235"/>
-      <c r="P48" s="235"/>
-      <c r="Q48" s="235"/>
-      <c r="R48" s="235"/>
-      <c r="S48" s="235"/>
-      <c r="T48" s="235"/>
-      <c r="U48" s="235"/>
-      <c r="V48" s="235"/>
-      <c r="W48" s="235"/>
-      <c r="X48" s="235"/>
-      <c r="Y48" s="177"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="124"/>
+      <c r="O48" s="124"/>
+      <c r="P48" s="124"/>
+      <c r="Q48" s="124"/>
+      <c r="R48" s="124"/>
+      <c r="S48" s="124"/>
+      <c r="T48" s="124"/>
+      <c r="U48" s="124"/>
+      <c r="V48" s="124"/>
+      <c r="W48" s="124"/>
+      <c r="X48" s="124"/>
+      <c r="Y48" s="125"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="185" t="s">
+      <c r="A49" s="157" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="186"/>
-      <c r="C49" s="186"/>
-      <c r="D49" s="186"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="186"/>
-      <c r="G49" s="186"/>
-      <c r="H49" s="186"/>
-      <c r="I49" s="186"/>
-      <c r="J49" s="186"/>
-      <c r="K49" s="186"/>
-      <c r="L49" s="186"/>
-      <c r="M49" s="186"/>
-      <c r="N49" s="186"/>
-      <c r="O49" s="186"/>
-      <c r="P49" s="186"/>
-      <c r="Q49" s="186"/>
-      <c r="R49" s="186"/>
-      <c r="S49" s="186"/>
-      <c r="T49" s="186"/>
-      <c r="U49" s="186"/>
-      <c r="V49" s="186"/>
-      <c r="W49" s="186"/>
-      <c r="X49" s="186"/>
-      <c r="Y49" s="187"/>
+      <c r="B49" s="158"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="158"/>
+      <c r="I49" s="158"/>
+      <c r="J49" s="158"/>
+      <c r="K49" s="158"/>
+      <c r="L49" s="158"/>
+      <c r="M49" s="158"/>
+      <c r="N49" s="158"/>
+      <c r="O49" s="158"/>
+      <c r="P49" s="158"/>
+      <c r="Q49" s="158"/>
+      <c r="R49" s="158"/>
+      <c r="S49" s="158"/>
+      <c r="T49" s="158"/>
+      <c r="U49" s="158"/>
+      <c r="V49" s="158"/>
+      <c r="W49" s="158"/>
+      <c r="X49" s="158"/>
+      <c r="Y49" s="159"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="168"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
-      <c r="E50" s="169"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="169"/>
-      <c r="H50" s="169"/>
-      <c r="I50" s="169"/>
-      <c r="J50" s="169"/>
-      <c r="K50" s="169"/>
-      <c r="L50" s="169"/>
-      <c r="M50" s="169"/>
-      <c r="N50" s="169"/>
-      <c r="O50" s="169"/>
-      <c r="P50" s="169"/>
-      <c r="Q50" s="169"/>
-      <c r="R50" s="169"/>
-      <c r="S50" s="169"/>
-      <c r="T50" s="169"/>
-      <c r="U50" s="169"/>
-      <c r="V50" s="169"/>
-      <c r="W50" s="169"/>
-      <c r="X50" s="169"/>
-      <c r="Y50" s="170"/>
+      <c r="A50" s="197"/>
+      <c r="B50" s="198"/>
+      <c r="C50" s="198"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="198"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="198"/>
+      <c r="H50" s="198"/>
+      <c r="I50" s="198"/>
+      <c r="J50" s="198"/>
+      <c r="K50" s="198"/>
+      <c r="L50" s="198"/>
+      <c r="M50" s="198"/>
+      <c r="N50" s="198"/>
+      <c r="O50" s="198"/>
+      <c r="P50" s="198"/>
+      <c r="Q50" s="198"/>
+      <c r="R50" s="198"/>
+      <c r="S50" s="198"/>
+      <c r="T50" s="198"/>
+      <c r="U50" s="198"/>
+      <c r="V50" s="198"/>
+      <c r="W50" s="198"/>
+      <c r="X50" s="198"/>
+      <c r="Y50" s="199"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="250" t="s">
+      <c r="A51" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="133"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="133"/>
-      <c r="M51" s="133"/>
-      <c r="N51" s="133"/>
-      <c r="O51" s="133"/>
-      <c r="P51" s="133"/>
-      <c r="Q51" s="133"/>
-      <c r="R51" s="133"/>
-      <c r="S51" s="133"/>
-      <c r="T51" s="133"/>
-      <c r="U51" s="133"/>
-      <c r="V51" s="133"/>
-      <c r="W51" s="133"/>
-      <c r="X51" s="133"/>
-      <c r="Y51" s="251"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="82"/>
+      <c r="V51" s="82"/>
+      <c r="W51" s="82"/>
+      <c r="X51" s="82"/>
+      <c r="Y51" s="83"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="252"/>
-      <c r="B52" s="253"/>
-      <c r="C52" s="253"/>
-      <c r="D52" s="253"/>
-      <c r="E52" s="253"/>
-      <c r="F52" s="253"/>
-      <c r="G52" s="253"/>
-      <c r="H52" s="253"/>
-      <c r="I52" s="253"/>
-      <c r="J52" s="253"/>
-      <c r="K52" s="253"/>
-      <c r="L52" s="253"/>
-      <c r="M52" s="253"/>
-      <c r="N52" s="253"/>
-      <c r="O52" s="253"/>
-      <c r="P52" s="253"/>
-      <c r="Q52" s="253"/>
-      <c r="R52" s="253"/>
-      <c r="S52" s="253"/>
-      <c r="T52" s="253"/>
-      <c r="U52" s="253"/>
-      <c r="V52" s="253"/>
-      <c r="W52" s="253"/>
-      <c r="X52" s="253"/>
-      <c r="Y52" s="254"/>
+      <c r="A52" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="85"/>
+      <c r="O52" s="85"/>
+      <c r="P52" s="85"/>
+      <c r="Q52" s="85"/>
+      <c r="R52" s="85"/>
+      <c r="S52" s="85"/>
+      <c r="T52" s="85"/>
+      <c r="U52" s="85"/>
+      <c r="V52" s="85"/>
+      <c r="W52" s="85"/>
+      <c r="X52" s="85"/>
+      <c r="Y52" s="86"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="255"/>
-      <c r="B53" s="171"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="171"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="171"/>
-      <c r="H53" s="171"/>
-      <c r="I53" s="171"/>
-      <c r="J53" s="171"/>
-      <c r="K53" s="171"/>
-      <c r="L53" s="171"/>
-      <c r="M53" s="171"/>
-      <c r="N53" s="171"/>
-      <c r="O53" s="171"/>
-      <c r="P53" s="171"/>
-      <c r="Q53" s="171"/>
-      <c r="R53" s="171"/>
-      <c r="S53" s="171"/>
-      <c r="T53" s="171"/>
-      <c r="U53" s="171"/>
-      <c r="V53" s="171"/>
-      <c r="W53" s="171"/>
-      <c r="X53" s="171"/>
-      <c r="Y53" s="256"/>
+      <c r="A53" s="87" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="88"/>
+      <c r="N53" s="88"/>
+      <c r="O53" s="88"/>
+      <c r="P53" s="88"/>
+      <c r="Q53" s="88"/>
+      <c r="R53" s="88"/>
+      <c r="S53" s="88"/>
+      <c r="T53" s="88"/>
+      <c r="U53" s="88"/>
+      <c r="V53" s="88"/>
+      <c r="W53" s="88"/>
+      <c r="X53" s="88"/>
+      <c r="Y53" s="89"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="76" t="s">
@@ -5195,25 +5203,25 @@
     </row>
     <row r="58" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="77"/>
-      <c r="B58" s="253" t="s">
+      <c r="B58" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="253"/>
-      <c r="D58" s="253"/>
-      <c r="E58" s="253"/>
-      <c r="F58" s="253"/>
-      <c r="G58" s="253" t="s">
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="253"/>
-      <c r="I58" s="253"/>
-      <c r="J58" s="253"/>
-      <c r="L58" s="219" t="s">
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+      <c r="L58" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="M58" s="219"/>
-      <c r="N58" s="219"/>
-      <c r="O58" s="219"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="90"/>
+      <c r="O58" s="90"/>
       <c r="P58" s="1" t="s">
         <v>190</v>
       </c>
@@ -5233,12 +5241,12 @@
       <c r="I59" s="80"/>
       <c r="J59" s="80"/>
       <c r="K59" s="80"/>
-      <c r="L59" s="257" t="s">
+      <c r="L59" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="M59" s="257"/>
-      <c r="N59" s="257"/>
-      <c r="O59" s="257"/>
+      <c r="M59" s="91"/>
+      <c r="N59" s="91"/>
+      <c r="O59" s="91"/>
       <c r="P59" s="80" t="s">
         <v>192</v>
       </c>
@@ -5277,6 +5285,158 @@
     </row>
   </sheetData>
   <mergeCells count="176">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E23:Y23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="C30:Y30"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="N8:Y8"/>
+    <mergeCell ref="N11:Y11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="N47:Y47"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="A15:Y15"/>
+    <mergeCell ref="C19:Y19"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E16:Y16"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:Y14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="C20:Y20"/>
+    <mergeCell ref="B38:C40"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A50:Y50"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:Y45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:Y46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="N36:T36"/>
+    <mergeCell ref="N37:T37"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="A49:Y49"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="K33:K39"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="C29:Y29"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="N39:T39"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:Y48"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="S41:Y41"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="S43:Y43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="N38:T38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="D38:I40"/>
     <mergeCell ref="A51:Y51"/>
     <mergeCell ref="A52:Y52"/>
     <mergeCell ref="A53:Y53"/>
@@ -5301,158 +5461,6 @@
     <mergeCell ref="D8:K8"/>
     <mergeCell ref="N10:Y10"/>
     <mergeCell ref="N9:Y9"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="N39:T39"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:Y48"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="S41:Y41"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="S43:Y43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="S44:Y44"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="N38:T38"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="D38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="N36:T36"/>
-    <mergeCell ref="N37:T37"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A49:Y49"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="K33:K39"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="R40:U40"/>
-    <mergeCell ref="C29:Y29"/>
-    <mergeCell ref="B38:C40"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A50:Y50"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:Y45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:Y46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N35:T35"/>
-    <mergeCell ref="N47:Y47"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="A15:Y15"/>
-    <mergeCell ref="C19:Y19"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E16:Y16"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:Y14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="C20:Y20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="N8:Y8"/>
-    <mergeCell ref="N11:Y11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="C30:Y30"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E23:Y23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="U25:Y25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
@@ -5484,60 +5492,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="258" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
-      <c r="R1" s="260" t="s">
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="R1" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="261"/>
-      <c r="T1" s="261"/>
-      <c r="U1" s="262" t="s">
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="263"/>
-      <c r="W1" s="263"/>
-      <c r="X1" s="263"/>
-      <c r="Y1" s="264"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="98"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="259"/>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="R2" s="260" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="R2" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="261"/>
-      <c r="T2" s="261"/>
-      <c r="U2" s="265" t="s">
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="266"/>
-      <c r="W2" s="266"/>
-      <c r="X2" s="266"/>
-      <c r="Y2" s="267"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="101"/>
     </row>
     <row r="3" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -5567,26 +5575,26 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="128" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="228" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="96" t="s">
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="229"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="230"/>
+      <c r="L4" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="143"/>
-      <c r="N4" s="97"/>
+      <c r="M4" s="242"/>
+      <c r="N4" s="243"/>
       <c r="O4" s="7" t="s">
         <v>77</v>
       </c>
@@ -5608,24 +5616,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="128" t="s">
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="228" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="146"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="229"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="245"/>
+      <c r="N5" s="246"/>
       <c r="O5" s="10" t="s">
         <v>71</v>
       </c>
@@ -5636,10 +5644,10 @@
       <c r="R5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="171" t="s">
+      <c r="S5" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="172"/>
+      <c r="T5" s="200"/>
       <c r="U5" s="11" t="s">
         <v>71</v>
       </c>
@@ -5657,325 +5665,325 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="81" t="s">
+      <c r="C6" s="103"/>
+      <c r="D6" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="103" t="s">
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="139"/>
-      <c r="N6" s="81" t="s">
+      <c r="M6" s="196"/>
+      <c r="N6" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="102"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="105"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="147"/>
-      <c r="B7" s="109" t="s">
+      <c r="A7" s="227"/>
+      <c r="B7" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103" t="s">
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="139"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="102"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="105"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="147"/>
-      <c r="B8" s="109" t="s">
+      <c r="A8" s="227"/>
+      <c r="B8" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="103" t="s">
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="139"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="102"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="105"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="147"/>
-      <c r="B9" s="173" t="s">
+      <c r="A9" s="227"/>
+      <c r="B9" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="174"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="103" t="s">
+      <c r="C9" s="202"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="139"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="102"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="103"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="105"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="81" t="s">
+      <c r="C10" s="103"/>
+      <c r="D10" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="103" t="s">
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="139"/>
-      <c r="N10" s="81" t="s">
+      <c r="M10" s="196"/>
+      <c r="N10" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="102"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="105"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="147"/>
-      <c r="B11" s="109" t="s">
+      <c r="A11" s="227"/>
+      <c r="B11" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="103" t="s">
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="139"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="102"/>
+      <c r="M11" s="196"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="105"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="147"/>
-      <c r="B12" s="109" t="s">
+      <c r="A12" s="227"/>
+      <c r="B12" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="103" t="s">
+      <c r="C12" s="103"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="139"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="102"/>
+      <c r="M12" s="196"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="105"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="147"/>
-      <c r="B13" s="173" t="s">
+      <c r="A13" s="227"/>
+      <c r="B13" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="103" t="s">
+      <c r="C13" s="202"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="139"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="102"/>
+      <c r="M13" s="196"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="105"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="162"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="83" t="s">
+      <c r="B14" s="224"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="187" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="84"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="187"/>
+      <c r="N14" s="187"/>
+      <c r="O14" s="187"/>
+      <c r="P14" s="187"/>
+      <c r="Q14" s="187"/>
+      <c r="R14" s="187"/>
+      <c r="S14" s="187"/>
+      <c r="T14" s="187"/>
+      <c r="U14" s="187"/>
+      <c r="V14" s="187"/>
+      <c r="W14" s="187"/>
+      <c r="X14" s="187"/>
+      <c r="Y14" s="188"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="148"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="123"/>
-      <c r="U15" s="123"/>
-      <c r="V15" s="123"/>
-      <c r="W15" s="123"/>
-      <c r="X15" s="123"/>
-      <c r="Y15" s="124"/>
+      <c r="A15" s="208"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="220"/>
+      <c r="E15" s="220"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="220"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="220"/>
+      <c r="K15" s="220"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="220"/>
+      <c r="N15" s="220"/>
+      <c r="O15" s="220"/>
+      <c r="P15" s="220"/>
+      <c r="Q15" s="220"/>
+      <c r="R15" s="220"/>
+      <c r="S15" s="220"/>
+      <c r="T15" s="220"/>
+      <c r="U15" s="220"/>
+      <c r="V15" s="220"/>
+      <c r="W15" s="220"/>
+      <c r="X15" s="220"/>
+      <c r="Y15" s="221"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="225" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -5983,90 +5991,90 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="160" t="s">
+      <c r="E16" s="222" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="160"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="160"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="161"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="222"/>
+      <c r="K16" s="222"/>
+      <c r="L16" s="222"/>
+      <c r="M16" s="222"/>
+      <c r="N16" s="222"/>
+      <c r="O16" s="222"/>
+      <c r="P16" s="222"/>
+      <c r="Q16" s="222"/>
+      <c r="R16" s="222"/>
+      <c r="S16" s="222"/>
+      <c r="T16" s="222"/>
+      <c r="U16" s="222"/>
+      <c r="V16" s="222"/>
+      <c r="W16" s="222"/>
+      <c r="X16" s="222"/>
+      <c r="Y16" s="223"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="268"/>
-      <c r="B17" s="132" t="s">
+      <c r="A17" s="282"/>
+      <c r="B17" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="134"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="233"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="101" t="s">
+      <c r="F17" s="237" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
+      <c r="G17" s="237"/>
+      <c r="H17" s="237"/>
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="136" t="s">
+      <c r="J17" s="238"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
+      <c r="M17" s="239" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="138" t="s">
+      <c r="N17" s="240"/>
+      <c r="O17" s="240"/>
+      <c r="P17" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="138"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="151" t="s">
+      <c r="U17" s="211" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="152"/>
-      <c r="W17" s="152"/>
-      <c r="X17" s="152"/>
-      <c r="Y17" s="153"/>
+      <c r="V17" s="212"/>
+      <c r="W17" s="212"/>
+      <c r="X17" s="212"/>
+      <c r="Y17" s="213"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="268"/>
-      <c r="B18" s="87" t="s">
+      <c r="A18" s="282"/>
+      <c r="B18" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
+      <c r="C18" s="235"/>
+      <c r="D18" s="236"/>
       <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="131" t="s">
+      <c r="G18" s="231" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
+      <c r="H18" s="231"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="231"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -6075,85 +6083,85 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="131"/>
+      <c r="O18" s="231"/>
+      <c r="P18" s="231"/>
+      <c r="Q18" s="231"/>
+      <c r="R18" s="231"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="98" t="s">
+      <c r="U18" s="162" t="s">
         <v>141</v>
       </c>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="99"/>
-      <c r="Y18" s="100"/>
+      <c r="V18" s="163"/>
+      <c r="W18" s="163"/>
+      <c r="X18" s="163"/>
+      <c r="Y18" s="164"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="268"/>
-      <c r="B19" s="154" t="s">
+      <c r="A19" s="282"/>
+      <c r="B19" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="150"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="84"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="187"/>
+      <c r="P19" s="187"/>
+      <c r="Q19" s="187"/>
+      <c r="R19" s="187"/>
+      <c r="S19" s="187"/>
+      <c r="T19" s="187"/>
+      <c r="U19" s="187"/>
+      <c r="V19" s="187"/>
+      <c r="W19" s="187"/>
+      <c r="X19" s="187"/>
+      <c r="Y19" s="188"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="268"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="123"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="124"/>
+      <c r="A20" s="282"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="220"/>
+      <c r="H20" s="220"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="220"/>
+      <c r="K20" s="220"/>
+      <c r="L20" s="220"/>
+      <c r="M20" s="220"/>
+      <c r="N20" s="220"/>
+      <c r="O20" s="220"/>
+      <c r="P20" s="220"/>
+      <c r="Q20" s="220"/>
+      <c r="R20" s="220"/>
+      <c r="S20" s="220"/>
+      <c r="T20" s="220"/>
+      <c r="U20" s="220"/>
+      <c r="V20" s="220"/>
+      <c r="W20" s="220"/>
+      <c r="X20" s="220"/>
+      <c r="Y20" s="221"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="268"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="191" t="s">
+      <c r="A21" s="282"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="191"/>
+      <c r="D21" s="165"/>
       <c r="E21" s="23" t="s">
         <v>17</v>
       </c>
@@ -6163,46 +6171,46 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="120" t="s">
+      <c r="L21" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="166"/>
-      <c r="N21" s="167"/>
-      <c r="O21" s="167"/>
-      <c r="P21" s="167"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="180"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="180"/>
       <c r="Q21" s="8" t="s">
         <v>154</v>
       </c>
       <c r="R21" s="9"/>
-      <c r="S21" s="105" t="s">
+      <c r="S21" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="107"/>
+      <c r="T21" s="215"/>
+      <c r="U21" s="215"/>
+      <c r="V21" s="215"/>
+      <c r="W21" s="215"/>
+      <c r="X21" s="215"/>
+      <c r="Y21" s="216"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="269"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="108" t="s">
+      <c r="A22" s="283"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="158"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="220"/>
+      <c r="K22" s="221"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="168"/>
+      <c r="O22" s="168"/>
+      <c r="P22" s="168"/>
       <c r="Q22" s="5" t="s">
         <v>155</v>
       </c>
@@ -6222,133 +6230,133 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="178" t="s">
+      <c r="A23" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="234" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90" t="s">
+      <c r="C23" s="235"/>
+      <c r="D23" s="236"/>
+      <c r="E23" s="263" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="91"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
+      <c r="K23" s="235"/>
+      <c r="L23" s="235"/>
+      <c r="M23" s="235"/>
+      <c r="N23" s="235"/>
+      <c r="O23" s="235"/>
+      <c r="P23" s="235"/>
+      <c r="Q23" s="235"/>
+      <c r="R23" s="235"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="235"/>
+      <c r="U23" s="235"/>
+      <c r="V23" s="235"/>
+      <c r="W23" s="235"/>
+      <c r="X23" s="235"/>
+      <c r="Y23" s="264"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="164"/>
-      <c r="B24" s="87" t="s">
+      <c r="A24" s="155"/>
+      <c r="B24" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="95" t="s">
+      <c r="C24" s="235"/>
+      <c r="D24" s="236"/>
+      <c r="E24" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="96" t="s">
+      <c r="F24" s="209"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="209"/>
+      <c r="K24" s="209"/>
+      <c r="L24" s="209"/>
+      <c r="M24" s="209"/>
+      <c r="N24" s="209"/>
+      <c r="O24" s="241" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="93" t="s">
+      <c r="P24" s="243"/>
+      <c r="Q24" s="265"/>
+      <c r="R24" s="265"/>
+      <c r="S24" s="266" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="94"/>
-      <c r="U24" s="85" t="s">
+      <c r="T24" s="267"/>
+      <c r="U24" s="261" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="86"/>
+      <c r="V24" s="261"/>
+      <c r="W24" s="261"/>
+      <c r="X24" s="261"/>
+      <c r="Y24" s="262"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="164"/>
-      <c r="B25" s="87" t="s">
+      <c r="A25" s="155"/>
+      <c r="B25" s="234" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="98" t="s">
+      <c r="C25" s="235"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="187"/>
+      <c r="Q25" s="187"/>
+      <c r="R25" s="187"/>
+      <c r="S25" s="187"/>
+      <c r="T25" s="188"/>
+      <c r="U25" s="162" t="s">
         <v>184</v>
       </c>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="100"/>
+      <c r="V25" s="163"/>
+      <c r="W25" s="163"/>
+      <c r="X25" s="163"/>
+      <c r="Y25" s="164"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="164"/>
-      <c r="B26" s="87" t="s">
+      <c r="A26" s="155"/>
+      <c r="B26" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="81" t="s">
+      <c r="C26" s="235"/>
+      <c r="D26" s="236"/>
+      <c r="E26" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
       <c r="O26" s="21"/>
       <c r="P26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="101" t="s">
+      <c r="Q26" s="237" t="s">
         <v>145</v>
       </c>
-      <c r="R26" s="101"/>
+      <c r="R26" s="237"/>
       <c r="S26" s="31" t="s">
         <v>13</v>
       </c>
@@ -6356,80 +6364,80 @@
       <c r="U26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
+      <c r="V26" s="237"/>
+      <c r="W26" s="237"/>
       <c r="X26" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="164"/>
-      <c r="B27" s="87" t="s">
+      <c r="A27" s="155"/>
+      <c r="B27" s="234" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="81" t="s">
+      <c r="C27" s="235"/>
+      <c r="D27" s="236"/>
+      <c r="E27" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="103" t="s">
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="195" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="101"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="114"/>
+      <c r="M27" s="237"/>
+      <c r="N27" s="247"/>
+      <c r="O27" s="251"/>
+      <c r="P27" s="237"/>
+      <c r="Q27" s="252"/>
       <c r="R27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="105" t="s">
+      <c r="S27" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="107"/>
+      <c r="T27" s="215"/>
+      <c r="U27" s="215"/>
+      <c r="V27" s="215"/>
+      <c r="W27" s="215"/>
+      <c r="X27" s="215"/>
+      <c r="Y27" s="216"/>
       <c r="Z27" s="33"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="164"/>
-      <c r="B28" s="109" t="s">
+      <c r="A28" s="155"/>
+      <c r="B28" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="111" t="s">
+      <c r="C28" s="248"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="249" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
+      <c r="F28" s="250"/>
+      <c r="G28" s="250"/>
+      <c r="H28" s="250"/>
+      <c r="I28" s="250"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="250"/>
+      <c r="L28" s="250"/>
+      <c r="M28" s="250"/>
+      <c r="N28" s="250"/>
+      <c r="O28" s="250"/>
+      <c r="P28" s="250"/>
+      <c r="Q28" s="250"/>
       <c r="R28" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="115" t="s">
+      <c r="S28" s="253" t="s">
         <v>158</v>
       </c>
-      <c r="T28" s="116"/>
+      <c r="T28" s="254"/>
       <c r="U28" s="28" t="s">
         <v>28</v>
       </c>
@@ -6448,125 +6456,125 @@
       <c r="Z28" s="33"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="164"/>
-      <c r="B29" s="154" t="s">
+      <c r="A29" s="155"/>
+      <c r="B29" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="150"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="84"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="187"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="187"/>
+      <c r="P29" s="187"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="187"/>
+      <c r="U29" s="187"/>
+      <c r="V29" s="187"/>
+      <c r="W29" s="187"/>
+      <c r="X29" s="187"/>
+      <c r="Y29" s="188"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="164"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="123"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="123"/>
-      <c r="T30" s="123"/>
-      <c r="U30" s="123"/>
-      <c r="V30" s="123"/>
-      <c r="W30" s="123"/>
-      <c r="X30" s="123"/>
-      <c r="Y30" s="124"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="226"/>
+      <c r="D30" s="220"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="220"/>
+      <c r="K30" s="220"/>
+      <c r="L30" s="220"/>
+      <c r="M30" s="220"/>
+      <c r="N30" s="220"/>
+      <c r="O30" s="220"/>
+      <c r="P30" s="220"/>
+      <c r="Q30" s="220"/>
+      <c r="R30" s="220"/>
+      <c r="S30" s="220"/>
+      <c r="T30" s="220"/>
+      <c r="U30" s="220"/>
+      <c r="V30" s="220"/>
+      <c r="W30" s="220"/>
+      <c r="X30" s="220"/>
+      <c r="Y30" s="221"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="164"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="191" t="s">
+      <c r="A31" s="155"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="191"/>
-      <c r="E31" s="117" t="s">
+      <c r="D31" s="165"/>
+      <c r="E31" s="255" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="118"/>
-      <c r="G31" s="119" t="s">
+      <c r="F31" s="256"/>
+      <c r="G31" s="257" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="120" t="s">
+      <c r="H31" s="187"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="166"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="167"/>
-      <c r="P31" s="167"/>
-      <c r="Q31" s="176"/>
-      <c r="R31" s="177"/>
-      <c r="S31" s="105" t="s">
+      <c r="M31" s="179"/>
+      <c r="N31" s="180"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="180"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="125"/>
+      <c r="S31" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="106"/>
-      <c r="U31" s="106"/>
-      <c r="V31" s="106"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="106"/>
-      <c r="Y31" s="107"/>
+      <c r="T31" s="215"/>
+      <c r="U31" s="215"/>
+      <c r="V31" s="215"/>
+      <c r="W31" s="215"/>
+      <c r="X31" s="215"/>
+      <c r="Y31" s="216"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="165"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="108" t="s">
+      <c r="A32" s="156"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="108"/>
-      <c r="E32" s="125" t="s">
+      <c r="D32" s="166"/>
+      <c r="E32" s="258" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="157" t="s">
+      <c r="F32" s="259"/>
+      <c r="G32" s="259"/>
+      <c r="H32" s="259"/>
+      <c r="I32" s="259"/>
+      <c r="J32" s="259"/>
+      <c r="K32" s="260"/>
+      <c r="L32" s="218"/>
+      <c r="M32" s="167" t="s">
         <v>174</v>
       </c>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="175" t="s">
+      <c r="N32" s="168"/>
+      <c r="O32" s="168"/>
+      <c r="P32" s="168"/>
+      <c r="Q32" s="203" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="170"/>
+      <c r="R32" s="199"/>
       <c r="S32" s="26" t="s">
         <v>176</v>
       </c>
@@ -6590,260 +6598,260 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="192" t="s">
+      <c r="A33" s="169" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="194" t="s">
+      <c r="D33" s="171" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="195"/>
-      <c r="F33" s="195"/>
-      <c r="G33" s="195"/>
-      <c r="H33" s="195"/>
-      <c r="I33" s="196"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="173"/>
       <c r="J33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="201" t="s">
+      <c r="K33" s="181" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="35"/>
-      <c r="N33" s="227" t="s">
+      <c r="N33" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="O33" s="228"/>
-      <c r="P33" s="228"/>
-      <c r="Q33" s="228"/>
-      <c r="R33" s="228"/>
-      <c r="S33" s="228"/>
-      <c r="T33" s="228"/>
-      <c r="U33" s="229" t="s">
+      <c r="O33" s="110"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="110"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="V33" s="230"/>
-      <c r="W33" s="230"/>
-      <c r="X33" s="230"/>
+      <c r="V33" s="114"/>
+      <c r="W33" s="114"/>
+      <c r="X33" s="114"/>
       <c r="Y33" s="38" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="33"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="193"/>
+      <c r="A34" s="170"/>
       <c r="B34" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="40"/>
-      <c r="D34" s="197" t="s">
+      <c r="D34" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="198"/>
-      <c r="F34" s="198"/>
-      <c r="G34" s="198"/>
-      <c r="H34" s="198"/>
-      <c r="I34" s="198"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
       <c r="J34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="202"/>
+      <c r="K34" s="182"/>
       <c r="L34" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="40"/>
-      <c r="N34" s="183" t="s">
+      <c r="N34" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="O34" s="184"/>
-      <c r="P34" s="184"/>
-      <c r="Q34" s="184"/>
-      <c r="R34" s="184"/>
-      <c r="S34" s="184"/>
-      <c r="T34" s="184"/>
-      <c r="U34" s="213" t="s">
+      <c r="O34" s="143"/>
+      <c r="P34" s="143"/>
+      <c r="Q34" s="143"/>
+      <c r="R34" s="143"/>
+      <c r="S34" s="143"/>
+      <c r="T34" s="143"/>
+      <c r="U34" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="V34" s="214"/>
-      <c r="W34" s="214"/>
-      <c r="X34" s="214"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
       <c r="Y34" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="193"/>
+      <c r="A35" s="170"/>
       <c r="B35" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="40"/>
-      <c r="D35" s="197" t="s">
+      <c r="D35" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="198"/>
-      <c r="F35" s="198"/>
-      <c r="G35" s="198"/>
-      <c r="H35" s="198"/>
-      <c r="I35" s="198"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
       <c r="J35" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="202"/>
+      <c r="K35" s="182"/>
       <c r="L35" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="40"/>
-      <c r="N35" s="183" t="s">
+      <c r="N35" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="O35" s="184"/>
-      <c r="P35" s="184"/>
-      <c r="Q35" s="184"/>
-      <c r="R35" s="184"/>
-      <c r="S35" s="184"/>
-      <c r="T35" s="184"/>
-      <c r="U35" s="213" t="s">
+      <c r="O35" s="143"/>
+      <c r="P35" s="143"/>
+      <c r="Q35" s="143"/>
+      <c r="R35" s="143"/>
+      <c r="S35" s="143"/>
+      <c r="T35" s="143"/>
+      <c r="U35" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="V35" s="214"/>
-      <c r="W35" s="214"/>
-      <c r="X35" s="214"/>
+      <c r="V35" s="120"/>
+      <c r="W35" s="120"/>
+      <c r="X35" s="120"/>
       <c r="Y35" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="193"/>
+      <c r="A36" s="170"/>
       <c r="B36" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="44"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="198"/>
-      <c r="G36" s="198"/>
-      <c r="H36" s="198"/>
-      <c r="I36" s="198"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
       <c r="J36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="203"/>
+      <c r="K36" s="183"/>
       <c r="L36" s="65" t="s">
         <v>84</v>
       </c>
       <c r="M36" s="44"/>
-      <c r="N36" s="183" t="s">
+      <c r="N36" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="O36" s="184"/>
-      <c r="P36" s="184"/>
-      <c r="Q36" s="184"/>
-      <c r="R36" s="184"/>
-      <c r="S36" s="184"/>
-      <c r="T36" s="184"/>
-      <c r="U36" s="213" t="s">
+      <c r="O36" s="143"/>
+      <c r="P36" s="143"/>
+      <c r="Q36" s="143"/>
+      <c r="R36" s="143"/>
+      <c r="S36" s="143"/>
+      <c r="T36" s="143"/>
+      <c r="U36" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="V36" s="214"/>
-      <c r="W36" s="214"/>
-      <c r="X36" s="214"/>
+      <c r="V36" s="120"/>
+      <c r="W36" s="120"/>
+      <c r="X36" s="120"/>
       <c r="Y36" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="193"/>
+      <c r="A37" s="170"/>
       <c r="B37" s="66" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="44"/>
-      <c r="D37" s="197" t="s">
+      <c r="D37" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="198"/>
-      <c r="F37" s="198"/>
-      <c r="G37" s="198"/>
-      <c r="H37" s="198"/>
-      <c r="I37" s="198"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
       <c r="J37" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="204"/>
+      <c r="K37" s="184"/>
       <c r="L37" s="68" t="s">
         <v>83</v>
       </c>
       <c r="M37" s="69"/>
-      <c r="N37" s="183" t="s">
+      <c r="N37" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="184"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="184"/>
-      <c r="R37" s="184"/>
-      <c r="S37" s="184"/>
-      <c r="T37" s="184"/>
-      <c r="U37" s="225" t="s">
+      <c r="O37" s="143"/>
+      <c r="P37" s="143"/>
+      <c r="Q37" s="143"/>
+      <c r="R37" s="143"/>
+      <c r="S37" s="143"/>
+      <c r="T37" s="143"/>
+      <c r="U37" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="V37" s="226"/>
-      <c r="W37" s="226"/>
-      <c r="X37" s="226"/>
+      <c r="V37" s="153"/>
+      <c r="W37" s="153"/>
+      <c r="X37" s="153"/>
       <c r="Y37" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="165"/>
-      <c r="B38" s="270" t="s">
+      <c r="A38" s="156"/>
+      <c r="B38" s="279" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="271"/>
-      <c r="D38" s="271"/>
-      <c r="E38" s="271"/>
-      <c r="F38" s="272" t="s">
+      <c r="C38" s="280"/>
+      <c r="D38" s="280"/>
+      <c r="E38" s="280"/>
+      <c r="F38" s="281" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="272"/>
-      <c r="H38" s="272"/>
-      <c r="I38" s="272"/>
+      <c r="G38" s="281"/>
+      <c r="H38" s="281"/>
+      <c r="I38" s="281"/>
       <c r="J38" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="199" t="s">
+      <c r="K38" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="L38" s="82"/>
-      <c r="M38" s="200"/>
-      <c r="N38" s="205" t="s">
+      <c r="L38" s="103"/>
+      <c r="M38" s="175"/>
+      <c r="N38" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="O38" s="138"/>
-      <c r="P38" s="138"/>
+      <c r="O38" s="112"/>
+      <c r="P38" s="112"/>
       <c r="Q38" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="R38" s="206" t="s">
+      <c r="R38" s="185" t="s">
         <v>73</v>
       </c>
-      <c r="S38" s="82"/>
-      <c r="T38" s="82"/>
-      <c r="U38" s="82"/>
-      <c r="V38" s="205" t="s">
+      <c r="S38" s="103"/>
+      <c r="T38" s="103"/>
+      <c r="U38" s="103"/>
+      <c r="V38" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="W38" s="138"/>
-      <c r="X38" s="138"/>
+      <c r="W38" s="112"/>
+      <c r="X38" s="112"/>
       <c r="Y38" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="178" t="s">
+      <c r="A39" s="154" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="49" t="s">
@@ -6854,14 +6862,14 @@
         <v>56</v>
       </c>
       <c r="E39" s="52"/>
-      <c r="F39" s="238"/>
-      <c r="G39" s="239"/>
-      <c r="H39" s="239"/>
-      <c r="I39" s="239"/>
-      <c r="J39" s="215" t="s">
+      <c r="F39" s="129"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="K39" s="215"/>
+      <c r="K39" s="126"/>
       <c r="L39" s="53" t="s">
         <v>70</v>
       </c>
@@ -6877,16 +6885,16 @@
       <c r="R39" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="S39" s="242"/>
-      <c r="T39" s="243"/>
-      <c r="U39" s="243"/>
-      <c r="V39" s="243"/>
-      <c r="W39" s="243"/>
-      <c r="X39" s="243"/>
-      <c r="Y39" s="244"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="135"/>
+      <c r="U39" s="135"/>
+      <c r="V39" s="135"/>
+      <c r="W39" s="135"/>
+      <c r="X39" s="135"/>
+      <c r="Y39" s="136"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="179"/>
+      <c r="A40" s="204"/>
       <c r="B40" s="57" t="s">
         <v>55</v>
       </c>
@@ -6895,14 +6903,14 @@
         <v>57</v>
       </c>
       <c r="E40" s="60"/>
-      <c r="F40" s="240"/>
-      <c r="G40" s="241"/>
-      <c r="H40" s="241"/>
-      <c r="I40" s="241"/>
-      <c r="J40" s="188" t="s">
+      <c r="F40" s="131"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="K40" s="188"/>
+      <c r="K40" s="133"/>
       <c r="L40" s="61" t="s">
         <v>70</v>
       </c>
@@ -6918,28 +6926,28 @@
       <c r="R40" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="S40" s="245"/>
-      <c r="T40" s="246"/>
-      <c r="U40" s="246"/>
-      <c r="V40" s="246"/>
-      <c r="W40" s="246"/>
-      <c r="X40" s="246"/>
-      <c r="Y40" s="247"/>
+      <c r="S40" s="137"/>
+      <c r="T40" s="138"/>
+      <c r="U40" s="138"/>
+      <c r="V40" s="138"/>
+      <c r="W40" s="138"/>
+      <c r="X40" s="138"/>
+      <c r="Y40" s="139"/>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="179"/>
-      <c r="B41" s="274"/>
-      <c r="C41" s="275"/>
+      <c r="A41" s="204"/>
+      <c r="B41" s="268"/>
+      <c r="C41" s="269"/>
       <c r="D41" s="71"/>
       <c r="E41" s="72"/>
-      <c r="F41" s="276"/>
-      <c r="G41" s="277"/>
-      <c r="H41" s="277"/>
-      <c r="I41" s="277"/>
-      <c r="J41" s="278" t="s">
+      <c r="F41" s="278"/>
+      <c r="G41" s="274"/>
+      <c r="H41" s="274"/>
+      <c r="I41" s="274"/>
+      <c r="J41" s="270" t="s">
         <v>157</v>
       </c>
-      <c r="K41" s="278"/>
+      <c r="K41" s="270"/>
       <c r="L41" s="73" t="s">
         <v>70</v>
       </c>
@@ -6955,16 +6963,16 @@
       <c r="R41" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="279"/>
-      <c r="T41" s="280"/>
-      <c r="U41" s="280"/>
-      <c r="V41" s="280"/>
-      <c r="W41" s="280"/>
-      <c r="X41" s="280"/>
-      <c r="Y41" s="281"/>
+      <c r="S41" s="275"/>
+      <c r="T41" s="276"/>
+      <c r="U41" s="276"/>
+      <c r="V41" s="276"/>
+      <c r="W41" s="276"/>
+      <c r="X41" s="276"/>
+      <c r="Y41" s="277"/>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="179"/>
+      <c r="A42" s="204"/>
       <c r="B42" s="49" t="s">
         <v>59</v>
       </c>
@@ -6973,35 +6981,35 @@
         <v>60</v>
       </c>
       <c r="E42" s="52"/>
-      <c r="F42" s="215" t="s">
+      <c r="F42" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="G42" s="215"/>
-      <c r="H42" s="215"/>
-      <c r="I42" s="215"/>
-      <c r="J42" s="236"/>
-      <c r="K42" s="236"/>
-      <c r="L42" s="237"/>
-      <c r="M42" s="249" t="s">
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="128"/>
+      <c r="M42" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="N42" s="230"/>
-      <c r="O42" s="230"/>
-      <c r="P42" s="230"/>
-      <c r="Q42" s="215" t="s">
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="R42" s="215"/>
-      <c r="S42" s="242"/>
-      <c r="T42" s="243"/>
-      <c r="U42" s="243"/>
-      <c r="V42" s="243"/>
-      <c r="W42" s="243"/>
-      <c r="X42" s="243"/>
-      <c r="Y42" s="244"/>
+      <c r="R42" s="126"/>
+      <c r="S42" s="134"/>
+      <c r="T42" s="135"/>
+      <c r="U42" s="135"/>
+      <c r="V42" s="135"/>
+      <c r="W42" s="135"/>
+      <c r="X42" s="135"/>
+      <c r="Y42" s="136"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="179"/>
+      <c r="A43" s="204"/>
       <c r="B43" s="57" t="s">
         <v>55</v>
       </c>
@@ -7010,334 +7018,338 @@
         <v>60</v>
       </c>
       <c r="E43" s="60"/>
-      <c r="F43" s="188" t="s">
+      <c r="F43" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
-      <c r="I43" s="188"/>
-      <c r="J43" s="189"/>
-      <c r="K43" s="189"/>
-      <c r="L43" s="190"/>
-      <c r="M43" s="248" t="s">
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="160"/>
+      <c r="L43" s="161"/>
+      <c r="M43" s="140" t="s">
         <v>136</v>
       </c>
-      <c r="N43" s="214"/>
-      <c r="O43" s="214"/>
-      <c r="P43" s="214"/>
-      <c r="Q43" s="188" t="s">
+      <c r="N43" s="120"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="R43" s="188"/>
-      <c r="S43" s="245"/>
-      <c r="T43" s="246"/>
-      <c r="U43" s="246"/>
-      <c r="V43" s="246"/>
-      <c r="W43" s="246"/>
-      <c r="X43" s="246"/>
-      <c r="Y43" s="247"/>
+      <c r="R43" s="133"/>
+      <c r="S43" s="137"/>
+      <c r="T43" s="138"/>
+      <c r="U43" s="138"/>
+      <c r="V43" s="138"/>
+      <c r="W43" s="138"/>
+      <c r="X43" s="138"/>
+      <c r="Y43" s="139"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="273"/>
-      <c r="B44" s="274"/>
-      <c r="C44" s="275"/>
+      <c r="A44" s="284"/>
+      <c r="B44" s="268"/>
+      <c r="C44" s="269"/>
       <c r="D44" s="71" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="72"/>
-      <c r="F44" s="278"/>
-      <c r="G44" s="278"/>
-      <c r="H44" s="278"/>
-      <c r="I44" s="278"/>
-      <c r="J44" s="282"/>
-      <c r="K44" s="282"/>
-      <c r="L44" s="283"/>
-      <c r="M44" s="284"/>
-      <c r="N44" s="277"/>
-      <c r="O44" s="277"/>
-      <c r="P44" s="277"/>
-      <c r="Q44" s="278" t="s">
+      <c r="F44" s="270"/>
+      <c r="G44" s="270"/>
+      <c r="H44" s="270"/>
+      <c r="I44" s="270"/>
+      <c r="J44" s="271"/>
+      <c r="K44" s="271"/>
+      <c r="L44" s="272"/>
+      <c r="M44" s="273"/>
+      <c r="N44" s="274"/>
+      <c r="O44" s="274"/>
+      <c r="P44" s="274"/>
+      <c r="Q44" s="270" t="s">
         <v>157</v>
       </c>
-      <c r="R44" s="278"/>
-      <c r="S44" s="279"/>
-      <c r="T44" s="280"/>
-      <c r="U44" s="280"/>
-      <c r="V44" s="280"/>
-      <c r="W44" s="280"/>
-      <c r="X44" s="280"/>
-      <c r="Y44" s="281"/>
+      <c r="R44" s="270"/>
+      <c r="S44" s="275"/>
+      <c r="T44" s="276"/>
+      <c r="U44" s="276"/>
+      <c r="V44" s="276"/>
+      <c r="W44" s="276"/>
+      <c r="X44" s="276"/>
+      <c r="Y44" s="277"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="180" t="s">
+      <c r="A45" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="109" t="s">
+      <c r="B45" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="81" t="s">
+      <c r="C45" s="103"/>
+      <c r="D45" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="102"/>
-      <c r="L45" s="103" t="s">
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="139"/>
-      <c r="N45" s="81" t="s">
+      <c r="M45" s="196"/>
+      <c r="N45" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="102"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="103"/>
+      <c r="T45" s="103"/>
+      <c r="U45" s="103"/>
+      <c r="V45" s="103"/>
+      <c r="W45" s="103"/>
+      <c r="X45" s="103"/>
+      <c r="Y45" s="105"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="181"/>
-      <c r="B46" s="109" t="s">
+      <c r="A46" s="206"/>
+      <c r="B46" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="81" t="s">
+      <c r="C46" s="103"/>
+      <c r="D46" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="102"/>
-      <c r="L46" s="103" t="s">
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="139"/>
-      <c r="N46" s="81" t="s">
+      <c r="M46" s="196"/>
+      <c r="N46" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="82"/>
-      <c r="T46" s="82"/>
-      <c r="U46" s="82"/>
-      <c r="V46" s="82"/>
-      <c r="W46" s="82"/>
-      <c r="X46" s="82"/>
-      <c r="Y46" s="102"/>
+      <c r="O46" s="103"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="103"/>
+      <c r="T46" s="103"/>
+      <c r="U46" s="103"/>
+      <c r="V46" s="103"/>
+      <c r="W46" s="103"/>
+      <c r="X46" s="103"/>
+      <c r="Y46" s="105"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="182"/>
-      <c r="B47" s="109" t="s">
+      <c r="A47" s="207"/>
+      <c r="B47" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="102"/>
-      <c r="L47" s="103" t="s">
+      <c r="C47" s="103"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="139"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="82"/>
-      <c r="T47" s="82"/>
-      <c r="U47" s="82"/>
-      <c r="V47" s="82"/>
-      <c r="W47" s="82"/>
-      <c r="X47" s="82"/>
-      <c r="Y47" s="102"/>
+      <c r="M47" s="196"/>
+      <c r="N47" s="104"/>
+      <c r="O47" s="103"/>
+      <c r="P47" s="103"/>
+      <c r="Q47" s="103"/>
+      <c r="R47" s="103"/>
+      <c r="S47" s="103"/>
+      <c r="T47" s="103"/>
+      <c r="U47" s="103"/>
+      <c r="V47" s="103"/>
+      <c r="W47" s="103"/>
+      <c r="X47" s="103"/>
+      <c r="Y47" s="105"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="233" t="s">
+      <c r="A48" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="234"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="235"/>
-      <c r="E48" s="235"/>
-      <c r="F48" s="235"/>
-      <c r="G48" s="235"/>
-      <c r="H48" s="235"/>
-      <c r="I48" s="235"/>
-      <c r="J48" s="235"/>
-      <c r="K48" s="235"/>
-      <c r="L48" s="235"/>
-      <c r="M48" s="235"/>
-      <c r="N48" s="235"/>
-      <c r="O48" s="235"/>
-      <c r="P48" s="235"/>
-      <c r="Q48" s="235"/>
-      <c r="R48" s="235"/>
-      <c r="S48" s="235"/>
-      <c r="T48" s="235"/>
-      <c r="U48" s="235"/>
-      <c r="V48" s="235"/>
-      <c r="W48" s="235"/>
-      <c r="X48" s="235"/>
-      <c r="Y48" s="177"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="124"/>
+      <c r="O48" s="124"/>
+      <c r="P48" s="124"/>
+      <c r="Q48" s="124"/>
+      <c r="R48" s="124"/>
+      <c r="S48" s="124"/>
+      <c r="T48" s="124"/>
+      <c r="U48" s="124"/>
+      <c r="V48" s="124"/>
+      <c r="W48" s="124"/>
+      <c r="X48" s="124"/>
+      <c r="Y48" s="125"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="185" t="s">
+      <c r="A49" s="157" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="186"/>
-      <c r="C49" s="186"/>
-      <c r="D49" s="186"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="186"/>
-      <c r="G49" s="186"/>
-      <c r="H49" s="186"/>
-      <c r="I49" s="186"/>
-      <c r="J49" s="186"/>
-      <c r="K49" s="186"/>
-      <c r="L49" s="186"/>
-      <c r="M49" s="186"/>
-      <c r="N49" s="186"/>
-      <c r="O49" s="186"/>
-      <c r="P49" s="186"/>
-      <c r="Q49" s="186"/>
-      <c r="R49" s="186"/>
-      <c r="S49" s="186"/>
-      <c r="T49" s="186"/>
-      <c r="U49" s="186"/>
-      <c r="V49" s="186"/>
-      <c r="W49" s="186"/>
-      <c r="X49" s="186"/>
-      <c r="Y49" s="187"/>
+      <c r="B49" s="158"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="158"/>
+      <c r="I49" s="158"/>
+      <c r="J49" s="158"/>
+      <c r="K49" s="158"/>
+      <c r="L49" s="158"/>
+      <c r="M49" s="158"/>
+      <c r="N49" s="158"/>
+      <c r="O49" s="158"/>
+      <c r="P49" s="158"/>
+      <c r="Q49" s="158"/>
+      <c r="R49" s="158"/>
+      <c r="S49" s="158"/>
+      <c r="T49" s="158"/>
+      <c r="U49" s="158"/>
+      <c r="V49" s="158"/>
+      <c r="W49" s="158"/>
+      <c r="X49" s="158"/>
+      <c r="Y49" s="159"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="168"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
-      <c r="E50" s="169"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="169"/>
-      <c r="H50" s="169"/>
-      <c r="I50" s="169"/>
-      <c r="J50" s="169"/>
-      <c r="K50" s="169"/>
-      <c r="L50" s="169"/>
-      <c r="M50" s="169"/>
-      <c r="N50" s="169"/>
-      <c r="O50" s="169"/>
-      <c r="P50" s="169"/>
-      <c r="Q50" s="169"/>
-      <c r="R50" s="169"/>
-      <c r="S50" s="169"/>
-      <c r="T50" s="169"/>
-      <c r="U50" s="169"/>
-      <c r="V50" s="169"/>
-      <c r="W50" s="169"/>
-      <c r="X50" s="169"/>
-      <c r="Y50" s="170"/>
+      <c r="A50" s="197"/>
+      <c r="B50" s="198"/>
+      <c r="C50" s="198"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="198"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="198"/>
+      <c r="H50" s="198"/>
+      <c r="I50" s="198"/>
+      <c r="J50" s="198"/>
+      <c r="K50" s="198"/>
+      <c r="L50" s="198"/>
+      <c r="M50" s="198"/>
+      <c r="N50" s="198"/>
+      <c r="O50" s="198"/>
+      <c r="P50" s="198"/>
+      <c r="Q50" s="198"/>
+      <c r="R50" s="198"/>
+      <c r="S50" s="198"/>
+      <c r="T50" s="198"/>
+      <c r="U50" s="198"/>
+      <c r="V50" s="198"/>
+      <c r="W50" s="198"/>
+      <c r="X50" s="198"/>
+      <c r="Y50" s="199"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="250" t="s">
+      <c r="A51" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="133"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="133"/>
-      <c r="M51" s="133"/>
-      <c r="N51" s="133"/>
-      <c r="O51" s="133"/>
-      <c r="P51" s="133"/>
-      <c r="Q51" s="133"/>
-      <c r="R51" s="133"/>
-      <c r="S51" s="133"/>
-      <c r="T51" s="133"/>
-      <c r="U51" s="133"/>
-      <c r="V51" s="133"/>
-      <c r="W51" s="133"/>
-      <c r="X51" s="133"/>
-      <c r="Y51" s="251"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="82"/>
+      <c r="V51" s="82"/>
+      <c r="W51" s="82"/>
+      <c r="X51" s="82"/>
+      <c r="Y51" s="83"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="252"/>
-      <c r="B52" s="253"/>
-      <c r="C52" s="253"/>
-      <c r="D52" s="253"/>
-      <c r="E52" s="253"/>
-      <c r="F52" s="253"/>
-      <c r="G52" s="253"/>
-      <c r="H52" s="253"/>
-      <c r="I52" s="253"/>
-      <c r="J52" s="253"/>
-      <c r="K52" s="253"/>
-      <c r="L52" s="253"/>
-      <c r="M52" s="253"/>
-      <c r="N52" s="253"/>
-      <c r="O52" s="253"/>
-      <c r="P52" s="253"/>
-      <c r="Q52" s="253"/>
-      <c r="R52" s="253"/>
-      <c r="S52" s="253"/>
-      <c r="T52" s="253"/>
-      <c r="U52" s="253"/>
-      <c r="V52" s="253"/>
-      <c r="W52" s="253"/>
-      <c r="X52" s="253"/>
-      <c r="Y52" s="254"/>
+      <c r="A52" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="85"/>
+      <c r="O52" s="85"/>
+      <c r="P52" s="85"/>
+      <c r="Q52" s="85"/>
+      <c r="R52" s="85"/>
+      <c r="S52" s="85"/>
+      <c r="T52" s="85"/>
+      <c r="U52" s="85"/>
+      <c r="V52" s="85"/>
+      <c r="W52" s="85"/>
+      <c r="X52" s="85"/>
+      <c r="Y52" s="86"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="255"/>
-      <c r="B53" s="171"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="171"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="171"/>
-      <c r="H53" s="171"/>
-      <c r="I53" s="171"/>
-      <c r="J53" s="171"/>
-      <c r="K53" s="171"/>
-      <c r="L53" s="171"/>
-      <c r="M53" s="171"/>
-      <c r="N53" s="171"/>
-      <c r="O53" s="171"/>
-      <c r="P53" s="171"/>
-      <c r="Q53" s="171"/>
-      <c r="R53" s="171"/>
-      <c r="S53" s="171"/>
-      <c r="T53" s="171"/>
-      <c r="U53" s="171"/>
-      <c r="V53" s="171"/>
-      <c r="W53" s="171"/>
-      <c r="X53" s="171"/>
-      <c r="Y53" s="256"/>
+      <c r="A53" s="87" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="88"/>
+      <c r="N53" s="88"/>
+      <c r="O53" s="88"/>
+      <c r="P53" s="88"/>
+      <c r="Q53" s="88"/>
+      <c r="R53" s="88"/>
+      <c r="S53" s="88"/>
+      <c r="T53" s="88"/>
+      <c r="U53" s="88"/>
+      <c r="V53" s="88"/>
+      <c r="W53" s="88"/>
+      <c r="X53" s="88"/>
+      <c r="Y53" s="89"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="76" t="s">
@@ -7374,25 +7386,25 @@
     </row>
     <row r="58" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="77"/>
-      <c r="B58" s="253" t="s">
+      <c r="B58" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="253"/>
-      <c r="D58" s="253"/>
-      <c r="E58" s="253"/>
-      <c r="F58" s="253"/>
-      <c r="G58" s="253" t="s">
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="253"/>
-      <c r="I58" s="253"/>
-      <c r="J58" s="253"/>
-      <c r="L58" s="219" t="s">
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+      <c r="L58" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="M58" s="219"/>
-      <c r="N58" s="219"/>
-      <c r="O58" s="219"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="90"/>
+      <c r="O58" s="90"/>
       <c r="P58" s="1" t="s">
         <v>190</v>
       </c>
@@ -7412,12 +7424,12 @@
       <c r="I59" s="80"/>
       <c r="J59" s="80"/>
       <c r="K59" s="80"/>
-      <c r="L59" s="257" t="s">
+      <c r="L59" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="M59" s="257"/>
-      <c r="N59" s="257"/>
-      <c r="O59" s="257"/>
+      <c r="M59" s="91"/>
+      <c r="N59" s="91"/>
+      <c r="O59" s="91"/>
       <c r="P59" s="80" t="s">
         <v>192</v>
       </c>
@@ -7456,46 +7468,122 @@
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="A50:Y50"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:Y47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:Y48"/>
-    <mergeCell ref="A49:Y49"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:Y45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:Y46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:Y43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:Y44"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="S41:Y41"/>
-    <mergeCell ref="F42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="A51:Y51"/>
+    <mergeCell ref="A52:Y52"/>
+    <mergeCell ref="A53:Y53"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="N37:T37"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="N36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="S39:Y39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="S40:Y40"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:Y12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:Y14"/>
+    <mergeCell ref="A15:Y15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Y8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:Y6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:Y7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:Y13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:Y10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:Y11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E16:Y16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:Y19"/>
+    <mergeCell ref="C20:Y20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="S28:T28"/>
     <mergeCell ref="E32:K32"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="Q32:R32"/>
@@ -7520,122 +7608,46 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:Y23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E16:Y16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:Y19"/>
-    <mergeCell ref="C20:Y20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:Y13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:Y10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:Y11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:Y8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:Y9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:Y6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:Y7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:Y12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:Y14"/>
-    <mergeCell ref="A15:Y15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="A51:Y51"/>
-    <mergeCell ref="A52:Y52"/>
-    <mergeCell ref="A53:Y53"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N35:T35"/>
-    <mergeCell ref="N37:T37"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="N36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="S39:Y39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="S40:Y40"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="S41:Y41"/>
+    <mergeCell ref="F42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:Y43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="A50:Y50"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:Y47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:Y48"/>
+    <mergeCell ref="A49:Y49"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:Y45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:Y46"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">

--- a/template/取引成立台帳.xlsx
+++ b/template/取引成立台帳.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1BB48E-43AB-4A7C-BE98-6141BC031467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF096137-EBB5-41F7-ADCA-136FDB673EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D08DF634-D05B-48EB-A5E5-3C43C6308EA5}"/>
   </bookViews>
@@ -16,26 +16,17 @@
     <sheet name="買主" sheetId="1" r:id="rId1"/>
     <sheet name="売主" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="214">
   <si>
     <t>成立年月日</t>
     <rPh sb="0" eb="2">
@@ -1340,6 +1331,117 @@
     <t>$attach$</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>固都税精算金</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>円</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>（内消費税相当額</t>
+  </si>
+  <si>
+    <t>円</t>
+    <rPh sb="0" eb="1">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>$fixedTaxDay$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲介手数料</t>
+    <rPh sb="0" eb="5">
+      <t>チュウカイテスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">円 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(内税)</t>
+    </r>
+  </si>
+  <si>
+    <t>令和</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>業務委託</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムイタク</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>支払先</t>
+    <rPh sb="0" eb="3">
+      <t>シハライサキ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>$intermediaryPricePayDay_MM$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$outsourcingPricePayDay_MM$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$intermediaryPricePayDay_DD$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$outsourcingPricePayDay_DD$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$intermediaryPricePayDay_YY$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$outsourcingPricePayDay_YY$</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1348,9 +1450,9 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="0.E+00"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1431,6 +1533,40 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1440,7 +1576,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -2064,26 +2200,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2105,13 +2221,147 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2248,12 +2498,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2276,9 +2520,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2300,9 +2541,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2333,55 +2571,286 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2441,65 +2910,452 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2507,465 +3363,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{323C8A39-68E2-44F6-903F-607A5078B59B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3277,7 +3708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CEB573-6056-4BD6-A209-3C128850A94F}">
-  <dimension ref="A1:Z61"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H2"/>
@@ -3291,60 +3722,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="92" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="R1" s="94" t="s">
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="R1" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="96" t="s">
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="169" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="98"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="171"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="R2" s="94" t="s">
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="R2" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="99" t="s">
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="101"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="174"/>
     </row>
     <row r="3" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -3374,26 +3805,26 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="228" t="s">
+      <c r="B4" s="180"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="253" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="229"/>
-      <c r="J4" s="229"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="241" t="s">
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="255"/>
+      <c r="L4" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="242"/>
-      <c r="N4" s="243"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="268"/>
       <c r="O4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3415,24 +3846,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="228" t="s">
+      <c r="B5" s="180"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="253" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="229"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="230"/>
-      <c r="L5" s="244"/>
-      <c r="M5" s="245"/>
-      <c r="N5" s="246"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="255"/>
+      <c r="L5" s="269"/>
+      <c r="M5" s="270"/>
+      <c r="N5" s="271"/>
       <c r="O5" s="10" t="s">
         <v>71</v>
       </c>
@@ -3443,10 +3874,10 @@
       <c r="R5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="88" t="s">
+      <c r="S5" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="200"/>
+      <c r="T5" s="228"/>
       <c r="U5" s="11" t="s">
         <v>71</v>
       </c>
@@ -3464,333 +3895,333 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="227" t="s">
+      <c r="A6" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104" t="s">
+      <c r="C6" s="176"/>
+      <c r="D6" s="177" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="195" t="s">
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="196"/>
-      <c r="N6" s="104" t="s">
+      <c r="M6" s="224"/>
+      <c r="N6" s="177" t="s">
         <v>150</v>
       </c>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="105"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="176"/>
+      <c r="X6" s="176"/>
+      <c r="Y6" s="178"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="227"/>
-      <c r="B7" s="102" t="s">
+      <c r="A7" s="252"/>
+      <c r="B7" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104" t="s">
+      <c r="C7" s="176"/>
+      <c r="D7" s="177" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="195" t="s">
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="178"/>
+      <c r="L7" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="196"/>
-      <c r="N7" s="104" t="s">
+      <c r="M7" s="224"/>
+      <c r="N7" s="177" t="s">
         <v>150</v>
       </c>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="105"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="176"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
+      <c r="V7" s="176"/>
+      <c r="W7" s="176"/>
+      <c r="X7" s="176"/>
+      <c r="Y7" s="178"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="227"/>
-      <c r="B8" s="102" t="s">
+      <c r="A8" s="252"/>
+      <c r="B8" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104" t="s">
+      <c r="C8" s="176"/>
+      <c r="D8" s="177" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="195" t="s">
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="196"/>
-      <c r="N8" s="104" t="s">
+      <c r="M8" s="224"/>
+      <c r="N8" s="177" t="s">
         <v>150</v>
       </c>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="105"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="176"/>
+      <c r="Y8" s="178"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="227"/>
-      <c r="B9" s="201" t="s">
+      <c r="A9" s="252"/>
+      <c r="B9" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="202"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="195" t="s">
+      <c r="C9" s="230"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="196"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="105"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="176"/>
+      <c r="Y9" s="178"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="227" t="s">
+      <c r="A10" s="252" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104" t="s">
+      <c r="C10" s="176"/>
+      <c r="D10" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="195" t="s">
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="176"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="196"/>
-      <c r="N10" s="104" t="s">
+      <c r="M10" s="224"/>
+      <c r="N10" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="105"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="176"/>
+      <c r="Y10" s="178"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="227"/>
-      <c r="B11" s="102" t="s">
+      <c r="A11" s="252"/>
+      <c r="B11" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="195" t="s">
+      <c r="C11" s="176"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="196"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="105"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="176"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="176"/>
+      <c r="Y11" s="178"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="227"/>
-      <c r="B12" s="102" t="s">
+      <c r="A12" s="252"/>
+      <c r="B12" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="195" t="s">
+      <c r="C12" s="176"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="196"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="103"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="105"/>
+      <c r="M12" s="224"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="176"/>
+      <c r="Y12" s="178"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="227"/>
-      <c r="B13" s="201" t="s">
+      <c r="A13" s="252"/>
+      <c r="B13" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="202"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="195" t="s">
+      <c r="C13" s="230"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="196"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="105"/>
+      <c r="M13" s="224"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="176"/>
+      <c r="Y13" s="178"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="186" t="s">
+      <c r="A14" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="224"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="187" t="s">
+      <c r="B14" s="249"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="249"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="214" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="187"/>
-      <c r="Q14" s="187"/>
-      <c r="R14" s="187"/>
-      <c r="S14" s="187"/>
-      <c r="T14" s="187"/>
-      <c r="U14" s="187"/>
-      <c r="V14" s="187"/>
-      <c r="W14" s="187"/>
-      <c r="X14" s="187"/>
-      <c r="Y14" s="188"/>
+      <c r="H14" s="214"/>
+      <c r="I14" s="214"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214"/>
+      <c r="N14" s="214"/>
+      <c r="O14" s="214"/>
+      <c r="P14" s="214"/>
+      <c r="Q14" s="214"/>
+      <c r="R14" s="214"/>
+      <c r="S14" s="214"/>
+      <c r="T14" s="214"/>
+      <c r="U14" s="214"/>
+      <c r="V14" s="214"/>
+      <c r="W14" s="214"/>
+      <c r="X14" s="214"/>
+      <c r="Y14" s="215"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="208"/>
-      <c r="B15" s="209"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="209"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="209"/>
-      <c r="L15" s="209"/>
-      <c r="M15" s="209"/>
-      <c r="N15" s="209"/>
-      <c r="O15" s="209"/>
-      <c r="P15" s="209"/>
-      <c r="Q15" s="209"/>
-      <c r="R15" s="209"/>
-      <c r="S15" s="209"/>
-      <c r="T15" s="209"/>
-      <c r="U15" s="209"/>
-      <c r="V15" s="209"/>
-      <c r="W15" s="209"/>
-      <c r="X15" s="209"/>
-      <c r="Y15" s="210"/>
+      <c r="A15" s="233"/>
+      <c r="B15" s="234"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="234"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="234"/>
+      <c r="H15" s="234"/>
+      <c r="I15" s="234"/>
+      <c r="J15" s="234"/>
+      <c r="K15" s="234"/>
+      <c r="L15" s="234"/>
+      <c r="M15" s="234"/>
+      <c r="N15" s="234"/>
+      <c r="O15" s="234"/>
+      <c r="P15" s="234"/>
+      <c r="Q15" s="234"/>
+      <c r="R15" s="234"/>
+      <c r="S15" s="234"/>
+      <c r="T15" s="234"/>
+      <c r="U15" s="234"/>
+      <c r="V15" s="234"/>
+      <c r="W15" s="234"/>
+      <c r="X15" s="234"/>
+      <c r="Y15" s="235"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="225" t="s">
+      <c r="A16" s="250" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -3798,90 +4229,90 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="222" t="s">
+      <c r="E16" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="222"/>
-      <c r="L16" s="222"/>
-      <c r="M16" s="222"/>
-      <c r="N16" s="222"/>
-      <c r="O16" s="222"/>
-      <c r="P16" s="222"/>
-      <c r="Q16" s="222"/>
-      <c r="R16" s="222"/>
-      <c r="S16" s="222"/>
-      <c r="T16" s="222"/>
-      <c r="U16" s="222"/>
-      <c r="V16" s="222"/>
-      <c r="W16" s="222"/>
-      <c r="X16" s="222"/>
-      <c r="Y16" s="223"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="247"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="247"/>
+      <c r="J16" s="247"/>
+      <c r="K16" s="247"/>
+      <c r="L16" s="247"/>
+      <c r="M16" s="247"/>
+      <c r="N16" s="247"/>
+      <c r="O16" s="247"/>
+      <c r="P16" s="247"/>
+      <c r="Q16" s="247"/>
+      <c r="R16" s="247"/>
+      <c r="S16" s="247"/>
+      <c r="T16" s="247"/>
+      <c r="U16" s="247"/>
+      <c r="V16" s="247"/>
+      <c r="W16" s="247"/>
+      <c r="X16" s="247"/>
+      <c r="Y16" s="248"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="155"/>
-      <c r="B17" s="232" t="s">
+      <c r="A17" s="191"/>
+      <c r="B17" s="257" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="233"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="258"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="237" t="s">
+      <c r="F17" s="222" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="237"/>
-      <c r="H17" s="237"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="222"/>
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="238"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
-      <c r="M17" s="239" t="s">
+      <c r="J17" s="262"/>
+      <c r="K17" s="262"/>
+      <c r="L17" s="262"/>
+      <c r="M17" s="263" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="240"/>
-      <c r="O17" s="240"/>
-      <c r="P17" s="112" t="s">
+      <c r="N17" s="264"/>
+      <c r="O17" s="264"/>
+      <c r="P17" s="265" t="s">
         <v>140</v>
       </c>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
+      <c r="Q17" s="265"/>
+      <c r="R17" s="265"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="211" t="s">
+      <c r="U17" s="236" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="212"/>
-      <c r="W17" s="212"/>
-      <c r="X17" s="212"/>
-      <c r="Y17" s="213"/>
+      <c r="V17" s="237"/>
+      <c r="W17" s="237"/>
+      <c r="X17" s="237"/>
+      <c r="Y17" s="238"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="155"/>
-      <c r="B18" s="234" t="s">
+      <c r="A18" s="191"/>
+      <c r="B18" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="235"/>
-      <c r="D18" s="236"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="261"/>
       <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="231" t="s">
+      <c r="G18" s="256" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="231"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="231"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="256"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -3890,85 +4321,85 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="231"/>
-      <c r="P18" s="231"/>
-      <c r="Q18" s="231"/>
-      <c r="R18" s="231"/>
+      <c r="O18" s="256"/>
+      <c r="P18" s="256"/>
+      <c r="Q18" s="256"/>
+      <c r="R18" s="256"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="162" t="s">
+      <c r="U18" s="196" t="s">
         <v>141</v>
       </c>
-      <c r="V18" s="163"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="163"/>
-      <c r="Y18" s="164"/>
+      <c r="V18" s="197"/>
+      <c r="W18" s="197"/>
+      <c r="X18" s="197"/>
+      <c r="Y18" s="198"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="155"/>
-      <c r="B19" s="176" t="s">
+      <c r="A19" s="191"/>
+      <c r="B19" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="187"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="187"/>
-      <c r="P19" s="187"/>
-      <c r="Q19" s="187"/>
-      <c r="R19" s="187"/>
-      <c r="S19" s="187"/>
-      <c r="T19" s="187"/>
-      <c r="U19" s="187"/>
-      <c r="V19" s="187"/>
-      <c r="W19" s="187"/>
-      <c r="X19" s="187"/>
-      <c r="Y19" s="188"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="214"/>
+      <c r="N19" s="214"/>
+      <c r="O19" s="214"/>
+      <c r="P19" s="214"/>
+      <c r="Q19" s="214"/>
+      <c r="R19" s="214"/>
+      <c r="S19" s="214"/>
+      <c r="T19" s="214"/>
+      <c r="U19" s="214"/>
+      <c r="V19" s="214"/>
+      <c r="W19" s="214"/>
+      <c r="X19" s="214"/>
+      <c r="Y19" s="215"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="155"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="226"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="220"/>
-      <c r="H20" s="220"/>
-      <c r="I20" s="220"/>
-      <c r="J20" s="220"/>
-      <c r="K20" s="220"/>
-      <c r="L20" s="220"/>
-      <c r="M20" s="220"/>
-      <c r="N20" s="220"/>
-      <c r="O20" s="220"/>
-      <c r="P20" s="220"/>
-      <c r="Q20" s="220"/>
-      <c r="R20" s="220"/>
-      <c r="S20" s="220"/>
-      <c r="T20" s="220"/>
-      <c r="U20" s="220"/>
-      <c r="V20" s="220"/>
-      <c r="W20" s="220"/>
-      <c r="X20" s="220"/>
-      <c r="Y20" s="221"/>
+      <c r="A20" s="191"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="251"/>
+      <c r="D20" s="245"/>
+      <c r="E20" s="245"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="245"/>
+      <c r="H20" s="245"/>
+      <c r="I20" s="245"/>
+      <c r="J20" s="245"/>
+      <c r="K20" s="245"/>
+      <c r="L20" s="245"/>
+      <c r="M20" s="245"/>
+      <c r="N20" s="245"/>
+      <c r="O20" s="245"/>
+      <c r="P20" s="245"/>
+      <c r="Q20" s="245"/>
+      <c r="R20" s="245"/>
+      <c r="S20" s="245"/>
+      <c r="T20" s="245"/>
+      <c r="U20" s="245"/>
+      <c r="V20" s="245"/>
+      <c r="W20" s="245"/>
+      <c r="X20" s="245"/>
+      <c r="Y20" s="246"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="165" t="s">
+      <c r="A21" s="191"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="165"/>
+      <c r="D21" s="199"/>
       <c r="E21" s="23" t="s">
         <v>165</v>
       </c>
@@ -3982,50 +4413,50 @@
         <v>167</v>
       </c>
       <c r="K21" s="25"/>
-      <c r="L21" s="217" t="s">
+      <c r="L21" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="179"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="180"/>
-      <c r="P21" s="180"/>
+      <c r="M21" s="211"/>
+      <c r="N21" s="212"/>
+      <c r="O21" s="212"/>
+      <c r="P21" s="212"/>
       <c r="Q21" s="8" t="s">
         <v>154</v>
       </c>
       <c r="R21" s="9"/>
-      <c r="S21" s="214" t="s">
+      <c r="S21" s="239" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="215"/>
-      <c r="U21" s="215"/>
-      <c r="V21" s="215"/>
-      <c r="W21" s="215"/>
-      <c r="X21" s="215"/>
-      <c r="Y21" s="216"/>
+      <c r="T21" s="240"/>
+      <c r="U21" s="240"/>
+      <c r="V21" s="240"/>
+      <c r="W21" s="240"/>
+      <c r="X21" s="240"/>
+      <c r="Y21" s="241"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="156"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="166" t="s">
+      <c r="A22" s="192"/>
+      <c r="B22" s="210"/>
+      <c r="C22" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="166"/>
-      <c r="E22" s="219" t="s">
+      <c r="D22" s="200"/>
+      <c r="E22" s="244" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="220"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="220"/>
-      <c r="K22" s="221"/>
-      <c r="L22" s="218"/>
-      <c r="M22" s="167" t="s">
+      <c r="F22" s="245"/>
+      <c r="G22" s="245"/>
+      <c r="H22" s="245"/>
+      <c r="I22" s="245"/>
+      <c r="J22" s="245"/>
+      <c r="K22" s="246"/>
+      <c r="L22" s="243"/>
+      <c r="M22" s="201" t="s">
         <v>169</v>
       </c>
-      <c r="N22" s="168"/>
-      <c r="O22" s="168"/>
-      <c r="P22" s="168"/>
+      <c r="N22" s="202"/>
+      <c r="O22" s="202"/>
+      <c r="P22" s="202"/>
       <c r="Q22" s="5" t="s">
         <v>155</v>
       </c>
@@ -4045,133 +4476,133 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="154" t="s">
+      <c r="A23" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="234" t="s">
+      <c r="B23" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="235"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="263" t="s">
+      <c r="C23" s="260"/>
+      <c r="D23" s="261"/>
+      <c r="E23" s="288" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="235"/>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="235"/>
-      <c r="K23" s="235"/>
-      <c r="L23" s="235"/>
-      <c r="M23" s="235"/>
-      <c r="N23" s="235"/>
-      <c r="O23" s="235"/>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="235"/>
-      <c r="R23" s="235"/>
-      <c r="S23" s="235"/>
-      <c r="T23" s="235"/>
-      <c r="U23" s="235"/>
-      <c r="V23" s="235"/>
-      <c r="W23" s="235"/>
-      <c r="X23" s="235"/>
-      <c r="Y23" s="264"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="260"/>
+      <c r="H23" s="260"/>
+      <c r="I23" s="260"/>
+      <c r="J23" s="260"/>
+      <c r="K23" s="260"/>
+      <c r="L23" s="260"/>
+      <c r="M23" s="260"/>
+      <c r="N23" s="260"/>
+      <c r="O23" s="260"/>
+      <c r="P23" s="260"/>
+      <c r="Q23" s="260"/>
+      <c r="R23" s="260"/>
+      <c r="S23" s="260"/>
+      <c r="T23" s="260"/>
+      <c r="U23" s="260"/>
+      <c r="V23" s="260"/>
+      <c r="W23" s="260"/>
+      <c r="X23" s="260"/>
+      <c r="Y23" s="289"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="155"/>
-      <c r="B24" s="234" t="s">
+      <c r="A24" s="191"/>
+      <c r="B24" s="259" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="235"/>
-      <c r="D24" s="236"/>
-      <c r="E24" s="209" t="s">
+      <c r="C24" s="260"/>
+      <c r="D24" s="261"/>
+      <c r="E24" s="234" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="209"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="209"/>
-      <c r="K24" s="209"/>
-      <c r="L24" s="209"/>
-      <c r="M24" s="209"/>
-      <c r="N24" s="209"/>
-      <c r="O24" s="241" t="s">
+      <c r="F24" s="234"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="234"/>
+      <c r="J24" s="234"/>
+      <c r="K24" s="234"/>
+      <c r="L24" s="234"/>
+      <c r="M24" s="234"/>
+      <c r="N24" s="234"/>
+      <c r="O24" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="243"/>
-      <c r="Q24" s="265"/>
-      <c r="R24" s="265"/>
-      <c r="S24" s="266" t="s">
+      <c r="P24" s="268"/>
+      <c r="Q24" s="290"/>
+      <c r="R24" s="290"/>
+      <c r="S24" s="291" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="267"/>
-      <c r="U24" s="261" t="s">
+      <c r="T24" s="292"/>
+      <c r="U24" s="286" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="261"/>
-      <c r="W24" s="261"/>
-      <c r="X24" s="261"/>
-      <c r="Y24" s="262"/>
+      <c r="V24" s="286"/>
+      <c r="W24" s="286"/>
+      <c r="X24" s="286"/>
+      <c r="Y24" s="287"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="155"/>
-      <c r="B25" s="234" t="s">
+      <c r="A25" s="191"/>
+      <c r="B25" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="235"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="187"/>
-      <c r="P25" s="187"/>
-      <c r="Q25" s="187"/>
-      <c r="R25" s="187"/>
-      <c r="S25" s="187"/>
-      <c r="T25" s="188"/>
-      <c r="U25" s="162" t="s">
+      <c r="C25" s="260"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="176"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="176"/>
+      <c r="N25" s="176"/>
+      <c r="O25" s="214"/>
+      <c r="P25" s="214"/>
+      <c r="Q25" s="214"/>
+      <c r="R25" s="214"/>
+      <c r="S25" s="214"/>
+      <c r="T25" s="215"/>
+      <c r="U25" s="196" t="s">
         <v>184</v>
       </c>
-      <c r="V25" s="163"/>
-      <c r="W25" s="163"/>
-      <c r="X25" s="163"/>
-      <c r="Y25" s="164"/>
+      <c r="V25" s="197"/>
+      <c r="W25" s="197"/>
+      <c r="X25" s="197"/>
+      <c r="Y25" s="198"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="155"/>
-      <c r="B26" s="234" t="s">
+      <c r="A26" s="191"/>
+      <c r="B26" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="235"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="104" t="s">
+      <c r="C26" s="260"/>
+      <c r="D26" s="261"/>
+      <c r="E26" s="177" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="176"/>
       <c r="O26" s="21"/>
       <c r="P26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="237" t="s">
+      <c r="Q26" s="222" t="s">
         <v>145</v>
       </c>
-      <c r="R26" s="237"/>
+      <c r="R26" s="222"/>
       <c r="S26" s="31" t="s">
         <v>13</v>
       </c>
@@ -4179,80 +4610,80 @@
       <c r="U26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="237"/>
-      <c r="W26" s="237"/>
+      <c r="V26" s="222"/>
+      <c r="W26" s="222"/>
       <c r="X26" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="155"/>
-      <c r="B27" s="234" t="s">
+      <c r="A27" s="191"/>
+      <c r="B27" s="259" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="235"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="104" t="s">
+      <c r="C27" s="260"/>
+      <c r="D27" s="261"/>
+      <c r="E27" s="177" t="s">
         <v>147</v>
       </c>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="195" t="s">
+      <c r="F27" s="176"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="176"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="237"/>
-      <c r="N27" s="247"/>
-      <c r="O27" s="251"/>
-      <c r="P27" s="237"/>
-      <c r="Q27" s="252"/>
+      <c r="M27" s="222"/>
+      <c r="N27" s="272"/>
+      <c r="O27" s="276"/>
+      <c r="P27" s="222"/>
+      <c r="Q27" s="277"/>
       <c r="R27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="214" t="s">
+      <c r="S27" s="239" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="215"/>
-      <c r="U27" s="215"/>
-      <c r="V27" s="215"/>
-      <c r="W27" s="215"/>
-      <c r="X27" s="215"/>
-      <c r="Y27" s="216"/>
+      <c r="T27" s="240"/>
+      <c r="U27" s="240"/>
+      <c r="V27" s="240"/>
+      <c r="W27" s="240"/>
+      <c r="X27" s="240"/>
+      <c r="Y27" s="241"/>
       <c r="Z27" s="33"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="155"/>
-      <c r="B28" s="102" t="s">
+      <c r="A28" s="191"/>
+      <c r="B28" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="248"/>
-      <c r="D28" s="248"/>
-      <c r="E28" s="249" t="s">
+      <c r="C28" s="273"/>
+      <c r="D28" s="273"/>
+      <c r="E28" s="274" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="250"/>
-      <c r="G28" s="250"/>
-      <c r="H28" s="250"/>
-      <c r="I28" s="250"/>
-      <c r="J28" s="250"/>
-      <c r="K28" s="250"/>
-      <c r="L28" s="250"/>
-      <c r="M28" s="250"/>
-      <c r="N28" s="250"/>
-      <c r="O28" s="250"/>
-      <c r="P28" s="250"/>
-      <c r="Q28" s="250"/>
+      <c r="F28" s="275"/>
+      <c r="G28" s="275"/>
+      <c r="H28" s="275"/>
+      <c r="I28" s="275"/>
+      <c r="J28" s="275"/>
+      <c r="K28" s="275"/>
+      <c r="L28" s="275"/>
+      <c r="M28" s="275"/>
+      <c r="N28" s="275"/>
+      <c r="O28" s="275"/>
+      <c r="P28" s="275"/>
+      <c r="Q28" s="275"/>
       <c r="R28" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="253" t="s">
+      <c r="S28" s="278" t="s">
         <v>158</v>
       </c>
-      <c r="T28" s="254"/>
+      <c r="T28" s="279"/>
       <c r="U28" s="28" t="s">
         <v>28</v>
       </c>
@@ -4271,125 +4702,125 @@
       <c r="Z28" s="33"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="155"/>
-      <c r="B29" s="176" t="s">
+      <c r="A29" s="191"/>
+      <c r="B29" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="186"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="187"/>
-      <c r="M29" s="187"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="187"/>
-      <c r="P29" s="187"/>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="187"/>
-      <c r="T29" s="187"/>
-      <c r="U29" s="187"/>
-      <c r="V29" s="187"/>
-      <c r="W29" s="187"/>
-      <c r="X29" s="187"/>
-      <c r="Y29" s="188"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="214"/>
+      <c r="J29" s="214"/>
+      <c r="K29" s="214"/>
+      <c r="L29" s="214"/>
+      <c r="M29" s="214"/>
+      <c r="N29" s="214"/>
+      <c r="O29" s="214"/>
+      <c r="P29" s="214"/>
+      <c r="Q29" s="214"/>
+      <c r="R29" s="214"/>
+      <c r="S29" s="214"/>
+      <c r="T29" s="214"/>
+      <c r="U29" s="214"/>
+      <c r="V29" s="214"/>
+      <c r="W29" s="214"/>
+      <c r="X29" s="214"/>
+      <c r="Y29" s="215"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="155"/>
-      <c r="B30" s="177"/>
-      <c r="C30" s="226"/>
-      <c r="D30" s="220"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="220"/>
-      <c r="J30" s="220"/>
-      <c r="K30" s="220"/>
-      <c r="L30" s="220"/>
-      <c r="M30" s="220"/>
-      <c r="N30" s="220"/>
-      <c r="O30" s="220"/>
-      <c r="P30" s="220"/>
-      <c r="Q30" s="220"/>
-      <c r="R30" s="220"/>
-      <c r="S30" s="220"/>
-      <c r="T30" s="220"/>
-      <c r="U30" s="220"/>
-      <c r="V30" s="220"/>
-      <c r="W30" s="220"/>
-      <c r="X30" s="220"/>
-      <c r="Y30" s="221"/>
+      <c r="A30" s="191"/>
+      <c r="B30" s="209"/>
+      <c r="C30" s="251"/>
+      <c r="D30" s="245"/>
+      <c r="E30" s="245"/>
+      <c r="F30" s="245"/>
+      <c r="G30" s="245"/>
+      <c r="H30" s="245"/>
+      <c r="I30" s="245"/>
+      <c r="J30" s="245"/>
+      <c r="K30" s="245"/>
+      <c r="L30" s="245"/>
+      <c r="M30" s="245"/>
+      <c r="N30" s="245"/>
+      <c r="O30" s="245"/>
+      <c r="P30" s="245"/>
+      <c r="Q30" s="245"/>
+      <c r="R30" s="245"/>
+      <c r="S30" s="245"/>
+      <c r="T30" s="245"/>
+      <c r="U30" s="245"/>
+      <c r="V30" s="245"/>
+      <c r="W30" s="245"/>
+      <c r="X30" s="245"/>
+      <c r="Y30" s="246"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="155"/>
-      <c r="B31" s="177"/>
-      <c r="C31" s="165" t="s">
+      <c r="A31" s="191"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="165"/>
-      <c r="E31" s="255" t="s">
+      <c r="D31" s="199"/>
+      <c r="E31" s="280" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="256"/>
-      <c r="G31" s="257" t="s">
+      <c r="F31" s="281"/>
+      <c r="G31" s="282" t="s">
         <v>171</v>
       </c>
-      <c r="H31" s="187"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="187"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="217" t="s">
+      <c r="H31" s="214"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="214"/>
+      <c r="K31" s="214"/>
+      <c r="L31" s="242" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="179"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="180"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="125"/>
-      <c r="S31" s="214" t="s">
+      <c r="M31" s="211"/>
+      <c r="N31" s="212"/>
+      <c r="O31" s="212"/>
+      <c r="P31" s="212"/>
+      <c r="Q31" s="138"/>
+      <c r="R31" s="140"/>
+      <c r="S31" s="239" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="215"/>
-      <c r="U31" s="215"/>
-      <c r="V31" s="215"/>
-      <c r="W31" s="215"/>
-      <c r="X31" s="215"/>
-      <c r="Y31" s="216"/>
+      <c r="T31" s="240"/>
+      <c r="U31" s="240"/>
+      <c r="V31" s="240"/>
+      <c r="W31" s="240"/>
+      <c r="X31" s="240"/>
+      <c r="Y31" s="241"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="156"/>
-      <c r="B32" s="178"/>
-      <c r="C32" s="166" t="s">
+      <c r="A32" s="192"/>
+      <c r="B32" s="210"/>
+      <c r="C32" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="166"/>
-      <c r="E32" s="258" t="s">
+      <c r="D32" s="200"/>
+      <c r="E32" s="283" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="259"/>
-      <c r="G32" s="259"/>
-      <c r="H32" s="259"/>
-      <c r="I32" s="259"/>
-      <c r="J32" s="259"/>
-      <c r="K32" s="260"/>
-      <c r="L32" s="218"/>
-      <c r="M32" s="167" t="s">
+      <c r="F32" s="284"/>
+      <c r="G32" s="284"/>
+      <c r="H32" s="284"/>
+      <c r="I32" s="284"/>
+      <c r="J32" s="284"/>
+      <c r="K32" s="285"/>
+      <c r="L32" s="243"/>
+      <c r="M32" s="201" t="s">
         <v>175</v>
       </c>
-      <c r="N32" s="168"/>
-      <c r="O32" s="168"/>
-      <c r="P32" s="168"/>
-      <c r="Q32" s="203" t="s">
+      <c r="N32" s="202"/>
+      <c r="O32" s="202"/>
+      <c r="P32" s="202"/>
+      <c r="Q32" s="231" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="199"/>
+      <c r="R32" s="227"/>
       <c r="S32" s="26" t="s">
         <v>177</v>
       </c>
@@ -4413,878 +4844,935 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="169" t="s">
+      <c r="A33" s="203" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="171" t="s">
+      <c r="D33" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="173"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="207"/>
       <c r="J33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="181" t="s">
+      <c r="K33" s="108" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="35"/>
-      <c r="N33" s="109" t="s">
+      <c r="N33" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="110"/>
-      <c r="T33" s="110"/>
-      <c r="U33" s="113" t="s">
+      <c r="O33" s="183"/>
+      <c r="P33" s="183"/>
+      <c r="Q33" s="183"/>
+      <c r="R33" s="183"/>
+      <c r="S33" s="183"/>
+      <c r="T33" s="183"/>
+      <c r="U33" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="V33" s="114"/>
-      <c r="W33" s="114"/>
-      <c r="X33" s="114"/>
+      <c r="V33" s="185"/>
+      <c r="W33" s="185"/>
+      <c r="X33" s="185"/>
       <c r="Y33" s="38" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="33"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="170"/>
+      <c r="A34" s="204"/>
       <c r="B34" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="40"/>
-      <c r="D34" s="115" t="s">
+      <c r="D34" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="187"/>
       <c r="J34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="182"/>
+      <c r="K34" s="109"/>
       <c r="L34" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="40"/>
-      <c r="N34" s="142" t="s">
+      <c r="N34" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="O34" s="143"/>
-      <c r="P34" s="143"/>
-      <c r="Q34" s="143"/>
-      <c r="R34" s="143"/>
-      <c r="S34" s="143"/>
-      <c r="T34" s="143"/>
-      <c r="U34" s="119" t="s">
+      <c r="O34" s="154"/>
+      <c r="P34" s="154"/>
+      <c r="Q34" s="154"/>
+      <c r="R34" s="154"/>
+      <c r="S34" s="154"/>
+      <c r="T34" s="154"/>
+      <c r="U34" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
+      <c r="V34" s="135"/>
+      <c r="W34" s="135"/>
+      <c r="X34" s="135"/>
       <c r="Y34" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="170"/>
+      <c r="A35" s="204"/>
       <c r="B35" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="40"/>
-      <c r="D35" s="115" t="s">
+      <c r="D35" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="187"/>
       <c r="J35" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="182"/>
+      <c r="K35" s="109"/>
       <c r="L35" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="40"/>
-      <c r="N35" s="142" t="s">
+      <c r="N35" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="O35" s="143"/>
-      <c r="P35" s="143"/>
-      <c r="Q35" s="143"/>
-      <c r="R35" s="143"/>
-      <c r="S35" s="143"/>
-      <c r="T35" s="143"/>
-      <c r="U35" s="119" t="s">
+      <c r="O35" s="154"/>
+      <c r="P35" s="154"/>
+      <c r="Q35" s="154"/>
+      <c r="R35" s="154"/>
+      <c r="S35" s="154"/>
+      <c r="T35" s="154"/>
+      <c r="U35" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="V35" s="120"/>
-      <c r="W35" s="120"/>
-      <c r="X35" s="120"/>
+      <c r="V35" s="135"/>
+      <c r="W35" s="135"/>
+      <c r="X35" s="135"/>
       <c r="Y35" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="170"/>
+      <c r="A36" s="204"/>
       <c r="B36" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="44"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
       <c r="J36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="183"/>
+      <c r="K36" s="109"/>
       <c r="L36" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M36" s="44"/>
-      <c r="N36" s="142" t="s">
+      <c r="N36" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="O36" s="143"/>
-      <c r="P36" s="143"/>
-      <c r="Q36" s="143"/>
-      <c r="R36" s="143"/>
-      <c r="S36" s="143"/>
-      <c r="T36" s="143"/>
-      <c r="U36" s="119" t="s">
+      <c r="O36" s="154"/>
+      <c r="P36" s="154"/>
+      <c r="Q36" s="154"/>
+      <c r="R36" s="154"/>
+      <c r="S36" s="154"/>
+      <c r="T36" s="154"/>
+      <c r="U36" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="V36" s="120"/>
-      <c r="W36" s="120"/>
-      <c r="X36" s="120"/>
+      <c r="V36" s="135"/>
+      <c r="W36" s="135"/>
+      <c r="X36" s="135"/>
       <c r="Y36" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="170"/>
+      <c r="A37" s="204"/>
       <c r="B37" s="45" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="44"/>
-      <c r="D37" s="115" t="s">
+      <c r="D37" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="187"/>
       <c r="J37" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="183"/>
+      <c r="K37" s="109"/>
       <c r="L37" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M37" s="44"/>
-      <c r="N37" s="142" t="s">
+      <c r="N37" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="O37" s="143"/>
-      <c r="P37" s="143"/>
-      <c r="Q37" s="143"/>
-      <c r="R37" s="143"/>
-      <c r="S37" s="143"/>
-      <c r="T37" s="143"/>
-      <c r="U37" s="119" t="s">
+      <c r="O37" s="154"/>
+      <c r="P37" s="154"/>
+      <c r="Q37" s="154"/>
+      <c r="R37" s="154"/>
+      <c r="S37" s="154"/>
+      <c r="T37" s="154"/>
+      <c r="U37" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="V37" s="120"/>
-      <c r="W37" s="120"/>
-      <c r="X37" s="120"/>
+      <c r="V37" s="135"/>
+      <c r="W37" s="135"/>
+      <c r="X37" s="135"/>
       <c r="Y37" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="170"/>
-      <c r="B38" s="189" t="s">
+      <c r="A38" s="204"/>
+      <c r="B38" s="216" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="190"/>
-      <c r="D38" s="144" t="s">
+      <c r="C38" s="217"/>
+      <c r="D38" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="149" t="s">
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="183"/>
+      <c r="K38" s="109"/>
       <c r="L38" s="42" t="s">
         <v>82</v>
       </c>
       <c r="M38" s="40"/>
-      <c r="N38" s="142" t="s">
+      <c r="N38" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="O38" s="143"/>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="143"/>
-      <c r="R38" s="143"/>
-      <c r="S38" s="143"/>
-      <c r="T38" s="143"/>
-      <c r="U38" s="119" t="s">
+      <c r="O38" s="154"/>
+      <c r="P38" s="154"/>
+      <c r="Q38" s="154"/>
+      <c r="R38" s="154"/>
+      <c r="S38" s="154"/>
+      <c r="T38" s="154"/>
+      <c r="U38" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="V38" s="120"/>
-      <c r="W38" s="120"/>
-      <c r="X38" s="120"/>
+      <c r="V38" s="135"/>
+      <c r="W38" s="135"/>
+      <c r="X38" s="135"/>
       <c r="Y38" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="170"/>
-      <c r="B39" s="191"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="184"/>
-      <c r="L39" s="46" t="s">
+      <c r="A39" s="204"/>
+      <c r="B39" s="218"/>
+      <c r="C39" s="219"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="158"/>
+      <c r="I39" s="158"/>
+      <c r="J39" s="162"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="M39" s="47"/>
-      <c r="N39" s="117" t="s">
+      <c r="M39" s="77"/>
+      <c r="N39" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="O39" s="118"/>
-      <c r="P39" s="118"/>
-      <c r="Q39" s="118"/>
-      <c r="R39" s="118"/>
-      <c r="S39" s="118"/>
-      <c r="T39" s="118"/>
-      <c r="U39" s="152" t="s">
+      <c r="O39" s="133"/>
+      <c r="P39" s="133"/>
+      <c r="Q39" s="133"/>
+      <c r="R39" s="133"/>
+      <c r="S39" s="133"/>
+      <c r="T39" s="133"/>
+      <c r="U39" s="188" t="s">
         <v>107</v>
       </c>
-      <c r="V39" s="153"/>
-      <c r="W39" s="153"/>
-      <c r="X39" s="153"/>
-      <c r="Y39" s="29" t="s">
+      <c r="V39" s="189"/>
+      <c r="W39" s="189"/>
+      <c r="X39" s="189"/>
+      <c r="Y39" s="78" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="156"/>
-      <c r="B40" s="193"/>
-      <c r="C40" s="194"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="174" t="s">
-        <v>54</v>
-      </c>
-      <c r="L40" s="103"/>
-      <c r="M40" s="175"/>
-      <c r="N40" s="111" t="s">
+      <c r="A40" s="204"/>
+      <c r="B40" s="218"/>
+      <c r="C40" s="219"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="158"/>
+      <c r="I40" s="158"/>
+      <c r="J40" s="162"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="119" t="s">
+        <v>195</v>
+      </c>
+      <c r="M40" s="120"/>
+      <c r="N40" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="O40" s="116"/>
+      <c r="P40" s="116"/>
+      <c r="Q40" s="116"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="79"/>
+      <c r="U40" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="R40" s="185" t="s">
-        <v>73</v>
-      </c>
-      <c r="S40" s="103"/>
-      <c r="T40" s="103"/>
-      <c r="U40" s="103"/>
-      <c r="V40" s="111" t="s">
+      <c r="V40" s="114"/>
+      <c r="W40" s="114"/>
+      <c r="X40" s="114"/>
+      <c r="Y40" s="80" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="192"/>
+      <c r="B41" s="220"/>
+      <c r="C41" s="221"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="163"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="122"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="118"/>
+      <c r="P41" s="118"/>
+      <c r="Q41" s="118"/>
+      <c r="R41" s="111" t="s">
+        <v>197</v>
+      </c>
+      <c r="S41" s="112"/>
+      <c r="T41" s="112"/>
+      <c r="U41" s="112"/>
+      <c r="V41" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="W40" s="112"/>
-      <c r="X40" s="112"/>
-      <c r="Y40" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="154" t="s">
+      <c r="W41" s="113"/>
+      <c r="X41" s="113"/>
+      <c r="Y41" s="81" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B42" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="51" t="s">
+      <c r="C42" s="48"/>
+      <c r="D42" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="126" t="s">
+      <c r="E42" s="50"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="K41" s="126"/>
-      <c r="L41" s="53" t="s">
+      <c r="K42" s="145"/>
+      <c r="L42" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="M41" s="54"/>
-      <c r="N41" s="55" t="s">
+      <c r="M42" s="52"/>
+      <c r="N42" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="O41" s="56"/>
-      <c r="P41" s="55" t="s">
+      <c r="O42" s="339"/>
+      <c r="P42" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="55" t="s">
+      <c r="Q42" s="339"/>
+      <c r="R42" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="134"/>
-      <c r="T41" s="135"/>
-      <c r="U41" s="135"/>
-      <c r="V41" s="135"/>
-      <c r="W41" s="135"/>
-      <c r="X41" s="135"/>
-      <c r="Y41" s="136"/>
-    </row>
-    <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="204"/>
-      <c r="B42" s="57" t="s">
+      <c r="S42" s="147"/>
+      <c r="T42" s="148"/>
+      <c r="U42" s="148"/>
+      <c r="V42" s="148"/>
+      <c r="W42" s="148"/>
+      <c r="X42" s="148"/>
+      <c r="Y42" s="149"/>
+    </row>
+    <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="232"/>
+      <c r="B43" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59" t="s">
+      <c r="C43" s="55"/>
+      <c r="D43" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="133" t="s">
+      <c r="E43" s="85"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="144"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="146" t="s">
         <v>157</v>
       </c>
-      <c r="K42" s="133"/>
-      <c r="L42" s="61" t="s">
+      <c r="K43" s="146"/>
+      <c r="L43" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="M42" s="62"/>
-      <c r="N42" s="63" t="s">
+      <c r="M43" s="87"/>
+      <c r="N43" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="O42" s="64"/>
-      <c r="P42" s="63" t="s">
+      <c r="O43" s="340"/>
+      <c r="P43" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="63" t="s">
+      <c r="Q43" s="340"/>
+      <c r="R43" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="S42" s="137"/>
-      <c r="T42" s="138"/>
-      <c r="U42" s="138"/>
-      <c r="V42" s="138"/>
-      <c r="W42" s="138"/>
-      <c r="X42" s="138"/>
-      <c r="Y42" s="139"/>
-    </row>
-    <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="204"/>
-      <c r="B43" s="49" t="s">
+      <c r="S43" s="150"/>
+      <c r="T43" s="151"/>
+      <c r="U43" s="151"/>
+      <c r="V43" s="151"/>
+      <c r="W43" s="151"/>
+      <c r="X43" s="151"/>
+      <c r="Y43" s="152"/>
+    </row>
+    <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="232"/>
+      <c r="B44" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="126" t="s">
+      <c r="C44" s="48"/>
+      <c r="D44" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="97"/>
+      <c r="F44" s="335" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="336"/>
+      <c r="H44" s="336"/>
+      <c r="I44" s="336"/>
+      <c r="J44" s="100" t="s">
+        <v>201</v>
+      </c>
+      <c r="K44" s="100"/>
+      <c r="L44" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="M44" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="N44" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="O44" s="341" t="s">
+        <v>208</v>
+      </c>
+      <c r="P44" s="91" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q44" s="341" t="s">
+        <v>210</v>
+      </c>
+      <c r="R44" s="91" t="s">
+        <v>205</v>
+      </c>
+      <c r="S44" s="102"/>
+      <c r="T44" s="103"/>
+      <c r="U44" s="103"/>
+      <c r="V44" s="103"/>
+      <c r="W44" s="103"/>
+      <c r="X44" s="103"/>
+      <c r="Y44" s="104"/>
+    </row>
+    <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="232"/>
+      <c r="B45" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="99"/>
+      <c r="F45" s="337" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="338"/>
+      <c r="H45" s="338"/>
+      <c r="I45" s="338"/>
+      <c r="J45" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="K45" s="101"/>
+      <c r="L45" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="M45" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="N45" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="O45" s="342" t="s">
+        <v>209</v>
+      </c>
+      <c r="P45" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q45" s="342" t="s">
+        <v>211</v>
+      </c>
+      <c r="R45" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="S45" s="105"/>
+      <c r="T45" s="106"/>
+      <c r="U45" s="106"/>
+      <c r="V45" s="106"/>
+      <c r="W45" s="106"/>
+      <c r="X45" s="106"/>
+      <c r="Y45" s="107"/>
+    </row>
+    <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="175" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="176"/>
+      <c r="D46" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="141" t="s">
-        <v>110</v>
-      </c>
-      <c r="N43" s="114"/>
-      <c r="O43" s="114"/>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="R43" s="126"/>
-      <c r="S43" s="134"/>
-      <c r="T43" s="135"/>
-      <c r="U43" s="135"/>
-      <c r="V43" s="135"/>
-      <c r="W43" s="135"/>
-      <c r="X43" s="135"/>
-      <c r="Y43" s="136"/>
-    </row>
-    <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="204"/>
-      <c r="B44" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="133" t="s">
+      <c r="E46" s="176"/>
+      <c r="F46" s="176"/>
+      <c r="G46" s="176"/>
+      <c r="H46" s="176"/>
+      <c r="I46" s="176"/>
+      <c r="J46" s="176"/>
+      <c r="K46" s="178"/>
+      <c r="L46" s="223" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" s="224"/>
+      <c r="N46" s="177" t="s">
+        <v>113</v>
+      </c>
+      <c r="O46" s="176"/>
+      <c r="P46" s="176"/>
+      <c r="Q46" s="176"/>
+      <c r="R46" s="176"/>
+      <c r="S46" s="176"/>
+      <c r="T46" s="176"/>
+      <c r="U46" s="176"/>
+      <c r="V46" s="176"/>
+      <c r="W46" s="176"/>
+      <c r="X46" s="176"/>
+      <c r="Y46" s="178"/>
+    </row>
+    <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="94"/>
+      <c r="B47" s="175" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="176"/>
+      <c r="D47" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="160"/>
-      <c r="K44" s="160"/>
-      <c r="L44" s="161"/>
-      <c r="M44" s="140" t="s">
-        <v>112</v>
-      </c>
-      <c r="N44" s="120"/>
-      <c r="O44" s="120"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="133" t="s">
-        <v>157</v>
-      </c>
-      <c r="R44" s="133"/>
-      <c r="S44" s="137"/>
-      <c r="T44" s="138"/>
-      <c r="U44" s="138"/>
-      <c r="V44" s="138"/>
-      <c r="W44" s="138"/>
-      <c r="X44" s="138"/>
-      <c r="Y44" s="139"/>
-    </row>
-    <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="205" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="102" t="s">
+      <c r="E47" s="176"/>
+      <c r="F47" s="176"/>
+      <c r="G47" s="176"/>
+      <c r="H47" s="176"/>
+      <c r="I47" s="176"/>
+      <c r="J47" s="176"/>
+      <c r="K47" s="178"/>
+      <c r="L47" s="223" t="s">
+        <v>44</v>
+      </c>
+      <c r="M47" s="224"/>
+      <c r="N47" s="177" t="s">
+        <v>114</v>
+      </c>
+      <c r="O47" s="176"/>
+      <c r="P47" s="176"/>
+      <c r="Q47" s="176"/>
+      <c r="R47" s="176"/>
+      <c r="S47" s="176"/>
+      <c r="T47" s="176"/>
+      <c r="U47" s="176"/>
+      <c r="V47" s="176"/>
+      <c r="W47" s="176"/>
+      <c r="X47" s="176"/>
+      <c r="Y47" s="178"/>
+    </row>
+    <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="95"/>
+      <c r="B48" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="103"/>
-      <c r="D45" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="195" t="s">
+      <c r="C48" s="176"/>
+      <c r="D48" s="177"/>
+      <c r="E48" s="176"/>
+      <c r="F48" s="176"/>
+      <c r="G48" s="176"/>
+      <c r="H48" s="176"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="176"/>
+      <c r="K48" s="178"/>
+      <c r="L48" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="196"/>
-      <c r="N45" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="O45" s="103"/>
-      <c r="P45" s="103"/>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="103"/>
-      <c r="S45" s="103"/>
-      <c r="T45" s="103"/>
-      <c r="U45" s="103"/>
-      <c r="V45" s="103"/>
-      <c r="W45" s="103"/>
-      <c r="X45" s="103"/>
-      <c r="Y45" s="105"/>
-    </row>
-    <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="206"/>
-      <c r="B46" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="103"/>
-      <c r="D46" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="195" t="s">
-        <v>44</v>
-      </c>
-      <c r="M46" s="196"/>
-      <c r="N46" s="104" t="s">
-        <v>114</v>
-      </c>
-      <c r="O46" s="103"/>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="103"/>
-      <c r="S46" s="103"/>
-      <c r="T46" s="103"/>
-      <c r="U46" s="103"/>
-      <c r="V46" s="103"/>
-      <c r="W46" s="103"/>
-      <c r="X46" s="103"/>
-      <c r="Y46" s="105"/>
-    </row>
-    <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="207"/>
-      <c r="B47" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="103"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="195" t="s">
-        <v>44</v>
-      </c>
-      <c r="M47" s="196"/>
-      <c r="N47" s="104"/>
-      <c r="O47" s="103"/>
-      <c r="P47" s="103"/>
-      <c r="Q47" s="103"/>
-      <c r="R47" s="103"/>
-      <c r="S47" s="103"/>
-      <c r="T47" s="103"/>
-      <c r="U47" s="103"/>
-      <c r="V47" s="103"/>
-      <c r="W47" s="103"/>
-      <c r="X47" s="103"/>
-      <c r="Y47" s="105"/>
-    </row>
-    <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="121" t="s">
+      <c r="M48" s="224"/>
+      <c r="N48" s="177"/>
+      <c r="O48" s="176"/>
+      <c r="P48" s="176"/>
+      <c r="Q48" s="176"/>
+      <c r="R48" s="176"/>
+      <c r="S48" s="176"/>
+      <c r="T48" s="176"/>
+      <c r="U48" s="176"/>
+      <c r="V48" s="176"/>
+      <c r="W48" s="176"/>
+      <c r="X48" s="176"/>
+      <c r="Y48" s="178"/>
+    </row>
+    <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="122"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="124"/>
-      <c r="O48" s="124"/>
-      <c r="P48" s="124"/>
-      <c r="Q48" s="124"/>
-      <c r="R48" s="124"/>
-      <c r="S48" s="124"/>
-      <c r="T48" s="124"/>
-      <c r="U48" s="124"/>
-      <c r="V48" s="124"/>
-      <c r="W48" s="124"/>
-      <c r="X48" s="124"/>
-      <c r="Y48" s="125"/>
-    </row>
-    <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="157" t="s">
+      <c r="B49" s="137"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="139"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="139"/>
+      <c r="J49" s="139"/>
+      <c r="K49" s="139"/>
+      <c r="L49" s="139"/>
+      <c r="M49" s="139"/>
+      <c r="N49" s="139"/>
+      <c r="O49" s="139"/>
+      <c r="P49" s="139"/>
+      <c r="Q49" s="139"/>
+      <c r="R49" s="139"/>
+      <c r="S49" s="139"/>
+      <c r="T49" s="139"/>
+      <c r="U49" s="139"/>
+      <c r="V49" s="139"/>
+      <c r="W49" s="139"/>
+      <c r="X49" s="139"/>
+      <c r="Y49" s="140"/>
+    </row>
+    <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="193" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="158"/>
-      <c r="C49" s="158"/>
-      <c r="D49" s="158"/>
-      <c r="E49" s="158"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="158"/>
-      <c r="I49" s="158"/>
-      <c r="J49" s="158"/>
-      <c r="K49" s="158"/>
-      <c r="L49" s="158"/>
-      <c r="M49" s="158"/>
-      <c r="N49" s="158"/>
-      <c r="O49" s="158"/>
-      <c r="P49" s="158"/>
-      <c r="Q49" s="158"/>
-      <c r="R49" s="158"/>
-      <c r="S49" s="158"/>
-      <c r="T49" s="158"/>
-      <c r="U49" s="158"/>
-      <c r="V49" s="158"/>
-      <c r="W49" s="158"/>
-      <c r="X49" s="158"/>
-      <c r="Y49" s="159"/>
-    </row>
-    <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="197"/>
-      <c r="B50" s="198"/>
-      <c r="C50" s="198"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="198"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="198"/>
-      <c r="H50" s="198"/>
-      <c r="I50" s="198"/>
-      <c r="J50" s="198"/>
-      <c r="K50" s="198"/>
-      <c r="L50" s="198"/>
-      <c r="M50" s="198"/>
-      <c r="N50" s="198"/>
-      <c r="O50" s="198"/>
-      <c r="P50" s="198"/>
-      <c r="Q50" s="198"/>
-      <c r="R50" s="198"/>
-      <c r="S50" s="198"/>
-      <c r="T50" s="198"/>
-      <c r="U50" s="198"/>
-      <c r="V50" s="198"/>
-      <c r="W50" s="198"/>
-      <c r="X50" s="198"/>
-      <c r="Y50" s="199"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="81" t="s">
+      <c r="B50" s="194"/>
+      <c r="C50" s="194"/>
+      <c r="D50" s="194"/>
+      <c r="E50" s="194"/>
+      <c r="F50" s="194"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="194"/>
+      <c r="I50" s="194"/>
+      <c r="J50" s="194"/>
+      <c r="K50" s="194"/>
+      <c r="L50" s="194"/>
+      <c r="M50" s="194"/>
+      <c r="N50" s="194"/>
+      <c r="O50" s="194"/>
+      <c r="P50" s="194"/>
+      <c r="Q50" s="194"/>
+      <c r="R50" s="194"/>
+      <c r="S50" s="194"/>
+      <c r="T50" s="194"/>
+      <c r="U50" s="194"/>
+      <c r="V50" s="194"/>
+      <c r="W50" s="194"/>
+      <c r="X50" s="194"/>
+      <c r="Y50" s="195"/>
+    </row>
+    <row r="51" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="225"/>
+      <c r="B51" s="226"/>
+      <c r="C51" s="226"/>
+      <c r="D51" s="226"/>
+      <c r="E51" s="226"/>
+      <c r="F51" s="226"/>
+      <c r="G51" s="226"/>
+      <c r="H51" s="226"/>
+      <c r="I51" s="226"/>
+      <c r="J51" s="226"/>
+      <c r="K51" s="226"/>
+      <c r="L51" s="226"/>
+      <c r="M51" s="226"/>
+      <c r="N51" s="226"/>
+      <c r="O51" s="226"/>
+      <c r="P51" s="226"/>
+      <c r="Q51" s="226"/>
+      <c r="R51" s="226"/>
+      <c r="S51" s="226"/>
+      <c r="T51" s="226"/>
+      <c r="U51" s="226"/>
+      <c r="V51" s="226"/>
+      <c r="W51" s="226"/>
+      <c r="X51" s="226"/>
+      <c r="Y51" s="227"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
-      <c r="V51" s="82"/>
-      <c r="W51" s="82"/>
-      <c r="X51" s="82"/>
-      <c r="Y51" s="83"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="84" t="s">
+      <c r="B52" s="124"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="124"/>
+      <c r="L52" s="124"/>
+      <c r="M52" s="124"/>
+      <c r="N52" s="124"/>
+      <c r="O52" s="124"/>
+      <c r="P52" s="124"/>
+      <c r="Q52" s="124"/>
+      <c r="R52" s="124"/>
+      <c r="S52" s="124"/>
+      <c r="T52" s="124"/>
+      <c r="U52" s="124"/>
+      <c r="V52" s="124"/>
+      <c r="W52" s="124"/>
+      <c r="X52" s="124"/>
+      <c r="Y52" s="125"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="126" t="s">
         <v>194</v>
       </c>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
-      <c r="Q52" s="85"/>
-      <c r="R52" s="85"/>
-      <c r="S52" s="85"/>
-      <c r="T52" s="85"/>
-      <c r="U52" s="85"/>
-      <c r="V52" s="85"/>
-      <c r="W52" s="85"/>
-      <c r="X52" s="85"/>
-      <c r="Y52" s="86"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="87" t="s">
+      <c r="B53" s="127"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="127"/>
+      <c r="L53" s="127"/>
+      <c r="M53" s="127"/>
+      <c r="N53" s="127"/>
+      <c r="O53" s="127"/>
+      <c r="P53" s="127"/>
+      <c r="Q53" s="127"/>
+      <c r="R53" s="127"/>
+      <c r="S53" s="127"/>
+      <c r="T53" s="127"/>
+      <c r="U53" s="127"/>
+      <c r="V53" s="127"/>
+      <c r="W53" s="127"/>
+      <c r="X53" s="127"/>
+      <c r="Y53" s="128"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
-      <c r="Q53" s="88"/>
-      <c r="R53" s="88"/>
-      <c r="S53" s="88"/>
-      <c r="T53" s="88"/>
-      <c r="U53" s="88"/>
-      <c r="V53" s="88"/>
-      <c r="W53" s="88"/>
-      <c r="X53" s="88"/>
-      <c r="Y53" s="89"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="76" t="s">
+      <c r="B54" s="130"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="130"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="130"/>
+      <c r="N54" s="130"/>
+      <c r="O54" s="130"/>
+      <c r="P54" s="130"/>
+      <c r="Q54" s="130"/>
+      <c r="R54" s="130"/>
+      <c r="S54" s="130"/>
+      <c r="T54" s="130"/>
+      <c r="U54" s="130"/>
+      <c r="V54" s="130"/>
+      <c r="W54" s="130"/>
+      <c r="X54" s="130"/>
+      <c r="Y54" s="131"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="9"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="77"/>
-      <c r="Y57" s="78"/>
-    </row>
-    <row r="58" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A58" s="77"/>
-      <c r="B58" s="85" t="s">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="9"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="72"/>
+      <c r="Y58" s="73"/>
+    </row>
+    <row r="59" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="72"/>
+      <c r="B59" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85" t="s">
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
+      <c r="G59" s="127" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="L58" s="90" t="s">
+      <c r="H59" s="127"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="127"/>
+      <c r="L59" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="M58" s="90"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="90"/>
-      <c r="P58" s="1" t="s">
+      <c r="M59" s="158"/>
+      <c r="N59" s="158"/>
+      <c r="O59" s="158"/>
+      <c r="P59" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="Y58" s="78"/>
-    </row>
-    <row r="59" spans="1:25" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="77"/>
-      <c r="B59" s="80" t="s">
+      <c r="Y59" s="73"/>
+    </row>
+    <row r="60" spans="1:25" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="72"/>
+      <c r="B60" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="91" t="s">
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="164" t="s">
         <v>193</v>
       </c>
-      <c r="M59" s="91"/>
-      <c r="N59" s="91"/>
-      <c r="O59" s="91"/>
-      <c r="P59" s="80" t="s">
+      <c r="M60" s="164"/>
+      <c r="N60" s="164"/>
+      <c r="O60" s="164"/>
+      <c r="P60" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="Y59" s="78"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="77"/>
-      <c r="Y60" s="78"/>
+      <c r="Y60" s="73"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="79"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="12"/>
+      <c r="A61" s="72"/>
+      <c r="Y61" s="73"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="74"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="176">
+  <mergeCells count="177">
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="M21:P21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E23:Y23"/>
     <mergeCell ref="Q24:R24"/>
@@ -5293,10 +5781,6 @@
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="E26:N26"/>
     <mergeCell ref="E27:K27"/>
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="S31:Y31"/>
@@ -5314,11 +5798,6 @@
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="C30:Y30"/>
     <mergeCell ref="E32:K32"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A10:A13"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="D5:K5"/>
     <mergeCell ref="O18:R18"/>
@@ -5341,12 +5820,8 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N35:T35"/>
-    <mergeCell ref="N47:Y47"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="A15:Y15"/>
-    <mergeCell ref="C19:Y19"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="L4:N5"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="L11:M11"/>
@@ -5365,23 +5840,15 @@
     <mergeCell ref="G14:Y14"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="C20:Y20"/>
-    <mergeCell ref="B38:C40"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A50:Y50"/>
+    <mergeCell ref="A51:Y51"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="Q32:R32"/>
     <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:Y45"/>
+    <mergeCell ref="A42:A45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:K46"/>
     <mergeCell ref="L46:M46"/>
@@ -5389,61 +5856,43 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:K47"/>
     <mergeCell ref="L47:M47"/>
-    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="N47:Y47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="N48:Y48"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="A15:Y15"/>
     <mergeCell ref="U39:X39"/>
     <mergeCell ref="N36:T36"/>
     <mergeCell ref="N37:T37"/>
     <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A49:Y49"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="A50:Y50"/>
     <mergeCell ref="U18:Y18"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="M32:P32"/>
-    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A33:A41"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="D34:I34"/>
     <mergeCell ref="D35:I35"/>
-    <mergeCell ref="K40:M40"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="M31:P31"/>
-    <mergeCell ref="K33:K39"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="R40:U40"/>
     <mergeCell ref="C29:Y29"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="N39:T39"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:Y48"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="S41:Y41"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="S43:Y43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="S44:Y44"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="N38:T38"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="D38:I40"/>
-    <mergeCell ref="A51:Y51"/>
-    <mergeCell ref="A52:Y52"/>
-    <mergeCell ref="A53:Y53"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="B38:C41"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="C19:Y19"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="G59:J59"/>
     <mergeCell ref="L59:O59"/>
+    <mergeCell ref="L60:O60"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:L2"/>
     <mergeCell ref="R1:T1"/>
@@ -5461,6 +5910,42 @@
     <mergeCell ref="D8:K8"/>
     <mergeCell ref="N10:Y10"/>
     <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="K33:K41"/>
+    <mergeCell ref="R41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="N40:Q41"/>
+    <mergeCell ref="L40:M41"/>
+    <mergeCell ref="A52:Y52"/>
+    <mergeCell ref="A53:Y53"/>
+    <mergeCell ref="A54:Y54"/>
+    <mergeCell ref="N39:T39"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:Y49"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="S43:Y43"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="N38:T38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="D38:I41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="S45:Y45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
@@ -5492,60 +5977,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="92" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="R1" s="94" t="s">
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="R1" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="96" t="s">
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="169" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="98"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="171"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="R2" s="94" t="s">
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="R2" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="99" t="s">
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="101"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="174"/>
     </row>
     <row r="3" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -5575,26 +6060,26 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="228" t="s">
+      <c r="B4" s="180"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="253" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="229"/>
-      <c r="J4" s="229"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="241" t="s">
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="255"/>
+      <c r="L4" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="242"/>
-      <c r="N4" s="243"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="268"/>
       <c r="O4" s="7" t="s">
         <v>77</v>
       </c>
@@ -5616,24 +6101,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="228" t="s">
+      <c r="B5" s="180"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="253" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="229"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="230"/>
-      <c r="L5" s="244"/>
-      <c r="M5" s="245"/>
-      <c r="N5" s="246"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="255"/>
+      <c r="L5" s="269"/>
+      <c r="M5" s="270"/>
+      <c r="N5" s="271"/>
       <c r="O5" s="10" t="s">
         <v>71</v>
       </c>
@@ -5644,10 +6129,10 @@
       <c r="R5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="88" t="s">
+      <c r="S5" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="200"/>
+      <c r="T5" s="228"/>
       <c r="U5" s="11" t="s">
         <v>71</v>
       </c>
@@ -5665,325 +6150,325 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="227" t="s">
+      <c r="A6" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104" t="s">
+      <c r="C6" s="176"/>
+      <c r="D6" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="195" t="s">
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="196"/>
-      <c r="N6" s="104" t="s">
+      <c r="M6" s="224"/>
+      <c r="N6" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="105"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="176"/>
+      <c r="X6" s="176"/>
+      <c r="Y6" s="178"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="227"/>
-      <c r="B7" s="102" t="s">
+      <c r="A7" s="252"/>
+      <c r="B7" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="195" t="s">
+      <c r="C7" s="176"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="178"/>
+      <c r="L7" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="196"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="105"/>
+      <c r="M7" s="224"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="176"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
+      <c r="V7" s="176"/>
+      <c r="W7" s="176"/>
+      <c r="X7" s="176"/>
+      <c r="Y7" s="178"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="227"/>
-      <c r="B8" s="102" t="s">
+      <c r="A8" s="252"/>
+      <c r="B8" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="195" t="s">
+      <c r="C8" s="176"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="196"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="105"/>
+      <c r="M8" s="224"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="176"/>
+      <c r="Y8" s="178"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="227"/>
-      <c r="B9" s="201" t="s">
+      <c r="A9" s="252"/>
+      <c r="B9" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="202"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="195" t="s">
+      <c r="C9" s="230"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="196"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="105"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="176"/>
+      <c r="Y9" s="178"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="227" t="s">
+      <c r="A10" s="252" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104" t="s">
+      <c r="C10" s="176"/>
+      <c r="D10" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="195" t="s">
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="176"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="196"/>
-      <c r="N10" s="104" t="s">
+      <c r="M10" s="224"/>
+      <c r="N10" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="105"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="176"/>
+      <c r="Y10" s="178"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="227"/>
-      <c r="B11" s="102" t="s">
+      <c r="A11" s="252"/>
+      <c r="B11" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="195" t="s">
+      <c r="C11" s="176"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="196"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="105"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="176"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="176"/>
+      <c r="Y11" s="178"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="227"/>
-      <c r="B12" s="102" t="s">
+      <c r="A12" s="252"/>
+      <c r="B12" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="195" t="s">
+      <c r="C12" s="176"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="196"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="103"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="105"/>
+      <c r="M12" s="224"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="176"/>
+      <c r="Y12" s="178"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="227"/>
-      <c r="B13" s="201" t="s">
+      <c r="A13" s="252"/>
+      <c r="B13" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="202"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="195" t="s">
+      <c r="C13" s="230"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="196"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="105"/>
+      <c r="M13" s="224"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="176"/>
+      <c r="Y13" s="178"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="186" t="s">
+      <c r="A14" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="224"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="187" t="s">
+      <c r="B14" s="249"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="249"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="214" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="187"/>
-      <c r="Q14" s="187"/>
-      <c r="R14" s="187"/>
-      <c r="S14" s="187"/>
-      <c r="T14" s="187"/>
-      <c r="U14" s="187"/>
-      <c r="V14" s="187"/>
-      <c r="W14" s="187"/>
-      <c r="X14" s="187"/>
-      <c r="Y14" s="188"/>
+      <c r="H14" s="214"/>
+      <c r="I14" s="214"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214"/>
+      <c r="N14" s="214"/>
+      <c r="O14" s="214"/>
+      <c r="P14" s="214"/>
+      <c r="Q14" s="214"/>
+      <c r="R14" s="214"/>
+      <c r="S14" s="214"/>
+      <c r="T14" s="214"/>
+      <c r="U14" s="214"/>
+      <c r="V14" s="214"/>
+      <c r="W14" s="214"/>
+      <c r="X14" s="214"/>
+      <c r="Y14" s="215"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="208"/>
-      <c r="B15" s="220"/>
-      <c r="C15" s="220"/>
-      <c r="D15" s="220"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="220"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="220"/>
-      <c r="O15" s="220"/>
-      <c r="P15" s="220"/>
-      <c r="Q15" s="220"/>
-      <c r="R15" s="220"/>
-      <c r="S15" s="220"/>
-      <c r="T15" s="220"/>
-      <c r="U15" s="220"/>
-      <c r="V15" s="220"/>
-      <c r="W15" s="220"/>
-      <c r="X15" s="220"/>
-      <c r="Y15" s="221"/>
+      <c r="A15" s="233"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="245"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="245"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="245"/>
+      <c r="J15" s="245"/>
+      <c r="K15" s="245"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="245"/>
+      <c r="N15" s="245"/>
+      <c r="O15" s="245"/>
+      <c r="P15" s="245"/>
+      <c r="Q15" s="245"/>
+      <c r="R15" s="245"/>
+      <c r="S15" s="245"/>
+      <c r="T15" s="245"/>
+      <c r="U15" s="245"/>
+      <c r="V15" s="245"/>
+      <c r="W15" s="245"/>
+      <c r="X15" s="245"/>
+      <c r="Y15" s="246"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="225" t="s">
+      <c r="A16" s="250" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -5991,90 +6476,90 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="222" t="s">
+      <c r="E16" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="222"/>
-      <c r="L16" s="222"/>
-      <c r="M16" s="222"/>
-      <c r="N16" s="222"/>
-      <c r="O16" s="222"/>
-      <c r="P16" s="222"/>
-      <c r="Q16" s="222"/>
-      <c r="R16" s="222"/>
-      <c r="S16" s="222"/>
-      <c r="T16" s="222"/>
-      <c r="U16" s="222"/>
-      <c r="V16" s="222"/>
-      <c r="W16" s="222"/>
-      <c r="X16" s="222"/>
-      <c r="Y16" s="223"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="247"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="247"/>
+      <c r="J16" s="247"/>
+      <c r="K16" s="247"/>
+      <c r="L16" s="247"/>
+      <c r="M16" s="247"/>
+      <c r="N16" s="247"/>
+      <c r="O16" s="247"/>
+      <c r="P16" s="247"/>
+      <c r="Q16" s="247"/>
+      <c r="R16" s="247"/>
+      <c r="S16" s="247"/>
+      <c r="T16" s="247"/>
+      <c r="U16" s="247"/>
+      <c r="V16" s="247"/>
+      <c r="W16" s="247"/>
+      <c r="X16" s="247"/>
+      <c r="Y16" s="248"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="282"/>
-      <c r="B17" s="232" t="s">
+      <c r="A17" s="330"/>
+      <c r="B17" s="257" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="233"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="258"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="237" t="s">
+      <c r="F17" s="222" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="237"/>
-      <c r="H17" s="237"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="222"/>
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="238"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
-      <c r="M17" s="239" t="s">
+      <c r="J17" s="262"/>
+      <c r="K17" s="262"/>
+      <c r="L17" s="262"/>
+      <c r="M17" s="263" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="240"/>
-      <c r="O17" s="240"/>
-      <c r="P17" s="112" t="s">
+      <c r="N17" s="264"/>
+      <c r="O17" s="264"/>
+      <c r="P17" s="265" t="s">
         <v>140</v>
       </c>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
+      <c r="Q17" s="265"/>
+      <c r="R17" s="265"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="211" t="s">
+      <c r="U17" s="236" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="212"/>
-      <c r="W17" s="212"/>
-      <c r="X17" s="212"/>
-      <c r="Y17" s="213"/>
+      <c r="V17" s="237"/>
+      <c r="W17" s="237"/>
+      <c r="X17" s="237"/>
+      <c r="Y17" s="238"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="282"/>
-      <c r="B18" s="234" t="s">
+      <c r="A18" s="330"/>
+      <c r="B18" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="235"/>
-      <c r="D18" s="236"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="261"/>
       <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="231" t="s">
+      <c r="G18" s="256" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="231"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="231"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="256"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -6083,85 +6568,85 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="231"/>
-      <c r="P18" s="231"/>
-      <c r="Q18" s="231"/>
-      <c r="R18" s="231"/>
+      <c r="O18" s="256"/>
+      <c r="P18" s="256"/>
+      <c r="Q18" s="256"/>
+      <c r="R18" s="256"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="162" t="s">
+      <c r="U18" s="196" t="s">
         <v>141</v>
       </c>
-      <c r="V18" s="163"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="163"/>
-      <c r="Y18" s="164"/>
+      <c r="V18" s="197"/>
+      <c r="W18" s="197"/>
+      <c r="X18" s="197"/>
+      <c r="Y18" s="198"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="282"/>
-      <c r="B19" s="176" t="s">
+      <c r="A19" s="330"/>
+      <c r="B19" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="187"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="187"/>
-      <c r="P19" s="187"/>
-      <c r="Q19" s="187"/>
-      <c r="R19" s="187"/>
-      <c r="S19" s="187"/>
-      <c r="T19" s="187"/>
-      <c r="U19" s="187"/>
-      <c r="V19" s="187"/>
-      <c r="W19" s="187"/>
-      <c r="X19" s="187"/>
-      <c r="Y19" s="188"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="214"/>
+      <c r="N19" s="214"/>
+      <c r="O19" s="214"/>
+      <c r="P19" s="214"/>
+      <c r="Q19" s="214"/>
+      <c r="R19" s="214"/>
+      <c r="S19" s="214"/>
+      <c r="T19" s="214"/>
+      <c r="U19" s="214"/>
+      <c r="V19" s="214"/>
+      <c r="W19" s="214"/>
+      <c r="X19" s="214"/>
+      <c r="Y19" s="215"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="282"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="226"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="220"/>
-      <c r="H20" s="220"/>
-      <c r="I20" s="220"/>
-      <c r="J20" s="220"/>
-      <c r="K20" s="220"/>
-      <c r="L20" s="220"/>
-      <c r="M20" s="220"/>
-      <c r="N20" s="220"/>
-      <c r="O20" s="220"/>
-      <c r="P20" s="220"/>
-      <c r="Q20" s="220"/>
-      <c r="R20" s="220"/>
-      <c r="S20" s="220"/>
-      <c r="T20" s="220"/>
-      <c r="U20" s="220"/>
-      <c r="V20" s="220"/>
-      <c r="W20" s="220"/>
-      <c r="X20" s="220"/>
-      <c r="Y20" s="221"/>
+      <c r="A20" s="330"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="251"/>
+      <c r="D20" s="245"/>
+      <c r="E20" s="245"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="245"/>
+      <c r="H20" s="245"/>
+      <c r="I20" s="245"/>
+      <c r="J20" s="245"/>
+      <c r="K20" s="245"/>
+      <c r="L20" s="245"/>
+      <c r="M20" s="245"/>
+      <c r="N20" s="245"/>
+      <c r="O20" s="245"/>
+      <c r="P20" s="245"/>
+      <c r="Q20" s="245"/>
+      <c r="R20" s="245"/>
+      <c r="S20" s="245"/>
+      <c r="T20" s="245"/>
+      <c r="U20" s="245"/>
+      <c r="V20" s="245"/>
+      <c r="W20" s="245"/>
+      <c r="X20" s="245"/>
+      <c r="Y20" s="246"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="282"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="165" t="s">
+      <c r="A21" s="330"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="165"/>
+      <c r="D21" s="199"/>
       <c r="E21" s="23" t="s">
         <v>17</v>
       </c>
@@ -6171,46 +6656,46 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="217" t="s">
+      <c r="L21" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="179"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="180"/>
-      <c r="P21" s="180"/>
+      <c r="M21" s="211"/>
+      <c r="N21" s="212"/>
+      <c r="O21" s="212"/>
+      <c r="P21" s="212"/>
       <c r="Q21" s="8" t="s">
         <v>154</v>
       </c>
       <c r="R21" s="9"/>
-      <c r="S21" s="214" t="s">
+      <c r="S21" s="239" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="215"/>
-      <c r="U21" s="215"/>
-      <c r="V21" s="215"/>
-      <c r="W21" s="215"/>
-      <c r="X21" s="215"/>
-      <c r="Y21" s="216"/>
+      <c r="T21" s="240"/>
+      <c r="U21" s="240"/>
+      <c r="V21" s="240"/>
+      <c r="W21" s="240"/>
+      <c r="X21" s="240"/>
+      <c r="Y21" s="241"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="283"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="166" t="s">
+      <c r="A22" s="331"/>
+      <c r="B22" s="210"/>
+      <c r="C22" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="166"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="220"/>
-      <c r="K22" s="221"/>
-      <c r="L22" s="218"/>
-      <c r="M22" s="167"/>
-      <c r="N22" s="168"/>
-      <c r="O22" s="168"/>
-      <c r="P22" s="168"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="244"/>
+      <c r="F22" s="245"/>
+      <c r="G22" s="245"/>
+      <c r="H22" s="245"/>
+      <c r="I22" s="245"/>
+      <c r="J22" s="245"/>
+      <c r="K22" s="246"/>
+      <c r="L22" s="243"/>
+      <c r="M22" s="201"/>
+      <c r="N22" s="202"/>
+      <c r="O22" s="202"/>
+      <c r="P22" s="202"/>
       <c r="Q22" s="5" t="s">
         <v>155</v>
       </c>
@@ -6230,133 +6715,133 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="154" t="s">
+      <c r="A23" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="234" t="s">
+      <c r="B23" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="235"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="263" t="s">
+      <c r="C23" s="260"/>
+      <c r="D23" s="261"/>
+      <c r="E23" s="288" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="235"/>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="235"/>
-      <c r="K23" s="235"/>
-      <c r="L23" s="235"/>
-      <c r="M23" s="235"/>
-      <c r="N23" s="235"/>
-      <c r="O23" s="235"/>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="235"/>
-      <c r="R23" s="235"/>
-      <c r="S23" s="235"/>
-      <c r="T23" s="235"/>
-      <c r="U23" s="235"/>
-      <c r="V23" s="235"/>
-      <c r="W23" s="235"/>
-      <c r="X23" s="235"/>
-      <c r="Y23" s="264"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="260"/>
+      <c r="H23" s="260"/>
+      <c r="I23" s="260"/>
+      <c r="J23" s="260"/>
+      <c r="K23" s="260"/>
+      <c r="L23" s="260"/>
+      <c r="M23" s="260"/>
+      <c r="N23" s="260"/>
+      <c r="O23" s="260"/>
+      <c r="P23" s="260"/>
+      <c r="Q23" s="260"/>
+      <c r="R23" s="260"/>
+      <c r="S23" s="260"/>
+      <c r="T23" s="260"/>
+      <c r="U23" s="260"/>
+      <c r="V23" s="260"/>
+      <c r="W23" s="260"/>
+      <c r="X23" s="260"/>
+      <c r="Y23" s="289"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="155"/>
-      <c r="B24" s="234" t="s">
+      <c r="A24" s="191"/>
+      <c r="B24" s="259" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="235"/>
-      <c r="D24" s="236"/>
-      <c r="E24" s="209" t="s">
+      <c r="C24" s="260"/>
+      <c r="D24" s="261"/>
+      <c r="E24" s="234" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="209"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="209"/>
-      <c r="K24" s="209"/>
-      <c r="L24" s="209"/>
-      <c r="M24" s="209"/>
-      <c r="N24" s="209"/>
-      <c r="O24" s="241" t="s">
+      <c r="F24" s="234"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="234"/>
+      <c r="J24" s="234"/>
+      <c r="K24" s="234"/>
+      <c r="L24" s="234"/>
+      <c r="M24" s="234"/>
+      <c r="N24" s="234"/>
+      <c r="O24" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="243"/>
-      <c r="Q24" s="265"/>
-      <c r="R24" s="265"/>
-      <c r="S24" s="266" t="s">
+      <c r="P24" s="268"/>
+      <c r="Q24" s="290"/>
+      <c r="R24" s="290"/>
+      <c r="S24" s="291" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="267"/>
-      <c r="U24" s="261" t="s">
+      <c r="T24" s="292"/>
+      <c r="U24" s="286" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="261"/>
-      <c r="W24" s="261"/>
-      <c r="X24" s="261"/>
-      <c r="Y24" s="262"/>
+      <c r="V24" s="286"/>
+      <c r="W24" s="286"/>
+      <c r="X24" s="286"/>
+      <c r="Y24" s="287"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="155"/>
-      <c r="B25" s="234" t="s">
+      <c r="A25" s="191"/>
+      <c r="B25" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="235"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="187"/>
-      <c r="P25" s="187"/>
-      <c r="Q25" s="187"/>
-      <c r="R25" s="187"/>
-      <c r="S25" s="187"/>
-      <c r="T25" s="188"/>
-      <c r="U25" s="162" t="s">
+      <c r="C25" s="260"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="176"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="176"/>
+      <c r="N25" s="176"/>
+      <c r="O25" s="214"/>
+      <c r="P25" s="214"/>
+      <c r="Q25" s="214"/>
+      <c r="R25" s="214"/>
+      <c r="S25" s="214"/>
+      <c r="T25" s="215"/>
+      <c r="U25" s="196" t="s">
         <v>184</v>
       </c>
-      <c r="V25" s="163"/>
-      <c r="W25" s="163"/>
-      <c r="X25" s="163"/>
-      <c r="Y25" s="164"/>
+      <c r="V25" s="197"/>
+      <c r="W25" s="197"/>
+      <c r="X25" s="197"/>
+      <c r="Y25" s="198"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="155"/>
-      <c r="B26" s="234" t="s">
+      <c r="A26" s="191"/>
+      <c r="B26" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="235"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="104" t="s">
+      <c r="C26" s="260"/>
+      <c r="D26" s="261"/>
+      <c r="E26" s="177" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="176"/>
       <c r="O26" s="21"/>
       <c r="P26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="237" t="s">
+      <c r="Q26" s="222" t="s">
         <v>145</v>
       </c>
-      <c r="R26" s="237"/>
+      <c r="R26" s="222"/>
       <c r="S26" s="31" t="s">
         <v>13</v>
       </c>
@@ -6364,80 +6849,80 @@
       <c r="U26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="237"/>
-      <c r="W26" s="237"/>
+      <c r="V26" s="222"/>
+      <c r="W26" s="222"/>
       <c r="X26" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="155"/>
-      <c r="B27" s="234" t="s">
+      <c r="A27" s="191"/>
+      <c r="B27" s="259" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="235"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="104" t="s">
+      <c r="C27" s="260"/>
+      <c r="D27" s="261"/>
+      <c r="E27" s="177" t="s">
         <v>147</v>
       </c>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="195" t="s">
+      <c r="F27" s="176"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="176"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="237"/>
-      <c r="N27" s="247"/>
-      <c r="O27" s="251"/>
-      <c r="P27" s="237"/>
-      <c r="Q27" s="252"/>
+      <c r="M27" s="222"/>
+      <c r="N27" s="272"/>
+      <c r="O27" s="276"/>
+      <c r="P27" s="222"/>
+      <c r="Q27" s="277"/>
       <c r="R27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="214" t="s">
+      <c r="S27" s="239" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="215"/>
-      <c r="U27" s="215"/>
-      <c r="V27" s="215"/>
-      <c r="W27" s="215"/>
-      <c r="X27" s="215"/>
-      <c r="Y27" s="216"/>
+      <c r="T27" s="240"/>
+      <c r="U27" s="240"/>
+      <c r="V27" s="240"/>
+      <c r="W27" s="240"/>
+      <c r="X27" s="240"/>
+      <c r="Y27" s="241"/>
       <c r="Z27" s="33"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="155"/>
-      <c r="B28" s="102" t="s">
+      <c r="A28" s="191"/>
+      <c r="B28" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="248"/>
-      <c r="D28" s="248"/>
-      <c r="E28" s="249" t="s">
+      <c r="C28" s="273"/>
+      <c r="D28" s="273"/>
+      <c r="E28" s="274" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="250"/>
-      <c r="G28" s="250"/>
-      <c r="H28" s="250"/>
-      <c r="I28" s="250"/>
-      <c r="J28" s="250"/>
-      <c r="K28" s="250"/>
-      <c r="L28" s="250"/>
-      <c r="M28" s="250"/>
-      <c r="N28" s="250"/>
-      <c r="O28" s="250"/>
-      <c r="P28" s="250"/>
-      <c r="Q28" s="250"/>
+      <c r="F28" s="275"/>
+      <c r="G28" s="275"/>
+      <c r="H28" s="275"/>
+      <c r="I28" s="275"/>
+      <c r="J28" s="275"/>
+      <c r="K28" s="275"/>
+      <c r="L28" s="275"/>
+      <c r="M28" s="275"/>
+      <c r="N28" s="275"/>
+      <c r="O28" s="275"/>
+      <c r="P28" s="275"/>
+      <c r="Q28" s="275"/>
       <c r="R28" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="253" t="s">
+      <c r="S28" s="278" t="s">
         <v>158</v>
       </c>
-      <c r="T28" s="254"/>
+      <c r="T28" s="279"/>
       <c r="U28" s="28" t="s">
         <v>28</v>
       </c>
@@ -6456,125 +6941,125 @@
       <c r="Z28" s="33"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="155"/>
-      <c r="B29" s="176" t="s">
+      <c r="A29" s="191"/>
+      <c r="B29" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="186"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="187"/>
-      <c r="M29" s="187"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="187"/>
-      <c r="P29" s="187"/>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="187"/>
-      <c r="T29" s="187"/>
-      <c r="U29" s="187"/>
-      <c r="V29" s="187"/>
-      <c r="W29" s="187"/>
-      <c r="X29" s="187"/>
-      <c r="Y29" s="188"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="214"/>
+      <c r="J29" s="214"/>
+      <c r="K29" s="214"/>
+      <c r="L29" s="214"/>
+      <c r="M29" s="214"/>
+      <c r="N29" s="214"/>
+      <c r="O29" s="214"/>
+      <c r="P29" s="214"/>
+      <c r="Q29" s="214"/>
+      <c r="R29" s="214"/>
+      <c r="S29" s="214"/>
+      <c r="T29" s="214"/>
+      <c r="U29" s="214"/>
+      <c r="V29" s="214"/>
+      <c r="W29" s="214"/>
+      <c r="X29" s="214"/>
+      <c r="Y29" s="215"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="155"/>
-      <c r="B30" s="177"/>
-      <c r="C30" s="226"/>
-      <c r="D30" s="220"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="220"/>
-      <c r="J30" s="220"/>
-      <c r="K30" s="220"/>
-      <c r="L30" s="220"/>
-      <c r="M30" s="220"/>
-      <c r="N30" s="220"/>
-      <c r="O30" s="220"/>
-      <c r="P30" s="220"/>
-      <c r="Q30" s="220"/>
-      <c r="R30" s="220"/>
-      <c r="S30" s="220"/>
-      <c r="T30" s="220"/>
-      <c r="U30" s="220"/>
-      <c r="V30" s="220"/>
-      <c r="W30" s="220"/>
-      <c r="X30" s="220"/>
-      <c r="Y30" s="221"/>
+      <c r="A30" s="191"/>
+      <c r="B30" s="209"/>
+      <c r="C30" s="251"/>
+      <c r="D30" s="245"/>
+      <c r="E30" s="245"/>
+      <c r="F30" s="245"/>
+      <c r="G30" s="245"/>
+      <c r="H30" s="245"/>
+      <c r="I30" s="245"/>
+      <c r="J30" s="245"/>
+      <c r="K30" s="245"/>
+      <c r="L30" s="245"/>
+      <c r="M30" s="245"/>
+      <c r="N30" s="245"/>
+      <c r="O30" s="245"/>
+      <c r="P30" s="245"/>
+      <c r="Q30" s="245"/>
+      <c r="R30" s="245"/>
+      <c r="S30" s="245"/>
+      <c r="T30" s="245"/>
+      <c r="U30" s="245"/>
+      <c r="V30" s="245"/>
+      <c r="W30" s="245"/>
+      <c r="X30" s="245"/>
+      <c r="Y30" s="246"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="155"/>
-      <c r="B31" s="177"/>
-      <c r="C31" s="165" t="s">
+      <c r="A31" s="191"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="165"/>
-      <c r="E31" s="255" t="s">
+      <c r="D31" s="199"/>
+      <c r="E31" s="280" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="256"/>
-      <c r="G31" s="257" t="s">
+      <c r="F31" s="281"/>
+      <c r="G31" s="282" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="187"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="187"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="217" t="s">
+      <c r="H31" s="214"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="214"/>
+      <c r="K31" s="214"/>
+      <c r="L31" s="242" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="179"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="180"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="125"/>
-      <c r="S31" s="214" t="s">
+      <c r="M31" s="211"/>
+      <c r="N31" s="212"/>
+      <c r="O31" s="212"/>
+      <c r="P31" s="212"/>
+      <c r="Q31" s="138"/>
+      <c r="R31" s="140"/>
+      <c r="S31" s="239" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="215"/>
-      <c r="U31" s="215"/>
-      <c r="V31" s="215"/>
-      <c r="W31" s="215"/>
-      <c r="X31" s="215"/>
-      <c r="Y31" s="216"/>
+      <c r="T31" s="240"/>
+      <c r="U31" s="240"/>
+      <c r="V31" s="240"/>
+      <c r="W31" s="240"/>
+      <c r="X31" s="240"/>
+      <c r="Y31" s="241"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="156"/>
-      <c r="B32" s="178"/>
-      <c r="C32" s="166" t="s">
+      <c r="A32" s="192"/>
+      <c r="B32" s="210"/>
+      <c r="C32" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="166"/>
-      <c r="E32" s="258" t="s">
+      <c r="D32" s="200"/>
+      <c r="E32" s="283" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="259"/>
-      <c r="G32" s="259"/>
-      <c r="H32" s="259"/>
-      <c r="I32" s="259"/>
-      <c r="J32" s="259"/>
-      <c r="K32" s="260"/>
-      <c r="L32" s="218"/>
-      <c r="M32" s="167" t="s">
+      <c r="F32" s="284"/>
+      <c r="G32" s="284"/>
+      <c r="H32" s="284"/>
+      <c r="I32" s="284"/>
+      <c r="J32" s="284"/>
+      <c r="K32" s="285"/>
+      <c r="L32" s="243"/>
+      <c r="M32" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="N32" s="168"/>
-      <c r="O32" s="168"/>
-      <c r="P32" s="168"/>
-      <c r="Q32" s="203" t="s">
+      <c r="N32" s="202"/>
+      <c r="O32" s="202"/>
+      <c r="P32" s="202"/>
+      <c r="Q32" s="231" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="199"/>
+      <c r="R32" s="227"/>
       <c r="S32" s="26" t="s">
         <v>176</v>
       </c>
@@ -6598,761 +7083,761 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="169" t="s">
+      <c r="A33" s="203" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="171" t="s">
+      <c r="D33" s="205" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="173"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="207"/>
       <c r="J33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="181" t="s">
+      <c r="K33" s="321" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="35"/>
-      <c r="N33" s="109" t="s">
+      <c r="N33" s="182" t="s">
         <v>123</v>
       </c>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="110"/>
-      <c r="T33" s="110"/>
-      <c r="U33" s="113" t="s">
+      <c r="O33" s="183"/>
+      <c r="P33" s="183"/>
+      <c r="Q33" s="183"/>
+      <c r="R33" s="183"/>
+      <c r="S33" s="183"/>
+      <c r="T33" s="183"/>
+      <c r="U33" s="184" t="s">
         <v>122</v>
       </c>
-      <c r="V33" s="114"/>
-      <c r="W33" s="114"/>
-      <c r="X33" s="114"/>
+      <c r="V33" s="185"/>
+      <c r="W33" s="185"/>
+      <c r="X33" s="185"/>
       <c r="Y33" s="38" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="33"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="170"/>
+      <c r="A34" s="204"/>
       <c r="B34" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="40"/>
-      <c r="D34" s="115" t="s">
+      <c r="D34" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="187"/>
       <c r="J34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="182"/>
+      <c r="K34" s="322"/>
       <c r="L34" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="40"/>
-      <c r="N34" s="142" t="s">
+      <c r="N34" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="O34" s="143"/>
-      <c r="P34" s="143"/>
-      <c r="Q34" s="143"/>
-      <c r="R34" s="143"/>
-      <c r="S34" s="143"/>
-      <c r="T34" s="143"/>
-      <c r="U34" s="119" t="s">
+      <c r="O34" s="154"/>
+      <c r="P34" s="154"/>
+      <c r="Q34" s="154"/>
+      <c r="R34" s="154"/>
+      <c r="S34" s="154"/>
+      <c r="T34" s="154"/>
+      <c r="U34" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
+      <c r="V34" s="135"/>
+      <c r="W34" s="135"/>
+      <c r="X34" s="135"/>
       <c r="Y34" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="170"/>
+      <c r="A35" s="204"/>
       <c r="B35" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="40"/>
-      <c r="D35" s="115" t="s">
+      <c r="D35" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="187"/>
       <c r="J35" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="182"/>
+      <c r="K35" s="322"/>
       <c r="L35" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="40"/>
-      <c r="N35" s="142" t="s">
+      <c r="N35" s="153" t="s">
         <v>127</v>
       </c>
-      <c r="O35" s="143"/>
-      <c r="P35" s="143"/>
-      <c r="Q35" s="143"/>
-      <c r="R35" s="143"/>
-      <c r="S35" s="143"/>
-      <c r="T35" s="143"/>
-      <c r="U35" s="119" t="s">
+      <c r="O35" s="154"/>
+      <c r="P35" s="154"/>
+      <c r="Q35" s="154"/>
+      <c r="R35" s="154"/>
+      <c r="S35" s="154"/>
+      <c r="T35" s="154"/>
+      <c r="U35" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="V35" s="120"/>
-      <c r="W35" s="120"/>
-      <c r="X35" s="120"/>
+      <c r="V35" s="135"/>
+      <c r="W35" s="135"/>
+      <c r="X35" s="135"/>
       <c r="Y35" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="170"/>
+      <c r="A36" s="204"/>
       <c r="B36" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="44"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
       <c r="J36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="183"/>
-      <c r="L36" s="65" t="s">
+      <c r="K36" s="323"/>
+      <c r="L36" s="61" t="s">
         <v>84</v>
       </c>
       <c r="M36" s="44"/>
-      <c r="N36" s="142" t="s">
+      <c r="N36" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="O36" s="143"/>
-      <c r="P36" s="143"/>
-      <c r="Q36" s="143"/>
-      <c r="R36" s="143"/>
-      <c r="S36" s="143"/>
-      <c r="T36" s="143"/>
-      <c r="U36" s="119" t="s">
+      <c r="O36" s="154"/>
+      <c r="P36" s="154"/>
+      <c r="Q36" s="154"/>
+      <c r="R36" s="154"/>
+      <c r="S36" s="154"/>
+      <c r="T36" s="154"/>
+      <c r="U36" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="V36" s="120"/>
-      <c r="W36" s="120"/>
-      <c r="X36" s="120"/>
+      <c r="V36" s="135"/>
+      <c r="W36" s="135"/>
+      <c r="X36" s="135"/>
       <c r="Y36" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="170"/>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="204"/>
+      <c r="B37" s="62" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="44"/>
-      <c r="D37" s="115" t="s">
+      <c r="D37" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="67" t="s">
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="184"/>
-      <c r="L37" s="68" t="s">
+      <c r="K37" s="324"/>
+      <c r="L37" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="M37" s="69"/>
-      <c r="N37" s="142" t="s">
+      <c r="M37" s="65"/>
+      <c r="N37" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="143"/>
-      <c r="P37" s="143"/>
-      <c r="Q37" s="143"/>
-      <c r="R37" s="143"/>
-      <c r="S37" s="143"/>
-      <c r="T37" s="143"/>
-      <c r="U37" s="152" t="s">
+      <c r="O37" s="154"/>
+      <c r="P37" s="154"/>
+      <c r="Q37" s="154"/>
+      <c r="R37" s="154"/>
+      <c r="S37" s="154"/>
+      <c r="T37" s="154"/>
+      <c r="U37" s="313" t="s">
         <v>131</v>
       </c>
-      <c r="V37" s="153"/>
-      <c r="W37" s="153"/>
-      <c r="X37" s="153"/>
+      <c r="V37" s="314"/>
+      <c r="W37" s="314"/>
+      <c r="X37" s="314"/>
       <c r="Y37" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="156"/>
-      <c r="B38" s="279" t="s">
+      <c r="A38" s="192"/>
+      <c r="B38" s="325" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="280"/>
-      <c r="D38" s="280"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="281" t="s">
+      <c r="C38" s="326"/>
+      <c r="D38" s="326"/>
+      <c r="E38" s="326"/>
+      <c r="F38" s="327" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="281"/>
-      <c r="H38" s="281"/>
-      <c r="I38" s="281"/>
-      <c r="J38" s="70" t="s">
+      <c r="G38" s="327"/>
+      <c r="H38" s="327"/>
+      <c r="I38" s="327"/>
+      <c r="J38" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="174" t="s">
+      <c r="K38" s="328" t="s">
         <v>54</v>
       </c>
-      <c r="L38" s="103"/>
-      <c r="M38" s="175"/>
-      <c r="N38" s="111" t="s">
+      <c r="L38" s="176"/>
+      <c r="M38" s="329"/>
+      <c r="N38" s="319" t="s">
         <v>132</v>
       </c>
-      <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="48" t="s">
+      <c r="O38" s="265"/>
+      <c r="P38" s="265"/>
+      <c r="Q38" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="R38" s="185" t="s">
+      <c r="R38" s="320" t="s">
         <v>73</v>
       </c>
-      <c r="S38" s="103"/>
-      <c r="T38" s="103"/>
-      <c r="U38" s="103"/>
-      <c r="V38" s="111" t="s">
+      <c r="S38" s="176"/>
+      <c r="T38" s="176"/>
+      <c r="U38" s="176"/>
+      <c r="V38" s="319" t="s">
         <v>162</v>
       </c>
-      <c r="W38" s="112"/>
-      <c r="X38" s="112"/>
+      <c r="W38" s="265"/>
+      <c r="X38" s="265"/>
       <c r="Y38" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="154" t="s">
+      <c r="A39" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="51" t="s">
+      <c r="C39" s="48"/>
+      <c r="D39" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="126" t="s">
+      <c r="E39" s="50"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="K39" s="126"/>
-      <c r="L39" s="53" t="s">
+      <c r="K39" s="145"/>
+      <c r="L39" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="M39" s="54"/>
-      <c r="N39" s="55" t="s">
+      <c r="M39" s="52"/>
+      <c r="N39" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="O39" s="56"/>
-      <c r="P39" s="55" t="s">
+      <c r="O39" s="339"/>
+      <c r="P39" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="55" t="s">
+      <c r="Q39" s="339"/>
+      <c r="R39" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="S39" s="134"/>
-      <c r="T39" s="135"/>
-      <c r="U39" s="135"/>
-      <c r="V39" s="135"/>
-      <c r="W39" s="135"/>
-      <c r="X39" s="135"/>
-      <c r="Y39" s="136"/>
+      <c r="S39" s="147"/>
+      <c r="T39" s="148"/>
+      <c r="U39" s="148"/>
+      <c r="V39" s="148"/>
+      <c r="W39" s="148"/>
+      <c r="X39" s="148"/>
+      <c r="Y39" s="149"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="204"/>
-      <c r="B40" s="57" t="s">
+      <c r="A40" s="232"/>
+      <c r="B40" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59" t="s">
+      <c r="C40" s="55"/>
+      <c r="D40" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="133" t="s">
+      <c r="E40" s="57"/>
+      <c r="F40" s="333"/>
+      <c r="G40" s="334"/>
+      <c r="H40" s="334"/>
+      <c r="I40" s="334"/>
+      <c r="J40" s="296" t="s">
         <v>157</v>
       </c>
-      <c r="K40" s="133"/>
-      <c r="L40" s="61" t="s">
+      <c r="K40" s="296"/>
+      <c r="L40" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="M40" s="62"/>
-      <c r="N40" s="63" t="s">
+      <c r="M40" s="59"/>
+      <c r="N40" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="64"/>
-      <c r="P40" s="63" t="s">
+      <c r="O40" s="343"/>
+      <c r="P40" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="63" t="s">
+      <c r="Q40" s="343"/>
+      <c r="R40" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="S40" s="137"/>
-      <c r="T40" s="138"/>
-      <c r="U40" s="138"/>
-      <c r="V40" s="138"/>
-      <c r="W40" s="138"/>
-      <c r="X40" s="138"/>
-      <c r="Y40" s="139"/>
+      <c r="S40" s="300"/>
+      <c r="T40" s="301"/>
+      <c r="U40" s="301"/>
+      <c r="V40" s="301"/>
+      <c r="W40" s="301"/>
+      <c r="X40" s="301"/>
+      <c r="Y40" s="302"/>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="204"/>
-      <c r="B41" s="268"/>
-      <c r="C41" s="269"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="278"/>
-      <c r="G41" s="274"/>
-      <c r="H41" s="274"/>
-      <c r="I41" s="274"/>
-      <c r="J41" s="270" t="s">
+      <c r="A41" s="232"/>
+      <c r="B41" s="303"/>
+      <c r="C41" s="304"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="315"/>
+      <c r="G41" s="309"/>
+      <c r="H41" s="309"/>
+      <c r="I41" s="309"/>
+      <c r="J41" s="305" t="s">
         <v>157</v>
       </c>
-      <c r="K41" s="270"/>
-      <c r="L41" s="73" t="s">
+      <c r="K41" s="305"/>
+      <c r="L41" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="M41" s="62"/>
-      <c r="N41" s="74" t="s">
+      <c r="M41" s="59"/>
+      <c r="N41" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="O41" s="75"/>
-      <c r="P41" s="74" t="s">
+      <c r="O41" s="344"/>
+      <c r="P41" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="74" t="s">
+      <c r="Q41" s="344"/>
+      <c r="R41" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="275"/>
-      <c r="T41" s="276"/>
-      <c r="U41" s="276"/>
-      <c r="V41" s="276"/>
-      <c r="W41" s="276"/>
-      <c r="X41" s="276"/>
-      <c r="Y41" s="277"/>
+      <c r="S41" s="310"/>
+      <c r="T41" s="311"/>
+      <c r="U41" s="311"/>
+      <c r="V41" s="311"/>
+      <c r="W41" s="311"/>
+      <c r="X41" s="311"/>
+      <c r="Y41" s="312"/>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="204"/>
-      <c r="B42" s="49" t="s">
+      <c r="A42" s="232"/>
+      <c r="B42" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51" t="s">
+      <c r="C42" s="48"/>
+      <c r="D42" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="126" t="s">
+      <c r="E42" s="50"/>
+      <c r="F42" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="141" t="s">
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="316"/>
+      <c r="K42" s="316"/>
+      <c r="L42" s="317"/>
+      <c r="M42" s="318" t="s">
         <v>134</v>
       </c>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="126" t="s">
+      <c r="N42" s="185"/>
+      <c r="O42" s="185"/>
+      <c r="P42" s="185"/>
+      <c r="Q42" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="R42" s="126"/>
-      <c r="S42" s="134"/>
-      <c r="T42" s="135"/>
-      <c r="U42" s="135"/>
-      <c r="V42" s="135"/>
-      <c r="W42" s="135"/>
-      <c r="X42" s="135"/>
-      <c r="Y42" s="136"/>
+      <c r="R42" s="145"/>
+      <c r="S42" s="147"/>
+      <c r="T42" s="148"/>
+      <c r="U42" s="148"/>
+      <c r="V42" s="148"/>
+      <c r="W42" s="148"/>
+      <c r="X42" s="148"/>
+      <c r="Y42" s="149"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="204"/>
-      <c r="B43" s="57" t="s">
+      <c r="A43" s="232"/>
+      <c r="B43" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59" t="s">
+      <c r="C43" s="55"/>
+      <c r="D43" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="133" t="s">
+      <c r="E43" s="57"/>
+      <c r="F43" s="296" t="s">
         <v>135</v>
       </c>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="160"/>
-      <c r="K43" s="160"/>
-      <c r="L43" s="161"/>
-      <c r="M43" s="140" t="s">
+      <c r="G43" s="296"/>
+      <c r="H43" s="296"/>
+      <c r="I43" s="296"/>
+      <c r="J43" s="297"/>
+      <c r="K43" s="297"/>
+      <c r="L43" s="298"/>
+      <c r="M43" s="299" t="s">
         <v>136</v>
       </c>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="133" t="s">
+      <c r="N43" s="135"/>
+      <c r="O43" s="135"/>
+      <c r="P43" s="135"/>
+      <c r="Q43" s="296" t="s">
         <v>157</v>
       </c>
-      <c r="R43" s="133"/>
-      <c r="S43" s="137"/>
-      <c r="T43" s="138"/>
-      <c r="U43" s="138"/>
-      <c r="V43" s="138"/>
-      <c r="W43" s="138"/>
-      <c r="X43" s="138"/>
-      <c r="Y43" s="139"/>
+      <c r="R43" s="296"/>
+      <c r="S43" s="300"/>
+      <c r="T43" s="301"/>
+      <c r="U43" s="301"/>
+      <c r="V43" s="301"/>
+      <c r="W43" s="301"/>
+      <c r="X43" s="301"/>
+      <c r="Y43" s="302"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="284"/>
-      <c r="B44" s="268"/>
-      <c r="C44" s="269"/>
-      <c r="D44" s="71" t="s">
+      <c r="A44" s="332"/>
+      <c r="B44" s="303"/>
+      <c r="C44" s="304"/>
+      <c r="D44" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="270"/>
-      <c r="G44" s="270"/>
-      <c r="H44" s="270"/>
-      <c r="I44" s="270"/>
-      <c r="J44" s="271"/>
-      <c r="K44" s="271"/>
-      <c r="L44" s="272"/>
-      <c r="M44" s="273"/>
-      <c r="N44" s="274"/>
-      <c r="O44" s="274"/>
-      <c r="P44" s="274"/>
-      <c r="Q44" s="270" t="s">
+      <c r="E44" s="68"/>
+      <c r="F44" s="305"/>
+      <c r="G44" s="305"/>
+      <c r="H44" s="305"/>
+      <c r="I44" s="305"/>
+      <c r="J44" s="306"/>
+      <c r="K44" s="306"/>
+      <c r="L44" s="307"/>
+      <c r="M44" s="308"/>
+      <c r="N44" s="309"/>
+      <c r="O44" s="309"/>
+      <c r="P44" s="309"/>
+      <c r="Q44" s="305" t="s">
         <v>157</v>
       </c>
-      <c r="R44" s="270"/>
-      <c r="S44" s="275"/>
-      <c r="T44" s="276"/>
-      <c r="U44" s="276"/>
-      <c r="V44" s="276"/>
-      <c r="W44" s="276"/>
-      <c r="X44" s="276"/>
-      <c r="Y44" s="277"/>
+      <c r="R44" s="305"/>
+      <c r="S44" s="310"/>
+      <c r="T44" s="311"/>
+      <c r="U44" s="311"/>
+      <c r="V44" s="311"/>
+      <c r="W44" s="311"/>
+      <c r="X44" s="311"/>
+      <c r="Y44" s="312"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="205" t="s">
+      <c r="A45" s="293" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="103"/>
-      <c r="D45" s="104" t="s">
+      <c r="C45" s="176"/>
+      <c r="D45" s="177" t="s">
         <v>133</v>
       </c>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="195" t="s">
+      <c r="E45" s="176"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="176"/>
+      <c r="H45" s="176"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="176"/>
+      <c r="K45" s="178"/>
+      <c r="L45" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="196"/>
-      <c r="N45" s="104" t="s">
+      <c r="M45" s="224"/>
+      <c r="N45" s="177" t="s">
         <v>137</v>
       </c>
-      <c r="O45" s="103"/>
-      <c r="P45" s="103"/>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="103"/>
-      <c r="S45" s="103"/>
-      <c r="T45" s="103"/>
-      <c r="U45" s="103"/>
-      <c r="V45" s="103"/>
-      <c r="W45" s="103"/>
-      <c r="X45" s="103"/>
-      <c r="Y45" s="105"/>
+      <c r="O45" s="176"/>
+      <c r="P45" s="176"/>
+      <c r="Q45" s="176"/>
+      <c r="R45" s="176"/>
+      <c r="S45" s="176"/>
+      <c r="T45" s="176"/>
+      <c r="U45" s="176"/>
+      <c r="V45" s="176"/>
+      <c r="W45" s="176"/>
+      <c r="X45" s="176"/>
+      <c r="Y45" s="178"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="206"/>
-      <c r="B46" s="102" t="s">
+      <c r="A46" s="294"/>
+      <c r="B46" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="103"/>
-      <c r="D46" s="104" t="s">
+      <c r="C46" s="176"/>
+      <c r="D46" s="177" t="s">
         <v>135</v>
       </c>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="195" t="s">
+      <c r="E46" s="176"/>
+      <c r="F46" s="176"/>
+      <c r="G46" s="176"/>
+      <c r="H46" s="176"/>
+      <c r="I46" s="176"/>
+      <c r="J46" s="176"/>
+      <c r="K46" s="178"/>
+      <c r="L46" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="196"/>
-      <c r="N46" s="104" t="s">
+      <c r="M46" s="224"/>
+      <c r="N46" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="O46" s="103"/>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="103"/>
-      <c r="S46" s="103"/>
-      <c r="T46" s="103"/>
-      <c r="U46" s="103"/>
-      <c r="V46" s="103"/>
-      <c r="W46" s="103"/>
-      <c r="X46" s="103"/>
-      <c r="Y46" s="105"/>
+      <c r="O46" s="176"/>
+      <c r="P46" s="176"/>
+      <c r="Q46" s="176"/>
+      <c r="R46" s="176"/>
+      <c r="S46" s="176"/>
+      <c r="T46" s="176"/>
+      <c r="U46" s="176"/>
+      <c r="V46" s="176"/>
+      <c r="W46" s="176"/>
+      <c r="X46" s="176"/>
+      <c r="Y46" s="178"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="207"/>
-      <c r="B47" s="102" t="s">
+      <c r="A47" s="295"/>
+      <c r="B47" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="103"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="195" t="s">
+      <c r="C47" s="176"/>
+      <c r="D47" s="177"/>
+      <c r="E47" s="176"/>
+      <c r="F47" s="176"/>
+      <c r="G47" s="176"/>
+      <c r="H47" s="176"/>
+      <c r="I47" s="176"/>
+      <c r="J47" s="176"/>
+      <c r="K47" s="178"/>
+      <c r="L47" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="196"/>
-      <c r="N47" s="104"/>
-      <c r="O47" s="103"/>
-      <c r="P47" s="103"/>
-      <c r="Q47" s="103"/>
-      <c r="R47" s="103"/>
-      <c r="S47" s="103"/>
-      <c r="T47" s="103"/>
-      <c r="U47" s="103"/>
-      <c r="V47" s="103"/>
-      <c r="W47" s="103"/>
-      <c r="X47" s="103"/>
-      <c r="Y47" s="105"/>
+      <c r="M47" s="224"/>
+      <c r="N47" s="177"/>
+      <c r="O47" s="176"/>
+      <c r="P47" s="176"/>
+      <c r="Q47" s="176"/>
+      <c r="R47" s="176"/>
+      <c r="S47" s="176"/>
+      <c r="T47" s="176"/>
+      <c r="U47" s="176"/>
+      <c r="V47" s="176"/>
+      <c r="W47" s="176"/>
+      <c r="X47" s="176"/>
+      <c r="Y47" s="178"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="121" t="s">
+      <c r="A48" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="122"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="124"/>
-      <c r="O48" s="124"/>
-      <c r="P48" s="124"/>
-      <c r="Q48" s="124"/>
-      <c r="R48" s="124"/>
-      <c r="S48" s="124"/>
-      <c r="T48" s="124"/>
-      <c r="U48" s="124"/>
-      <c r="V48" s="124"/>
-      <c r="W48" s="124"/>
-      <c r="X48" s="124"/>
-      <c r="Y48" s="125"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="139"/>
+      <c r="J48" s="139"/>
+      <c r="K48" s="139"/>
+      <c r="L48" s="139"/>
+      <c r="M48" s="139"/>
+      <c r="N48" s="139"/>
+      <c r="O48" s="139"/>
+      <c r="P48" s="139"/>
+      <c r="Q48" s="139"/>
+      <c r="R48" s="139"/>
+      <c r="S48" s="139"/>
+      <c r="T48" s="139"/>
+      <c r="U48" s="139"/>
+      <c r="V48" s="139"/>
+      <c r="W48" s="139"/>
+      <c r="X48" s="139"/>
+      <c r="Y48" s="140"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="157" t="s">
+      <c r="A49" s="193" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="158"/>
-      <c r="C49" s="158"/>
-      <c r="D49" s="158"/>
-      <c r="E49" s="158"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="158"/>
-      <c r="I49" s="158"/>
-      <c r="J49" s="158"/>
-      <c r="K49" s="158"/>
-      <c r="L49" s="158"/>
-      <c r="M49" s="158"/>
-      <c r="N49" s="158"/>
-      <c r="O49" s="158"/>
-      <c r="P49" s="158"/>
-      <c r="Q49" s="158"/>
-      <c r="R49" s="158"/>
-      <c r="S49" s="158"/>
-      <c r="T49" s="158"/>
-      <c r="U49" s="158"/>
-      <c r="V49" s="158"/>
-      <c r="W49" s="158"/>
-      <c r="X49" s="158"/>
-      <c r="Y49" s="159"/>
+      <c r="B49" s="194"/>
+      <c r="C49" s="194"/>
+      <c r="D49" s="194"/>
+      <c r="E49" s="194"/>
+      <c r="F49" s="194"/>
+      <c r="G49" s="194"/>
+      <c r="H49" s="194"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="194"/>
+      <c r="K49" s="194"/>
+      <c r="L49" s="194"/>
+      <c r="M49" s="194"/>
+      <c r="N49" s="194"/>
+      <c r="O49" s="194"/>
+      <c r="P49" s="194"/>
+      <c r="Q49" s="194"/>
+      <c r="R49" s="194"/>
+      <c r="S49" s="194"/>
+      <c r="T49" s="194"/>
+      <c r="U49" s="194"/>
+      <c r="V49" s="194"/>
+      <c r="W49" s="194"/>
+      <c r="X49" s="194"/>
+      <c r="Y49" s="195"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="197"/>
-      <c r="B50" s="198"/>
-      <c r="C50" s="198"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="198"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="198"/>
-      <c r="H50" s="198"/>
-      <c r="I50" s="198"/>
-      <c r="J50" s="198"/>
-      <c r="K50" s="198"/>
-      <c r="L50" s="198"/>
-      <c r="M50" s="198"/>
-      <c r="N50" s="198"/>
-      <c r="O50" s="198"/>
-      <c r="P50" s="198"/>
-      <c r="Q50" s="198"/>
-      <c r="R50" s="198"/>
-      <c r="S50" s="198"/>
-      <c r="T50" s="198"/>
-      <c r="U50" s="198"/>
-      <c r="V50" s="198"/>
-      <c r="W50" s="198"/>
-      <c r="X50" s="198"/>
-      <c r="Y50" s="199"/>
+      <c r="A50" s="225"/>
+      <c r="B50" s="226"/>
+      <c r="C50" s="226"/>
+      <c r="D50" s="226"/>
+      <c r="E50" s="226"/>
+      <c r="F50" s="226"/>
+      <c r="G50" s="226"/>
+      <c r="H50" s="226"/>
+      <c r="I50" s="226"/>
+      <c r="J50" s="226"/>
+      <c r="K50" s="226"/>
+      <c r="L50" s="226"/>
+      <c r="M50" s="226"/>
+      <c r="N50" s="226"/>
+      <c r="O50" s="226"/>
+      <c r="P50" s="226"/>
+      <c r="Q50" s="226"/>
+      <c r="R50" s="226"/>
+      <c r="S50" s="226"/>
+      <c r="T50" s="226"/>
+      <c r="U50" s="226"/>
+      <c r="V50" s="226"/>
+      <c r="W50" s="226"/>
+      <c r="X50" s="226"/>
+      <c r="Y50" s="227"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
-      <c r="V51" s="82"/>
-      <c r="W51" s="82"/>
-      <c r="X51" s="82"/>
-      <c r="Y51" s="83"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="124"/>
+      <c r="M51" s="124"/>
+      <c r="N51" s="124"/>
+      <c r="O51" s="124"/>
+      <c r="P51" s="124"/>
+      <c r="Q51" s="124"/>
+      <c r="R51" s="124"/>
+      <c r="S51" s="124"/>
+      <c r="T51" s="124"/>
+      <c r="U51" s="124"/>
+      <c r="V51" s="124"/>
+      <c r="W51" s="124"/>
+      <c r="X51" s="124"/>
+      <c r="Y51" s="125"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="84" t="s">
+      <c r="A52" s="126" t="s">
         <v>194</v>
       </c>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
-      <c r="Q52" s="85"/>
-      <c r="R52" s="85"/>
-      <c r="S52" s="85"/>
-      <c r="T52" s="85"/>
-      <c r="U52" s="85"/>
-      <c r="V52" s="85"/>
-      <c r="W52" s="85"/>
-      <c r="X52" s="85"/>
-      <c r="Y52" s="86"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="127"/>
+      <c r="M52" s="127"/>
+      <c r="N52" s="127"/>
+      <c r="O52" s="127"/>
+      <c r="P52" s="127"/>
+      <c r="Q52" s="127"/>
+      <c r="R52" s="127"/>
+      <c r="S52" s="127"/>
+      <c r="T52" s="127"/>
+      <c r="U52" s="127"/>
+      <c r="V52" s="127"/>
+      <c r="W52" s="127"/>
+      <c r="X52" s="127"/>
+      <c r="Y52" s="128"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
-      <c r="Q53" s="88"/>
-      <c r="R53" s="88"/>
-      <c r="S53" s="88"/>
-      <c r="T53" s="88"/>
-      <c r="U53" s="88"/>
-      <c r="V53" s="88"/>
-      <c r="W53" s="88"/>
-      <c r="X53" s="88"/>
-      <c r="Y53" s="89"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="130"/>
+      <c r="P53" s="130"/>
+      <c r="Q53" s="130"/>
+      <c r="R53" s="130"/>
+      <c r="S53" s="130"/>
+      <c r="T53" s="130"/>
+      <c r="U53" s="130"/>
+      <c r="V53" s="130"/>
+      <c r="W53" s="130"/>
+      <c r="X53" s="130"/>
+      <c r="Y53" s="131"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="71" t="s">
         <v>186</v>
       </c>
       <c r="B56" s="8"/>
@@ -7381,66 +7866,66 @@
       <c r="Y56" s="9"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="77"/>
-      <c r="Y57" s="78"/>
+      <c r="A57" s="72"/>
+      <c r="Y57" s="73"/>
     </row>
     <row r="58" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A58" s="77"/>
-      <c r="B58" s="85" t="s">
+      <c r="A58" s="72"/>
+      <c r="B58" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85" t="s">
+      <c r="C58" s="127"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
+      <c r="G58" s="127" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="L58" s="90" t="s">
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="127"/>
+      <c r="L58" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="M58" s="90"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="90"/>
+      <c r="M58" s="158"/>
+      <c r="N58" s="158"/>
+      <c r="O58" s="158"/>
       <c r="P58" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="Y58" s="78"/>
+      <c r="Y58" s="73"/>
     </row>
     <row r="59" spans="1:25" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="77"/>
-      <c r="B59" s="80" t="s">
+      <c r="A59" s="72"/>
+      <c r="B59" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="91" t="s">
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="164" t="s">
         <v>193</v>
       </c>
-      <c r="M59" s="91"/>
-      <c r="N59" s="91"/>
-      <c r="O59" s="91"/>
-      <c r="P59" s="80" t="s">
+      <c r="M59" s="164"/>
+      <c r="N59" s="164"/>
+      <c r="O59" s="164"/>
+      <c r="P59" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="Y59" s="78"/>
+      <c r="Y59" s="73"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="77"/>
-      <c r="Y60" s="78"/>
+      <c r="A60" s="72"/>
+      <c r="Y60" s="73"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="79"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>

--- a/template/取引成立台帳.xlsx
+++ b/template/取引成立台帳.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fwxWork\MetPro\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7C5F52-5ED5-4DFD-A45E-8317FD293AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637E9056-29F6-4FFC-A86E-5211CD8D7657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D08DF634-D05B-48EB-A5E5-3C43C6308EA5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="221">
   <si>
     <t>成立年月日</t>
     <rPh sb="0" eb="2">
@@ -1392,6 +1392,26 @@
   </si>
   <si>
     <t>$salesOutsourcingPricePayDay_DD$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$l2_landTitle$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$l2_expirationDate_wareki$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$l2_expirationDate_YY$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$l2_expirationDate_MM$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$l2_expirationDate_DD$</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2593,6 +2613,561 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
@@ -2650,560 +3225,95 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -3237,96 +3347,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3657,60 +3677,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="175" t="s">
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="R1" s="177" t="s">
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="R1" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="179" t="s">
+      <c r="S1" s="227"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="228" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="181"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="230"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="R2" s="177" t="s">
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="R2" s="226" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="178"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="182" t="s">
+      <c r="S2" s="227"/>
+      <c r="T2" s="227"/>
+      <c r="U2" s="231" t="s">
         <v>81</v>
       </c>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="184"/>
+      <c r="V2" s="232"/>
+      <c r="W2" s="232"/>
+      <c r="X2" s="232"/>
+      <c r="Y2" s="233"/>
     </row>
     <row r="3" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -3740,26 +3760,26 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="263" t="s">
+      <c r="B4" s="161"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="265"/>
-      <c r="L4" s="276" t="s">
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="277"/>
-      <c r="N4" s="278"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="117"/>
       <c r="O4" s="7" t="s">
         <v>67</v>
       </c>
@@ -3781,24 +3801,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="263" t="s">
+      <c r="B5" s="161"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="148" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
-      <c r="K5" s="265"/>
-      <c r="L5" s="279"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="281"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="167"/>
       <c r="O5" s="10" t="s">
         <v>67</v>
       </c>
@@ -3809,10 +3829,10 @@
       <c r="R5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="140" t="s">
+      <c r="S5" s="187" t="s">
         <v>63</v>
       </c>
-      <c r="T5" s="238"/>
+      <c r="T5" s="188"/>
       <c r="U5" s="11" t="s">
         <v>67</v>
       </c>
@@ -3830,333 +3850,333 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="262" t="s">
+      <c r="A6" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="187" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="233" t="s">
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="234"/>
-      <c r="N6" s="187" t="s">
+      <c r="M6" s="159"/>
+      <c r="N6" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="186"/>
-      <c r="S6" s="186"/>
-      <c r="T6" s="186"/>
-      <c r="U6" s="186"/>
-      <c r="V6" s="186"/>
-      <c r="W6" s="186"/>
-      <c r="X6" s="186"/>
-      <c r="Y6" s="188"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="100"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="121"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="262"/>
-      <c r="B7" s="185" t="s">
+      <c r="A7" s="163"/>
+      <c r="B7" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="187" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="233" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="234"/>
-      <c r="N7" s="187" t="s">
+      <c r="M7" s="159"/>
+      <c r="N7" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="186"/>
-      <c r="S7" s="186"/>
-      <c r="T7" s="186"/>
-      <c r="U7" s="186"/>
-      <c r="V7" s="186"/>
-      <c r="W7" s="186"/>
-      <c r="X7" s="186"/>
-      <c r="Y7" s="188"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="121"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="262"/>
-      <c r="B8" s="185" t="s">
+      <c r="A8" s="163"/>
+      <c r="B8" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="233" t="s">
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="234"/>
-      <c r="N8" s="187" t="s">
+      <c r="M8" s="159"/>
+      <c r="N8" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="186"/>
-      <c r="S8" s="186"/>
-      <c r="T8" s="186"/>
-      <c r="U8" s="186"/>
-      <c r="V8" s="186"/>
-      <c r="W8" s="186"/>
-      <c r="X8" s="186"/>
-      <c r="Y8" s="188"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="100"/>
+      <c r="Y8" s="121"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="262"/>
-      <c r="B9" s="239" t="s">
+      <c r="A9" s="163"/>
+      <c r="B9" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="240"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="233" t="s">
+      <c r="C9" s="190"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="234"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="186"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="186"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="186"/>
-      <c r="W9" s="186"/>
-      <c r="X9" s="186"/>
-      <c r="Y9" s="188"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="100"/>
+      <c r="W9" s="100"/>
+      <c r="X9" s="100"/>
+      <c r="Y9" s="121"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="262" t="s">
+      <c r="A10" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="186"/>
-      <c r="D10" s="187" t="s">
+      <c r="C10" s="100"/>
+      <c r="D10" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="233" t="s">
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="234"/>
-      <c r="N10" s="187" t="s">
+      <c r="M10" s="159"/>
+      <c r="N10" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="186"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="186"/>
-      <c r="U10" s="186"/>
-      <c r="V10" s="186"/>
-      <c r="W10" s="186"/>
-      <c r="X10" s="186"/>
-      <c r="Y10" s="188"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="121"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="262"/>
-      <c r="B11" s="185" t="s">
+      <c r="A11" s="163"/>
+      <c r="B11" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="186"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="233" t="s">
+      <c r="C11" s="100"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="234"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="186"/>
-      <c r="S11" s="186"/>
-      <c r="T11" s="186"/>
-      <c r="U11" s="186"/>
-      <c r="V11" s="186"/>
-      <c r="W11" s="186"/>
-      <c r="X11" s="186"/>
-      <c r="Y11" s="188"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="121"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="262"/>
-      <c r="B12" s="185" t="s">
+      <c r="A12" s="163"/>
+      <c r="B12" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="233" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="234"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="186"/>
-      <c r="P12" s="186"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="186"/>
-      <c r="S12" s="186"/>
-      <c r="T12" s="186"/>
-      <c r="U12" s="186"/>
-      <c r="V12" s="186"/>
-      <c r="W12" s="186"/>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="188"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="100"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="121"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="262"/>
-      <c r="B13" s="239" t="s">
+      <c r="A13" s="163"/>
+      <c r="B13" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="240"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="233" t="s">
+      <c r="C13" s="190"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="234"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="186"/>
-      <c r="P13" s="186"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="186"/>
-      <c r="S13" s="186"/>
-      <c r="T13" s="186"/>
-      <c r="U13" s="186"/>
-      <c r="V13" s="186"/>
-      <c r="W13" s="186"/>
-      <c r="X13" s="186"/>
-      <c r="Y13" s="188"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="100"/>
+      <c r="T13" s="100"/>
+      <c r="U13" s="100"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="100"/>
+      <c r="Y13" s="121"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="223" t="s">
+      <c r="A14" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="259"/>
-      <c r="C14" s="259"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="259"/>
-      <c r="F14" s="259"/>
-      <c r="G14" s="224" t="s">
+      <c r="B14" s="180"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="224"/>
-      <c r="I14" s="224"/>
-      <c r="J14" s="224"/>
-      <c r="K14" s="224"/>
-      <c r="L14" s="224"/>
-      <c r="M14" s="224"/>
-      <c r="N14" s="224"/>
-      <c r="O14" s="224"/>
-      <c r="P14" s="224"/>
-      <c r="Q14" s="224"/>
-      <c r="R14" s="224"/>
-      <c r="S14" s="224"/>
-      <c r="T14" s="224"/>
-      <c r="U14" s="224"/>
-      <c r="V14" s="224"/>
-      <c r="W14" s="224"/>
-      <c r="X14" s="224"/>
-      <c r="Y14" s="225"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="102"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="243"/>
-      <c r="B15" s="244"/>
-      <c r="C15" s="244"/>
-      <c r="D15" s="244"/>
-      <c r="E15" s="244"/>
-      <c r="F15" s="244"/>
-      <c r="G15" s="244"/>
-      <c r="H15" s="244"/>
-      <c r="I15" s="244"/>
-      <c r="J15" s="244"/>
-      <c r="K15" s="244"/>
-      <c r="L15" s="244"/>
-      <c r="M15" s="244"/>
-      <c r="N15" s="244"/>
-      <c r="O15" s="244"/>
-      <c r="P15" s="244"/>
-      <c r="Q15" s="244"/>
-      <c r="R15" s="244"/>
-      <c r="S15" s="244"/>
-      <c r="T15" s="244"/>
-      <c r="U15" s="244"/>
-      <c r="V15" s="244"/>
-      <c r="W15" s="244"/>
-      <c r="X15" s="244"/>
-      <c r="Y15" s="245"/>
+      <c r="A15" s="198"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="115"/>
+      <c r="W15" s="115"/>
+      <c r="X15" s="115"/>
+      <c r="Y15" s="199"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="260" t="s">
+      <c r="A16" s="181" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -4164,90 +4184,90 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="257" t="s">
+      <c r="E16" s="177" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="257"/>
-      <c r="G16" s="257"/>
-      <c r="H16" s="257"/>
-      <c r="I16" s="257"/>
-      <c r="J16" s="257"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="257"/>
-      <c r="M16" s="257"/>
-      <c r="N16" s="257"/>
-      <c r="O16" s="257"/>
-      <c r="P16" s="257"/>
-      <c r="Q16" s="257"/>
-      <c r="R16" s="257"/>
-      <c r="S16" s="257"/>
-      <c r="T16" s="257"/>
-      <c r="U16" s="257"/>
-      <c r="V16" s="257"/>
-      <c r="W16" s="257"/>
-      <c r="X16" s="257"/>
-      <c r="Y16" s="258"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="178"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="201"/>
-      <c r="B17" s="267" t="s">
+      <c r="A17" s="182"/>
+      <c r="B17" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="268"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="154"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="232" t="s">
+      <c r="F17" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="232"/>
-      <c r="H17" s="232"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="272"/>
-      <c r="K17" s="272"/>
-      <c r="L17" s="272"/>
-      <c r="M17" s="273" t="s">
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="274"/>
-      <c r="O17" s="274"/>
-      <c r="P17" s="275" t="s">
+      <c r="N17" s="157"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="158" t="s">
         <v>135</v>
       </c>
-      <c r="Q17" s="275"/>
-      <c r="R17" s="275"/>
+      <c r="Q17" s="158"/>
+      <c r="R17" s="158"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="246" t="s">
+      <c r="U17" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="247"/>
-      <c r="W17" s="247"/>
-      <c r="X17" s="247"/>
-      <c r="Y17" s="248"/>
+      <c r="V17" s="169"/>
+      <c r="W17" s="169"/>
+      <c r="X17" s="169"/>
+      <c r="Y17" s="170"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="201"/>
-      <c r="B18" s="269" t="s">
+      <c r="A18" s="182"/>
+      <c r="B18" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="270"/>
-      <c r="D18" s="271"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="107"/>
       <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="266" t="s">
+      <c r="G18" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="H18" s="266"/>
-      <c r="I18" s="266"/>
-      <c r="J18" s="266"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -4256,85 +4276,85 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="266"/>
-      <c r="P18" s="266"/>
-      <c r="Q18" s="266"/>
-      <c r="R18" s="266"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="206" t="s">
+      <c r="U18" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="V18" s="207"/>
-      <c r="W18" s="207"/>
-      <c r="X18" s="207"/>
-      <c r="Y18" s="208"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="119"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="120"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="201"/>
-      <c r="B19" s="218" t="s">
+      <c r="A19" s="182"/>
+      <c r="B19" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="223"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="224"/>
-      <c r="J19" s="224"/>
-      <c r="K19" s="224"/>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
-      <c r="O19" s="224"/>
-      <c r="P19" s="224"/>
-      <c r="Q19" s="224"/>
-      <c r="R19" s="224"/>
-      <c r="S19" s="224"/>
-      <c r="T19" s="224"/>
-      <c r="U19" s="224"/>
-      <c r="V19" s="224"/>
-      <c r="W19" s="224"/>
-      <c r="X19" s="224"/>
-      <c r="Y19" s="225"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="101"/>
+      <c r="X19" s="101"/>
+      <c r="Y19" s="102"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="201"/>
-      <c r="B20" s="219"/>
-      <c r="C20" s="261"/>
-      <c r="D20" s="255"/>
-      <c r="E20" s="255"/>
-      <c r="F20" s="255"/>
-      <c r="G20" s="255"/>
-      <c r="H20" s="255"/>
-      <c r="I20" s="255"/>
-      <c r="J20" s="255"/>
-      <c r="K20" s="255"/>
-      <c r="L20" s="255"/>
-      <c r="M20" s="255"/>
-      <c r="N20" s="255"/>
-      <c r="O20" s="255"/>
-      <c r="P20" s="255"/>
-      <c r="Q20" s="255"/>
-      <c r="R20" s="255"/>
-      <c r="S20" s="255"/>
-      <c r="T20" s="255"/>
-      <c r="U20" s="255"/>
-      <c r="V20" s="255"/>
-      <c r="W20" s="255"/>
-      <c r="X20" s="255"/>
-      <c r="Y20" s="256"/>
+      <c r="A20" s="182"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="143"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="143"/>
+      <c r="X20" s="143"/>
+      <c r="Y20" s="144"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="201"/>
-      <c r="B21" s="219"/>
-      <c r="C21" s="209" t="s">
+      <c r="A21" s="182"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="209"/>
+      <c r="D21" s="205"/>
       <c r="E21" s="23" t="s">
         <v>159</v>
       </c>
@@ -4348,196 +4368,204 @@
         <v>161</v>
       </c>
       <c r="K21" s="25"/>
-      <c r="L21" s="252" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="221"/>
-      <c r="N21" s="222"/>
-      <c r="O21" s="222"/>
-      <c r="P21" s="222"/>
+      <c r="L21" s="140" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" s="108"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="109"/>
       <c r="Q21" s="8" t="s">
         <v>149</v>
       </c>
       <c r="R21" s="9"/>
-      <c r="S21" s="249" t="s">
+      <c r="S21" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="250"/>
-      <c r="U21" s="250"/>
-      <c r="V21" s="250"/>
-      <c r="W21" s="250"/>
-      <c r="X21" s="250"/>
-      <c r="Y21" s="251"/>
+      <c r="T21" s="126"/>
+      <c r="U21" s="126"/>
+      <c r="V21" s="126"/>
+      <c r="W21" s="126"/>
+      <c r="X21" s="126"/>
+      <c r="Y21" s="127"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="202"/>
-      <c r="B22" s="220"/>
-      <c r="C22" s="210" t="s">
+      <c r="A22" s="183"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="210"/>
-      <c r="E22" s="254" t="s">
+      <c r="D22" s="128"/>
+      <c r="E22" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="255"/>
-      <c r="G22" s="255"/>
-      <c r="H22" s="255"/>
-      <c r="I22" s="255"/>
-      <c r="J22" s="255"/>
-      <c r="K22" s="256"/>
-      <c r="L22" s="253"/>
-      <c r="M22" s="211" t="s">
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="N22" s="212"/>
-      <c r="O22" s="212"/>
-      <c r="P22" s="212"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="175"/>
       <c r="Q22" s="5" t="s">
         <v>150</v>
       </c>
       <c r="R22" s="12"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="27"/>
+      <c r="S22" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="T22" s="27" t="s">
+        <v>218</v>
+      </c>
       <c r="U22" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="V22" s="28"/>
+      <c r="V22" s="28" t="s">
+        <v>219</v>
+      </c>
       <c r="W22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="X22" s="28"/>
+      <c r="X22" s="28" t="s">
+        <v>220</v>
+      </c>
       <c r="Y22" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="200" t="s">
+      <c r="A23" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="269" t="s">
+      <c r="B23" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="270"/>
-      <c r="D23" s="271"/>
-      <c r="E23" s="298" t="s">
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="270"/>
-      <c r="G23" s="270"/>
-      <c r="H23" s="270"/>
-      <c r="I23" s="270"/>
-      <c r="J23" s="270"/>
-      <c r="K23" s="270"/>
-      <c r="L23" s="270"/>
-      <c r="M23" s="270"/>
-      <c r="N23" s="270"/>
-      <c r="O23" s="270"/>
-      <c r="P23" s="270"/>
-      <c r="Q23" s="270"/>
-      <c r="R23" s="270"/>
-      <c r="S23" s="270"/>
-      <c r="T23" s="270"/>
-      <c r="U23" s="270"/>
-      <c r="V23" s="270"/>
-      <c r="W23" s="270"/>
-      <c r="X23" s="270"/>
-      <c r="Y23" s="299"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="106"/>
+      <c r="Y23" s="111"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="201"/>
-      <c r="B24" s="269" t="s">
+      <c r="A24" s="182"/>
+      <c r="B24" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="270"/>
-      <c r="D24" s="271"/>
-      <c r="E24" s="244" t="s">
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="244"/>
-      <c r="G24" s="244"/>
-      <c r="H24" s="244"/>
-      <c r="I24" s="244"/>
-      <c r="J24" s="244"/>
-      <c r="K24" s="244"/>
-      <c r="L24" s="244"/>
-      <c r="M24" s="244"/>
-      <c r="N24" s="244"/>
-      <c r="O24" s="276" t="s">
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="278"/>
-      <c r="Q24" s="300"/>
-      <c r="R24" s="300"/>
-      <c r="S24" s="301" t="s">
+      <c r="P24" s="117"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="302"/>
-      <c r="U24" s="296" t="s">
+      <c r="T24" s="114"/>
+      <c r="U24" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="296"/>
-      <c r="W24" s="296"/>
-      <c r="X24" s="296"/>
-      <c r="Y24" s="297"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="104"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="201"/>
-      <c r="B25" s="269" t="s">
+      <c r="A25" s="182"/>
+      <c r="B25" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="270"/>
-      <c r="D25" s="271"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="186"/>
-      <c r="L25" s="186"/>
-      <c r="M25" s="186"/>
-      <c r="N25" s="186"/>
-      <c r="O25" s="224"/>
-      <c r="P25" s="224"/>
-      <c r="Q25" s="224"/>
-      <c r="R25" s="224"/>
-      <c r="S25" s="224"/>
-      <c r="T25" s="225"/>
-      <c r="U25" s="206" t="s">
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="118" t="s">
         <v>178</v>
       </c>
-      <c r="V25" s="207"/>
-      <c r="W25" s="207"/>
-      <c r="X25" s="207"/>
-      <c r="Y25" s="208"/>
+      <c r="V25" s="119"/>
+      <c r="W25" s="119"/>
+      <c r="X25" s="119"/>
+      <c r="Y25" s="120"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="201"/>
-      <c r="B26" s="269" t="s">
+      <c r="A26" s="182"/>
+      <c r="B26" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="270"/>
-      <c r="D26" s="271"/>
-      <c r="E26" s="187" t="s">
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="186"/>
-      <c r="L26" s="186"/>
-      <c r="M26" s="186"/>
-      <c r="N26" s="186"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
       <c r="O26" s="21"/>
       <c r="P26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="232" t="s">
+      <c r="Q26" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="R26" s="232"/>
+      <c r="R26" s="123"/>
       <c r="S26" s="31" t="s">
         <v>13</v>
       </c>
@@ -4545,80 +4573,80 @@
       <c r="U26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="232"/>
-      <c r="W26" s="232"/>
+      <c r="V26" s="123"/>
+      <c r="W26" s="123"/>
       <c r="X26" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="201"/>
-      <c r="B27" s="269" t="s">
+      <c r="A27" s="182"/>
+      <c r="B27" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="270"/>
-      <c r="D27" s="271"/>
-      <c r="E27" s="187" t="s">
+      <c r="C27" s="106"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="188"/>
-      <c r="L27" s="233" t="s">
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="232"/>
-      <c r="N27" s="282"/>
-      <c r="O27" s="286"/>
-      <c r="P27" s="232"/>
-      <c r="Q27" s="287"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="134"/>
       <c r="R27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="249" t="s">
+      <c r="S27" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="250"/>
-      <c r="U27" s="250"/>
-      <c r="V27" s="250"/>
-      <c r="W27" s="250"/>
-      <c r="X27" s="250"/>
-      <c r="Y27" s="251"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="126"/>
+      <c r="W27" s="126"/>
+      <c r="X27" s="126"/>
+      <c r="Y27" s="127"/>
       <c r="Z27" s="33"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="201"/>
-      <c r="B28" s="185" t="s">
+      <c r="A28" s="182"/>
+      <c r="B28" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="283"/>
-      <c r="D28" s="283"/>
-      <c r="E28" s="284" t="s">
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="285"/>
-      <c r="G28" s="285"/>
-      <c r="H28" s="285"/>
-      <c r="I28" s="285"/>
-      <c r="J28" s="285"/>
-      <c r="K28" s="285"/>
-      <c r="L28" s="285"/>
-      <c r="M28" s="285"/>
-      <c r="N28" s="285"/>
-      <c r="O28" s="285"/>
-      <c r="P28" s="285"/>
-      <c r="Q28" s="285"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="132"/>
+      <c r="Q28" s="132"/>
       <c r="R28" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="288" t="s">
+      <c r="S28" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="T28" s="289"/>
+      <c r="T28" s="136"/>
       <c r="U28" s="28" t="s">
         <v>28</v>
       </c>
@@ -4637,125 +4665,125 @@
       <c r="Z28" s="33"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="201"/>
-      <c r="B29" s="218" t="s">
+      <c r="A29" s="182"/>
+      <c r="B29" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="223"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
-      <c r="F29" s="224"/>
-      <c r="G29" s="224"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="224"/>
-      <c r="J29" s="224"/>
-      <c r="K29" s="224"/>
-      <c r="L29" s="224"/>
-      <c r="M29" s="224"/>
-      <c r="N29" s="224"/>
-      <c r="O29" s="224"/>
-      <c r="P29" s="224"/>
-      <c r="Q29" s="224"/>
-      <c r="R29" s="224"/>
-      <c r="S29" s="224"/>
-      <c r="T29" s="224"/>
-      <c r="U29" s="224"/>
-      <c r="V29" s="224"/>
-      <c r="W29" s="224"/>
-      <c r="X29" s="224"/>
-      <c r="Y29" s="225"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="102"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="201"/>
-      <c r="B30" s="219"/>
-      <c r="C30" s="261"/>
-      <c r="D30" s="255"/>
-      <c r="E30" s="255"/>
-      <c r="F30" s="255"/>
-      <c r="G30" s="255"/>
-      <c r="H30" s="255"/>
-      <c r="I30" s="255"/>
-      <c r="J30" s="255"/>
-      <c r="K30" s="255"/>
-      <c r="L30" s="255"/>
-      <c r="M30" s="255"/>
-      <c r="N30" s="255"/>
-      <c r="O30" s="255"/>
-      <c r="P30" s="255"/>
-      <c r="Q30" s="255"/>
-      <c r="R30" s="255"/>
-      <c r="S30" s="255"/>
-      <c r="T30" s="255"/>
-      <c r="U30" s="255"/>
-      <c r="V30" s="255"/>
-      <c r="W30" s="255"/>
-      <c r="X30" s="255"/>
-      <c r="Y30" s="256"/>
+      <c r="A30" s="182"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="143"/>
+      <c r="N30" s="143"/>
+      <c r="O30" s="143"/>
+      <c r="P30" s="143"/>
+      <c r="Q30" s="143"/>
+      <c r="R30" s="143"/>
+      <c r="S30" s="143"/>
+      <c r="T30" s="143"/>
+      <c r="U30" s="143"/>
+      <c r="V30" s="143"/>
+      <c r="W30" s="143"/>
+      <c r="X30" s="143"/>
+      <c r="Y30" s="144"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="201"/>
-      <c r="B31" s="219"/>
-      <c r="C31" s="209" t="s">
+      <c r="A31" s="182"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="209"/>
-      <c r="E31" s="290" t="s">
+      <c r="D31" s="205"/>
+      <c r="E31" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="291"/>
-      <c r="G31" s="292" t="s">
+      <c r="F31" s="138"/>
+      <c r="G31" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="H31" s="224"/>
-      <c r="I31" s="224"/>
-      <c r="J31" s="224"/>
-      <c r="K31" s="224"/>
-      <c r="L31" s="252" t="s">
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="221"/>
-      <c r="N31" s="222"/>
-      <c r="O31" s="222"/>
-      <c r="P31" s="222"/>
-      <c r="Q31" s="148"/>
-      <c r="R31" s="150"/>
-      <c r="S31" s="249" t="s">
+      <c r="M31" s="108"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="192"/>
+      <c r="R31" s="193"/>
+      <c r="S31" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="250"/>
-      <c r="U31" s="250"/>
-      <c r="V31" s="250"/>
-      <c r="W31" s="250"/>
-      <c r="X31" s="250"/>
-      <c r="Y31" s="251"/>
+      <c r="T31" s="126"/>
+      <c r="U31" s="126"/>
+      <c r="V31" s="126"/>
+      <c r="W31" s="126"/>
+      <c r="X31" s="126"/>
+      <c r="Y31" s="127"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="202"/>
-      <c r="B32" s="220"/>
-      <c r="C32" s="210" t="s">
+      <c r="A32" s="183"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="210"/>
-      <c r="E32" s="293" t="s">
+      <c r="D32" s="128"/>
+      <c r="E32" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="F32" s="294"/>
-      <c r="G32" s="294"/>
-      <c r="H32" s="294"/>
-      <c r="I32" s="294"/>
-      <c r="J32" s="294"/>
-      <c r="K32" s="295"/>
-      <c r="L32" s="253"/>
-      <c r="M32" s="211" t="s">
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="174" t="s">
         <v>169</v>
       </c>
-      <c r="N32" s="212"/>
-      <c r="O32" s="212"/>
-      <c r="P32" s="212"/>
-      <c r="Q32" s="241" t="s">
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="191" t="s">
         <v>150</v>
       </c>
-      <c r="R32" s="237"/>
+      <c r="R32" s="186"/>
       <c r="S32" s="26" t="s">
         <v>171</v>
       </c>
@@ -4779,359 +4807,359 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="213" t="s">
+      <c r="A33" s="206" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="215" t="s">
+      <c r="D33" s="208" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="216"/>
-      <c r="F33" s="216"/>
-      <c r="G33" s="216"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="217"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="210"/>
       <c r="J33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="118" t="s">
+      <c r="K33" s="238" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="35"/>
-      <c r="N33" s="192" t="s">
+      <c r="N33" s="234" t="s">
         <v>90</v>
       </c>
-      <c r="O33" s="193"/>
-      <c r="P33" s="193"/>
-      <c r="Q33" s="193"/>
-      <c r="R33" s="193"/>
-      <c r="S33" s="193"/>
-      <c r="T33" s="193"/>
-      <c r="U33" s="194" t="s">
+      <c r="O33" s="235"/>
+      <c r="P33" s="235"/>
+      <c r="Q33" s="235"/>
+      <c r="R33" s="235"/>
+      <c r="S33" s="235"/>
+      <c r="T33" s="235"/>
+      <c r="U33" s="236" t="s">
         <v>91</v>
       </c>
-      <c r="V33" s="195"/>
-      <c r="W33" s="195"/>
-      <c r="X33" s="195"/>
+      <c r="V33" s="237"/>
+      <c r="W33" s="237"/>
+      <c r="X33" s="237"/>
       <c r="Y33" s="38" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="33"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="214"/>
+      <c r="A34" s="207"/>
       <c r="B34" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="40"/>
-      <c r="D34" s="196" t="s">
+      <c r="D34" s="211" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="197"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="197"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="197"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="212"/>
+      <c r="H34" s="212"/>
+      <c r="I34" s="212"/>
       <c r="J34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="119"/>
+      <c r="K34" s="239"/>
       <c r="L34" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="40"/>
-      <c r="N34" s="163" t="s">
+      <c r="N34" s="196" t="s">
         <v>93</v>
       </c>
-      <c r="O34" s="164"/>
-      <c r="P34" s="164"/>
-      <c r="Q34" s="164"/>
-      <c r="R34" s="164"/>
-      <c r="S34" s="164"/>
-      <c r="T34" s="164"/>
-      <c r="U34" s="144" t="s">
+      <c r="O34" s="197"/>
+      <c r="P34" s="197"/>
+      <c r="Q34" s="197"/>
+      <c r="R34" s="197"/>
+      <c r="S34" s="197"/>
+      <c r="T34" s="197"/>
+      <c r="U34" s="219" t="s">
         <v>92</v>
       </c>
-      <c r="V34" s="145"/>
-      <c r="W34" s="145"/>
-      <c r="X34" s="145"/>
+      <c r="V34" s="220"/>
+      <c r="W34" s="220"/>
+      <c r="X34" s="220"/>
       <c r="Y34" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="214"/>
+      <c r="A35" s="207"/>
       <c r="B35" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="40"/>
-      <c r="D35" s="196" t="s">
+      <c r="D35" s="211" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="197"/>
-      <c r="F35" s="197"/>
-      <c r="G35" s="197"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="197"/>
+      <c r="E35" s="212"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
+      <c r="H35" s="212"/>
+      <c r="I35" s="212"/>
       <c r="J35" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="119"/>
+      <c r="K35" s="239"/>
       <c r="L35" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="40"/>
-      <c r="N35" s="163" t="s">
+      <c r="N35" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="O35" s="164"/>
-      <c r="P35" s="164"/>
-      <c r="Q35" s="164"/>
-      <c r="R35" s="164"/>
-      <c r="S35" s="164"/>
-      <c r="T35" s="164"/>
-      <c r="U35" s="144" t="s">
+      <c r="O35" s="197"/>
+      <c r="P35" s="197"/>
+      <c r="Q35" s="197"/>
+      <c r="R35" s="197"/>
+      <c r="S35" s="197"/>
+      <c r="T35" s="197"/>
+      <c r="U35" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="V35" s="145"/>
-      <c r="W35" s="145"/>
-      <c r="X35" s="145"/>
+      <c r="V35" s="220"/>
+      <c r="W35" s="220"/>
+      <c r="X35" s="220"/>
       <c r="Y35" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="214"/>
+      <c r="A36" s="207"/>
       <c r="B36" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="44"/>
-      <c r="D36" s="196"/>
-      <c r="E36" s="197"/>
-      <c r="F36" s="197"/>
-      <c r="G36" s="197"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="197"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="212"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="212"/>
+      <c r="H36" s="212"/>
+      <c r="I36" s="212"/>
       <c r="J36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="119"/>
+      <c r="K36" s="239"/>
       <c r="L36" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M36" s="44"/>
-      <c r="N36" s="163" t="s">
+      <c r="N36" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="O36" s="164"/>
-      <c r="P36" s="164"/>
-      <c r="Q36" s="164"/>
-      <c r="R36" s="164"/>
-      <c r="S36" s="164"/>
-      <c r="T36" s="164"/>
-      <c r="U36" s="144" t="s">
+      <c r="O36" s="197"/>
+      <c r="P36" s="197"/>
+      <c r="Q36" s="197"/>
+      <c r="R36" s="197"/>
+      <c r="S36" s="197"/>
+      <c r="T36" s="197"/>
+      <c r="U36" s="219" t="s">
         <v>96</v>
       </c>
-      <c r="V36" s="145"/>
-      <c r="W36" s="145"/>
-      <c r="X36" s="145"/>
+      <c r="V36" s="220"/>
+      <c r="W36" s="220"/>
+      <c r="X36" s="220"/>
       <c r="Y36" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="214"/>
+      <c r="A37" s="207"/>
       <c r="B37" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="44"/>
-      <c r="D37" s="196" t="s">
+      <c r="D37" s="211" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="197"/>
-      <c r="F37" s="197"/>
-      <c r="G37" s="197"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="197"/>
+      <c r="E37" s="212"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="212"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="212"/>
       <c r="J37" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="119"/>
+      <c r="K37" s="239"/>
       <c r="L37" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M37" s="44"/>
-      <c r="N37" s="163" t="s">
+      <c r="N37" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="O37" s="164"/>
-      <c r="P37" s="164"/>
-      <c r="Q37" s="164"/>
-      <c r="R37" s="164"/>
-      <c r="S37" s="164"/>
-      <c r="T37" s="164"/>
-      <c r="U37" s="144" t="s">
+      <c r="O37" s="197"/>
+      <c r="P37" s="197"/>
+      <c r="Q37" s="197"/>
+      <c r="R37" s="197"/>
+      <c r="S37" s="197"/>
+      <c r="T37" s="197"/>
+      <c r="U37" s="219" t="s">
         <v>98</v>
       </c>
-      <c r="V37" s="145"/>
-      <c r="W37" s="145"/>
-      <c r="X37" s="145"/>
+      <c r="V37" s="220"/>
+      <c r="W37" s="220"/>
+      <c r="X37" s="220"/>
       <c r="Y37" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="214"/>
-      <c r="B38" s="226" t="s">
+      <c r="A38" s="207"/>
+      <c r="B38" s="213" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="227"/>
-      <c r="D38" s="165" t="s">
+      <c r="C38" s="214"/>
+      <c r="D38" s="276" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="166"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="171" t="s">
+      <c r="E38" s="277"/>
+      <c r="F38" s="277"/>
+      <c r="G38" s="277"/>
+      <c r="H38" s="277"/>
+      <c r="I38" s="277"/>
+      <c r="J38" s="281" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="119"/>
+      <c r="K38" s="239"/>
       <c r="L38" s="42" t="s">
         <v>77</v>
       </c>
       <c r="M38" s="40"/>
-      <c r="N38" s="163" t="s">
+      <c r="N38" s="196" t="s">
         <v>83</v>
       </c>
-      <c r="O38" s="164"/>
-      <c r="P38" s="164"/>
-      <c r="Q38" s="164"/>
-      <c r="R38" s="164"/>
-      <c r="S38" s="164"/>
-      <c r="T38" s="164"/>
-      <c r="U38" s="144" t="s">
+      <c r="O38" s="197"/>
+      <c r="P38" s="197"/>
+      <c r="Q38" s="197"/>
+      <c r="R38" s="197"/>
+      <c r="S38" s="197"/>
+      <c r="T38" s="197"/>
+      <c r="U38" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="V38" s="145"/>
-      <c r="W38" s="145"/>
-      <c r="X38" s="145"/>
+      <c r="V38" s="220"/>
+      <c r="W38" s="220"/>
+      <c r="X38" s="220"/>
       <c r="Y38" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="214"/>
-      <c r="B39" s="228"/>
-      <c r="C39" s="229"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="172"/>
-      <c r="K39" s="119"/>
+      <c r="A39" s="207"/>
+      <c r="B39" s="215"/>
+      <c r="C39" s="216"/>
+      <c r="D39" s="278"/>
+      <c r="E39" s="222"/>
+      <c r="F39" s="222"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="222"/>
+      <c r="I39" s="222"/>
+      <c r="J39" s="282"/>
+      <c r="K39" s="239"/>
       <c r="L39" s="69" t="s">
         <v>78</v>
       </c>
       <c r="M39" s="70"/>
-      <c r="N39" s="142" t="s">
+      <c r="N39" s="259" t="s">
         <v>101</v>
       </c>
-      <c r="O39" s="143"/>
-      <c r="P39" s="143"/>
-      <c r="Q39" s="143"/>
-      <c r="R39" s="143"/>
-      <c r="S39" s="143"/>
-      <c r="T39" s="143"/>
-      <c r="U39" s="198" t="s">
+      <c r="O39" s="260"/>
+      <c r="P39" s="260"/>
+      <c r="Q39" s="260"/>
+      <c r="R39" s="260"/>
+      <c r="S39" s="260"/>
+      <c r="T39" s="260"/>
+      <c r="U39" s="200" t="s">
         <v>102</v>
       </c>
-      <c r="V39" s="199"/>
-      <c r="W39" s="199"/>
-      <c r="X39" s="199"/>
+      <c r="V39" s="201"/>
+      <c r="W39" s="201"/>
+      <c r="X39" s="201"/>
       <c r="Y39" s="71" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="214"/>
-      <c r="B40" s="228"/>
-      <c r="C40" s="229"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="168"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="168"/>
-      <c r="I40" s="168"/>
-      <c r="J40" s="172"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="129" t="s">
+      <c r="A40" s="207"/>
+      <c r="B40" s="215"/>
+      <c r="C40" s="216"/>
+      <c r="D40" s="278"/>
+      <c r="E40" s="222"/>
+      <c r="F40" s="222"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="222"/>
+      <c r="I40" s="222"/>
+      <c r="J40" s="282"/>
+      <c r="K40" s="239"/>
+      <c r="L40" s="249" t="s">
         <v>189</v>
       </c>
-      <c r="M40" s="130"/>
-      <c r="N40" s="125" t="s">
+      <c r="M40" s="250"/>
+      <c r="N40" s="245" t="s">
         <v>193</v>
       </c>
-      <c r="O40" s="126"/>
-      <c r="P40" s="126"/>
-      <c r="Q40" s="126"/>
+      <c r="O40" s="246"/>
+      <c r="P40" s="246"/>
+      <c r="Q40" s="246"/>
       <c r="R40" s="72"/>
       <c r="S40" s="72"/>
       <c r="T40" s="72"/>
-      <c r="U40" s="124" t="s">
+      <c r="U40" s="244" t="s">
         <v>103</v>
       </c>
-      <c r="V40" s="124"/>
-      <c r="W40" s="124"/>
-      <c r="X40" s="124"/>
+      <c r="V40" s="244"/>
+      <c r="W40" s="244"/>
+      <c r="X40" s="244"/>
       <c r="Y40" s="73" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="202"/>
-      <c r="B41" s="230"/>
-      <c r="C41" s="231"/>
-      <c r="D41" s="169"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="170"/>
-      <c r="H41" s="170"/>
-      <c r="I41" s="170"/>
-      <c r="J41" s="173"/>
-      <c r="K41" s="120"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="128"/>
-      <c r="P41" s="128"/>
-      <c r="Q41" s="128"/>
-      <c r="R41" s="121" t="s">
+      <c r="A41" s="183"/>
+      <c r="B41" s="217"/>
+      <c r="C41" s="218"/>
+      <c r="D41" s="279"/>
+      <c r="E41" s="280"/>
+      <c r="F41" s="280"/>
+      <c r="G41" s="280"/>
+      <c r="H41" s="280"/>
+      <c r="I41" s="280"/>
+      <c r="J41" s="283"/>
+      <c r="K41" s="240"/>
+      <c r="L41" s="251"/>
+      <c r="M41" s="252"/>
+      <c r="N41" s="247"/>
+      <c r="O41" s="248"/>
+      <c r="P41" s="248"/>
+      <c r="Q41" s="248"/>
+      <c r="R41" s="241" t="s">
         <v>191</v>
       </c>
-      <c r="S41" s="122"/>
-      <c r="T41" s="122"/>
-      <c r="U41" s="122"/>
-      <c r="V41" s="123" t="s">
+      <c r="S41" s="242"/>
+      <c r="T41" s="242"/>
+      <c r="U41" s="242"/>
+      <c r="V41" s="243" t="s">
         <v>155</v>
       </c>
-      <c r="W41" s="123"/>
-      <c r="X41" s="123"/>
+      <c r="W41" s="243"/>
+      <c r="X41" s="243"/>
       <c r="Y41" s="74" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="200" t="s">
+      <c r="A42" s="194" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="46" t="s">
@@ -5142,14 +5170,14 @@
         <v>54</v>
       </c>
       <c r="E42" s="49"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="152"/>
-      <c r="H42" s="152"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="155" t="s">
+      <c r="F42" s="264"/>
+      <c r="G42" s="265"/>
+      <c r="H42" s="265"/>
+      <c r="I42" s="265"/>
+      <c r="J42" s="268" t="s">
         <v>151</v>
       </c>
-      <c r="K42" s="155"/>
+      <c r="K42" s="268"/>
       <c r="L42" s="50" t="s">
         <v>66</v>
       </c>
@@ -5165,16 +5193,16 @@
       <c r="R42" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="S42" s="157"/>
-      <c r="T42" s="158"/>
-      <c r="U42" s="158"/>
-      <c r="V42" s="158"/>
-      <c r="W42" s="158"/>
-      <c r="X42" s="158"/>
-      <c r="Y42" s="159"/>
+      <c r="S42" s="270"/>
+      <c r="T42" s="271"/>
+      <c r="U42" s="271"/>
+      <c r="V42" s="271"/>
+      <c r="W42" s="271"/>
+      <c r="X42" s="271"/>
+      <c r="Y42" s="272"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="242"/>
+      <c r="A43" s="195"/>
       <c r="B43" s="53" t="s">
         <v>53</v>
       </c>
@@ -5183,14 +5211,14 @@
         <v>55</v>
       </c>
       <c r="E43" s="78"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="154"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="156" t="s">
+      <c r="F43" s="266"/>
+      <c r="G43" s="267"/>
+      <c r="H43" s="267"/>
+      <c r="I43" s="267"/>
+      <c r="J43" s="269" t="s">
         <v>151</v>
       </c>
-      <c r="K43" s="156"/>
+      <c r="K43" s="269"/>
       <c r="L43" s="79" t="s">
         <v>66</v>
       </c>
@@ -5206,34 +5234,34 @@
       <c r="R43" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="S43" s="160"/>
-      <c r="T43" s="161"/>
-      <c r="U43" s="161"/>
-      <c r="V43" s="161"/>
-      <c r="W43" s="161"/>
-      <c r="X43" s="161"/>
-      <c r="Y43" s="162"/>
+      <c r="S43" s="273"/>
+      <c r="T43" s="274"/>
+      <c r="U43" s="274"/>
+      <c r="V43" s="274"/>
+      <c r="W43" s="274"/>
+      <c r="X43" s="274"/>
+      <c r="Y43" s="275"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="242"/>
+      <c r="A44" s="195"/>
       <c r="B44" s="46" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="47"/>
-      <c r="D44" s="102" t="s">
+      <c r="D44" s="287" t="s">
         <v>194</v>
       </c>
-      <c r="E44" s="103"/>
-      <c r="F44" s="106" t="s">
+      <c r="E44" s="288"/>
+      <c r="F44" s="291" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="108" t="s">
+      <c r="G44" s="292"/>
+      <c r="H44" s="292"/>
+      <c r="I44" s="292"/>
+      <c r="J44" s="293" t="s">
         <v>195</v>
       </c>
-      <c r="K44" s="108"/>
+      <c r="K44" s="293"/>
       <c r="L44" s="82" t="s">
         <v>196</v>
       </c>
@@ -5255,34 +5283,34 @@
       <c r="R44" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="S44" s="112"/>
-      <c r="T44" s="113"/>
-      <c r="U44" s="113"/>
-      <c r="V44" s="113"/>
-      <c r="W44" s="113"/>
-      <c r="X44" s="113"/>
-      <c r="Y44" s="114"/>
+      <c r="S44" s="297"/>
+      <c r="T44" s="298"/>
+      <c r="U44" s="298"/>
+      <c r="V44" s="298"/>
+      <c r="W44" s="298"/>
+      <c r="X44" s="298"/>
+      <c r="Y44" s="299"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="242"/>
+      <c r="A45" s="195"/>
       <c r="B45" s="53" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="54"/>
-      <c r="D45" s="104" t="s">
+      <c r="D45" s="289" t="s">
         <v>200</v>
       </c>
-      <c r="E45" s="105"/>
-      <c r="F45" s="109" t="s">
+      <c r="E45" s="290"/>
+      <c r="F45" s="294" t="s">
         <v>107</v>
       </c>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="111" t="s">
+      <c r="G45" s="295"/>
+      <c r="H45" s="295"/>
+      <c r="I45" s="295"/>
+      <c r="J45" s="296" t="s">
         <v>195</v>
       </c>
-      <c r="K45" s="111"/>
+      <c r="K45" s="296"/>
       <c r="L45" s="75" t="s">
         <v>196</v>
       </c>
@@ -5304,288 +5332,288 @@
       <c r="R45" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="S45" s="115"/>
-      <c r="T45" s="116"/>
-      <c r="U45" s="116"/>
-      <c r="V45" s="116"/>
-      <c r="W45" s="116"/>
-      <c r="X45" s="116"/>
-      <c r="Y45" s="117"/>
+      <c r="S45" s="300"/>
+      <c r="T45" s="301"/>
+      <c r="U45" s="301"/>
+      <c r="V45" s="301"/>
+      <c r="W45" s="301"/>
+      <c r="X45" s="301"/>
+      <c r="Y45" s="302"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="99" t="s">
+      <c r="A46" s="284" t="s">
         <v>201</v>
       </c>
-      <c r="B46" s="185" t="s">
+      <c r="B46" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="186"/>
-      <c r="D46" s="187" t="s">
+      <c r="C46" s="100"/>
+      <c r="D46" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="186"/>
-      <c r="I46" s="186"/>
-      <c r="J46" s="186"/>
-      <c r="K46" s="188"/>
-      <c r="L46" s="233" t="s">
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="121"/>
+      <c r="L46" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="234"/>
-      <c r="N46" s="187" t="s">
+      <c r="M46" s="159"/>
+      <c r="N46" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="O46" s="186"/>
-      <c r="P46" s="186"/>
-      <c r="Q46" s="186"/>
-      <c r="R46" s="186"/>
-      <c r="S46" s="186"/>
-      <c r="T46" s="186"/>
-      <c r="U46" s="186"/>
-      <c r="V46" s="186"/>
-      <c r="W46" s="186"/>
-      <c r="X46" s="186"/>
-      <c r="Y46" s="188"/>
+      <c r="O46" s="100"/>
+      <c r="P46" s="100"/>
+      <c r="Q46" s="100"/>
+      <c r="R46" s="100"/>
+      <c r="S46" s="100"/>
+      <c r="T46" s="100"/>
+      <c r="U46" s="100"/>
+      <c r="V46" s="100"/>
+      <c r="W46" s="100"/>
+      <c r="X46" s="100"/>
+      <c r="Y46" s="121"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="100"/>
-      <c r="B47" s="185" t="s">
+      <c r="A47" s="285"/>
+      <c r="B47" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="186"/>
-      <c r="D47" s="187" t="s">
+      <c r="C47" s="100"/>
+      <c r="D47" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="186"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="186"/>
-      <c r="H47" s="186"/>
-      <c r="I47" s="186"/>
-      <c r="J47" s="186"/>
-      <c r="K47" s="188"/>
-      <c r="L47" s="233" t="s">
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="121"/>
+      <c r="L47" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="234"/>
-      <c r="N47" s="187" t="s">
+      <c r="M47" s="159"/>
+      <c r="N47" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="O47" s="186"/>
-      <c r="P47" s="186"/>
-      <c r="Q47" s="186"/>
-      <c r="R47" s="186"/>
-      <c r="S47" s="186"/>
-      <c r="T47" s="186"/>
-      <c r="U47" s="186"/>
-      <c r="V47" s="186"/>
-      <c r="W47" s="186"/>
-      <c r="X47" s="186"/>
-      <c r="Y47" s="188"/>
+      <c r="O47" s="100"/>
+      <c r="P47" s="100"/>
+      <c r="Q47" s="100"/>
+      <c r="R47" s="100"/>
+      <c r="S47" s="100"/>
+      <c r="T47" s="100"/>
+      <c r="U47" s="100"/>
+      <c r="V47" s="100"/>
+      <c r="W47" s="100"/>
+      <c r="X47" s="100"/>
+      <c r="Y47" s="121"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="101"/>
-      <c r="B48" s="185" t="s">
+      <c r="A48" s="286"/>
+      <c r="B48" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="186"/>
-      <c r="D48" s="187"/>
-      <c r="E48" s="186"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="186"/>
-      <c r="H48" s="186"/>
-      <c r="I48" s="186"/>
-      <c r="J48" s="186"/>
-      <c r="K48" s="188"/>
-      <c r="L48" s="233" t="s">
+      <c r="C48" s="100"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M48" s="234"/>
-      <c r="N48" s="187"/>
-      <c r="O48" s="186"/>
-      <c r="P48" s="186"/>
-      <c r="Q48" s="186"/>
-      <c r="R48" s="186"/>
-      <c r="S48" s="186"/>
-      <c r="T48" s="186"/>
-      <c r="U48" s="186"/>
-      <c r="V48" s="186"/>
-      <c r="W48" s="186"/>
-      <c r="X48" s="186"/>
-      <c r="Y48" s="188"/>
+      <c r="M48" s="159"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="100"/>
+      <c r="P48" s="100"/>
+      <c r="Q48" s="100"/>
+      <c r="R48" s="100"/>
+      <c r="S48" s="100"/>
+      <c r="T48" s="100"/>
+      <c r="U48" s="100"/>
+      <c r="V48" s="100"/>
+      <c r="W48" s="100"/>
+      <c r="X48" s="100"/>
+      <c r="Y48" s="121"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="146" t="s">
+      <c r="A49" s="261" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="147"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="149"/>
-      <c r="E49" s="149"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="149"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="149"/>
-      <c r="J49" s="149"/>
-      <c r="K49" s="149"/>
-      <c r="L49" s="149"/>
-      <c r="M49" s="149"/>
-      <c r="N49" s="149"/>
-      <c r="O49" s="149"/>
-      <c r="P49" s="149"/>
-      <c r="Q49" s="149"/>
-      <c r="R49" s="149"/>
-      <c r="S49" s="149"/>
-      <c r="T49" s="149"/>
-      <c r="U49" s="149"/>
-      <c r="V49" s="149"/>
-      <c r="W49" s="149"/>
-      <c r="X49" s="149"/>
-      <c r="Y49" s="150"/>
+      <c r="B49" s="262"/>
+      <c r="C49" s="192"/>
+      <c r="D49" s="263"/>
+      <c r="E49" s="263"/>
+      <c r="F49" s="263"/>
+      <c r="G49" s="263"/>
+      <c r="H49" s="263"/>
+      <c r="I49" s="263"/>
+      <c r="J49" s="263"/>
+      <c r="K49" s="263"/>
+      <c r="L49" s="263"/>
+      <c r="M49" s="263"/>
+      <c r="N49" s="263"/>
+      <c r="O49" s="263"/>
+      <c r="P49" s="263"/>
+      <c r="Q49" s="263"/>
+      <c r="R49" s="263"/>
+      <c r="S49" s="263"/>
+      <c r="T49" s="263"/>
+      <c r="U49" s="263"/>
+      <c r="V49" s="263"/>
+      <c r="W49" s="263"/>
+      <c r="X49" s="263"/>
+      <c r="Y49" s="193"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="203" t="s">
+      <c r="A50" s="202" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="204"/>
-      <c r="C50" s="204"/>
-      <c r="D50" s="204"/>
-      <c r="E50" s="204"/>
-      <c r="F50" s="204"/>
-      <c r="G50" s="204"/>
-      <c r="H50" s="204"/>
-      <c r="I50" s="204"/>
-      <c r="J50" s="204"/>
-      <c r="K50" s="204"/>
-      <c r="L50" s="204"/>
-      <c r="M50" s="204"/>
-      <c r="N50" s="204"/>
-      <c r="O50" s="204"/>
-      <c r="P50" s="204"/>
-      <c r="Q50" s="204"/>
-      <c r="R50" s="204"/>
-      <c r="S50" s="204"/>
-      <c r="T50" s="204"/>
-      <c r="U50" s="204"/>
-      <c r="V50" s="204"/>
-      <c r="W50" s="204"/>
-      <c r="X50" s="204"/>
-      <c r="Y50" s="205"/>
+      <c r="B50" s="203"/>
+      <c r="C50" s="203"/>
+      <c r="D50" s="203"/>
+      <c r="E50" s="203"/>
+      <c r="F50" s="203"/>
+      <c r="G50" s="203"/>
+      <c r="H50" s="203"/>
+      <c r="I50" s="203"/>
+      <c r="J50" s="203"/>
+      <c r="K50" s="203"/>
+      <c r="L50" s="203"/>
+      <c r="M50" s="203"/>
+      <c r="N50" s="203"/>
+      <c r="O50" s="203"/>
+      <c r="P50" s="203"/>
+      <c r="Q50" s="203"/>
+      <c r="R50" s="203"/>
+      <c r="S50" s="203"/>
+      <c r="T50" s="203"/>
+      <c r="U50" s="203"/>
+      <c r="V50" s="203"/>
+      <c r="W50" s="203"/>
+      <c r="X50" s="203"/>
+      <c r="Y50" s="204"/>
     </row>
     <row r="51" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="235"/>
-      <c r="B51" s="236"/>
-      <c r="C51" s="236"/>
-      <c r="D51" s="236"/>
-      <c r="E51" s="236"/>
-      <c r="F51" s="236"/>
-      <c r="G51" s="236"/>
-      <c r="H51" s="236"/>
-      <c r="I51" s="236"/>
-      <c r="J51" s="236"/>
-      <c r="K51" s="236"/>
-      <c r="L51" s="236"/>
-      <c r="M51" s="236"/>
-      <c r="N51" s="236"/>
-      <c r="O51" s="236"/>
-      <c r="P51" s="236"/>
-      <c r="Q51" s="236"/>
-      <c r="R51" s="236"/>
-      <c r="S51" s="236"/>
-      <c r="T51" s="236"/>
-      <c r="U51" s="236"/>
-      <c r="V51" s="236"/>
-      <c r="W51" s="236"/>
-      <c r="X51" s="236"/>
-      <c r="Y51" s="237"/>
+      <c r="A51" s="184"/>
+      <c r="B51" s="185"/>
+      <c r="C51" s="185"/>
+      <c r="D51" s="185"/>
+      <c r="E51" s="185"/>
+      <c r="F51" s="185"/>
+      <c r="G51" s="185"/>
+      <c r="H51" s="185"/>
+      <c r="I51" s="185"/>
+      <c r="J51" s="185"/>
+      <c r="K51" s="185"/>
+      <c r="L51" s="185"/>
+      <c r="M51" s="185"/>
+      <c r="N51" s="185"/>
+      <c r="O51" s="185"/>
+      <c r="P51" s="185"/>
+      <c r="Q51" s="185"/>
+      <c r="R51" s="185"/>
+      <c r="S51" s="185"/>
+      <c r="T51" s="185"/>
+      <c r="U51" s="185"/>
+      <c r="V51" s="185"/>
+      <c r="W51" s="185"/>
+      <c r="X51" s="185"/>
+      <c r="Y51" s="186"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="133" t="s">
+      <c r="A52" s="253" t="s">
         <v>179</v>
       </c>
-      <c r="B52" s="134"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="134"/>
-      <c r="I52" s="134"/>
-      <c r="J52" s="134"/>
-      <c r="K52" s="134"/>
-      <c r="L52" s="134"/>
-      <c r="M52" s="134"/>
-      <c r="N52" s="134"/>
-      <c r="O52" s="134"/>
-      <c r="P52" s="134"/>
-      <c r="Q52" s="134"/>
-      <c r="R52" s="134"/>
-      <c r="S52" s="134"/>
-      <c r="T52" s="134"/>
-      <c r="U52" s="134"/>
-      <c r="V52" s="134"/>
-      <c r="W52" s="134"/>
-      <c r="X52" s="134"/>
-      <c r="Y52" s="135"/>
+      <c r="B52" s="153"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="153"/>
+      <c r="K52" s="153"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="153"/>
+      <c r="N52" s="153"/>
+      <c r="O52" s="153"/>
+      <c r="P52" s="153"/>
+      <c r="Q52" s="153"/>
+      <c r="R52" s="153"/>
+      <c r="S52" s="153"/>
+      <c r="T52" s="153"/>
+      <c r="U52" s="153"/>
+      <c r="V52" s="153"/>
+      <c r="W52" s="153"/>
+      <c r="X52" s="153"/>
+      <c r="Y52" s="254"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="136" t="s">
+      <c r="A53" s="255" t="s">
         <v>188</v>
       </c>
-      <c r="B53" s="137"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="137"/>
-      <c r="H53" s="137"/>
-      <c r="I53" s="137"/>
-      <c r="J53" s="137"/>
-      <c r="K53" s="137"/>
-      <c r="L53" s="137"/>
-      <c r="M53" s="137"/>
-      <c r="N53" s="137"/>
-      <c r="O53" s="137"/>
-      <c r="P53" s="137"/>
-      <c r="Q53" s="137"/>
-      <c r="R53" s="137"/>
-      <c r="S53" s="137"/>
-      <c r="T53" s="137"/>
-      <c r="U53" s="137"/>
-      <c r="V53" s="137"/>
-      <c r="W53" s="137"/>
-      <c r="X53" s="137"/>
-      <c r="Y53" s="138"/>
+      <c r="B53" s="221"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="221"/>
+      <c r="E53" s="221"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="221"/>
+      <c r="H53" s="221"/>
+      <c r="I53" s="221"/>
+      <c r="J53" s="221"/>
+      <c r="K53" s="221"/>
+      <c r="L53" s="221"/>
+      <c r="M53" s="221"/>
+      <c r="N53" s="221"/>
+      <c r="O53" s="221"/>
+      <c r="P53" s="221"/>
+      <c r="Q53" s="221"/>
+      <c r="R53" s="221"/>
+      <c r="S53" s="221"/>
+      <c r="T53" s="221"/>
+      <c r="U53" s="221"/>
+      <c r="V53" s="221"/>
+      <c r="W53" s="221"/>
+      <c r="X53" s="221"/>
+      <c r="Y53" s="256"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="139" t="s">
+      <c r="A54" s="257" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="140"/>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140"/>
-      <c r="J54" s="140"/>
-      <c r="K54" s="140"/>
-      <c r="L54" s="140"/>
-      <c r="M54" s="140"/>
-      <c r="N54" s="140"/>
-      <c r="O54" s="140"/>
-      <c r="P54" s="140"/>
-      <c r="Q54" s="140"/>
-      <c r="R54" s="140"/>
-      <c r="S54" s="140"/>
-      <c r="T54" s="140"/>
-      <c r="U54" s="140"/>
-      <c r="V54" s="140"/>
-      <c r="W54" s="140"/>
-      <c r="X54" s="140"/>
-      <c r="Y54" s="141"/>
+      <c r="B54" s="187"/>
+      <c r="C54" s="187"/>
+      <c r="D54" s="187"/>
+      <c r="E54" s="187"/>
+      <c r="F54" s="187"/>
+      <c r="G54" s="187"/>
+      <c r="H54" s="187"/>
+      <c r="I54" s="187"/>
+      <c r="J54" s="187"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="187"/>
+      <c r="M54" s="187"/>
+      <c r="N54" s="187"/>
+      <c r="O54" s="187"/>
+      <c r="P54" s="187"/>
+      <c r="Q54" s="187"/>
+      <c r="R54" s="187"/>
+      <c r="S54" s="187"/>
+      <c r="T54" s="187"/>
+      <c r="U54" s="187"/>
+      <c r="V54" s="187"/>
+      <c r="W54" s="187"/>
+      <c r="X54" s="187"/>
+      <c r="Y54" s="258"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="64" t="s">
@@ -5622,25 +5650,25 @@
     </row>
     <row r="59" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="65"/>
-      <c r="B59" s="137" t="s">
+      <c r="B59" s="221" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="137"/>
-      <c r="G59" s="137" t="s">
+      <c r="C59" s="221"/>
+      <c r="D59" s="221"/>
+      <c r="E59" s="221"/>
+      <c r="F59" s="221"/>
+      <c r="G59" s="221" t="s">
         <v>182</v>
       </c>
-      <c r="H59" s="137"/>
-      <c r="I59" s="137"/>
-      <c r="J59" s="137"/>
-      <c r="L59" s="168" t="s">
+      <c r="H59" s="221"/>
+      <c r="I59" s="221"/>
+      <c r="J59" s="221"/>
+      <c r="L59" s="222" t="s">
         <v>183</v>
       </c>
-      <c r="M59" s="168"/>
-      <c r="N59" s="168"/>
-      <c r="O59" s="168"/>
+      <c r="M59" s="222"/>
+      <c r="N59" s="222"/>
+      <c r="O59" s="222"/>
       <c r="P59" s="1" t="s">
         <v>184</v>
       </c>
@@ -5660,12 +5688,12 @@
       <c r="I60" s="68"/>
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
-      <c r="L60" s="174" t="s">
+      <c r="L60" s="223" t="s">
         <v>187</v>
       </c>
-      <c r="M60" s="174"/>
-      <c r="N60" s="174"/>
-      <c r="O60" s="174"/>
+      <c r="M60" s="223"/>
+      <c r="N60" s="223"/>
+      <c r="O60" s="223"/>
       <c r="P60" s="68" t="s">
         <v>186</v>
       </c>
@@ -5704,35 +5732,130 @@
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E23:Y23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="C30:Y30"/>
-    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="S45:Y45"/>
+    <mergeCell ref="K33:K41"/>
+    <mergeCell ref="R41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="N40:Q41"/>
+    <mergeCell ref="L40:M41"/>
+    <mergeCell ref="A52:Y52"/>
+    <mergeCell ref="A53:Y53"/>
+    <mergeCell ref="A54:Y54"/>
+    <mergeCell ref="N39:T39"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:Y49"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="S43:Y43"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="N38:T38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="D38:I41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="N12:Y12"/>
+    <mergeCell ref="N13:Y13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="N6:Y6"/>
+    <mergeCell ref="N7:Y7"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="N10:Y10"/>
+    <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="N36:T36"/>
+    <mergeCell ref="N37:T37"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="A50:Y50"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="C29:Y29"/>
+    <mergeCell ref="B38:C41"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="C19:Y19"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A51:Y51"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:Y46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:Y47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="N48:Y48"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="A15:Y15"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E16:Y16"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:Y14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="C20:Y20"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="D5:K5"/>
     <mergeCell ref="O18:R18"/>
@@ -5757,130 +5880,35 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="L4:N5"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E16:Y16"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:Y14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="C20:Y20"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A51:Y51"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:Y46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:Y47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N35:T35"/>
-    <mergeCell ref="N48:Y48"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="A15:Y15"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="N36:T36"/>
-    <mergeCell ref="N37:T37"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A50:Y50"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="C29:Y29"/>
-    <mergeCell ref="B38:C41"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="C19:Y19"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="N12:Y12"/>
-    <mergeCell ref="N13:Y13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="N6:Y6"/>
-    <mergeCell ref="N7:Y7"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="N10:Y10"/>
-    <mergeCell ref="N9:Y9"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="K33:K41"/>
-    <mergeCell ref="R41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="N40:Q41"/>
-    <mergeCell ref="L40:M41"/>
-    <mergeCell ref="A52:Y52"/>
-    <mergeCell ref="A53:Y53"/>
-    <mergeCell ref="A54:Y54"/>
-    <mergeCell ref="N39:T39"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:Y49"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="S43:Y43"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="N38:T38"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="D38:I41"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="S44:Y44"/>
-    <mergeCell ref="S45:Y45"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="C30:Y30"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E23:Y23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="U25:Y25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
@@ -5900,7 +5928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7884DA4D-1FDF-4CAB-9ACC-2D90368CE4EA}">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
@@ -5912,60 +5940,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="175" t="s">
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="R1" s="177" t="s">
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="R1" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="179" t="s">
+      <c r="S1" s="227"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="228" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="181"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="230"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="R2" s="177" t="s">
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="R2" s="226" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="178"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="182" t="s">
+      <c r="S2" s="227"/>
+      <c r="T2" s="227"/>
+      <c r="U2" s="231" t="s">
         <v>81</v>
       </c>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="184"/>
+      <c r="V2" s="232"/>
+      <c r="W2" s="232"/>
+      <c r="X2" s="232"/>
+      <c r="Y2" s="233"/>
     </row>
     <row r="3" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -5995,26 +6023,26 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="263" t="s">
+      <c r="B4" s="161"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="265"/>
-      <c r="L4" s="276" t="s">
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="277"/>
-      <c r="N4" s="278"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="117"/>
       <c r="O4" s="7" t="s">
         <v>72</v>
       </c>
@@ -6036,24 +6064,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="263" t="s">
+      <c r="B5" s="161"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
-      <c r="K5" s="265"/>
-      <c r="L5" s="279"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="281"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="167"/>
       <c r="O5" s="10" t="s">
         <v>67</v>
       </c>
@@ -6064,10 +6092,10 @@
       <c r="R5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="140" t="s">
+      <c r="S5" s="187" t="s">
         <v>63</v>
       </c>
-      <c r="T5" s="238"/>
+      <c r="T5" s="188"/>
       <c r="U5" s="11" t="s">
         <v>67</v>
       </c>
@@ -6085,325 +6113,325 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="262" t="s">
+      <c r="A6" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="187" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="233" t="s">
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="234"/>
-      <c r="N6" s="187" t="s">
+      <c r="M6" s="159"/>
+      <c r="N6" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="186"/>
-      <c r="S6" s="186"/>
-      <c r="T6" s="186"/>
-      <c r="U6" s="186"/>
-      <c r="V6" s="186"/>
-      <c r="W6" s="186"/>
-      <c r="X6" s="186"/>
-      <c r="Y6" s="188"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="100"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="121"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="262"/>
-      <c r="B7" s="185" t="s">
+      <c r="A7" s="163"/>
+      <c r="B7" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="233" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="234"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="186"/>
-      <c r="S7" s="186"/>
-      <c r="T7" s="186"/>
-      <c r="U7" s="186"/>
-      <c r="V7" s="186"/>
-      <c r="W7" s="186"/>
-      <c r="X7" s="186"/>
-      <c r="Y7" s="188"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="121"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="262"/>
-      <c r="B8" s="185" t="s">
+      <c r="A8" s="163"/>
+      <c r="B8" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="233" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="234"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="186"/>
-      <c r="S8" s="186"/>
-      <c r="T8" s="186"/>
-      <c r="U8" s="186"/>
-      <c r="V8" s="186"/>
-      <c r="W8" s="186"/>
-      <c r="X8" s="186"/>
-      <c r="Y8" s="188"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="100"/>
+      <c r="Y8" s="121"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="262"/>
-      <c r="B9" s="239" t="s">
+      <c r="A9" s="163"/>
+      <c r="B9" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="240"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="233" t="s">
+      <c r="C9" s="190"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="234"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="186"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="186"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="186"/>
-      <c r="W9" s="186"/>
-      <c r="X9" s="186"/>
-      <c r="Y9" s="188"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="100"/>
+      <c r="W9" s="100"/>
+      <c r="X9" s="100"/>
+      <c r="Y9" s="121"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="262" t="s">
+      <c r="A10" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="186"/>
-      <c r="D10" s="187" t="s">
+      <c r="C10" s="100"/>
+      <c r="D10" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="233" t="s">
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="234"/>
-      <c r="N10" s="187" t="s">
+      <c r="M10" s="159"/>
+      <c r="N10" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="186"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="186"/>
-      <c r="U10" s="186"/>
-      <c r="V10" s="186"/>
-      <c r="W10" s="186"/>
-      <c r="X10" s="186"/>
-      <c r="Y10" s="188"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="121"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="262"/>
-      <c r="B11" s="185" t="s">
+      <c r="A11" s="163"/>
+      <c r="B11" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="186"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="233" t="s">
+      <c r="C11" s="100"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="234"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="186"/>
-      <c r="S11" s="186"/>
-      <c r="T11" s="186"/>
-      <c r="U11" s="186"/>
-      <c r="V11" s="186"/>
-      <c r="W11" s="186"/>
-      <c r="X11" s="186"/>
-      <c r="Y11" s="188"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="121"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="262"/>
-      <c r="B12" s="185" t="s">
+      <c r="A12" s="163"/>
+      <c r="B12" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="233" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="234"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="186"/>
-      <c r="P12" s="186"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="186"/>
-      <c r="S12" s="186"/>
-      <c r="T12" s="186"/>
-      <c r="U12" s="186"/>
-      <c r="V12" s="186"/>
-      <c r="W12" s="186"/>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="188"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="100"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="121"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="262"/>
-      <c r="B13" s="239" t="s">
+      <c r="A13" s="163"/>
+      <c r="B13" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="240"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="233" t="s">
+      <c r="C13" s="190"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="234"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="186"/>
-      <c r="P13" s="186"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="186"/>
-      <c r="S13" s="186"/>
-      <c r="T13" s="186"/>
-      <c r="U13" s="186"/>
-      <c r="V13" s="186"/>
-      <c r="W13" s="186"/>
-      <c r="X13" s="186"/>
-      <c r="Y13" s="188"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="100"/>
+      <c r="T13" s="100"/>
+      <c r="U13" s="100"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="100"/>
+      <c r="Y13" s="121"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="223" t="s">
+      <c r="A14" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="259"/>
-      <c r="C14" s="259"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="259"/>
-      <c r="F14" s="259"/>
-      <c r="G14" s="224" t="s">
+      <c r="B14" s="180"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="224"/>
-      <c r="I14" s="224"/>
-      <c r="J14" s="224"/>
-      <c r="K14" s="224"/>
-      <c r="L14" s="224"/>
-      <c r="M14" s="224"/>
-      <c r="N14" s="224"/>
-      <c r="O14" s="224"/>
-      <c r="P14" s="224"/>
-      <c r="Q14" s="224"/>
-      <c r="R14" s="224"/>
-      <c r="S14" s="224"/>
-      <c r="T14" s="224"/>
-      <c r="U14" s="224"/>
-      <c r="V14" s="224"/>
-      <c r="W14" s="224"/>
-      <c r="X14" s="224"/>
-      <c r="Y14" s="225"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="102"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="243"/>
-      <c r="B15" s="255"/>
-      <c r="C15" s="255"/>
-      <c r="D15" s="255"/>
-      <c r="E15" s="255"/>
-      <c r="F15" s="255"/>
-      <c r="G15" s="255"/>
-      <c r="H15" s="255"/>
-      <c r="I15" s="255"/>
-      <c r="J15" s="255"/>
-      <c r="K15" s="255"/>
-      <c r="L15" s="255"/>
-      <c r="M15" s="255"/>
-      <c r="N15" s="255"/>
-      <c r="O15" s="255"/>
-      <c r="P15" s="255"/>
-      <c r="Q15" s="255"/>
-      <c r="R15" s="255"/>
-      <c r="S15" s="255"/>
-      <c r="T15" s="255"/>
-      <c r="U15" s="255"/>
-      <c r="V15" s="255"/>
-      <c r="W15" s="255"/>
-      <c r="X15" s="255"/>
-      <c r="Y15" s="256"/>
+      <c r="A15" s="198"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="144"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="260" t="s">
+      <c r="A16" s="181" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -6411,90 +6439,90 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="257" t="s">
+      <c r="E16" s="177" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="257"/>
-      <c r="G16" s="257"/>
-      <c r="H16" s="257"/>
-      <c r="I16" s="257"/>
-      <c r="J16" s="257"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="257"/>
-      <c r="M16" s="257"/>
-      <c r="N16" s="257"/>
-      <c r="O16" s="257"/>
-      <c r="P16" s="257"/>
-      <c r="Q16" s="257"/>
-      <c r="R16" s="257"/>
-      <c r="S16" s="257"/>
-      <c r="T16" s="257"/>
-      <c r="U16" s="257"/>
-      <c r="V16" s="257"/>
-      <c r="W16" s="257"/>
-      <c r="X16" s="257"/>
-      <c r="Y16" s="258"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="178"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="333"/>
-      <c r="B17" s="267" t="s">
+      <c r="A17" s="312"/>
+      <c r="B17" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="268"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="154"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="232" t="s">
+      <c r="F17" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="232"/>
-      <c r="H17" s="232"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="272"/>
-      <c r="K17" s="272"/>
-      <c r="L17" s="272"/>
-      <c r="M17" s="273" t="s">
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="274"/>
-      <c r="O17" s="274"/>
-      <c r="P17" s="275" t="s">
+      <c r="N17" s="157"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="158" t="s">
         <v>135</v>
       </c>
-      <c r="Q17" s="275"/>
-      <c r="R17" s="275"/>
+      <c r="Q17" s="158"/>
+      <c r="R17" s="158"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="246" t="s">
+      <c r="U17" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="247"/>
-      <c r="W17" s="247"/>
-      <c r="X17" s="247"/>
-      <c r="Y17" s="248"/>
+      <c r="V17" s="169"/>
+      <c r="W17" s="169"/>
+      <c r="X17" s="169"/>
+      <c r="Y17" s="170"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="333"/>
-      <c r="B18" s="269" t="s">
+      <c r="A18" s="312"/>
+      <c r="B18" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="270"/>
-      <c r="D18" s="271"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="107"/>
       <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="266" t="s">
+      <c r="G18" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="H18" s="266"/>
-      <c r="I18" s="266"/>
-      <c r="J18" s="266"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -6503,85 +6531,85 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="266"/>
-      <c r="P18" s="266"/>
-      <c r="Q18" s="266"/>
-      <c r="R18" s="266"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="206" t="s">
+      <c r="U18" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="V18" s="207"/>
-      <c r="W18" s="207"/>
-      <c r="X18" s="207"/>
-      <c r="Y18" s="208"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="119"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="120"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="333"/>
-      <c r="B19" s="218" t="s">
+      <c r="A19" s="312"/>
+      <c r="B19" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="223"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="224"/>
-      <c r="J19" s="224"/>
-      <c r="K19" s="224"/>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
-      <c r="O19" s="224"/>
-      <c r="P19" s="224"/>
-      <c r="Q19" s="224"/>
-      <c r="R19" s="224"/>
-      <c r="S19" s="224"/>
-      <c r="T19" s="224"/>
-      <c r="U19" s="224"/>
-      <c r="V19" s="224"/>
-      <c r="W19" s="224"/>
-      <c r="X19" s="224"/>
-      <c r="Y19" s="225"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="101"/>
+      <c r="X19" s="101"/>
+      <c r="Y19" s="102"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="333"/>
-      <c r="B20" s="219"/>
-      <c r="C20" s="261"/>
-      <c r="D20" s="255"/>
-      <c r="E20" s="255"/>
-      <c r="F20" s="255"/>
-      <c r="G20" s="255"/>
-      <c r="H20" s="255"/>
-      <c r="I20" s="255"/>
-      <c r="J20" s="255"/>
-      <c r="K20" s="255"/>
-      <c r="L20" s="255"/>
-      <c r="M20" s="255"/>
-      <c r="N20" s="255"/>
-      <c r="O20" s="255"/>
-      <c r="P20" s="255"/>
-      <c r="Q20" s="255"/>
-      <c r="R20" s="255"/>
-      <c r="S20" s="255"/>
-      <c r="T20" s="255"/>
-      <c r="U20" s="255"/>
-      <c r="V20" s="255"/>
-      <c r="W20" s="255"/>
-      <c r="X20" s="255"/>
-      <c r="Y20" s="256"/>
+      <c r="A20" s="312"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="143"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="143"/>
+      <c r="X20" s="143"/>
+      <c r="Y20" s="144"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="333"/>
-      <c r="B21" s="219"/>
-      <c r="C21" s="209" t="s">
+      <c r="A21" s="312"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="209"/>
+      <c r="D21" s="205"/>
       <c r="E21" s="23" t="s">
         <v>17</v>
       </c>
@@ -6591,46 +6619,46 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="252" t="s">
+      <c r="L21" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="221"/>
-      <c r="N21" s="222"/>
-      <c r="O21" s="222"/>
-      <c r="P21" s="222"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="109"/>
       <c r="Q21" s="8" t="s">
         <v>149</v>
       </c>
       <c r="R21" s="9"/>
-      <c r="S21" s="249" t="s">
+      <c r="S21" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="250"/>
-      <c r="U21" s="250"/>
-      <c r="V21" s="250"/>
-      <c r="W21" s="250"/>
-      <c r="X21" s="250"/>
-      <c r="Y21" s="251"/>
+      <c r="T21" s="126"/>
+      <c r="U21" s="126"/>
+      <c r="V21" s="126"/>
+      <c r="W21" s="126"/>
+      <c r="X21" s="126"/>
+      <c r="Y21" s="127"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="334"/>
-      <c r="B22" s="220"/>
-      <c r="C22" s="210" t="s">
+      <c r="A22" s="313"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="210"/>
-      <c r="E22" s="254"/>
-      <c r="F22" s="255"/>
-      <c r="G22" s="255"/>
-      <c r="H22" s="255"/>
-      <c r="I22" s="255"/>
-      <c r="J22" s="255"/>
-      <c r="K22" s="256"/>
-      <c r="L22" s="253"/>
-      <c r="M22" s="211"/>
-      <c r="N22" s="212"/>
-      <c r="O22" s="212"/>
-      <c r="P22" s="212"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="175"/>
       <c r="Q22" s="5" t="s">
         <v>150</v>
       </c>
@@ -6650,133 +6678,133 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="200" t="s">
+      <c r="A23" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="269" t="s">
+      <c r="B23" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="270"/>
-      <c r="D23" s="271"/>
-      <c r="E23" s="298" t="s">
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="270"/>
-      <c r="G23" s="270"/>
-      <c r="H23" s="270"/>
-      <c r="I23" s="270"/>
-      <c r="J23" s="270"/>
-      <c r="K23" s="270"/>
-      <c r="L23" s="270"/>
-      <c r="M23" s="270"/>
-      <c r="N23" s="270"/>
-      <c r="O23" s="270"/>
-      <c r="P23" s="270"/>
-      <c r="Q23" s="270"/>
-      <c r="R23" s="270"/>
-      <c r="S23" s="270"/>
-      <c r="T23" s="270"/>
-      <c r="U23" s="270"/>
-      <c r="V23" s="270"/>
-      <c r="W23" s="270"/>
-      <c r="X23" s="270"/>
-      <c r="Y23" s="299"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="106"/>
+      <c r="Y23" s="111"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="201"/>
-      <c r="B24" s="269" t="s">
+      <c r="A24" s="182"/>
+      <c r="B24" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="270"/>
-      <c r="D24" s="271"/>
-      <c r="E24" s="244" t="s">
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="244"/>
-      <c r="G24" s="244"/>
-      <c r="H24" s="244"/>
-      <c r="I24" s="244"/>
-      <c r="J24" s="244"/>
-      <c r="K24" s="244"/>
-      <c r="L24" s="244"/>
-      <c r="M24" s="244"/>
-      <c r="N24" s="244"/>
-      <c r="O24" s="276" t="s">
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="278"/>
-      <c r="Q24" s="300"/>
-      <c r="R24" s="300"/>
-      <c r="S24" s="301" t="s">
+      <c r="P24" s="117"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="302"/>
-      <c r="U24" s="296" t="s">
+      <c r="T24" s="114"/>
+      <c r="U24" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="296"/>
-      <c r="W24" s="296"/>
-      <c r="X24" s="296"/>
-      <c r="Y24" s="297"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="104"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="201"/>
-      <c r="B25" s="269" t="s">
+      <c r="A25" s="182"/>
+      <c r="B25" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="270"/>
-      <c r="D25" s="271"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="186"/>
-      <c r="L25" s="186"/>
-      <c r="M25" s="186"/>
-      <c r="N25" s="186"/>
-      <c r="O25" s="224"/>
-      <c r="P25" s="224"/>
-      <c r="Q25" s="224"/>
-      <c r="R25" s="224"/>
-      <c r="S25" s="224"/>
-      <c r="T25" s="225"/>
-      <c r="U25" s="206" t="s">
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="118" t="s">
         <v>178</v>
       </c>
-      <c r="V25" s="207"/>
-      <c r="W25" s="207"/>
-      <c r="X25" s="207"/>
-      <c r="Y25" s="208"/>
+      <c r="V25" s="119"/>
+      <c r="W25" s="119"/>
+      <c r="X25" s="119"/>
+      <c r="Y25" s="120"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="201"/>
-      <c r="B26" s="269" t="s">
+      <c r="A26" s="182"/>
+      <c r="B26" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="270"/>
-      <c r="D26" s="271"/>
-      <c r="E26" s="187" t="s">
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="186"/>
-      <c r="L26" s="186"/>
-      <c r="M26" s="186"/>
-      <c r="N26" s="186"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
       <c r="O26" s="21"/>
       <c r="P26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="232" t="s">
+      <c r="Q26" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="R26" s="232"/>
+      <c r="R26" s="123"/>
       <c r="S26" s="31" t="s">
         <v>13</v>
       </c>
@@ -6784,80 +6812,80 @@
       <c r="U26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="232"/>
-      <c r="W26" s="232"/>
+      <c r="V26" s="123"/>
+      <c r="W26" s="123"/>
       <c r="X26" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="201"/>
-      <c r="B27" s="269" t="s">
+      <c r="A27" s="182"/>
+      <c r="B27" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="270"/>
-      <c r="D27" s="271"/>
-      <c r="E27" s="187" t="s">
+      <c r="C27" s="106"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="188"/>
-      <c r="L27" s="233" t="s">
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="232"/>
-      <c r="N27" s="282"/>
-      <c r="O27" s="286"/>
-      <c r="P27" s="232"/>
-      <c r="Q27" s="287"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="134"/>
       <c r="R27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="249" t="s">
+      <c r="S27" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="250"/>
-      <c r="U27" s="250"/>
-      <c r="V27" s="250"/>
-      <c r="W27" s="250"/>
-      <c r="X27" s="250"/>
-      <c r="Y27" s="251"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="126"/>
+      <c r="W27" s="126"/>
+      <c r="X27" s="126"/>
+      <c r="Y27" s="127"/>
       <c r="Z27" s="33"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="201"/>
-      <c r="B28" s="185" t="s">
+      <c r="A28" s="182"/>
+      <c r="B28" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="283"/>
-      <c r="D28" s="283"/>
-      <c r="E28" s="284" t="s">
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="285"/>
-      <c r="G28" s="285"/>
-      <c r="H28" s="285"/>
-      <c r="I28" s="285"/>
-      <c r="J28" s="285"/>
-      <c r="K28" s="285"/>
-      <c r="L28" s="285"/>
-      <c r="M28" s="285"/>
-      <c r="N28" s="285"/>
-      <c r="O28" s="285"/>
-      <c r="P28" s="285"/>
-      <c r="Q28" s="285"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="132"/>
+      <c r="Q28" s="132"/>
       <c r="R28" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="288" t="s">
+      <c r="S28" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="T28" s="289"/>
+      <c r="T28" s="136"/>
       <c r="U28" s="28" t="s">
         <v>28</v>
       </c>
@@ -6876,125 +6904,125 @@
       <c r="Z28" s="33"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="201"/>
-      <c r="B29" s="218" t="s">
+      <c r="A29" s="182"/>
+      <c r="B29" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="223"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
-      <c r="F29" s="224"/>
-      <c r="G29" s="224"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="224"/>
-      <c r="J29" s="224"/>
-      <c r="K29" s="224"/>
-      <c r="L29" s="224"/>
-      <c r="M29" s="224"/>
-      <c r="N29" s="224"/>
-      <c r="O29" s="224"/>
-      <c r="P29" s="224"/>
-      <c r="Q29" s="224"/>
-      <c r="R29" s="224"/>
-      <c r="S29" s="224"/>
-      <c r="T29" s="224"/>
-      <c r="U29" s="224"/>
-      <c r="V29" s="224"/>
-      <c r="W29" s="224"/>
-      <c r="X29" s="224"/>
-      <c r="Y29" s="225"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="102"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="201"/>
-      <c r="B30" s="219"/>
-      <c r="C30" s="261"/>
-      <c r="D30" s="255"/>
-      <c r="E30" s="255"/>
-      <c r="F30" s="255"/>
-      <c r="G30" s="255"/>
-      <c r="H30" s="255"/>
-      <c r="I30" s="255"/>
-      <c r="J30" s="255"/>
-      <c r="K30" s="255"/>
-      <c r="L30" s="255"/>
-      <c r="M30" s="255"/>
-      <c r="N30" s="255"/>
-      <c r="O30" s="255"/>
-      <c r="P30" s="255"/>
-      <c r="Q30" s="255"/>
-      <c r="R30" s="255"/>
-      <c r="S30" s="255"/>
-      <c r="T30" s="255"/>
-      <c r="U30" s="255"/>
-      <c r="V30" s="255"/>
-      <c r="W30" s="255"/>
-      <c r="X30" s="255"/>
-      <c r="Y30" s="256"/>
+      <c r="A30" s="182"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="143"/>
+      <c r="N30" s="143"/>
+      <c r="O30" s="143"/>
+      <c r="P30" s="143"/>
+      <c r="Q30" s="143"/>
+      <c r="R30" s="143"/>
+      <c r="S30" s="143"/>
+      <c r="T30" s="143"/>
+      <c r="U30" s="143"/>
+      <c r="V30" s="143"/>
+      <c r="W30" s="143"/>
+      <c r="X30" s="143"/>
+      <c r="Y30" s="144"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="201"/>
-      <c r="B31" s="219"/>
-      <c r="C31" s="209" t="s">
+      <c r="A31" s="182"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="209"/>
-      <c r="E31" s="290" t="s">
+      <c r="D31" s="205"/>
+      <c r="E31" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="291"/>
-      <c r="G31" s="292" t="s">
+      <c r="F31" s="138"/>
+      <c r="G31" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="H31" s="224"/>
-      <c r="I31" s="224"/>
-      <c r="J31" s="224"/>
-      <c r="K31" s="224"/>
-      <c r="L31" s="252" t="s">
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="221"/>
-      <c r="N31" s="222"/>
-      <c r="O31" s="222"/>
-      <c r="P31" s="222"/>
-      <c r="Q31" s="148"/>
-      <c r="R31" s="150"/>
-      <c r="S31" s="249" t="s">
+      <c r="M31" s="108"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="192"/>
+      <c r="R31" s="193"/>
+      <c r="S31" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="250"/>
-      <c r="U31" s="250"/>
-      <c r="V31" s="250"/>
-      <c r="W31" s="250"/>
-      <c r="X31" s="250"/>
-      <c r="Y31" s="251"/>
+      <c r="T31" s="126"/>
+      <c r="U31" s="126"/>
+      <c r="V31" s="126"/>
+      <c r="W31" s="126"/>
+      <c r="X31" s="126"/>
+      <c r="Y31" s="127"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="202"/>
-      <c r="B32" s="220"/>
-      <c r="C32" s="210" t="s">
+      <c r="A32" s="183"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="210"/>
-      <c r="E32" s="293" t="s">
+      <c r="D32" s="128"/>
+      <c r="E32" s="145" t="s">
         <v>166</v>
       </c>
-      <c r="F32" s="294"/>
-      <c r="G32" s="294"/>
-      <c r="H32" s="294"/>
-      <c r="I32" s="294"/>
-      <c r="J32" s="294"/>
-      <c r="K32" s="295"/>
-      <c r="L32" s="253"/>
-      <c r="M32" s="211" t="s">
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="N32" s="212"/>
-      <c r="O32" s="212"/>
-      <c r="P32" s="212"/>
-      <c r="Q32" s="241" t="s">
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="191" t="s">
         <v>150</v>
       </c>
-      <c r="R32" s="237"/>
+      <c r="R32" s="186"/>
       <c r="S32" s="26" t="s">
         <v>170</v>
       </c>
@@ -7018,289 +7046,289 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="213" t="s">
+      <c r="A33" s="206" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="215" t="s">
+      <c r="D33" s="208" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="216"/>
-      <c r="F33" s="216"/>
-      <c r="G33" s="216"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="217"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="210"/>
       <c r="J33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="304" t="s">
+      <c r="K33" s="334" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="92" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="35"/>
-      <c r="N33" s="192" t="s">
+      <c r="N33" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="O33" s="193"/>
-      <c r="P33" s="193"/>
-      <c r="Q33" s="193"/>
-      <c r="R33" s="193"/>
-      <c r="S33" s="193"/>
-      <c r="T33" s="193"/>
-      <c r="U33" s="194" t="s">
+      <c r="O33" s="235"/>
+      <c r="P33" s="235"/>
+      <c r="Q33" s="235"/>
+      <c r="R33" s="235"/>
+      <c r="S33" s="235"/>
+      <c r="T33" s="235"/>
+      <c r="U33" s="236" t="s">
         <v>117</v>
       </c>
-      <c r="V33" s="195"/>
-      <c r="W33" s="195"/>
-      <c r="X33" s="195"/>
+      <c r="V33" s="237"/>
+      <c r="W33" s="237"/>
+      <c r="X33" s="237"/>
       <c r="Y33" s="38" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="33"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="214"/>
+      <c r="A34" s="207"/>
       <c r="B34" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="40"/>
-      <c r="D34" s="196" t="s">
+      <c r="D34" s="211" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="197"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="197"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="197"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="212"/>
+      <c r="H34" s="212"/>
+      <c r="I34" s="212"/>
       <c r="J34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="305"/>
+      <c r="K34" s="335"/>
       <c r="L34" s="93" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="40"/>
-      <c r="N34" s="163" t="s">
+      <c r="N34" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="O34" s="164"/>
-      <c r="P34" s="164"/>
-      <c r="Q34" s="164"/>
-      <c r="R34" s="164"/>
-      <c r="S34" s="164"/>
-      <c r="T34" s="164"/>
-      <c r="U34" s="144" t="s">
+      <c r="O34" s="197"/>
+      <c r="P34" s="197"/>
+      <c r="Q34" s="197"/>
+      <c r="R34" s="197"/>
+      <c r="S34" s="197"/>
+      <c r="T34" s="197"/>
+      <c r="U34" s="219" t="s">
         <v>119</v>
       </c>
-      <c r="V34" s="145"/>
-      <c r="W34" s="145"/>
-      <c r="X34" s="145"/>
+      <c r="V34" s="220"/>
+      <c r="W34" s="220"/>
+      <c r="X34" s="220"/>
       <c r="Y34" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="214"/>
+      <c r="A35" s="207"/>
       <c r="B35" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="40"/>
-      <c r="D35" s="196" t="s">
+      <c r="D35" s="211" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="197"/>
-      <c r="F35" s="197"/>
-      <c r="G35" s="197"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="197"/>
+      <c r="E35" s="212"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
+      <c r="H35" s="212"/>
+      <c r="I35" s="212"/>
       <c r="J35" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="305"/>
+      <c r="K35" s="335"/>
       <c r="L35" s="93" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="40"/>
-      <c r="N35" s="163" t="s">
+      <c r="N35" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="O35" s="164"/>
-      <c r="P35" s="164"/>
-      <c r="Q35" s="164"/>
-      <c r="R35" s="164"/>
-      <c r="S35" s="164"/>
-      <c r="T35" s="164"/>
-      <c r="U35" s="144" t="s">
+      <c r="O35" s="197"/>
+      <c r="P35" s="197"/>
+      <c r="Q35" s="197"/>
+      <c r="R35" s="197"/>
+      <c r="S35" s="197"/>
+      <c r="T35" s="197"/>
+      <c r="U35" s="219" t="s">
         <v>121</v>
       </c>
-      <c r="V35" s="145"/>
-      <c r="W35" s="145"/>
-      <c r="X35" s="145"/>
+      <c r="V35" s="220"/>
+      <c r="W35" s="220"/>
+      <c r="X35" s="220"/>
       <c r="Y35" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="214"/>
+      <c r="A36" s="207"/>
       <c r="B36" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="44"/>
-      <c r="D36" s="196"/>
-      <c r="E36" s="197"/>
-      <c r="F36" s="197"/>
-      <c r="G36" s="197"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="197"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="212"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="212"/>
+      <c r="H36" s="212"/>
+      <c r="I36" s="212"/>
       <c r="J36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="305"/>
+      <c r="K36" s="335"/>
       <c r="L36" s="94" t="s">
         <v>79</v>
       </c>
       <c r="M36" s="44"/>
-      <c r="N36" s="163" t="s">
+      <c r="N36" s="196" t="s">
         <v>123</v>
       </c>
-      <c r="O36" s="164"/>
-      <c r="P36" s="164"/>
-      <c r="Q36" s="164"/>
-      <c r="R36" s="164"/>
-      <c r="S36" s="164"/>
-      <c r="T36" s="164"/>
-      <c r="U36" s="144" t="s">
+      <c r="O36" s="197"/>
+      <c r="P36" s="197"/>
+      <c r="Q36" s="197"/>
+      <c r="R36" s="197"/>
+      <c r="S36" s="197"/>
+      <c r="T36" s="197"/>
+      <c r="U36" s="219" t="s">
         <v>124</v>
       </c>
-      <c r="V36" s="145"/>
-      <c r="W36" s="145"/>
-      <c r="X36" s="145"/>
+      <c r="V36" s="220"/>
+      <c r="W36" s="220"/>
+      <c r="X36" s="220"/>
       <c r="Y36" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="214"/>
+      <c r="A37" s="207"/>
       <c r="B37" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="44"/>
-      <c r="D37" s="196" t="s">
+      <c r="D37" s="211" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="197"/>
-      <c r="F37" s="197"/>
-      <c r="G37" s="197"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="197"/>
+      <c r="E37" s="212"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="212"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="212"/>
       <c r="J37" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="305"/>
+      <c r="K37" s="335"/>
       <c r="L37" s="94" t="s">
         <v>78</v>
       </c>
       <c r="M37" s="44"/>
-      <c r="N37" s="335" t="s">
+      <c r="N37" s="303" t="s">
         <v>125</v>
       </c>
-      <c r="O37" s="336"/>
-      <c r="P37" s="336"/>
-      <c r="Q37" s="336"/>
-      <c r="R37" s="336"/>
-      <c r="S37" s="336"/>
-      <c r="T37" s="336"/>
-      <c r="U37" s="198" t="s">
+      <c r="O37" s="304"/>
+      <c r="P37" s="304"/>
+      <c r="Q37" s="304"/>
+      <c r="R37" s="304"/>
+      <c r="S37" s="304"/>
+      <c r="T37" s="304"/>
+      <c r="U37" s="200" t="s">
         <v>126</v>
       </c>
-      <c r="V37" s="199"/>
-      <c r="W37" s="199"/>
-      <c r="X37" s="199"/>
+      <c r="V37" s="201"/>
+      <c r="W37" s="201"/>
+      <c r="X37" s="201"/>
       <c r="Y37" s="71" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="214"/>
-      <c r="B38" s="311" t="s">
+      <c r="A38" s="207"/>
+      <c r="B38" s="341" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="312"/>
-      <c r="D38" s="166" t="s">
+      <c r="C38" s="342"/>
+      <c r="D38" s="277" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="166"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="313" t="s">
+      <c r="E38" s="277"/>
+      <c r="F38" s="277"/>
+      <c r="G38" s="277"/>
+      <c r="H38" s="277"/>
+      <c r="I38" s="277"/>
+      <c r="J38" s="343" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="305"/>
-      <c r="L38" s="307" t="s">
+      <c r="K38" s="335"/>
+      <c r="L38" s="337" t="s">
         <v>208</v>
       </c>
-      <c r="M38" s="308"/>
-      <c r="N38" s="125" t="s">
+      <c r="M38" s="338"/>
+      <c r="N38" s="245" t="s">
         <v>209</v>
       </c>
-      <c r="O38" s="126"/>
-      <c r="P38" s="126"/>
-      <c r="Q38" s="126"/>
+      <c r="O38" s="246"/>
+      <c r="P38" s="246"/>
+      <c r="Q38" s="246"/>
       <c r="R38" s="72"/>
       <c r="S38" s="72"/>
       <c r="T38" s="72"/>
-      <c r="U38" s="124" t="s">
+      <c r="U38" s="244" t="s">
         <v>127</v>
       </c>
-      <c r="V38" s="124"/>
-      <c r="W38" s="124"/>
-      <c r="X38" s="124"/>
+      <c r="V38" s="244"/>
+      <c r="W38" s="244"/>
+      <c r="X38" s="244"/>
       <c r="Y38" s="73" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="303"/>
-      <c r="B39" s="139"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="306"/>
-      <c r="L39" s="309"/>
-      <c r="M39" s="310"/>
-      <c r="N39" s="127"/>
-      <c r="O39" s="128"/>
-      <c r="P39" s="128"/>
-      <c r="Q39" s="128"/>
-      <c r="R39" s="121" t="s">
+      <c r="A39" s="333"/>
+      <c r="B39" s="257"/>
+      <c r="C39" s="187"/>
+      <c r="D39" s="280"/>
+      <c r="E39" s="280"/>
+      <c r="F39" s="280"/>
+      <c r="G39" s="280"/>
+      <c r="H39" s="280"/>
+      <c r="I39" s="280"/>
+      <c r="J39" s="258"/>
+      <c r="K39" s="336"/>
+      <c r="L39" s="339"/>
+      <c r="M39" s="340"/>
+      <c r="N39" s="247"/>
+      <c r="O39" s="248"/>
+      <c r="P39" s="248"/>
+      <c r="Q39" s="248"/>
+      <c r="R39" s="241" t="s">
         <v>191</v>
       </c>
-      <c r="S39" s="122"/>
-      <c r="T39" s="122"/>
-      <c r="U39" s="122"/>
-      <c r="V39" s="123" t="s">
+      <c r="S39" s="242"/>
+      <c r="T39" s="242"/>
+      <c r="U39" s="242"/>
+      <c r="V39" s="243" t="s">
         <v>156</v>
       </c>
-      <c r="W39" s="123"/>
-      <c r="X39" s="123"/>
+      <c r="W39" s="243"/>
+      <c r="X39" s="243"/>
       <c r="Y39" s="74" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="200" t="s">
+      <c r="A40" s="194" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="46" t="s">
@@ -7311,14 +7339,14 @@
         <v>54</v>
       </c>
       <c r="E40" s="49"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="152"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="152"/>
-      <c r="J40" s="155" t="s">
+      <c r="F40" s="264"/>
+      <c r="G40" s="265"/>
+      <c r="H40" s="265"/>
+      <c r="I40" s="265"/>
+      <c r="J40" s="268" t="s">
         <v>151</v>
       </c>
-      <c r="K40" s="155"/>
+      <c r="K40" s="268"/>
       <c r="L40" s="50" t="s">
         <v>66</v>
       </c>
@@ -7334,16 +7362,16 @@
       <c r="R40" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="S40" s="157"/>
-      <c r="T40" s="158"/>
-      <c r="U40" s="158"/>
-      <c r="V40" s="158"/>
-      <c r="W40" s="158"/>
-      <c r="X40" s="158"/>
-      <c r="Y40" s="159"/>
+      <c r="S40" s="270"/>
+      <c r="T40" s="271"/>
+      <c r="U40" s="271"/>
+      <c r="V40" s="271"/>
+      <c r="W40" s="271"/>
+      <c r="X40" s="271"/>
+      <c r="Y40" s="272"/>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="242"/>
+      <c r="A41" s="195"/>
       <c r="B41" s="53" t="s">
         <v>53</v>
       </c>
@@ -7352,14 +7380,14 @@
         <v>55</v>
       </c>
       <c r="E41" s="56"/>
-      <c r="F41" s="338"/>
-      <c r="G41" s="339"/>
-      <c r="H41" s="339"/>
-      <c r="I41" s="339"/>
-      <c r="J41" s="340" t="s">
+      <c r="F41" s="306"/>
+      <c r="G41" s="307"/>
+      <c r="H41" s="307"/>
+      <c r="I41" s="307"/>
+      <c r="J41" s="308" t="s">
         <v>151</v>
       </c>
-      <c r="K41" s="340"/>
+      <c r="K41" s="308"/>
       <c r="L41" s="57" t="s">
         <v>66</v>
       </c>
@@ -7375,16 +7403,16 @@
       <c r="R41" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="341"/>
-      <c r="T41" s="342"/>
-      <c r="U41" s="342"/>
-      <c r="V41" s="342"/>
-      <c r="W41" s="342"/>
-      <c r="X41" s="342"/>
-      <c r="Y41" s="343"/>
+      <c r="S41" s="309"/>
+      <c r="T41" s="310"/>
+      <c r="U41" s="310"/>
+      <c r="V41" s="310"/>
+      <c r="W41" s="310"/>
+      <c r="X41" s="310"/>
+      <c r="Y41" s="311"/>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="242"/>
+      <c r="A42" s="195"/>
       <c r="B42" s="330"/>
       <c r="C42" s="331"/>
       <c r="D42" s="60"/>
@@ -7421,7 +7449,7 @@
       <c r="Y42" s="321"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="242"/>
+      <c r="A43" s="195"/>
       <c r="B43" s="46" t="s">
         <v>57</v>
       </c>
@@ -7429,17 +7457,17 @@
       <c r="D43" s="332" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="103"/>
-      <c r="F43" s="106" t="s">
+      <c r="E43" s="288"/>
+      <c r="F43" s="291" t="s">
         <v>129</v>
       </c>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="108" t="s">
+      <c r="G43" s="291"/>
+      <c r="H43" s="291"/>
+      <c r="I43" s="291"/>
+      <c r="J43" s="293" t="s">
         <v>195</v>
       </c>
-      <c r="K43" s="108"/>
+      <c r="K43" s="293"/>
       <c r="L43" s="82" t="s">
         <v>196</v>
       </c>
@@ -7461,16 +7489,16 @@
       <c r="R43" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="S43" s="112"/>
-      <c r="T43" s="113"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="113"/>
-      <c r="W43" s="113"/>
-      <c r="X43" s="113"/>
-      <c r="Y43" s="114"/>
+      <c r="S43" s="297"/>
+      <c r="T43" s="298"/>
+      <c r="U43" s="298"/>
+      <c r="V43" s="298"/>
+      <c r="W43" s="298"/>
+      <c r="X43" s="298"/>
+      <c r="Y43" s="299"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="242"/>
+      <c r="A44" s="195"/>
       <c r="B44" s="53" t="s">
         <v>53</v>
       </c>
@@ -7519,7 +7547,7 @@
       <c r="Y44" s="316"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="337"/>
+      <c r="A45" s="305"/>
       <c r="B45" s="317"/>
       <c r="C45" s="318"/>
       <c r="D45" s="60"/>
@@ -7556,279 +7584,279 @@
       <c r="Y45" s="321"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="99" t="s">
+      <c r="A46" s="284" t="s">
         <v>201</v>
       </c>
-      <c r="B46" s="185" t="s">
+      <c r="B46" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="186"/>
-      <c r="D46" s="187" t="s">
+      <c r="C46" s="100"/>
+      <c r="D46" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="186"/>
-      <c r="I46" s="186"/>
-      <c r="J46" s="186"/>
-      <c r="K46" s="188"/>
-      <c r="L46" s="233" t="s">
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="121"/>
+      <c r="L46" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="234"/>
-      <c r="N46" s="187" t="s">
+      <c r="M46" s="159"/>
+      <c r="N46" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="O46" s="186"/>
-      <c r="P46" s="186"/>
-      <c r="Q46" s="186"/>
-      <c r="R46" s="186"/>
-      <c r="S46" s="186"/>
-      <c r="T46" s="186"/>
-      <c r="U46" s="186"/>
-      <c r="V46" s="186"/>
-      <c r="W46" s="186"/>
-      <c r="X46" s="186"/>
-      <c r="Y46" s="188"/>
+      <c r="O46" s="100"/>
+      <c r="P46" s="100"/>
+      <c r="Q46" s="100"/>
+      <c r="R46" s="100"/>
+      <c r="S46" s="100"/>
+      <c r="T46" s="100"/>
+      <c r="U46" s="100"/>
+      <c r="V46" s="100"/>
+      <c r="W46" s="100"/>
+      <c r="X46" s="100"/>
+      <c r="Y46" s="121"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="100"/>
-      <c r="B47" s="185" t="s">
+      <c r="A47" s="285"/>
+      <c r="B47" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="186"/>
-      <c r="D47" s="187" t="s">
+      <c r="C47" s="100"/>
+      <c r="D47" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="186"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="186"/>
-      <c r="H47" s="186"/>
-      <c r="I47" s="186"/>
-      <c r="J47" s="186"/>
-      <c r="K47" s="188"/>
-      <c r="L47" s="233" t="s">
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="121"/>
+      <c r="L47" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="234"/>
-      <c r="N47" s="187" t="s">
+      <c r="M47" s="159"/>
+      <c r="N47" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="O47" s="186"/>
-      <c r="P47" s="186"/>
-      <c r="Q47" s="186"/>
-      <c r="R47" s="186"/>
-      <c r="S47" s="186"/>
-      <c r="T47" s="186"/>
-      <c r="U47" s="186"/>
-      <c r="V47" s="186"/>
-      <c r="W47" s="186"/>
-      <c r="X47" s="186"/>
-      <c r="Y47" s="188"/>
+      <c r="O47" s="100"/>
+      <c r="P47" s="100"/>
+      <c r="Q47" s="100"/>
+      <c r="R47" s="100"/>
+      <c r="S47" s="100"/>
+      <c r="T47" s="100"/>
+      <c r="U47" s="100"/>
+      <c r="V47" s="100"/>
+      <c r="W47" s="100"/>
+      <c r="X47" s="100"/>
+      <c r="Y47" s="121"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="101"/>
-      <c r="B48" s="185" t="s">
+      <c r="A48" s="286"/>
+      <c r="B48" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="186"/>
-      <c r="D48" s="187"/>
-      <c r="E48" s="186"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="186"/>
-      <c r="H48" s="186"/>
-      <c r="I48" s="186"/>
-      <c r="J48" s="186"/>
-      <c r="K48" s="188"/>
-      <c r="L48" s="233" t="s">
+      <c r="C48" s="100"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="M48" s="234"/>
-      <c r="N48" s="187"/>
-      <c r="O48" s="186"/>
-      <c r="P48" s="186"/>
-      <c r="Q48" s="186"/>
-      <c r="R48" s="186"/>
-      <c r="S48" s="186"/>
-      <c r="T48" s="186"/>
-      <c r="U48" s="186"/>
-      <c r="V48" s="186"/>
-      <c r="W48" s="186"/>
-      <c r="X48" s="186"/>
-      <c r="Y48" s="188"/>
+      <c r="M48" s="159"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="100"/>
+      <c r="P48" s="100"/>
+      <c r="Q48" s="100"/>
+      <c r="R48" s="100"/>
+      <c r="S48" s="100"/>
+      <c r="T48" s="100"/>
+      <c r="U48" s="100"/>
+      <c r="V48" s="100"/>
+      <c r="W48" s="100"/>
+      <c r="X48" s="100"/>
+      <c r="Y48" s="121"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="146" t="s">
+      <c r="A49" s="261" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="147"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="149"/>
-      <c r="E49" s="149"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="149"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="149"/>
-      <c r="J49" s="149"/>
-      <c r="K49" s="149"/>
-      <c r="L49" s="149"/>
-      <c r="M49" s="149"/>
-      <c r="N49" s="149"/>
-      <c r="O49" s="149"/>
-      <c r="P49" s="149"/>
-      <c r="Q49" s="149"/>
-      <c r="R49" s="149"/>
-      <c r="S49" s="149"/>
-      <c r="T49" s="149"/>
-      <c r="U49" s="149"/>
-      <c r="V49" s="149"/>
-      <c r="W49" s="149"/>
-      <c r="X49" s="149"/>
-      <c r="Y49" s="150"/>
+      <c r="B49" s="262"/>
+      <c r="C49" s="192"/>
+      <c r="D49" s="263"/>
+      <c r="E49" s="263"/>
+      <c r="F49" s="263"/>
+      <c r="G49" s="263"/>
+      <c r="H49" s="263"/>
+      <c r="I49" s="263"/>
+      <c r="J49" s="263"/>
+      <c r="K49" s="263"/>
+      <c r="L49" s="263"/>
+      <c r="M49" s="263"/>
+      <c r="N49" s="263"/>
+      <c r="O49" s="263"/>
+      <c r="P49" s="263"/>
+      <c r="Q49" s="263"/>
+      <c r="R49" s="263"/>
+      <c r="S49" s="263"/>
+      <c r="T49" s="263"/>
+      <c r="U49" s="263"/>
+      <c r="V49" s="263"/>
+      <c r="W49" s="263"/>
+      <c r="X49" s="263"/>
+      <c r="Y49" s="193"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="203" t="s">
+      <c r="A50" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="204"/>
-      <c r="C50" s="204"/>
-      <c r="D50" s="204"/>
-      <c r="E50" s="204"/>
-      <c r="F50" s="204"/>
-      <c r="G50" s="204"/>
-      <c r="H50" s="204"/>
-      <c r="I50" s="204"/>
-      <c r="J50" s="204"/>
-      <c r="K50" s="204"/>
-      <c r="L50" s="204"/>
-      <c r="M50" s="204"/>
-      <c r="N50" s="204"/>
-      <c r="O50" s="204"/>
-      <c r="P50" s="204"/>
-      <c r="Q50" s="204"/>
-      <c r="R50" s="204"/>
-      <c r="S50" s="204"/>
-      <c r="T50" s="204"/>
-      <c r="U50" s="204"/>
-      <c r="V50" s="204"/>
-      <c r="W50" s="204"/>
-      <c r="X50" s="204"/>
-      <c r="Y50" s="205"/>
+      <c r="B50" s="203"/>
+      <c r="C50" s="203"/>
+      <c r="D50" s="203"/>
+      <c r="E50" s="203"/>
+      <c r="F50" s="203"/>
+      <c r="G50" s="203"/>
+      <c r="H50" s="203"/>
+      <c r="I50" s="203"/>
+      <c r="J50" s="203"/>
+      <c r="K50" s="203"/>
+      <c r="L50" s="203"/>
+      <c r="M50" s="203"/>
+      <c r="N50" s="203"/>
+      <c r="O50" s="203"/>
+      <c r="P50" s="203"/>
+      <c r="Q50" s="203"/>
+      <c r="R50" s="203"/>
+      <c r="S50" s="203"/>
+      <c r="T50" s="203"/>
+      <c r="U50" s="203"/>
+      <c r="V50" s="203"/>
+      <c r="W50" s="203"/>
+      <c r="X50" s="203"/>
+      <c r="Y50" s="204"/>
     </row>
     <row r="51" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="235"/>
-      <c r="B51" s="236"/>
-      <c r="C51" s="236"/>
-      <c r="D51" s="236"/>
-      <c r="E51" s="236"/>
-      <c r="F51" s="236"/>
-      <c r="G51" s="236"/>
-      <c r="H51" s="236"/>
-      <c r="I51" s="236"/>
-      <c r="J51" s="236"/>
-      <c r="K51" s="236"/>
-      <c r="L51" s="236"/>
-      <c r="M51" s="236"/>
-      <c r="N51" s="236"/>
-      <c r="O51" s="236"/>
-      <c r="P51" s="236"/>
-      <c r="Q51" s="236"/>
-      <c r="R51" s="236"/>
-      <c r="S51" s="236"/>
-      <c r="T51" s="236"/>
-      <c r="U51" s="236"/>
-      <c r="V51" s="236"/>
-      <c r="W51" s="236"/>
-      <c r="X51" s="236"/>
-      <c r="Y51" s="237"/>
+      <c r="A51" s="184"/>
+      <c r="B51" s="185"/>
+      <c r="C51" s="185"/>
+      <c r="D51" s="185"/>
+      <c r="E51" s="185"/>
+      <c r="F51" s="185"/>
+      <c r="G51" s="185"/>
+      <c r="H51" s="185"/>
+      <c r="I51" s="185"/>
+      <c r="J51" s="185"/>
+      <c r="K51" s="185"/>
+      <c r="L51" s="185"/>
+      <c r="M51" s="185"/>
+      <c r="N51" s="185"/>
+      <c r="O51" s="185"/>
+      <c r="P51" s="185"/>
+      <c r="Q51" s="185"/>
+      <c r="R51" s="185"/>
+      <c r="S51" s="185"/>
+      <c r="T51" s="185"/>
+      <c r="U51" s="185"/>
+      <c r="V51" s="185"/>
+      <c r="W51" s="185"/>
+      <c r="X51" s="185"/>
+      <c r="Y51" s="186"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="133" t="s">
+      <c r="A52" s="253" t="s">
         <v>179</v>
       </c>
-      <c r="B52" s="134"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="134"/>
-      <c r="I52" s="134"/>
-      <c r="J52" s="134"/>
-      <c r="K52" s="134"/>
-      <c r="L52" s="134"/>
-      <c r="M52" s="134"/>
-      <c r="N52" s="134"/>
-      <c r="O52" s="134"/>
-      <c r="P52" s="134"/>
-      <c r="Q52" s="134"/>
-      <c r="R52" s="134"/>
-      <c r="S52" s="134"/>
-      <c r="T52" s="134"/>
-      <c r="U52" s="134"/>
-      <c r="V52" s="134"/>
-      <c r="W52" s="134"/>
-      <c r="X52" s="134"/>
-      <c r="Y52" s="135"/>
+      <c r="B52" s="153"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="153"/>
+      <c r="K52" s="153"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="153"/>
+      <c r="N52" s="153"/>
+      <c r="O52" s="153"/>
+      <c r="P52" s="153"/>
+      <c r="Q52" s="153"/>
+      <c r="R52" s="153"/>
+      <c r="S52" s="153"/>
+      <c r="T52" s="153"/>
+      <c r="U52" s="153"/>
+      <c r="V52" s="153"/>
+      <c r="W52" s="153"/>
+      <c r="X52" s="153"/>
+      <c r="Y52" s="254"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="136" t="s">
+      <c r="A53" s="255" t="s">
         <v>188</v>
       </c>
-      <c r="B53" s="137"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="137"/>
-      <c r="H53" s="137"/>
-      <c r="I53" s="137"/>
-      <c r="J53" s="137"/>
-      <c r="K53" s="137"/>
-      <c r="L53" s="137"/>
-      <c r="M53" s="137"/>
-      <c r="N53" s="137"/>
-      <c r="O53" s="137"/>
-      <c r="P53" s="137"/>
-      <c r="Q53" s="137"/>
-      <c r="R53" s="137"/>
-      <c r="S53" s="137"/>
-      <c r="T53" s="137"/>
-      <c r="U53" s="137"/>
-      <c r="V53" s="137"/>
-      <c r="W53" s="137"/>
-      <c r="X53" s="137"/>
-      <c r="Y53" s="138"/>
+      <c r="B53" s="221"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="221"/>
+      <c r="E53" s="221"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="221"/>
+      <c r="H53" s="221"/>
+      <c r="I53" s="221"/>
+      <c r="J53" s="221"/>
+      <c r="K53" s="221"/>
+      <c r="L53" s="221"/>
+      <c r="M53" s="221"/>
+      <c r="N53" s="221"/>
+      <c r="O53" s="221"/>
+      <c r="P53" s="221"/>
+      <c r="Q53" s="221"/>
+      <c r="R53" s="221"/>
+      <c r="S53" s="221"/>
+      <c r="T53" s="221"/>
+      <c r="U53" s="221"/>
+      <c r="V53" s="221"/>
+      <c r="W53" s="221"/>
+      <c r="X53" s="221"/>
+      <c r="Y53" s="256"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="139" t="s">
+      <c r="A54" s="257" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="140"/>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140"/>
-      <c r="J54" s="140"/>
-      <c r="K54" s="140"/>
-      <c r="L54" s="140"/>
-      <c r="M54" s="140"/>
-      <c r="N54" s="140"/>
-      <c r="O54" s="140"/>
-      <c r="P54" s="140"/>
-      <c r="Q54" s="140"/>
-      <c r="R54" s="140"/>
-      <c r="S54" s="140"/>
-      <c r="T54" s="140"/>
-      <c r="U54" s="140"/>
-      <c r="V54" s="140"/>
-      <c r="W54" s="140"/>
-      <c r="X54" s="140"/>
-      <c r="Y54" s="141"/>
+      <c r="B54" s="187"/>
+      <c r="C54" s="187"/>
+      <c r="D54" s="187"/>
+      <c r="E54" s="187"/>
+      <c r="F54" s="187"/>
+      <c r="G54" s="187"/>
+      <c r="H54" s="187"/>
+      <c r="I54" s="187"/>
+      <c r="J54" s="187"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="187"/>
+      <c r="M54" s="187"/>
+      <c r="N54" s="187"/>
+      <c r="O54" s="187"/>
+      <c r="P54" s="187"/>
+      <c r="Q54" s="187"/>
+      <c r="R54" s="187"/>
+      <c r="S54" s="187"/>
+      <c r="T54" s="187"/>
+      <c r="U54" s="187"/>
+      <c r="V54" s="187"/>
+      <c r="W54" s="187"/>
+      <c r="X54" s="187"/>
+      <c r="Y54" s="258"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="64" t="s">
@@ -7865,25 +7893,25 @@
     </row>
     <row r="59" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="65"/>
-      <c r="B59" s="137" t="s">
+      <c r="B59" s="221" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="137"/>
-      <c r="G59" s="137" t="s">
+      <c r="C59" s="221"/>
+      <c r="D59" s="221"/>
+      <c r="E59" s="221"/>
+      <c r="F59" s="221"/>
+      <c r="G59" s="221" t="s">
         <v>182</v>
       </c>
-      <c r="H59" s="137"/>
-      <c r="I59" s="137"/>
-      <c r="J59" s="137"/>
-      <c r="L59" s="168" t="s">
+      <c r="H59" s="221"/>
+      <c r="I59" s="221"/>
+      <c r="J59" s="221"/>
+      <c r="L59" s="222" t="s">
         <v>183</v>
       </c>
-      <c r="M59" s="168"/>
-      <c r="N59" s="168"/>
-      <c r="O59" s="168"/>
+      <c r="M59" s="222"/>
+      <c r="N59" s="222"/>
+      <c r="O59" s="222"/>
       <c r="P59" s="1" t="s">
         <v>184</v>
       </c>
@@ -7903,12 +7931,12 @@
       <c r="I60" s="68"/>
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
-      <c r="L60" s="174" t="s">
+      <c r="L60" s="223" t="s">
         <v>187</v>
       </c>
-      <c r="M60" s="174"/>
-      <c r="N60" s="174"/>
-      <c r="O60" s="174"/>
+      <c r="M60" s="223"/>
+      <c r="N60" s="223"/>
+      <c r="O60" s="223"/>
       <c r="P60" s="68" t="s">
         <v>186</v>
       </c>
@@ -7947,6 +7975,163 @@
     </row>
   </sheetData>
   <mergeCells count="181">
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="K33:K39"/>
+    <mergeCell ref="L38:M39"/>
+    <mergeCell ref="N38:Q39"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="D38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="A51:Y51"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:Y48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:Y49"/>
+    <mergeCell ref="A50:Y50"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:Y46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:Y47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="S45:Y45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="S43:Y43"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="R39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:Y29"/>
+    <mergeCell ref="C30:Y30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="C20:Y20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:Y23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:Y13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:Y10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:Y11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E16:Y16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:Y19"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Y8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:Y6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:Y7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:Y12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:Y14"/>
+    <mergeCell ref="A15:Y15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="D8:K8"/>
     <mergeCell ref="A52:Y52"/>
     <mergeCell ref="A53:Y53"/>
     <mergeCell ref="A54:Y54"/>
@@ -7971,163 +8156,6 @@
     <mergeCell ref="U33:X33"/>
     <mergeCell ref="D34:I34"/>
     <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:Y12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:Y14"/>
-    <mergeCell ref="A15:Y15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:Y8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:Y9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:Y6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:Y7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:Y13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:Y10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:Y11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E16:Y16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:Y19"/>
-    <mergeCell ref="C20:Y20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:Y23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:Y29"/>
-    <mergeCell ref="C30:Y30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="S44:Y44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="S45:Y45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="S43:Y43"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="R39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="K33:K39"/>
-    <mergeCell ref="L38:M39"/>
-    <mergeCell ref="N38:Q39"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="D38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="A51:Y51"/>
-    <mergeCell ref="D48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:Y48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:Y49"/>
-    <mergeCell ref="A50:Y50"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:Y46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:Y47"/>
-    <mergeCell ref="B48:C48"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">

--- a/template/取引成立台帳.xlsx
+++ b/template/取引成立台帳.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fwxWork\MetPro\backend\kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637E9056-29F6-4FFC-A86E-5211CD8D7657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC28D67-F5D1-4A3A-A78E-32798A5C3806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D08DF634-D05B-48EB-A5E5-3C43C6308EA5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="217">
   <si>
     <t>成立年月日</t>
     <rPh sb="0" eb="2">
@@ -1395,23 +1395,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$l2_landTitle$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$l2_expirationDate_wareki$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$l2_expirationDate_YY$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$l2_expirationDate_MM$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$l2_expirationDate_DD$</t>
+    <t>$l2_landRentTitle$</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2613,10 +2597,379 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2625,27 +2978,222 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2661,569 +3209,101 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3251,102 +3331,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3677,60 +3661,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="224" t="s">
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="R1" s="226" t="s">
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="R1" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="227"/>
-      <c r="T1" s="227"/>
-      <c r="U1" s="228" t="s">
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="230"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="181"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="225"/>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="R2" s="226" t="s">
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="R2" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="227"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="231" t="s">
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="V2" s="232"/>
-      <c r="W2" s="232"/>
-      <c r="X2" s="232"/>
-      <c r="Y2" s="233"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="184"/>
     </row>
     <row r="3" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -3760,26 +3744,26 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="148" t="s">
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="263" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="116" t="s">
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="265"/>
+      <c r="L4" s="276" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="164"/>
-      <c r="N4" s="117"/>
+      <c r="M4" s="277"/>
+      <c r="N4" s="278"/>
       <c r="O4" s="7" t="s">
         <v>67</v>
       </c>
@@ -3801,24 +3785,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="148" t="s">
+      <c r="B5" s="190"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="263" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="165"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="167"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="264"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="264"/>
+      <c r="K5" s="265"/>
+      <c r="L5" s="279"/>
+      <c r="M5" s="280"/>
+      <c r="N5" s="281"/>
       <c r="O5" s="10" t="s">
         <v>67</v>
       </c>
@@ -3829,10 +3813,10 @@
       <c r="R5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="187" t="s">
+      <c r="S5" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="T5" s="188"/>
+      <c r="T5" s="238"/>
       <c r="U5" s="11" t="s">
         <v>67</v>
       </c>
@@ -3850,333 +3834,333 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="262" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="99" t="s">
+      <c r="C6" s="186"/>
+      <c r="D6" s="187" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122" t="s">
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="159"/>
-      <c r="N6" s="99" t="s">
+      <c r="M6" s="234"/>
+      <c r="N6" s="187" t="s">
         <v>145</v>
       </c>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="121"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="186"/>
+      <c r="R6" s="186"/>
+      <c r="S6" s="186"/>
+      <c r="T6" s="186"/>
+      <c r="U6" s="186"/>
+      <c r="V6" s="186"/>
+      <c r="W6" s="186"/>
+      <c r="X6" s="186"/>
+      <c r="Y6" s="188"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="163"/>
-      <c r="B7" s="129" t="s">
+      <c r="A7" s="262"/>
+      <c r="B7" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="99" t="s">
+      <c r="C7" s="186"/>
+      <c r="D7" s="187" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="122" t="s">
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="159"/>
-      <c r="N7" s="99" t="s">
+      <c r="M7" s="234"/>
+      <c r="N7" s="187" t="s">
         <v>145</v>
       </c>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="121"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="186"/>
+      <c r="S7" s="186"/>
+      <c r="T7" s="186"/>
+      <c r="U7" s="186"/>
+      <c r="V7" s="186"/>
+      <c r="W7" s="186"/>
+      <c r="X7" s="186"/>
+      <c r="Y7" s="188"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="163"/>
-      <c r="B8" s="129" t="s">
+      <c r="A8" s="262"/>
+      <c r="B8" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="99" t="s">
+      <c r="C8" s="186"/>
+      <c r="D8" s="187" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122" t="s">
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="159"/>
-      <c r="N8" s="99" t="s">
+      <c r="M8" s="234"/>
+      <c r="N8" s="187" t="s">
         <v>145</v>
       </c>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="121"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="186"/>
+      <c r="S8" s="186"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="186"/>
+      <c r="V8" s="186"/>
+      <c r="W8" s="186"/>
+      <c r="X8" s="186"/>
+      <c r="Y8" s="188"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="163"/>
-      <c r="B9" s="189" t="s">
+      <c r="A9" s="262"/>
+      <c r="B9" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="122" t="s">
+      <c r="C9" s="240"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="159"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="100"/>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="121"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="186"/>
+      <c r="Y9" s="188"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="262" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="99" t="s">
+      <c r="C10" s="186"/>
+      <c r="D10" s="187" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122" t="s">
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="159"/>
-      <c r="N10" s="99" t="s">
+      <c r="M10" s="234"/>
+      <c r="N10" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="121"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="186"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="188"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="163"/>
-      <c r="B11" s="129" t="s">
+      <c r="A11" s="262"/>
+      <c r="B11" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="122" t="s">
+      <c r="C11" s="186"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="188"/>
+      <c r="L11" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="159"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="121"/>
+      <c r="M11" s="234"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="186"/>
+      <c r="P11" s="186"/>
+      <c r="Q11" s="186"/>
+      <c r="R11" s="186"/>
+      <c r="S11" s="186"/>
+      <c r="T11" s="186"/>
+      <c r="U11" s="186"/>
+      <c r="V11" s="186"/>
+      <c r="W11" s="186"/>
+      <c r="X11" s="186"/>
+      <c r="Y11" s="188"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="163"/>
-      <c r="B12" s="129" t="s">
+      <c r="A12" s="262"/>
+      <c r="B12" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="122" t="s">
+      <c r="C12" s="186"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="159"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="121"/>
+      <c r="M12" s="234"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="186"/>
+      <c r="P12" s="186"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="186"/>
+      <c r="S12" s="186"/>
+      <c r="T12" s="186"/>
+      <c r="U12" s="186"/>
+      <c r="V12" s="186"/>
+      <c r="W12" s="186"/>
+      <c r="X12" s="186"/>
+      <c r="Y12" s="188"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="163"/>
-      <c r="B13" s="189" t="s">
+      <c r="A13" s="262"/>
+      <c r="B13" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122" t="s">
+      <c r="C13" s="240"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="159"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="121"/>
+      <c r="M13" s="234"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="186"/>
+      <c r="S13" s="186"/>
+      <c r="T13" s="186"/>
+      <c r="U13" s="186"/>
+      <c r="V13" s="186"/>
+      <c r="W13" s="186"/>
+      <c r="X13" s="186"/>
+      <c r="Y13" s="188"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="179" t="s">
+      <c r="A14" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="180"/>
-      <c r="C14" s="180"/>
-      <c r="D14" s="180"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="101" t="s">
+      <c r="B14" s="259"/>
+      <c r="C14" s="259"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="224" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="102"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="224"/>
+      <c r="K14" s="224"/>
+      <c r="L14" s="224"/>
+      <c r="M14" s="224"/>
+      <c r="N14" s="224"/>
+      <c r="O14" s="224"/>
+      <c r="P14" s="224"/>
+      <c r="Q14" s="224"/>
+      <c r="R14" s="224"/>
+      <c r="S14" s="224"/>
+      <c r="T14" s="224"/>
+      <c r="U14" s="224"/>
+      <c r="V14" s="224"/>
+      <c r="W14" s="224"/>
+      <c r="X14" s="224"/>
+      <c r="Y14" s="225"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="198"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="115"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="115"/>
-      <c r="W15" s="115"/>
-      <c r="X15" s="115"/>
-      <c r="Y15" s="199"/>
+      <c r="A15" s="243"/>
+      <c r="B15" s="244"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="244"/>
+      <c r="L15" s="244"/>
+      <c r="M15" s="244"/>
+      <c r="N15" s="244"/>
+      <c r="O15" s="244"/>
+      <c r="P15" s="244"/>
+      <c r="Q15" s="244"/>
+      <c r="R15" s="244"/>
+      <c r="S15" s="244"/>
+      <c r="T15" s="244"/>
+      <c r="U15" s="244"/>
+      <c r="V15" s="244"/>
+      <c r="W15" s="244"/>
+      <c r="X15" s="244"/>
+      <c r="Y15" s="245"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="181" t="s">
+      <c r="A16" s="260" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -4184,90 +4168,90 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="177" t="s">
+      <c r="E16" s="257" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="177"/>
-      <c r="R16" s="177"/>
-      <c r="S16" s="177"/>
-      <c r="T16" s="177"/>
-      <c r="U16" s="177"/>
-      <c r="V16" s="177"/>
-      <c r="W16" s="177"/>
-      <c r="X16" s="177"/>
-      <c r="Y16" s="178"/>
+      <c r="F16" s="257"/>
+      <c r="G16" s="257"/>
+      <c r="H16" s="257"/>
+      <c r="I16" s="257"/>
+      <c r="J16" s="257"/>
+      <c r="K16" s="257"/>
+      <c r="L16" s="257"/>
+      <c r="M16" s="257"/>
+      <c r="N16" s="257"/>
+      <c r="O16" s="257"/>
+      <c r="P16" s="257"/>
+      <c r="Q16" s="257"/>
+      <c r="R16" s="257"/>
+      <c r="S16" s="257"/>
+      <c r="T16" s="257"/>
+      <c r="U16" s="257"/>
+      <c r="V16" s="257"/>
+      <c r="W16" s="257"/>
+      <c r="X16" s="257"/>
+      <c r="Y16" s="258"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="182"/>
-      <c r="B17" s="152" t="s">
+      <c r="A17" s="201"/>
+      <c r="B17" s="267" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="153"/>
-      <c r="D17" s="154"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="268"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="123" t="s">
+      <c r="F17" s="232" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
+      <c r="G17" s="232"/>
+      <c r="H17" s="232"/>
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="156" t="s">
+      <c r="J17" s="272"/>
+      <c r="K17" s="272"/>
+      <c r="L17" s="272"/>
+      <c r="M17" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="158" t="s">
+      <c r="N17" s="274"/>
+      <c r="O17" s="274"/>
+      <c r="P17" s="275" t="s">
         <v>135</v>
       </c>
-      <c r="Q17" s="158"/>
-      <c r="R17" s="158"/>
+      <c r="Q17" s="275"/>
+      <c r="R17" s="275"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="168" t="s">
+      <c r="U17" s="246" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="169"/>
-      <c r="W17" s="169"/>
-      <c r="X17" s="169"/>
-      <c r="Y17" s="170"/>
+      <c r="V17" s="247"/>
+      <c r="W17" s="247"/>
+      <c r="X17" s="247"/>
+      <c r="Y17" s="248"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="182"/>
-      <c r="B18" s="105" t="s">
+      <c r="A18" s="201"/>
+      <c r="B18" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="271"/>
       <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="151" t="s">
+      <c r="G18" s="266" t="s">
         <v>137</v>
       </c>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
+      <c r="H18" s="266"/>
+      <c r="I18" s="266"/>
+      <c r="J18" s="266"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -4276,85 +4260,85 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
+      <c r="O18" s="266"/>
+      <c r="P18" s="266"/>
+      <c r="Q18" s="266"/>
+      <c r="R18" s="266"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="118" t="s">
+      <c r="U18" s="206" t="s">
         <v>136</v>
       </c>
-      <c r="V18" s="119"/>
-      <c r="W18" s="119"/>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="120"/>
+      <c r="V18" s="207"/>
+      <c r="W18" s="207"/>
+      <c r="X18" s="207"/>
+      <c r="Y18" s="208"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="182"/>
-      <c r="B19" s="171" t="s">
+      <c r="A19" s="201"/>
+      <c r="B19" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="179"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="102"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="224"/>
+      <c r="P19" s="224"/>
+      <c r="Q19" s="224"/>
+      <c r="R19" s="224"/>
+      <c r="S19" s="224"/>
+      <c r="T19" s="224"/>
+      <c r="U19" s="224"/>
+      <c r="V19" s="224"/>
+      <c r="W19" s="224"/>
+      <c r="X19" s="224"/>
+      <c r="Y19" s="225"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="182"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="143"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="143"/>
-      <c r="W20" s="143"/>
-      <c r="X20" s="143"/>
-      <c r="Y20" s="144"/>
+      <c r="A20" s="201"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="261"/>
+      <c r="D20" s="255"/>
+      <c r="E20" s="255"/>
+      <c r="F20" s="255"/>
+      <c r="G20" s="255"/>
+      <c r="H20" s="255"/>
+      <c r="I20" s="255"/>
+      <c r="J20" s="255"/>
+      <c r="K20" s="255"/>
+      <c r="L20" s="255"/>
+      <c r="M20" s="255"/>
+      <c r="N20" s="255"/>
+      <c r="O20" s="255"/>
+      <c r="P20" s="255"/>
+      <c r="Q20" s="255"/>
+      <c r="R20" s="255"/>
+      <c r="S20" s="255"/>
+      <c r="T20" s="255"/>
+      <c r="U20" s="255"/>
+      <c r="V20" s="255"/>
+      <c r="W20" s="255"/>
+      <c r="X20" s="255"/>
+      <c r="Y20" s="256"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="182"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="205" t="s">
+      <c r="A21" s="201"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="205"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="23" t="s">
         <v>159</v>
       </c>
@@ -4368,204 +4352,196 @@
         <v>161</v>
       </c>
       <c r="K21" s="25"/>
-      <c r="L21" s="140" t="s">
+      <c r="L21" s="252" t="s">
         <v>216</v>
       </c>
-      <c r="M21" s="108"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
+      <c r="M21" s="221"/>
+      <c r="N21" s="222"/>
+      <c r="O21" s="222"/>
+      <c r="P21" s="222"/>
       <c r="Q21" s="8" t="s">
         <v>149</v>
       </c>
       <c r="R21" s="9"/>
-      <c r="S21" s="125" t="s">
+      <c r="S21" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="126"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="126"/>
-      <c r="Y21" s="127"/>
+      <c r="T21" s="250"/>
+      <c r="U21" s="250"/>
+      <c r="V21" s="250"/>
+      <c r="W21" s="250"/>
+      <c r="X21" s="250"/>
+      <c r="Y21" s="251"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="183"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="128" t="s">
+      <c r="A22" s="202"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="176" t="s">
+      <c r="D22" s="210"/>
+      <c r="E22" s="254" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="174" t="s">
+      <c r="F22" s="255"/>
+      <c r="G22" s="255"/>
+      <c r="H22" s="255"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="255"/>
+      <c r="K22" s="256"/>
+      <c r="L22" s="253"/>
+      <c r="M22" s="211" t="s">
         <v>163</v>
       </c>
-      <c r="N22" s="175"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="175"/>
+      <c r="N22" s="212"/>
+      <c r="O22" s="212"/>
+      <c r="P22" s="212"/>
       <c r="Q22" s="5" t="s">
         <v>150</v>
       </c>
       <c r="R22" s="12"/>
-      <c r="S22" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="T22" s="27" t="s">
-        <v>218</v>
-      </c>
+      <c r="S22" s="26"/>
+      <c r="T22" s="27"/>
       <c r="U22" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="V22" s="28" t="s">
-        <v>219</v>
-      </c>
+      <c r="V22" s="28"/>
       <c r="W22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="X22" s="28" t="s">
-        <v>220</v>
-      </c>
+      <c r="X22" s="28"/>
       <c r="Y22" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="269" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="110" t="s">
+      <c r="C23" s="270"/>
+      <c r="D23" s="271"/>
+      <c r="E23" s="298" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="111"/>
+      <c r="F23" s="270"/>
+      <c r="G23" s="270"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="270"/>
+      <c r="J23" s="270"/>
+      <c r="K23" s="270"/>
+      <c r="L23" s="270"/>
+      <c r="M23" s="270"/>
+      <c r="N23" s="270"/>
+      <c r="O23" s="270"/>
+      <c r="P23" s="270"/>
+      <c r="Q23" s="270"/>
+      <c r="R23" s="270"/>
+      <c r="S23" s="270"/>
+      <c r="T23" s="270"/>
+      <c r="U23" s="270"/>
+      <c r="V23" s="270"/>
+      <c r="W23" s="270"/>
+      <c r="X23" s="270"/>
+      <c r="Y23" s="299"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="182"/>
-      <c r="B24" s="105" t="s">
+      <c r="A24" s="201"/>
+      <c r="B24" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="115" t="s">
+      <c r="C24" s="270"/>
+      <c r="D24" s="271"/>
+      <c r="E24" s="244" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="116" t="s">
+      <c r="F24" s="244"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="244"/>
+      <c r="J24" s="244"/>
+      <c r="K24" s="244"/>
+      <c r="L24" s="244"/>
+      <c r="M24" s="244"/>
+      <c r="N24" s="244"/>
+      <c r="O24" s="276" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="113" t="s">
+      <c r="P24" s="278"/>
+      <c r="Q24" s="300"/>
+      <c r="R24" s="300"/>
+      <c r="S24" s="301" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="114"/>
-      <c r="U24" s="103" t="s">
+      <c r="T24" s="302"/>
+      <c r="U24" s="296" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="104"/>
+      <c r="V24" s="296"/>
+      <c r="W24" s="296"/>
+      <c r="X24" s="296"/>
+      <c r="Y24" s="297"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="182"/>
-      <c r="B25" s="105" t="s">
+      <c r="A25" s="201"/>
+      <c r="B25" s="269" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="118" t="s">
+      <c r="C25" s="270"/>
+      <c r="D25" s="271"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="186"/>
+      <c r="M25" s="186"/>
+      <c r="N25" s="186"/>
+      <c r="O25" s="224"/>
+      <c r="P25" s="224"/>
+      <c r="Q25" s="224"/>
+      <c r="R25" s="224"/>
+      <c r="S25" s="224"/>
+      <c r="T25" s="225"/>
+      <c r="U25" s="206" t="s">
         <v>178</v>
       </c>
-      <c r="V25" s="119"/>
-      <c r="W25" s="119"/>
-      <c r="X25" s="119"/>
-      <c r="Y25" s="120"/>
+      <c r="V25" s="207"/>
+      <c r="W25" s="207"/>
+      <c r="X25" s="207"/>
+      <c r="Y25" s="208"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="182"/>
-      <c r="B26" s="105" t="s">
+      <c r="A26" s="201"/>
+      <c r="B26" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="99" t="s">
+      <c r="C26" s="270"/>
+      <c r="D26" s="271"/>
+      <c r="E26" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="186"/>
+      <c r="L26" s="186"/>
+      <c r="M26" s="186"/>
+      <c r="N26" s="186"/>
       <c r="O26" s="21"/>
       <c r="P26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="123" t="s">
+      <c r="Q26" s="232" t="s">
         <v>140</v>
       </c>
-      <c r="R26" s="123"/>
+      <c r="R26" s="232"/>
       <c r="S26" s="31" t="s">
         <v>13</v>
       </c>
@@ -4573,80 +4549,80 @@
       <c r="U26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="123"/>
-      <c r="W26" s="123"/>
+      <c r="V26" s="232"/>
+      <c r="W26" s="232"/>
       <c r="X26" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="182"/>
-      <c r="B27" s="105" t="s">
+      <c r="A27" s="201"/>
+      <c r="B27" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="99" t="s">
+      <c r="C27" s="270"/>
+      <c r="D27" s="271"/>
+      <c r="E27" s="187" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="122" t="s">
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="188"/>
+      <c r="L27" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="123"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="134"/>
+      <c r="M27" s="232"/>
+      <c r="N27" s="282"/>
+      <c r="O27" s="286"/>
+      <c r="P27" s="232"/>
+      <c r="Q27" s="287"/>
       <c r="R27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="125" t="s">
+      <c r="S27" s="249" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="126"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="126"/>
-      <c r="W27" s="126"/>
-      <c r="X27" s="126"/>
-      <c r="Y27" s="127"/>
+      <c r="T27" s="250"/>
+      <c r="U27" s="250"/>
+      <c r="V27" s="250"/>
+      <c r="W27" s="250"/>
+      <c r="X27" s="250"/>
+      <c r="Y27" s="251"/>
       <c r="Z27" s="33"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="182"/>
-      <c r="B28" s="129" t="s">
+      <c r="A28" s="201"/>
+      <c r="B28" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131" t="s">
+      <c r="C28" s="283"/>
+      <c r="D28" s="283"/>
+      <c r="E28" s="284" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="132"/>
-      <c r="Q28" s="132"/>
+      <c r="F28" s="285"/>
+      <c r="G28" s="285"/>
+      <c r="H28" s="285"/>
+      <c r="I28" s="285"/>
+      <c r="J28" s="285"/>
+      <c r="K28" s="285"/>
+      <c r="L28" s="285"/>
+      <c r="M28" s="285"/>
+      <c r="N28" s="285"/>
+      <c r="O28" s="285"/>
+      <c r="P28" s="285"/>
+      <c r="Q28" s="285"/>
       <c r="R28" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="135" t="s">
+      <c r="S28" s="288" t="s">
         <v>152</v>
       </c>
-      <c r="T28" s="136"/>
+      <c r="T28" s="289"/>
       <c r="U28" s="28" t="s">
         <v>28</v>
       </c>
@@ -4665,125 +4641,125 @@
       <c r="Z28" s="33"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="182"/>
-      <c r="B29" s="171" t="s">
+      <c r="A29" s="201"/>
+      <c r="B29" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="179"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="102"/>
+      <c r="C29" s="223"/>
+      <c r="D29" s="224"/>
+      <c r="E29" s="224"/>
+      <c r="F29" s="224"/>
+      <c r="G29" s="224"/>
+      <c r="H29" s="224"/>
+      <c r="I29" s="224"/>
+      <c r="J29" s="224"/>
+      <c r="K29" s="224"/>
+      <c r="L29" s="224"/>
+      <c r="M29" s="224"/>
+      <c r="N29" s="224"/>
+      <c r="O29" s="224"/>
+      <c r="P29" s="224"/>
+      <c r="Q29" s="224"/>
+      <c r="R29" s="224"/>
+      <c r="S29" s="224"/>
+      <c r="T29" s="224"/>
+      <c r="U29" s="224"/>
+      <c r="V29" s="224"/>
+      <c r="W29" s="224"/>
+      <c r="X29" s="224"/>
+      <c r="Y29" s="225"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="182"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="143"/>
-      <c r="N30" s="143"/>
-      <c r="O30" s="143"/>
-      <c r="P30" s="143"/>
-      <c r="Q30" s="143"/>
-      <c r="R30" s="143"/>
-      <c r="S30" s="143"/>
-      <c r="T30" s="143"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="143"/>
-      <c r="W30" s="143"/>
-      <c r="X30" s="143"/>
-      <c r="Y30" s="144"/>
+      <c r="A30" s="201"/>
+      <c r="B30" s="219"/>
+      <c r="C30" s="261"/>
+      <c r="D30" s="255"/>
+      <c r="E30" s="255"/>
+      <c r="F30" s="255"/>
+      <c r="G30" s="255"/>
+      <c r="H30" s="255"/>
+      <c r="I30" s="255"/>
+      <c r="J30" s="255"/>
+      <c r="K30" s="255"/>
+      <c r="L30" s="255"/>
+      <c r="M30" s="255"/>
+      <c r="N30" s="255"/>
+      <c r="O30" s="255"/>
+      <c r="P30" s="255"/>
+      <c r="Q30" s="255"/>
+      <c r="R30" s="255"/>
+      <c r="S30" s="255"/>
+      <c r="T30" s="255"/>
+      <c r="U30" s="255"/>
+      <c r="V30" s="255"/>
+      <c r="W30" s="255"/>
+      <c r="X30" s="255"/>
+      <c r="Y30" s="256"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="182"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="205" t="s">
+      <c r="A31" s="201"/>
+      <c r="B31" s="219"/>
+      <c r="C31" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="205"/>
-      <c r="E31" s="137" t="s">
+      <c r="D31" s="209"/>
+      <c r="E31" s="290" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="138"/>
-      <c r="G31" s="139" t="s">
+      <c r="F31" s="291"/>
+      <c r="G31" s="292" t="s">
         <v>165</v>
       </c>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="140" t="s">
+      <c r="H31" s="224"/>
+      <c r="I31" s="224"/>
+      <c r="J31" s="224"/>
+      <c r="K31" s="224"/>
+      <c r="L31" s="252" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="108"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="192"/>
-      <c r="R31" s="193"/>
-      <c r="S31" s="125" t="s">
+      <c r="M31" s="221"/>
+      <c r="N31" s="222"/>
+      <c r="O31" s="222"/>
+      <c r="P31" s="222"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="150"/>
+      <c r="S31" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="126"/>
-      <c r="W31" s="126"/>
-      <c r="X31" s="126"/>
-      <c r="Y31" s="127"/>
+      <c r="T31" s="250"/>
+      <c r="U31" s="250"/>
+      <c r="V31" s="250"/>
+      <c r="W31" s="250"/>
+      <c r="X31" s="250"/>
+      <c r="Y31" s="251"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="183"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="128" t="s">
+      <c r="A32" s="202"/>
+      <c r="B32" s="220"/>
+      <c r="C32" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="128"/>
-      <c r="E32" s="145" t="s">
+      <c r="D32" s="210"/>
+      <c r="E32" s="293" t="s">
         <v>167</v>
       </c>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="174" t="s">
+      <c r="F32" s="294"/>
+      <c r="G32" s="294"/>
+      <c r="H32" s="294"/>
+      <c r="I32" s="294"/>
+      <c r="J32" s="294"/>
+      <c r="K32" s="295"/>
+      <c r="L32" s="253"/>
+      <c r="M32" s="211" t="s">
         <v>169</v>
       </c>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="191" t="s">
+      <c r="N32" s="212"/>
+      <c r="O32" s="212"/>
+      <c r="P32" s="212"/>
+      <c r="Q32" s="241" t="s">
         <v>150</v>
       </c>
-      <c r="R32" s="186"/>
+      <c r="R32" s="237"/>
       <c r="S32" s="26" t="s">
         <v>171</v>
       </c>
@@ -4807,359 +4783,359 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="206" t="s">
+      <c r="A33" s="213" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="208" t="s">
+      <c r="D33" s="215" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="209"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="209"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="210"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="217"/>
       <c r="J33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="238" t="s">
+      <c r="K33" s="118" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="35"/>
-      <c r="N33" s="234" t="s">
+      <c r="N33" s="192" t="s">
         <v>90</v>
       </c>
-      <c r="O33" s="235"/>
-      <c r="P33" s="235"/>
-      <c r="Q33" s="235"/>
-      <c r="R33" s="235"/>
-      <c r="S33" s="235"/>
-      <c r="T33" s="235"/>
-      <c r="U33" s="236" t="s">
+      <c r="O33" s="193"/>
+      <c r="P33" s="193"/>
+      <c r="Q33" s="193"/>
+      <c r="R33" s="193"/>
+      <c r="S33" s="193"/>
+      <c r="T33" s="193"/>
+      <c r="U33" s="194" t="s">
         <v>91</v>
       </c>
-      <c r="V33" s="237"/>
-      <c r="W33" s="237"/>
-      <c r="X33" s="237"/>
+      <c r="V33" s="195"/>
+      <c r="W33" s="195"/>
+      <c r="X33" s="195"/>
       <c r="Y33" s="38" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="33"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="207"/>
+      <c r="A34" s="214"/>
       <c r="B34" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="40"/>
-      <c r="D34" s="211" t="s">
+      <c r="D34" s="196" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="212"/>
-      <c r="F34" s="212"/>
-      <c r="G34" s="212"/>
-      <c r="H34" s="212"/>
-      <c r="I34" s="212"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="197"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="197"/>
       <c r="J34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="239"/>
+      <c r="K34" s="119"/>
       <c r="L34" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="40"/>
-      <c r="N34" s="196" t="s">
+      <c r="N34" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="O34" s="197"/>
-      <c r="P34" s="197"/>
-      <c r="Q34" s="197"/>
-      <c r="R34" s="197"/>
-      <c r="S34" s="197"/>
-      <c r="T34" s="197"/>
-      <c r="U34" s="219" t="s">
+      <c r="O34" s="164"/>
+      <c r="P34" s="164"/>
+      <c r="Q34" s="164"/>
+      <c r="R34" s="164"/>
+      <c r="S34" s="164"/>
+      <c r="T34" s="164"/>
+      <c r="U34" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="V34" s="220"/>
-      <c r="W34" s="220"/>
-      <c r="X34" s="220"/>
+      <c r="V34" s="145"/>
+      <c r="W34" s="145"/>
+      <c r="X34" s="145"/>
       <c r="Y34" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="207"/>
+      <c r="A35" s="214"/>
       <c r="B35" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="40"/>
-      <c r="D35" s="211" t="s">
+      <c r="D35" s="196" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="212"/>
-      <c r="F35" s="212"/>
-      <c r="G35" s="212"/>
-      <c r="H35" s="212"/>
-      <c r="I35" s="212"/>
+      <c r="E35" s="197"/>
+      <c r="F35" s="197"/>
+      <c r="G35" s="197"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="197"/>
       <c r="J35" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="239"/>
+      <c r="K35" s="119"/>
       <c r="L35" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="40"/>
-      <c r="N35" s="196" t="s">
+      <c r="N35" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="O35" s="197"/>
-      <c r="P35" s="197"/>
-      <c r="Q35" s="197"/>
-      <c r="R35" s="197"/>
-      <c r="S35" s="197"/>
-      <c r="T35" s="197"/>
-      <c r="U35" s="219" t="s">
+      <c r="O35" s="164"/>
+      <c r="P35" s="164"/>
+      <c r="Q35" s="164"/>
+      <c r="R35" s="164"/>
+      <c r="S35" s="164"/>
+      <c r="T35" s="164"/>
+      <c r="U35" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="V35" s="220"/>
-      <c r="W35" s="220"/>
-      <c r="X35" s="220"/>
+      <c r="V35" s="145"/>
+      <c r="W35" s="145"/>
+      <c r="X35" s="145"/>
       <c r="Y35" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="207"/>
+      <c r="A36" s="214"/>
       <c r="B36" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="44"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="212"/>
-      <c r="G36" s="212"/>
-      <c r="H36" s="212"/>
-      <c r="I36" s="212"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="197"/>
+      <c r="G36" s="197"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="197"/>
       <c r="J36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="239"/>
+      <c r="K36" s="119"/>
       <c r="L36" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M36" s="44"/>
-      <c r="N36" s="196" t="s">
+      <c r="N36" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="O36" s="197"/>
-      <c r="P36" s="197"/>
-      <c r="Q36" s="197"/>
-      <c r="R36" s="197"/>
-      <c r="S36" s="197"/>
-      <c r="T36" s="197"/>
-      <c r="U36" s="219" t="s">
+      <c r="O36" s="164"/>
+      <c r="P36" s="164"/>
+      <c r="Q36" s="164"/>
+      <c r="R36" s="164"/>
+      <c r="S36" s="164"/>
+      <c r="T36" s="164"/>
+      <c r="U36" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="V36" s="220"/>
-      <c r="W36" s="220"/>
-      <c r="X36" s="220"/>
+      <c r="V36" s="145"/>
+      <c r="W36" s="145"/>
+      <c r="X36" s="145"/>
       <c r="Y36" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="207"/>
+      <c r="A37" s="214"/>
       <c r="B37" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="44"/>
-      <c r="D37" s="211" t="s">
+      <c r="D37" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="212"/>
-      <c r="F37" s="212"/>
-      <c r="G37" s="212"/>
-      <c r="H37" s="212"/>
-      <c r="I37" s="212"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="197"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="197"/>
       <c r="J37" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="239"/>
+      <c r="K37" s="119"/>
       <c r="L37" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M37" s="44"/>
-      <c r="N37" s="196" t="s">
+      <c r="N37" s="163" t="s">
         <v>99</v>
       </c>
-      <c r="O37" s="197"/>
-      <c r="P37" s="197"/>
-      <c r="Q37" s="197"/>
-      <c r="R37" s="197"/>
-      <c r="S37" s="197"/>
-      <c r="T37" s="197"/>
-      <c r="U37" s="219" t="s">
+      <c r="O37" s="164"/>
+      <c r="P37" s="164"/>
+      <c r="Q37" s="164"/>
+      <c r="R37" s="164"/>
+      <c r="S37" s="164"/>
+      <c r="T37" s="164"/>
+      <c r="U37" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="V37" s="220"/>
-      <c r="W37" s="220"/>
-      <c r="X37" s="220"/>
+      <c r="V37" s="145"/>
+      <c r="W37" s="145"/>
+      <c r="X37" s="145"/>
       <c r="Y37" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="207"/>
-      <c r="B38" s="213" t="s">
+      <c r="A38" s="214"/>
+      <c r="B38" s="226" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="276" t="s">
+      <c r="C38" s="227"/>
+      <c r="D38" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="277"/>
-      <c r="F38" s="277"/>
-      <c r="G38" s="277"/>
-      <c r="H38" s="277"/>
-      <c r="I38" s="277"/>
-      <c r="J38" s="281" t="s">
+      <c r="E38" s="166"/>
+      <c r="F38" s="166"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="239"/>
+      <c r="K38" s="119"/>
       <c r="L38" s="42" t="s">
         <v>77</v>
       </c>
       <c r="M38" s="40"/>
-      <c r="N38" s="196" t="s">
+      <c r="N38" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="O38" s="197"/>
-      <c r="P38" s="197"/>
-      <c r="Q38" s="197"/>
-      <c r="R38" s="197"/>
-      <c r="S38" s="197"/>
-      <c r="T38" s="197"/>
-      <c r="U38" s="219" t="s">
+      <c r="O38" s="164"/>
+      <c r="P38" s="164"/>
+      <c r="Q38" s="164"/>
+      <c r="R38" s="164"/>
+      <c r="S38" s="164"/>
+      <c r="T38" s="164"/>
+      <c r="U38" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="V38" s="220"/>
-      <c r="W38" s="220"/>
-      <c r="X38" s="220"/>
+      <c r="V38" s="145"/>
+      <c r="W38" s="145"/>
+      <c r="X38" s="145"/>
       <c r="Y38" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="207"/>
-      <c r="B39" s="215"/>
-      <c r="C39" s="216"/>
-      <c r="D39" s="278"/>
-      <c r="E39" s="222"/>
-      <c r="F39" s="222"/>
-      <c r="G39" s="222"/>
-      <c r="H39" s="222"/>
-      <c r="I39" s="222"/>
-      <c r="J39" s="282"/>
-      <c r="K39" s="239"/>
+      <c r="A39" s="214"/>
+      <c r="B39" s="228"/>
+      <c r="C39" s="229"/>
+      <c r="D39" s="167"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="172"/>
+      <c r="K39" s="119"/>
       <c r="L39" s="69" t="s">
         <v>78</v>
       </c>
       <c r="M39" s="70"/>
-      <c r="N39" s="259" t="s">
+      <c r="N39" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="O39" s="260"/>
-      <c r="P39" s="260"/>
-      <c r="Q39" s="260"/>
-      <c r="R39" s="260"/>
-      <c r="S39" s="260"/>
-      <c r="T39" s="260"/>
-      <c r="U39" s="200" t="s">
+      <c r="O39" s="143"/>
+      <c r="P39" s="143"/>
+      <c r="Q39" s="143"/>
+      <c r="R39" s="143"/>
+      <c r="S39" s="143"/>
+      <c r="T39" s="143"/>
+      <c r="U39" s="198" t="s">
         <v>102</v>
       </c>
-      <c r="V39" s="201"/>
-      <c r="W39" s="201"/>
-      <c r="X39" s="201"/>
+      <c r="V39" s="199"/>
+      <c r="W39" s="199"/>
+      <c r="X39" s="199"/>
       <c r="Y39" s="71" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="207"/>
-      <c r="B40" s="215"/>
-      <c r="C40" s="216"/>
-      <c r="D40" s="278"/>
-      <c r="E40" s="222"/>
-      <c r="F40" s="222"/>
-      <c r="G40" s="222"/>
-      <c r="H40" s="222"/>
-      <c r="I40" s="222"/>
-      <c r="J40" s="282"/>
-      <c r="K40" s="239"/>
-      <c r="L40" s="249" t="s">
+      <c r="A40" s="214"/>
+      <c r="B40" s="228"/>
+      <c r="C40" s="229"/>
+      <c r="D40" s="167"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="168"/>
+      <c r="H40" s="168"/>
+      <c r="I40" s="168"/>
+      <c r="J40" s="172"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="129" t="s">
         <v>189</v>
       </c>
-      <c r="M40" s="250"/>
-      <c r="N40" s="245" t="s">
+      <c r="M40" s="130"/>
+      <c r="N40" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="O40" s="246"/>
-      <c r="P40" s="246"/>
-      <c r="Q40" s="246"/>
+      <c r="O40" s="126"/>
+      <c r="P40" s="126"/>
+      <c r="Q40" s="126"/>
       <c r="R40" s="72"/>
       <c r="S40" s="72"/>
       <c r="T40" s="72"/>
-      <c r="U40" s="244" t="s">
+      <c r="U40" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="V40" s="244"/>
-      <c r="W40" s="244"/>
-      <c r="X40" s="244"/>
+      <c r="V40" s="124"/>
+      <c r="W40" s="124"/>
+      <c r="X40" s="124"/>
       <c r="Y40" s="73" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="183"/>
-      <c r="B41" s="217"/>
-      <c r="C41" s="218"/>
-      <c r="D41" s="279"/>
-      <c r="E41" s="280"/>
-      <c r="F41" s="280"/>
-      <c r="G41" s="280"/>
-      <c r="H41" s="280"/>
-      <c r="I41" s="280"/>
-      <c r="J41" s="283"/>
-      <c r="K41" s="240"/>
-      <c r="L41" s="251"/>
-      <c r="M41" s="252"/>
-      <c r="N41" s="247"/>
-      <c r="O41" s="248"/>
-      <c r="P41" s="248"/>
-      <c r="Q41" s="248"/>
-      <c r="R41" s="241" t="s">
+      <c r="A41" s="202"/>
+      <c r="B41" s="230"/>
+      <c r="C41" s="231"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="170"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="127"/>
+      <c r="O41" s="128"/>
+      <c r="P41" s="128"/>
+      <c r="Q41" s="128"/>
+      <c r="R41" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="S41" s="242"/>
-      <c r="T41" s="242"/>
-      <c r="U41" s="242"/>
-      <c r="V41" s="243" t="s">
+      <c r="S41" s="122"/>
+      <c r="T41" s="122"/>
+      <c r="U41" s="122"/>
+      <c r="V41" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="W41" s="243"/>
-      <c r="X41" s="243"/>
+      <c r="W41" s="123"/>
+      <c r="X41" s="123"/>
       <c r="Y41" s="74" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="194" t="s">
+      <c r="A42" s="200" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="46" t="s">
@@ -5170,14 +5146,14 @@
         <v>54</v>
       </c>
       <c r="E42" s="49"/>
-      <c r="F42" s="264"/>
-      <c r="G42" s="265"/>
-      <c r="H42" s="265"/>
-      <c r="I42" s="265"/>
-      <c r="J42" s="268" t="s">
+      <c r="F42" s="151"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="K42" s="268"/>
+      <c r="K42" s="155"/>
       <c r="L42" s="50" t="s">
         <v>66</v>
       </c>
@@ -5193,16 +5169,16 @@
       <c r="R42" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="S42" s="270"/>
-      <c r="T42" s="271"/>
-      <c r="U42" s="271"/>
-      <c r="V42" s="271"/>
-      <c r="W42" s="271"/>
-      <c r="X42" s="271"/>
-      <c r="Y42" s="272"/>
+      <c r="S42" s="157"/>
+      <c r="T42" s="158"/>
+      <c r="U42" s="158"/>
+      <c r="V42" s="158"/>
+      <c r="W42" s="158"/>
+      <c r="X42" s="158"/>
+      <c r="Y42" s="159"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="195"/>
+      <c r="A43" s="242"/>
       <c r="B43" s="53" t="s">
         <v>53</v>
       </c>
@@ -5211,14 +5187,14 @@
         <v>55</v>
       </c>
       <c r="E43" s="78"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="267"/>
-      <c r="H43" s="267"/>
-      <c r="I43" s="267"/>
-      <c r="J43" s="269" t="s">
+      <c r="F43" s="153"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="156" t="s">
         <v>151</v>
       </c>
-      <c r="K43" s="269"/>
+      <c r="K43" s="156"/>
       <c r="L43" s="79" t="s">
         <v>66</v>
       </c>
@@ -5234,34 +5210,34 @@
       <c r="R43" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="S43" s="273"/>
-      <c r="T43" s="274"/>
-      <c r="U43" s="274"/>
-      <c r="V43" s="274"/>
-      <c r="W43" s="274"/>
-      <c r="X43" s="274"/>
-      <c r="Y43" s="275"/>
+      <c r="S43" s="160"/>
+      <c r="T43" s="161"/>
+      <c r="U43" s="161"/>
+      <c r="V43" s="161"/>
+      <c r="W43" s="161"/>
+      <c r="X43" s="161"/>
+      <c r="Y43" s="162"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="195"/>
+      <c r="A44" s="242"/>
       <c r="B44" s="46" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="47"/>
-      <c r="D44" s="287" t="s">
+      <c r="D44" s="102" t="s">
         <v>194</v>
       </c>
-      <c r="E44" s="288"/>
-      <c r="F44" s="291" t="s">
+      <c r="E44" s="103"/>
+      <c r="F44" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="292"/>
-      <c r="H44" s="292"/>
-      <c r="I44" s="292"/>
-      <c r="J44" s="293" t="s">
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="K44" s="293"/>
+      <c r="K44" s="108"/>
       <c r="L44" s="82" t="s">
         <v>196</v>
       </c>
@@ -5283,34 +5259,34 @@
       <c r="R44" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="S44" s="297"/>
-      <c r="T44" s="298"/>
-      <c r="U44" s="298"/>
-      <c r="V44" s="298"/>
-      <c r="W44" s="298"/>
-      <c r="X44" s="298"/>
-      <c r="Y44" s="299"/>
+      <c r="S44" s="112"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="113"/>
+      <c r="W44" s="113"/>
+      <c r="X44" s="113"/>
+      <c r="Y44" s="114"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="195"/>
+      <c r="A45" s="242"/>
       <c r="B45" s="53" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="54"/>
-      <c r="D45" s="289" t="s">
+      <c r="D45" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="E45" s="290"/>
-      <c r="F45" s="294" t="s">
+      <c r="E45" s="105"/>
+      <c r="F45" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="G45" s="295"/>
-      <c r="H45" s="295"/>
-      <c r="I45" s="295"/>
-      <c r="J45" s="296" t="s">
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="K45" s="296"/>
+      <c r="K45" s="111"/>
       <c r="L45" s="75" t="s">
         <v>196</v>
       </c>
@@ -5332,288 +5308,288 @@
       <c r="R45" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="S45" s="300"/>
-      <c r="T45" s="301"/>
-      <c r="U45" s="301"/>
-      <c r="V45" s="301"/>
-      <c r="W45" s="301"/>
-      <c r="X45" s="301"/>
-      <c r="Y45" s="302"/>
+      <c r="S45" s="115"/>
+      <c r="T45" s="116"/>
+      <c r="U45" s="116"/>
+      <c r="V45" s="116"/>
+      <c r="W45" s="116"/>
+      <c r="X45" s="116"/>
+      <c r="Y45" s="117"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="284" t="s">
+      <c r="A46" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="B46" s="129" t="s">
+      <c r="B46" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="100"/>
-      <c r="D46" s="99" t="s">
+      <c r="C46" s="186"/>
+      <c r="D46" s="187" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="121"/>
-      <c r="L46" s="122" t="s">
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="186"/>
+      <c r="J46" s="186"/>
+      <c r="K46" s="188"/>
+      <c r="L46" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="159"/>
-      <c r="N46" s="99" t="s">
+      <c r="M46" s="234"/>
+      <c r="N46" s="187" t="s">
         <v>108</v>
       </c>
-      <c r="O46" s="100"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="100"/>
-      <c r="T46" s="100"/>
-      <c r="U46" s="100"/>
-      <c r="V46" s="100"/>
-      <c r="W46" s="100"/>
-      <c r="X46" s="100"/>
-      <c r="Y46" s="121"/>
+      <c r="O46" s="186"/>
+      <c r="P46" s="186"/>
+      <c r="Q46" s="186"/>
+      <c r="R46" s="186"/>
+      <c r="S46" s="186"/>
+      <c r="T46" s="186"/>
+      <c r="U46" s="186"/>
+      <c r="V46" s="186"/>
+      <c r="W46" s="186"/>
+      <c r="X46" s="186"/>
+      <c r="Y46" s="188"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="285"/>
-      <c r="B47" s="129" t="s">
+      <c r="A47" s="100"/>
+      <c r="B47" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="100"/>
-      <c r="D47" s="99" t="s">
+      <c r="C47" s="186"/>
+      <c r="D47" s="187" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="121"/>
-      <c r="L47" s="122" t="s">
+      <c r="E47" s="186"/>
+      <c r="F47" s="186"/>
+      <c r="G47" s="186"/>
+      <c r="H47" s="186"/>
+      <c r="I47" s="186"/>
+      <c r="J47" s="186"/>
+      <c r="K47" s="188"/>
+      <c r="L47" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="159"/>
-      <c r="N47" s="99" t="s">
+      <c r="M47" s="234"/>
+      <c r="N47" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="O47" s="100"/>
-      <c r="P47" s="100"/>
-      <c r="Q47" s="100"/>
-      <c r="R47" s="100"/>
-      <c r="S47" s="100"/>
-      <c r="T47" s="100"/>
-      <c r="U47" s="100"/>
-      <c r="V47" s="100"/>
-      <c r="W47" s="100"/>
-      <c r="X47" s="100"/>
-      <c r="Y47" s="121"/>
+      <c r="O47" s="186"/>
+      <c r="P47" s="186"/>
+      <c r="Q47" s="186"/>
+      <c r="R47" s="186"/>
+      <c r="S47" s="186"/>
+      <c r="T47" s="186"/>
+      <c r="U47" s="186"/>
+      <c r="V47" s="186"/>
+      <c r="W47" s="186"/>
+      <c r="X47" s="186"/>
+      <c r="Y47" s="188"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="286"/>
-      <c r="B48" s="129" t="s">
+      <c r="A48" s="101"/>
+      <c r="B48" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="100"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="122" t="s">
+      <c r="C48" s="186"/>
+      <c r="D48" s="187"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+      <c r="H48" s="186"/>
+      <c r="I48" s="186"/>
+      <c r="J48" s="186"/>
+      <c r="K48" s="188"/>
+      <c r="L48" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M48" s="159"/>
-      <c r="N48" s="99"/>
-      <c r="O48" s="100"/>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="100"/>
-      <c r="S48" s="100"/>
-      <c r="T48" s="100"/>
-      <c r="U48" s="100"/>
-      <c r="V48" s="100"/>
-      <c r="W48" s="100"/>
-      <c r="X48" s="100"/>
-      <c r="Y48" s="121"/>
+      <c r="M48" s="234"/>
+      <c r="N48" s="187"/>
+      <c r="O48" s="186"/>
+      <c r="P48" s="186"/>
+      <c r="Q48" s="186"/>
+      <c r="R48" s="186"/>
+      <c r="S48" s="186"/>
+      <c r="T48" s="186"/>
+      <c r="U48" s="186"/>
+      <c r="V48" s="186"/>
+      <c r="W48" s="186"/>
+      <c r="X48" s="186"/>
+      <c r="Y48" s="188"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="261" t="s">
+      <c r="A49" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="262"/>
-      <c r="C49" s="192"/>
-      <c r="D49" s="263"/>
-      <c r="E49" s="263"/>
-      <c r="F49" s="263"/>
-      <c r="G49" s="263"/>
-      <c r="H49" s="263"/>
-      <c r="I49" s="263"/>
-      <c r="J49" s="263"/>
-      <c r="K49" s="263"/>
-      <c r="L49" s="263"/>
-      <c r="M49" s="263"/>
-      <c r="N49" s="263"/>
-      <c r="O49" s="263"/>
-      <c r="P49" s="263"/>
-      <c r="Q49" s="263"/>
-      <c r="R49" s="263"/>
-      <c r="S49" s="263"/>
-      <c r="T49" s="263"/>
-      <c r="U49" s="263"/>
-      <c r="V49" s="263"/>
-      <c r="W49" s="263"/>
-      <c r="X49" s="263"/>
-      <c r="Y49" s="193"/>
+      <c r="B49" s="147"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="149"/>
+      <c r="F49" s="149"/>
+      <c r="G49" s="149"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="149"/>
+      <c r="J49" s="149"/>
+      <c r="K49" s="149"/>
+      <c r="L49" s="149"/>
+      <c r="M49" s="149"/>
+      <c r="N49" s="149"/>
+      <c r="O49" s="149"/>
+      <c r="P49" s="149"/>
+      <c r="Q49" s="149"/>
+      <c r="R49" s="149"/>
+      <c r="S49" s="149"/>
+      <c r="T49" s="149"/>
+      <c r="U49" s="149"/>
+      <c r="V49" s="149"/>
+      <c r="W49" s="149"/>
+      <c r="X49" s="149"/>
+      <c r="Y49" s="150"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="202" t="s">
+      <c r="A50" s="203" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="203"/>
-      <c r="C50" s="203"/>
-      <c r="D50" s="203"/>
-      <c r="E50" s="203"/>
-      <c r="F50" s="203"/>
-      <c r="G50" s="203"/>
-      <c r="H50" s="203"/>
-      <c r="I50" s="203"/>
-      <c r="J50" s="203"/>
-      <c r="K50" s="203"/>
-      <c r="L50" s="203"/>
-      <c r="M50" s="203"/>
-      <c r="N50" s="203"/>
-      <c r="O50" s="203"/>
-      <c r="P50" s="203"/>
-      <c r="Q50" s="203"/>
-      <c r="R50" s="203"/>
-      <c r="S50" s="203"/>
-      <c r="T50" s="203"/>
-      <c r="U50" s="203"/>
-      <c r="V50" s="203"/>
-      <c r="W50" s="203"/>
-      <c r="X50" s="203"/>
-      <c r="Y50" s="204"/>
+      <c r="B50" s="204"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="204"/>
+      <c r="E50" s="204"/>
+      <c r="F50" s="204"/>
+      <c r="G50" s="204"/>
+      <c r="H50" s="204"/>
+      <c r="I50" s="204"/>
+      <c r="J50" s="204"/>
+      <c r="K50" s="204"/>
+      <c r="L50" s="204"/>
+      <c r="M50" s="204"/>
+      <c r="N50" s="204"/>
+      <c r="O50" s="204"/>
+      <c r="P50" s="204"/>
+      <c r="Q50" s="204"/>
+      <c r="R50" s="204"/>
+      <c r="S50" s="204"/>
+      <c r="T50" s="204"/>
+      <c r="U50" s="204"/>
+      <c r="V50" s="204"/>
+      <c r="W50" s="204"/>
+      <c r="X50" s="204"/>
+      <c r="Y50" s="205"/>
     </row>
     <row r="51" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="184"/>
-      <c r="B51" s="185"/>
-      <c r="C51" s="185"/>
-      <c r="D51" s="185"/>
-      <c r="E51" s="185"/>
-      <c r="F51" s="185"/>
-      <c r="G51" s="185"/>
-      <c r="H51" s="185"/>
-      <c r="I51" s="185"/>
-      <c r="J51" s="185"/>
-      <c r="K51" s="185"/>
-      <c r="L51" s="185"/>
-      <c r="M51" s="185"/>
-      <c r="N51" s="185"/>
-      <c r="O51" s="185"/>
-      <c r="P51" s="185"/>
-      <c r="Q51" s="185"/>
-      <c r="R51" s="185"/>
-      <c r="S51" s="185"/>
-      <c r="T51" s="185"/>
-      <c r="U51" s="185"/>
-      <c r="V51" s="185"/>
-      <c r="W51" s="185"/>
-      <c r="X51" s="185"/>
-      <c r="Y51" s="186"/>
+      <c r="A51" s="235"/>
+      <c r="B51" s="236"/>
+      <c r="C51" s="236"/>
+      <c r="D51" s="236"/>
+      <c r="E51" s="236"/>
+      <c r="F51" s="236"/>
+      <c r="G51" s="236"/>
+      <c r="H51" s="236"/>
+      <c r="I51" s="236"/>
+      <c r="J51" s="236"/>
+      <c r="K51" s="236"/>
+      <c r="L51" s="236"/>
+      <c r="M51" s="236"/>
+      <c r="N51" s="236"/>
+      <c r="O51" s="236"/>
+      <c r="P51" s="236"/>
+      <c r="Q51" s="236"/>
+      <c r="R51" s="236"/>
+      <c r="S51" s="236"/>
+      <c r="T51" s="236"/>
+      <c r="U51" s="236"/>
+      <c r="V51" s="236"/>
+      <c r="W51" s="236"/>
+      <c r="X51" s="236"/>
+      <c r="Y51" s="237"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="253" t="s">
+      <c r="A52" s="133" t="s">
         <v>179</v>
       </c>
-      <c r="B52" s="153"/>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="153"/>
-      <c r="L52" s="153"/>
-      <c r="M52" s="153"/>
-      <c r="N52" s="153"/>
-      <c r="O52" s="153"/>
-      <c r="P52" s="153"/>
-      <c r="Q52" s="153"/>
-      <c r="R52" s="153"/>
-      <c r="S52" s="153"/>
-      <c r="T52" s="153"/>
-      <c r="U52" s="153"/>
-      <c r="V52" s="153"/>
-      <c r="W52" s="153"/>
-      <c r="X52" s="153"/>
-      <c r="Y52" s="254"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="134"/>
+      <c r="H52" s="134"/>
+      <c r="I52" s="134"/>
+      <c r="J52" s="134"/>
+      <c r="K52" s="134"/>
+      <c r="L52" s="134"/>
+      <c r="M52" s="134"/>
+      <c r="N52" s="134"/>
+      <c r="O52" s="134"/>
+      <c r="P52" s="134"/>
+      <c r="Q52" s="134"/>
+      <c r="R52" s="134"/>
+      <c r="S52" s="134"/>
+      <c r="T52" s="134"/>
+      <c r="U52" s="134"/>
+      <c r="V52" s="134"/>
+      <c r="W52" s="134"/>
+      <c r="X52" s="134"/>
+      <c r="Y52" s="135"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="255" t="s">
+      <c r="A53" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="B53" s="221"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="221"/>
-      <c r="E53" s="221"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="221"/>
-      <c r="H53" s="221"/>
-      <c r="I53" s="221"/>
-      <c r="J53" s="221"/>
-      <c r="K53" s="221"/>
-      <c r="L53" s="221"/>
-      <c r="M53" s="221"/>
-      <c r="N53" s="221"/>
-      <c r="O53" s="221"/>
-      <c r="P53" s="221"/>
-      <c r="Q53" s="221"/>
-      <c r="R53" s="221"/>
-      <c r="S53" s="221"/>
-      <c r="T53" s="221"/>
-      <c r="U53" s="221"/>
-      <c r="V53" s="221"/>
-      <c r="W53" s="221"/>
-      <c r="X53" s="221"/>
-      <c r="Y53" s="256"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="137"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="137"/>
+      <c r="L53" s="137"/>
+      <c r="M53" s="137"/>
+      <c r="N53" s="137"/>
+      <c r="O53" s="137"/>
+      <c r="P53" s="137"/>
+      <c r="Q53" s="137"/>
+      <c r="R53" s="137"/>
+      <c r="S53" s="137"/>
+      <c r="T53" s="137"/>
+      <c r="U53" s="137"/>
+      <c r="V53" s="137"/>
+      <c r="W53" s="137"/>
+      <c r="X53" s="137"/>
+      <c r="Y53" s="138"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="257" t="s">
+      <c r="A54" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="187"/>
-      <c r="C54" s="187"/>
-      <c r="D54" s="187"/>
-      <c r="E54" s="187"/>
-      <c r="F54" s="187"/>
-      <c r="G54" s="187"/>
-      <c r="H54" s="187"/>
-      <c r="I54" s="187"/>
-      <c r="J54" s="187"/>
-      <c r="K54" s="187"/>
-      <c r="L54" s="187"/>
-      <c r="M54" s="187"/>
-      <c r="N54" s="187"/>
-      <c r="O54" s="187"/>
-      <c r="P54" s="187"/>
-      <c r="Q54" s="187"/>
-      <c r="R54" s="187"/>
-      <c r="S54" s="187"/>
-      <c r="T54" s="187"/>
-      <c r="U54" s="187"/>
-      <c r="V54" s="187"/>
-      <c r="W54" s="187"/>
-      <c r="X54" s="187"/>
-      <c r="Y54" s="258"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="140"/>
+      <c r="J54" s="140"/>
+      <c r="K54" s="140"/>
+      <c r="L54" s="140"/>
+      <c r="M54" s="140"/>
+      <c r="N54" s="140"/>
+      <c r="O54" s="140"/>
+      <c r="P54" s="140"/>
+      <c r="Q54" s="140"/>
+      <c r="R54" s="140"/>
+      <c r="S54" s="140"/>
+      <c r="T54" s="140"/>
+      <c r="U54" s="140"/>
+      <c r="V54" s="140"/>
+      <c r="W54" s="140"/>
+      <c r="X54" s="140"/>
+      <c r="Y54" s="141"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="64" t="s">
@@ -5650,25 +5626,25 @@
     </row>
     <row r="59" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="65"/>
-      <c r="B59" s="221" t="s">
+      <c r="B59" s="137" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="221"/>
-      <c r="D59" s="221"/>
-      <c r="E59" s="221"/>
-      <c r="F59" s="221"/>
-      <c r="G59" s="221" t="s">
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="137" t="s">
         <v>182</v>
       </c>
-      <c r="H59" s="221"/>
-      <c r="I59" s="221"/>
-      <c r="J59" s="221"/>
-      <c r="L59" s="222" t="s">
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="137"/>
+      <c r="L59" s="168" t="s">
         <v>183</v>
       </c>
-      <c r="M59" s="222"/>
-      <c r="N59" s="222"/>
-      <c r="O59" s="222"/>
+      <c r="M59" s="168"/>
+      <c r="N59" s="168"/>
+      <c r="O59" s="168"/>
       <c r="P59" s="1" t="s">
         <v>184</v>
       </c>
@@ -5688,12 +5664,12 @@
       <c r="I60" s="68"/>
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
-      <c r="L60" s="223" t="s">
+      <c r="L60" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="M60" s="223"/>
-      <c r="N60" s="223"/>
-      <c r="O60" s="223"/>
+      <c r="M60" s="174"/>
+      <c r="N60" s="174"/>
+      <c r="O60" s="174"/>
       <c r="P60" s="68" t="s">
         <v>186</v>
       </c>
@@ -5732,15 +5708,150 @@
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="S44:Y44"/>
-    <mergeCell ref="S45:Y45"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E23:Y23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="C30:Y30"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="N8:Y8"/>
+    <mergeCell ref="N11:Y11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E16:Y16"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:Y14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="C20:Y20"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A51:Y51"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:Y46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:Y47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="N48:Y48"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="A15:Y15"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="N36:T36"/>
+    <mergeCell ref="N37:T37"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="A50:Y50"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="C29:Y29"/>
+    <mergeCell ref="B38:C41"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="C19:Y19"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="N12:Y12"/>
+    <mergeCell ref="N13:Y13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="N6:Y6"/>
+    <mergeCell ref="N7:Y7"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="N10:Y10"/>
+    <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="D37:I37"/>
     <mergeCell ref="K33:K41"/>
     <mergeCell ref="R41:U41"/>
     <mergeCell ref="V41:X41"/>
@@ -5765,150 +5876,15 @@
     <mergeCell ref="U38:X38"/>
     <mergeCell ref="D38:I41"/>
     <mergeCell ref="J38:J41"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="N12:Y12"/>
-    <mergeCell ref="N13:Y13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="N6:Y6"/>
-    <mergeCell ref="N7:Y7"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="N10:Y10"/>
-    <mergeCell ref="N9:Y9"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="N36:T36"/>
-    <mergeCell ref="N37:T37"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A50:Y50"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="C29:Y29"/>
-    <mergeCell ref="B38:C41"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="C19:Y19"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A51:Y51"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:Y46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:Y47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N35:T35"/>
-    <mergeCell ref="N48:Y48"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="A15:Y15"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E16:Y16"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:Y14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="C20:Y20"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="N8:Y8"/>
-    <mergeCell ref="N11:Y11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="C30:Y30"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E23:Y23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="S45:Y45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
@@ -5928,7 +5904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7884DA4D-1FDF-4CAB-9ACC-2D90368CE4EA}">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
@@ -5940,60 +5916,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="224" t="s">
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="R1" s="226" t="s">
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="R1" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="227"/>
-      <c r="T1" s="227"/>
-      <c r="U1" s="228" t="s">
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="230"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="181"/>
     </row>
     <row r="2" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="225"/>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="R2" s="226" t="s">
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="R2" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="227"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="231" t="s">
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="V2" s="232"/>
-      <c r="W2" s="232"/>
-      <c r="X2" s="232"/>
-      <c r="Y2" s="233"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="184"/>
     </row>
     <row r="3" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -6023,26 +5999,26 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="148" t="s">
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="263" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="116" t="s">
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="265"/>
+      <c r="L4" s="276" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="164"/>
-      <c r="N4" s="117"/>
+      <c r="M4" s="277"/>
+      <c r="N4" s="278"/>
       <c r="O4" s="7" t="s">
         <v>72</v>
       </c>
@@ -6064,24 +6040,24 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="148" t="s">
+      <c r="B5" s="190"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="263" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="165"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="167"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="264"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="264"/>
+      <c r="K5" s="265"/>
+      <c r="L5" s="279"/>
+      <c r="M5" s="280"/>
+      <c r="N5" s="281"/>
       <c r="O5" s="10" t="s">
         <v>67</v>
       </c>
@@ -6092,10 +6068,10 @@
       <c r="R5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="187" t="s">
+      <c r="S5" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="T5" s="188"/>
+      <c r="T5" s="238"/>
       <c r="U5" s="11" t="s">
         <v>67</v>
       </c>
@@ -6113,325 +6089,325 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="262" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="99" t="s">
+      <c r="C6" s="186"/>
+      <c r="D6" s="187" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122" t="s">
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="159"/>
-      <c r="N6" s="99" t="s">
+      <c r="M6" s="234"/>
+      <c r="N6" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="121"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="186"/>
+      <c r="R6" s="186"/>
+      <c r="S6" s="186"/>
+      <c r="T6" s="186"/>
+      <c r="U6" s="186"/>
+      <c r="V6" s="186"/>
+      <c r="W6" s="186"/>
+      <c r="X6" s="186"/>
+      <c r="Y6" s="188"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="163"/>
-      <c r="B7" s="129" t="s">
+      <c r="A7" s="262"/>
+      <c r="B7" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="122" t="s">
+      <c r="C7" s="186"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="159"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="121"/>
+      <c r="M7" s="234"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="186"/>
+      <c r="S7" s="186"/>
+      <c r="T7" s="186"/>
+      <c r="U7" s="186"/>
+      <c r="V7" s="186"/>
+      <c r="W7" s="186"/>
+      <c r="X7" s="186"/>
+      <c r="Y7" s="188"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="163"/>
-      <c r="B8" s="129" t="s">
+      <c r="A8" s="262"/>
+      <c r="B8" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122" t="s">
+      <c r="C8" s="186"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="159"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="121"/>
+      <c r="M8" s="234"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="186"/>
+      <c r="S8" s="186"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="186"/>
+      <c r="V8" s="186"/>
+      <c r="W8" s="186"/>
+      <c r="X8" s="186"/>
+      <c r="Y8" s="188"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="163"/>
-      <c r="B9" s="189" t="s">
+      <c r="A9" s="262"/>
+      <c r="B9" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="122" t="s">
+      <c r="C9" s="240"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="159"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="100"/>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="121"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="186"/>
+      <c r="Y9" s="188"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="262" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="99" t="s">
+      <c r="C10" s="186"/>
+      <c r="D10" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122" t="s">
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="159"/>
-      <c r="N10" s="99" t="s">
+      <c r="M10" s="234"/>
+      <c r="N10" s="187" t="s">
         <v>111</v>
       </c>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="121"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="186"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="188"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="163"/>
-      <c r="B11" s="129" t="s">
+      <c r="A11" s="262"/>
+      <c r="B11" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="122" t="s">
+      <c r="C11" s="186"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="188"/>
+      <c r="L11" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="159"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="121"/>
+      <c r="M11" s="234"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="186"/>
+      <c r="P11" s="186"/>
+      <c r="Q11" s="186"/>
+      <c r="R11" s="186"/>
+      <c r="S11" s="186"/>
+      <c r="T11" s="186"/>
+      <c r="U11" s="186"/>
+      <c r="V11" s="186"/>
+      <c r="W11" s="186"/>
+      <c r="X11" s="186"/>
+      <c r="Y11" s="188"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="163"/>
-      <c r="B12" s="129" t="s">
+      <c r="A12" s="262"/>
+      <c r="B12" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="122" t="s">
+      <c r="C12" s="186"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="159"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="121"/>
+      <c r="M12" s="234"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="186"/>
+      <c r="P12" s="186"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="186"/>
+      <c r="S12" s="186"/>
+      <c r="T12" s="186"/>
+      <c r="U12" s="186"/>
+      <c r="V12" s="186"/>
+      <c r="W12" s="186"/>
+      <c r="X12" s="186"/>
+      <c r="Y12" s="188"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="163"/>
-      <c r="B13" s="189" t="s">
+      <c r="A13" s="262"/>
+      <c r="B13" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122" t="s">
+      <c r="C13" s="240"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="159"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="121"/>
+      <c r="M13" s="234"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="186"/>
+      <c r="S13" s="186"/>
+      <c r="T13" s="186"/>
+      <c r="U13" s="186"/>
+      <c r="V13" s="186"/>
+      <c r="W13" s="186"/>
+      <c r="X13" s="186"/>
+      <c r="Y13" s="188"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="179" t="s">
+      <c r="A14" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="180"/>
-      <c r="C14" s="180"/>
-      <c r="D14" s="180"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="101" t="s">
+      <c r="B14" s="259"/>
+      <c r="C14" s="259"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="224" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="102"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="224"/>
+      <c r="K14" s="224"/>
+      <c r="L14" s="224"/>
+      <c r="M14" s="224"/>
+      <c r="N14" s="224"/>
+      <c r="O14" s="224"/>
+      <c r="P14" s="224"/>
+      <c r="Q14" s="224"/>
+      <c r="R14" s="224"/>
+      <c r="S14" s="224"/>
+      <c r="T14" s="224"/>
+      <c r="U14" s="224"/>
+      <c r="V14" s="224"/>
+      <c r="W14" s="224"/>
+      <c r="X14" s="224"/>
+      <c r="Y14" s="225"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="198"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="143"/>
-      <c r="W15" s="143"/>
-      <c r="X15" s="143"/>
-      <c r="Y15" s="144"/>
+      <c r="A15" s="243"/>
+      <c r="B15" s="255"/>
+      <c r="C15" s="255"/>
+      <c r="D15" s="255"/>
+      <c r="E15" s="255"/>
+      <c r="F15" s="255"/>
+      <c r="G15" s="255"/>
+      <c r="H15" s="255"/>
+      <c r="I15" s="255"/>
+      <c r="J15" s="255"/>
+      <c r="K15" s="255"/>
+      <c r="L15" s="255"/>
+      <c r="M15" s="255"/>
+      <c r="N15" s="255"/>
+      <c r="O15" s="255"/>
+      <c r="P15" s="255"/>
+      <c r="Q15" s="255"/>
+      <c r="R15" s="255"/>
+      <c r="S15" s="255"/>
+      <c r="T15" s="255"/>
+      <c r="U15" s="255"/>
+      <c r="V15" s="255"/>
+      <c r="W15" s="255"/>
+      <c r="X15" s="255"/>
+      <c r="Y15" s="256"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="181" t="s">
+      <c r="A16" s="260" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -6439,90 +6415,90 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="177" t="s">
+      <c r="E16" s="257" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="177"/>
-      <c r="R16" s="177"/>
-      <c r="S16" s="177"/>
-      <c r="T16" s="177"/>
-      <c r="U16" s="177"/>
-      <c r="V16" s="177"/>
-      <c r="W16" s="177"/>
-      <c r="X16" s="177"/>
-      <c r="Y16" s="178"/>
+      <c r="F16" s="257"/>
+      <c r="G16" s="257"/>
+      <c r="H16" s="257"/>
+      <c r="I16" s="257"/>
+      <c r="J16" s="257"/>
+      <c r="K16" s="257"/>
+      <c r="L16" s="257"/>
+      <c r="M16" s="257"/>
+      <c r="N16" s="257"/>
+      <c r="O16" s="257"/>
+      <c r="P16" s="257"/>
+      <c r="Q16" s="257"/>
+      <c r="R16" s="257"/>
+      <c r="S16" s="257"/>
+      <c r="T16" s="257"/>
+      <c r="U16" s="257"/>
+      <c r="V16" s="257"/>
+      <c r="W16" s="257"/>
+      <c r="X16" s="257"/>
+      <c r="Y16" s="258"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="312"/>
-      <c r="B17" s="152" t="s">
+      <c r="A17" s="333"/>
+      <c r="B17" s="267" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="153"/>
-      <c r="D17" s="154"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="268"/>
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="123" t="s">
+      <c r="F17" s="232" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
+      <c r="G17" s="232"/>
+      <c r="H17" s="232"/>
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="156" t="s">
+      <c r="J17" s="272"/>
+      <c r="K17" s="272"/>
+      <c r="L17" s="272"/>
+      <c r="M17" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="158" t="s">
+      <c r="N17" s="274"/>
+      <c r="O17" s="274"/>
+      <c r="P17" s="275" t="s">
         <v>135</v>
       </c>
-      <c r="Q17" s="158"/>
-      <c r="R17" s="158"/>
+      <c r="Q17" s="275"/>
+      <c r="R17" s="275"/>
       <c r="S17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="168" t="s">
+      <c r="U17" s="246" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="169"/>
-      <c r="W17" s="169"/>
-      <c r="X17" s="169"/>
-      <c r="Y17" s="170"/>
+      <c r="V17" s="247"/>
+      <c r="W17" s="247"/>
+      <c r="X17" s="247"/>
+      <c r="Y17" s="248"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="312"/>
-      <c r="B18" s="105" t="s">
+      <c r="A18" s="333"/>
+      <c r="B18" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="271"/>
       <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="151" t="s">
+      <c r="G18" s="266" t="s">
         <v>137</v>
       </c>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
+      <c r="H18" s="266"/>
+      <c r="I18" s="266"/>
+      <c r="J18" s="266"/>
       <c r="K18" s="18" t="s">
         <v>8</v>
       </c>
@@ -6531,85 +6507,85 @@
         <v>23</v>
       </c>
       <c r="N18" s="21"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
+      <c r="O18" s="266"/>
+      <c r="P18" s="266"/>
+      <c r="Q18" s="266"/>
+      <c r="R18" s="266"/>
       <c r="S18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="118" t="s">
+      <c r="U18" s="206" t="s">
         <v>136</v>
       </c>
-      <c r="V18" s="119"/>
-      <c r="W18" s="119"/>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="120"/>
+      <c r="V18" s="207"/>
+      <c r="W18" s="207"/>
+      <c r="X18" s="207"/>
+      <c r="Y18" s="208"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="312"/>
-      <c r="B19" s="171" t="s">
+      <c r="A19" s="333"/>
+      <c r="B19" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="179"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="102"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="224"/>
+      <c r="P19" s="224"/>
+      <c r="Q19" s="224"/>
+      <c r="R19" s="224"/>
+      <c r="S19" s="224"/>
+      <c r="T19" s="224"/>
+      <c r="U19" s="224"/>
+      <c r="V19" s="224"/>
+      <c r="W19" s="224"/>
+      <c r="X19" s="224"/>
+      <c r="Y19" s="225"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="312"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="143"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="143"/>
-      <c r="W20" s="143"/>
-      <c r="X20" s="143"/>
-      <c r="Y20" s="144"/>
+      <c r="A20" s="333"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="261"/>
+      <c r="D20" s="255"/>
+      <c r="E20" s="255"/>
+      <c r="F20" s="255"/>
+      <c r="G20" s="255"/>
+      <c r="H20" s="255"/>
+      <c r="I20" s="255"/>
+      <c r="J20" s="255"/>
+      <c r="K20" s="255"/>
+      <c r="L20" s="255"/>
+      <c r="M20" s="255"/>
+      <c r="N20" s="255"/>
+      <c r="O20" s="255"/>
+      <c r="P20" s="255"/>
+      <c r="Q20" s="255"/>
+      <c r="R20" s="255"/>
+      <c r="S20" s="255"/>
+      <c r="T20" s="255"/>
+      <c r="U20" s="255"/>
+      <c r="V20" s="255"/>
+      <c r="W20" s="255"/>
+      <c r="X20" s="255"/>
+      <c r="Y20" s="256"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="312"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="205" t="s">
+      <c r="A21" s="333"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="205"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="23" t="s">
         <v>17</v>
       </c>
@@ -6619,46 +6595,46 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="140" t="s">
+      <c r="L21" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="108"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
+      <c r="M21" s="221"/>
+      <c r="N21" s="222"/>
+      <c r="O21" s="222"/>
+      <c r="P21" s="222"/>
       <c r="Q21" s="8" t="s">
         <v>149</v>
       </c>
       <c r="R21" s="9"/>
-      <c r="S21" s="125" t="s">
+      <c r="S21" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="126"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="126"/>
-      <c r="Y21" s="127"/>
+      <c r="T21" s="250"/>
+      <c r="U21" s="250"/>
+      <c r="V21" s="250"/>
+      <c r="W21" s="250"/>
+      <c r="X21" s="250"/>
+      <c r="Y21" s="251"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="313"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="128" t="s">
+      <c r="A22" s="334"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="174"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="175"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="254"/>
+      <c r="F22" s="255"/>
+      <c r="G22" s="255"/>
+      <c r="H22" s="255"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="255"/>
+      <c r="K22" s="256"/>
+      <c r="L22" s="253"/>
+      <c r="M22" s="211"/>
+      <c r="N22" s="212"/>
+      <c r="O22" s="212"/>
+      <c r="P22" s="212"/>
       <c r="Q22" s="5" t="s">
         <v>150</v>
       </c>
@@ -6678,133 +6654,133 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="269" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="110" t="s">
+      <c r="C23" s="270"/>
+      <c r="D23" s="271"/>
+      <c r="E23" s="298" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="111"/>
+      <c r="F23" s="270"/>
+      <c r="G23" s="270"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="270"/>
+      <c r="J23" s="270"/>
+      <c r="K23" s="270"/>
+      <c r="L23" s="270"/>
+      <c r="M23" s="270"/>
+      <c r="N23" s="270"/>
+      <c r="O23" s="270"/>
+      <c r="P23" s="270"/>
+      <c r="Q23" s="270"/>
+      <c r="R23" s="270"/>
+      <c r="S23" s="270"/>
+      <c r="T23" s="270"/>
+      <c r="U23" s="270"/>
+      <c r="V23" s="270"/>
+      <c r="W23" s="270"/>
+      <c r="X23" s="270"/>
+      <c r="Y23" s="299"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="182"/>
-      <c r="B24" s="105" t="s">
+      <c r="A24" s="201"/>
+      <c r="B24" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="115" t="s">
+      <c r="C24" s="270"/>
+      <c r="D24" s="271"/>
+      <c r="E24" s="244" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="116" t="s">
+      <c r="F24" s="244"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="244"/>
+      <c r="J24" s="244"/>
+      <c r="K24" s="244"/>
+      <c r="L24" s="244"/>
+      <c r="M24" s="244"/>
+      <c r="N24" s="244"/>
+      <c r="O24" s="276" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="113" t="s">
+      <c r="P24" s="278"/>
+      <c r="Q24" s="300"/>
+      <c r="R24" s="300"/>
+      <c r="S24" s="301" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="114"/>
-      <c r="U24" s="103" t="s">
+      <c r="T24" s="302"/>
+      <c r="U24" s="296" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="104"/>
+      <c r="V24" s="296"/>
+      <c r="W24" s="296"/>
+      <c r="X24" s="296"/>
+      <c r="Y24" s="297"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="182"/>
-      <c r="B25" s="105" t="s">
+      <c r="A25" s="201"/>
+      <c r="B25" s="269" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="118" t="s">
+      <c r="C25" s="270"/>
+      <c r="D25" s="271"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="186"/>
+      <c r="M25" s="186"/>
+      <c r="N25" s="186"/>
+      <c r="O25" s="224"/>
+      <c r="P25" s="224"/>
+      <c r="Q25" s="224"/>
+      <c r="R25" s="224"/>
+      <c r="S25" s="224"/>
+      <c r="T25" s="225"/>
+      <c r="U25" s="206" t="s">
         <v>178</v>
       </c>
-      <c r="V25" s="119"/>
-      <c r="W25" s="119"/>
-      <c r="X25" s="119"/>
-      <c r="Y25" s="120"/>
+      <c r="V25" s="207"/>
+      <c r="W25" s="207"/>
+      <c r="X25" s="207"/>
+      <c r="Y25" s="208"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="182"/>
-      <c r="B26" s="105" t="s">
+      <c r="A26" s="201"/>
+      <c r="B26" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="99" t="s">
+      <c r="C26" s="270"/>
+      <c r="D26" s="271"/>
+      <c r="E26" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="186"/>
+      <c r="L26" s="186"/>
+      <c r="M26" s="186"/>
+      <c r="N26" s="186"/>
       <c r="O26" s="21"/>
       <c r="P26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="123" t="s">
+      <c r="Q26" s="232" t="s">
         <v>140</v>
       </c>
-      <c r="R26" s="123"/>
+      <c r="R26" s="232"/>
       <c r="S26" s="31" t="s">
         <v>13</v>
       </c>
@@ -6812,80 +6788,80 @@
       <c r="U26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="123"/>
-      <c r="W26" s="123"/>
+      <c r="V26" s="232"/>
+      <c r="W26" s="232"/>
       <c r="X26" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="182"/>
-      <c r="B27" s="105" t="s">
+      <c r="A27" s="201"/>
+      <c r="B27" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="99" t="s">
+      <c r="C27" s="270"/>
+      <c r="D27" s="271"/>
+      <c r="E27" s="187" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="122" t="s">
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="188"/>
+      <c r="L27" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="123"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="134"/>
+      <c r="M27" s="232"/>
+      <c r="N27" s="282"/>
+      <c r="O27" s="286"/>
+      <c r="P27" s="232"/>
+      <c r="Q27" s="287"/>
       <c r="R27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="125" t="s">
+      <c r="S27" s="249" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="126"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="126"/>
-      <c r="W27" s="126"/>
-      <c r="X27" s="126"/>
-      <c r="Y27" s="127"/>
+      <c r="T27" s="250"/>
+      <c r="U27" s="250"/>
+      <c r="V27" s="250"/>
+      <c r="W27" s="250"/>
+      <c r="X27" s="250"/>
+      <c r="Y27" s="251"/>
       <c r="Z27" s="33"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="182"/>
-      <c r="B28" s="129" t="s">
+      <c r="A28" s="201"/>
+      <c r="B28" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131" t="s">
+      <c r="C28" s="283"/>
+      <c r="D28" s="283"/>
+      <c r="E28" s="284" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="132"/>
-      <c r="Q28" s="132"/>
+      <c r="F28" s="285"/>
+      <c r="G28" s="285"/>
+      <c r="H28" s="285"/>
+      <c r="I28" s="285"/>
+      <c r="J28" s="285"/>
+      <c r="K28" s="285"/>
+      <c r="L28" s="285"/>
+      <c r="M28" s="285"/>
+      <c r="N28" s="285"/>
+      <c r="O28" s="285"/>
+      <c r="P28" s="285"/>
+      <c r="Q28" s="285"/>
       <c r="R28" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="135" t="s">
+      <c r="S28" s="288" t="s">
         <v>152</v>
       </c>
-      <c r="T28" s="136"/>
+      <c r="T28" s="289"/>
       <c r="U28" s="28" t="s">
         <v>28</v>
       </c>
@@ -6904,125 +6880,125 @@
       <c r="Z28" s="33"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="182"/>
-      <c r="B29" s="171" t="s">
+      <c r="A29" s="201"/>
+      <c r="B29" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="179"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="102"/>
+      <c r="C29" s="223"/>
+      <c r="D29" s="224"/>
+      <c r="E29" s="224"/>
+      <c r="F29" s="224"/>
+      <c r="G29" s="224"/>
+      <c r="H29" s="224"/>
+      <c r="I29" s="224"/>
+      <c r="J29" s="224"/>
+      <c r="K29" s="224"/>
+      <c r="L29" s="224"/>
+      <c r="M29" s="224"/>
+      <c r="N29" s="224"/>
+      <c r="O29" s="224"/>
+      <c r="P29" s="224"/>
+      <c r="Q29" s="224"/>
+      <c r="R29" s="224"/>
+      <c r="S29" s="224"/>
+      <c r="T29" s="224"/>
+      <c r="U29" s="224"/>
+      <c r="V29" s="224"/>
+      <c r="W29" s="224"/>
+      <c r="X29" s="224"/>
+      <c r="Y29" s="225"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="182"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="143"/>
-      <c r="N30" s="143"/>
-      <c r="O30" s="143"/>
-      <c r="P30" s="143"/>
-      <c r="Q30" s="143"/>
-      <c r="R30" s="143"/>
-      <c r="S30" s="143"/>
-      <c r="T30" s="143"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="143"/>
-      <c r="W30" s="143"/>
-      <c r="X30" s="143"/>
-      <c r="Y30" s="144"/>
+      <c r="A30" s="201"/>
+      <c r="B30" s="219"/>
+      <c r="C30" s="261"/>
+      <c r="D30" s="255"/>
+      <c r="E30" s="255"/>
+      <c r="F30" s="255"/>
+      <c r="G30" s="255"/>
+      <c r="H30" s="255"/>
+      <c r="I30" s="255"/>
+      <c r="J30" s="255"/>
+      <c r="K30" s="255"/>
+      <c r="L30" s="255"/>
+      <c r="M30" s="255"/>
+      <c r="N30" s="255"/>
+      <c r="O30" s="255"/>
+      <c r="P30" s="255"/>
+      <c r="Q30" s="255"/>
+      <c r="R30" s="255"/>
+      <c r="S30" s="255"/>
+      <c r="T30" s="255"/>
+      <c r="U30" s="255"/>
+      <c r="V30" s="255"/>
+      <c r="W30" s="255"/>
+      <c r="X30" s="255"/>
+      <c r="Y30" s="256"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="182"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="205" t="s">
+      <c r="A31" s="201"/>
+      <c r="B31" s="219"/>
+      <c r="C31" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="205"/>
-      <c r="E31" s="137" t="s">
+      <c r="D31" s="209"/>
+      <c r="E31" s="290" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="138"/>
-      <c r="G31" s="139" t="s">
+      <c r="F31" s="291"/>
+      <c r="G31" s="292" t="s">
         <v>164</v>
       </c>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="140" t="s">
+      <c r="H31" s="224"/>
+      <c r="I31" s="224"/>
+      <c r="J31" s="224"/>
+      <c r="K31" s="224"/>
+      <c r="L31" s="252" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="108"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="192"/>
-      <c r="R31" s="193"/>
-      <c r="S31" s="125" t="s">
+      <c r="M31" s="221"/>
+      <c r="N31" s="222"/>
+      <c r="O31" s="222"/>
+      <c r="P31" s="222"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="150"/>
+      <c r="S31" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="126"/>
-      <c r="W31" s="126"/>
-      <c r="X31" s="126"/>
-      <c r="Y31" s="127"/>
+      <c r="T31" s="250"/>
+      <c r="U31" s="250"/>
+      <c r="V31" s="250"/>
+      <c r="W31" s="250"/>
+      <c r="X31" s="250"/>
+      <c r="Y31" s="251"/>
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="183"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="128" t="s">
+      <c r="A32" s="202"/>
+      <c r="B32" s="220"/>
+      <c r="C32" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="128"/>
-      <c r="E32" s="145" t="s">
+      <c r="D32" s="210"/>
+      <c r="E32" s="293" t="s">
         <v>166</v>
       </c>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="174" t="s">
+      <c r="F32" s="294"/>
+      <c r="G32" s="294"/>
+      <c r="H32" s="294"/>
+      <c r="I32" s="294"/>
+      <c r="J32" s="294"/>
+      <c r="K32" s="295"/>
+      <c r="L32" s="253"/>
+      <c r="M32" s="211" t="s">
         <v>168</v>
       </c>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="191" t="s">
+      <c r="N32" s="212"/>
+      <c r="O32" s="212"/>
+      <c r="P32" s="212"/>
+      <c r="Q32" s="241" t="s">
         <v>150</v>
       </c>
-      <c r="R32" s="186"/>
+      <c r="R32" s="237"/>
       <c r="S32" s="26" t="s">
         <v>170</v>
       </c>
@@ -7046,289 +7022,289 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="206" t="s">
+      <c r="A33" s="213" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="208" t="s">
+      <c r="D33" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="209"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="209"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="210"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="217"/>
       <c r="J33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="334" t="s">
+      <c r="K33" s="304" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="92" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="35"/>
-      <c r="N33" s="234" t="s">
+      <c r="N33" s="192" t="s">
         <v>118</v>
       </c>
-      <c r="O33" s="235"/>
-      <c r="P33" s="235"/>
-      <c r="Q33" s="235"/>
-      <c r="R33" s="235"/>
-      <c r="S33" s="235"/>
-      <c r="T33" s="235"/>
-      <c r="U33" s="236" t="s">
+      <c r="O33" s="193"/>
+      <c r="P33" s="193"/>
+      <c r="Q33" s="193"/>
+      <c r="R33" s="193"/>
+      <c r="S33" s="193"/>
+      <c r="T33" s="193"/>
+      <c r="U33" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="V33" s="237"/>
-      <c r="W33" s="237"/>
-      <c r="X33" s="237"/>
+      <c r="V33" s="195"/>
+      <c r="W33" s="195"/>
+      <c r="X33" s="195"/>
       <c r="Y33" s="38" t="s">
         <v>40</v>
       </c>
       <c r="Z33" s="33"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="207"/>
+      <c r="A34" s="214"/>
       <c r="B34" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="40"/>
-      <c r="D34" s="211" t="s">
+      <c r="D34" s="196" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="212"/>
-      <c r="F34" s="212"/>
-      <c r="G34" s="212"/>
-      <c r="H34" s="212"/>
-      <c r="I34" s="212"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="197"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="197"/>
       <c r="J34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="335"/>
+      <c r="K34" s="305"/>
       <c r="L34" s="93" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="40"/>
-      <c r="N34" s="196" t="s">
+      <c r="N34" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="O34" s="197"/>
-      <c r="P34" s="197"/>
-      <c r="Q34" s="197"/>
-      <c r="R34" s="197"/>
-      <c r="S34" s="197"/>
-      <c r="T34" s="197"/>
-      <c r="U34" s="219" t="s">
+      <c r="O34" s="164"/>
+      <c r="P34" s="164"/>
+      <c r="Q34" s="164"/>
+      <c r="R34" s="164"/>
+      <c r="S34" s="164"/>
+      <c r="T34" s="164"/>
+      <c r="U34" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="V34" s="220"/>
-      <c r="W34" s="220"/>
-      <c r="X34" s="220"/>
+      <c r="V34" s="145"/>
+      <c r="W34" s="145"/>
+      <c r="X34" s="145"/>
       <c r="Y34" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="207"/>
+      <c r="A35" s="214"/>
       <c r="B35" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="40"/>
-      <c r="D35" s="211" t="s">
+      <c r="D35" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="212"/>
-      <c r="F35" s="212"/>
-      <c r="G35" s="212"/>
-      <c r="H35" s="212"/>
-      <c r="I35" s="212"/>
+      <c r="E35" s="197"/>
+      <c r="F35" s="197"/>
+      <c r="G35" s="197"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="197"/>
       <c r="J35" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="335"/>
+      <c r="K35" s="305"/>
       <c r="L35" s="93" t="s">
         <v>39</v>
       </c>
       <c r="M35" s="40"/>
-      <c r="N35" s="196" t="s">
+      <c r="N35" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="O35" s="197"/>
-      <c r="P35" s="197"/>
-      <c r="Q35" s="197"/>
-      <c r="R35" s="197"/>
-      <c r="S35" s="197"/>
-      <c r="T35" s="197"/>
-      <c r="U35" s="219" t="s">
+      <c r="O35" s="164"/>
+      <c r="P35" s="164"/>
+      <c r="Q35" s="164"/>
+      <c r="R35" s="164"/>
+      <c r="S35" s="164"/>
+      <c r="T35" s="164"/>
+      <c r="U35" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="V35" s="220"/>
-      <c r="W35" s="220"/>
-      <c r="X35" s="220"/>
+      <c r="V35" s="145"/>
+      <c r="W35" s="145"/>
+      <c r="X35" s="145"/>
       <c r="Y35" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="207"/>
+      <c r="A36" s="214"/>
       <c r="B36" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="44"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="212"/>
-      <c r="G36" s="212"/>
-      <c r="H36" s="212"/>
-      <c r="I36" s="212"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="197"/>
+      <c r="G36" s="197"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="197"/>
       <c r="J36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="335"/>
+      <c r="K36" s="305"/>
       <c r="L36" s="94" t="s">
         <v>79</v>
       </c>
       <c r="M36" s="44"/>
-      <c r="N36" s="196" t="s">
+      <c r="N36" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="O36" s="197"/>
-      <c r="P36" s="197"/>
-      <c r="Q36" s="197"/>
-      <c r="R36" s="197"/>
-      <c r="S36" s="197"/>
-      <c r="T36" s="197"/>
-      <c r="U36" s="219" t="s">
+      <c r="O36" s="164"/>
+      <c r="P36" s="164"/>
+      <c r="Q36" s="164"/>
+      <c r="R36" s="164"/>
+      <c r="S36" s="164"/>
+      <c r="T36" s="164"/>
+      <c r="U36" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="V36" s="220"/>
-      <c r="W36" s="220"/>
-      <c r="X36" s="220"/>
+      <c r="V36" s="145"/>
+      <c r="W36" s="145"/>
+      <c r="X36" s="145"/>
       <c r="Y36" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="207"/>
+      <c r="A37" s="214"/>
       <c r="B37" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="44"/>
-      <c r="D37" s="211" t="s">
+      <c r="D37" s="196" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="212"/>
-      <c r="F37" s="212"/>
-      <c r="G37" s="212"/>
-      <c r="H37" s="212"/>
-      <c r="I37" s="212"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="197"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="197"/>
       <c r="J37" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="335"/>
+      <c r="K37" s="305"/>
       <c r="L37" s="94" t="s">
         <v>78</v>
       </c>
       <c r="M37" s="44"/>
-      <c r="N37" s="303" t="s">
+      <c r="N37" s="335" t="s">
         <v>125</v>
       </c>
-      <c r="O37" s="304"/>
-      <c r="P37" s="304"/>
-      <c r="Q37" s="304"/>
-      <c r="R37" s="304"/>
-      <c r="S37" s="304"/>
-      <c r="T37" s="304"/>
-      <c r="U37" s="200" t="s">
+      <c r="O37" s="336"/>
+      <c r="P37" s="336"/>
+      <c r="Q37" s="336"/>
+      <c r="R37" s="336"/>
+      <c r="S37" s="336"/>
+      <c r="T37" s="336"/>
+      <c r="U37" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="V37" s="201"/>
-      <c r="W37" s="201"/>
-      <c r="X37" s="201"/>
+      <c r="V37" s="199"/>
+      <c r="W37" s="199"/>
+      <c r="X37" s="199"/>
       <c r="Y37" s="71" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="207"/>
-      <c r="B38" s="341" t="s">
+      <c r="A38" s="214"/>
+      <c r="B38" s="311" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="342"/>
-      <c r="D38" s="277" t="s">
+      <c r="C38" s="312"/>
+      <c r="D38" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="277"/>
-      <c r="F38" s="277"/>
-      <c r="G38" s="277"/>
-      <c r="H38" s="277"/>
-      <c r="I38" s="277"/>
-      <c r="J38" s="343" t="s">
+      <c r="E38" s="166"/>
+      <c r="F38" s="166"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="335"/>
-      <c r="L38" s="337" t="s">
+      <c r="K38" s="305"/>
+      <c r="L38" s="307" t="s">
         <v>208</v>
       </c>
-      <c r="M38" s="338"/>
-      <c r="N38" s="245" t="s">
+      <c r="M38" s="308"/>
+      <c r="N38" s="125" t="s">
         <v>209</v>
       </c>
-      <c r="O38" s="246"/>
-      <c r="P38" s="246"/>
-      <c r="Q38" s="246"/>
+      <c r="O38" s="126"/>
+      <c r="P38" s="126"/>
+      <c r="Q38" s="126"/>
       <c r="R38" s="72"/>
       <c r="S38" s="72"/>
       <c r="T38" s="72"/>
-      <c r="U38" s="244" t="s">
+      <c r="U38" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="V38" s="244"/>
-      <c r="W38" s="244"/>
-      <c r="X38" s="244"/>
+      <c r="V38" s="124"/>
+      <c r="W38" s="124"/>
+      <c r="X38" s="124"/>
       <c r="Y38" s="73" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="333"/>
-      <c r="B39" s="257"/>
-      <c r="C39" s="187"/>
-      <c r="D39" s="280"/>
-      <c r="E39" s="280"/>
-      <c r="F39" s="280"/>
-      <c r="G39" s="280"/>
-      <c r="H39" s="280"/>
-      <c r="I39" s="280"/>
-      <c r="J39" s="258"/>
-      <c r="K39" s="336"/>
-      <c r="L39" s="339"/>
-      <c r="M39" s="340"/>
-      <c r="N39" s="247"/>
-      <c r="O39" s="248"/>
-      <c r="P39" s="248"/>
-      <c r="Q39" s="248"/>
-      <c r="R39" s="241" t="s">
+      <c r="A39" s="303"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="306"/>
+      <c r="L39" s="309"/>
+      <c r="M39" s="310"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="128"/>
+      <c r="P39" s="128"/>
+      <c r="Q39" s="128"/>
+      <c r="R39" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="S39" s="242"/>
-      <c r="T39" s="242"/>
-      <c r="U39" s="242"/>
-      <c r="V39" s="243" t="s">
+      <c r="S39" s="122"/>
+      <c r="T39" s="122"/>
+      <c r="U39" s="122"/>
+      <c r="V39" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="W39" s="243"/>
-      <c r="X39" s="243"/>
+      <c r="W39" s="123"/>
+      <c r="X39" s="123"/>
       <c r="Y39" s="74" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="194" t="s">
+      <c r="A40" s="200" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="46" t="s">
@@ -7339,14 +7315,14 @@
         <v>54</v>
       </c>
       <c r="E40" s="49"/>
-      <c r="F40" s="264"/>
-      <c r="G40" s="265"/>
-      <c r="H40" s="265"/>
-      <c r="I40" s="265"/>
-      <c r="J40" s="268" t="s">
+      <c r="F40" s="151"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="K40" s="268"/>
+      <c r="K40" s="155"/>
       <c r="L40" s="50" t="s">
         <v>66</v>
       </c>
@@ -7362,16 +7338,16 @@
       <c r="R40" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="S40" s="270"/>
-      <c r="T40" s="271"/>
-      <c r="U40" s="271"/>
-      <c r="V40" s="271"/>
-      <c r="W40" s="271"/>
-      <c r="X40" s="271"/>
-      <c r="Y40" s="272"/>
+      <c r="S40" s="157"/>
+      <c r="T40" s="158"/>
+      <c r="U40" s="158"/>
+      <c r="V40" s="158"/>
+      <c r="W40" s="158"/>
+      <c r="X40" s="158"/>
+      <c r="Y40" s="159"/>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="195"/>
+      <c r="A41" s="242"/>
       <c r="B41" s="53" t="s">
         <v>53</v>
       </c>
@@ -7380,14 +7356,14 @@
         <v>55</v>
       </c>
       <c r="E41" s="56"/>
-      <c r="F41" s="306"/>
-      <c r="G41" s="307"/>
-      <c r="H41" s="307"/>
-      <c r="I41" s="307"/>
-      <c r="J41" s="308" t="s">
+      <c r="F41" s="338"/>
+      <c r="G41" s="339"/>
+      <c r="H41" s="339"/>
+      <c r="I41" s="339"/>
+      <c r="J41" s="340" t="s">
         <v>151</v>
       </c>
-      <c r="K41" s="308"/>
+      <c r="K41" s="340"/>
       <c r="L41" s="57" t="s">
         <v>66</v>
       </c>
@@ -7403,16 +7379,16 @@
       <c r="R41" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="309"/>
-      <c r="T41" s="310"/>
-      <c r="U41" s="310"/>
-      <c r="V41" s="310"/>
-      <c r="W41" s="310"/>
-      <c r="X41" s="310"/>
-      <c r="Y41" s="311"/>
+      <c r="S41" s="341"/>
+      <c r="T41" s="342"/>
+      <c r="U41" s="342"/>
+      <c r="V41" s="342"/>
+      <c r="W41" s="342"/>
+      <c r="X41" s="342"/>
+      <c r="Y41" s="343"/>
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="195"/>
+      <c r="A42" s="242"/>
       <c r="B42" s="330"/>
       <c r="C42" s="331"/>
       <c r="D42" s="60"/>
@@ -7449,7 +7425,7 @@
       <c r="Y42" s="321"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="195"/>
+      <c r="A43" s="242"/>
       <c r="B43" s="46" t="s">
         <v>57</v>
       </c>
@@ -7457,17 +7433,17 @@
       <c r="D43" s="332" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="288"/>
-      <c r="F43" s="291" t="s">
+      <c r="E43" s="103"/>
+      <c r="F43" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="G43" s="291"/>
-      <c r="H43" s="291"/>
-      <c r="I43" s="291"/>
-      <c r="J43" s="293" t="s">
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="K43" s="293"/>
+      <c r="K43" s="108"/>
       <c r="L43" s="82" t="s">
         <v>196</v>
       </c>
@@ -7489,16 +7465,16 @@
       <c r="R43" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="S43" s="297"/>
-      <c r="T43" s="298"/>
-      <c r="U43" s="298"/>
-      <c r="V43" s="298"/>
-      <c r="W43" s="298"/>
-      <c r="X43" s="298"/>
-      <c r="Y43" s="299"/>
+      <c r="S43" s="112"/>
+      <c r="T43" s="113"/>
+      <c r="U43" s="113"/>
+      <c r="V43" s="113"/>
+      <c r="W43" s="113"/>
+      <c r="X43" s="113"/>
+      <c r="Y43" s="114"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="195"/>
+      <c r="A44" s="242"/>
       <c r="B44" s="53" t="s">
         <v>53</v>
       </c>
@@ -7547,7 +7523,7 @@
       <c r="Y44" s="316"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="305"/>
+      <c r="A45" s="337"/>
       <c r="B45" s="317"/>
       <c r="C45" s="318"/>
       <c r="D45" s="60"/>
@@ -7584,279 +7560,279 @@
       <c r="Y45" s="321"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="284" t="s">
+      <c r="A46" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="B46" s="129" t="s">
+      <c r="B46" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="100"/>
-      <c r="D46" s="99" t="s">
+      <c r="C46" s="186"/>
+      <c r="D46" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="121"/>
-      <c r="L46" s="122" t="s">
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="186"/>
+      <c r="J46" s="186"/>
+      <c r="K46" s="188"/>
+      <c r="L46" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="159"/>
-      <c r="N46" s="99" t="s">
+      <c r="M46" s="234"/>
+      <c r="N46" s="187" t="s">
         <v>132</v>
       </c>
-      <c r="O46" s="100"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="100"/>
-      <c r="T46" s="100"/>
-      <c r="U46" s="100"/>
-      <c r="V46" s="100"/>
-      <c r="W46" s="100"/>
-      <c r="X46" s="100"/>
-      <c r="Y46" s="121"/>
+      <c r="O46" s="186"/>
+      <c r="P46" s="186"/>
+      <c r="Q46" s="186"/>
+      <c r="R46" s="186"/>
+      <c r="S46" s="186"/>
+      <c r="T46" s="186"/>
+      <c r="U46" s="186"/>
+      <c r="V46" s="186"/>
+      <c r="W46" s="186"/>
+      <c r="X46" s="186"/>
+      <c r="Y46" s="188"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="285"/>
-      <c r="B47" s="129" t="s">
+      <c r="A47" s="100"/>
+      <c r="B47" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="100"/>
-      <c r="D47" s="99" t="s">
+      <c r="C47" s="186"/>
+      <c r="D47" s="187" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="121"/>
-      <c r="L47" s="122" t="s">
+      <c r="E47" s="186"/>
+      <c r="F47" s="186"/>
+      <c r="G47" s="186"/>
+      <c r="H47" s="186"/>
+      <c r="I47" s="186"/>
+      <c r="J47" s="186"/>
+      <c r="K47" s="188"/>
+      <c r="L47" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="159"/>
-      <c r="N47" s="99" t="s">
+      <c r="M47" s="234"/>
+      <c r="N47" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="O47" s="100"/>
-      <c r="P47" s="100"/>
-      <c r="Q47" s="100"/>
-      <c r="R47" s="100"/>
-      <c r="S47" s="100"/>
-      <c r="T47" s="100"/>
-      <c r="U47" s="100"/>
-      <c r="V47" s="100"/>
-      <c r="W47" s="100"/>
-      <c r="X47" s="100"/>
-      <c r="Y47" s="121"/>
+      <c r="O47" s="186"/>
+      <c r="P47" s="186"/>
+      <c r="Q47" s="186"/>
+      <c r="R47" s="186"/>
+      <c r="S47" s="186"/>
+      <c r="T47" s="186"/>
+      <c r="U47" s="186"/>
+      <c r="V47" s="186"/>
+      <c r="W47" s="186"/>
+      <c r="X47" s="186"/>
+      <c r="Y47" s="188"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="286"/>
-      <c r="B48" s="129" t="s">
+      <c r="A48" s="101"/>
+      <c r="B48" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="100"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="122" t="s">
+      <c r="C48" s="186"/>
+      <c r="D48" s="187"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+      <c r="H48" s="186"/>
+      <c r="I48" s="186"/>
+      <c r="J48" s="186"/>
+      <c r="K48" s="188"/>
+      <c r="L48" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="M48" s="159"/>
-      <c r="N48" s="99"/>
-      <c r="O48" s="100"/>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="100"/>
-      <c r="S48" s="100"/>
-      <c r="T48" s="100"/>
-      <c r="U48" s="100"/>
-      <c r="V48" s="100"/>
-      <c r="W48" s="100"/>
-      <c r="X48" s="100"/>
-      <c r="Y48" s="121"/>
+      <c r="M48" s="234"/>
+      <c r="N48" s="187"/>
+      <c r="O48" s="186"/>
+      <c r="P48" s="186"/>
+      <c r="Q48" s="186"/>
+      <c r="R48" s="186"/>
+      <c r="S48" s="186"/>
+      <c r="T48" s="186"/>
+      <c r="U48" s="186"/>
+      <c r="V48" s="186"/>
+      <c r="W48" s="186"/>
+      <c r="X48" s="186"/>
+      <c r="Y48" s="188"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="261" t="s">
+      <c r="A49" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="262"/>
-      <c r="C49" s="192"/>
-      <c r="D49" s="263"/>
-      <c r="E49" s="263"/>
-      <c r="F49" s="263"/>
-      <c r="G49" s="263"/>
-      <c r="H49" s="263"/>
-      <c r="I49" s="263"/>
-      <c r="J49" s="263"/>
-      <c r="K49" s="263"/>
-      <c r="L49" s="263"/>
-      <c r="M49" s="263"/>
-      <c r="N49" s="263"/>
-      <c r="O49" s="263"/>
-      <c r="P49" s="263"/>
-      <c r="Q49" s="263"/>
-      <c r="R49" s="263"/>
-      <c r="S49" s="263"/>
-      <c r="T49" s="263"/>
-      <c r="U49" s="263"/>
-      <c r="V49" s="263"/>
-      <c r="W49" s="263"/>
-      <c r="X49" s="263"/>
-      <c r="Y49" s="193"/>
+      <c r="B49" s="147"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="149"/>
+      <c r="F49" s="149"/>
+      <c r="G49" s="149"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="149"/>
+      <c r="J49" s="149"/>
+      <c r="K49" s="149"/>
+      <c r="L49" s="149"/>
+      <c r="M49" s="149"/>
+      <c r="N49" s="149"/>
+      <c r="O49" s="149"/>
+      <c r="P49" s="149"/>
+      <c r="Q49" s="149"/>
+      <c r="R49" s="149"/>
+      <c r="S49" s="149"/>
+      <c r="T49" s="149"/>
+      <c r="U49" s="149"/>
+      <c r="V49" s="149"/>
+      <c r="W49" s="149"/>
+      <c r="X49" s="149"/>
+      <c r="Y49" s="150"/>
     </row>
     <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="202" t="s">
+      <c r="A50" s="203" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="203"/>
-      <c r="C50" s="203"/>
-      <c r="D50" s="203"/>
-      <c r="E50" s="203"/>
-      <c r="F50" s="203"/>
-      <c r="G50" s="203"/>
-      <c r="H50" s="203"/>
-      <c r="I50" s="203"/>
-      <c r="J50" s="203"/>
-      <c r="K50" s="203"/>
-      <c r="L50" s="203"/>
-      <c r="M50" s="203"/>
-      <c r="N50" s="203"/>
-      <c r="O50" s="203"/>
-      <c r="P50" s="203"/>
-      <c r="Q50" s="203"/>
-      <c r="R50" s="203"/>
-      <c r="S50" s="203"/>
-      <c r="T50" s="203"/>
-      <c r="U50" s="203"/>
-      <c r="V50" s="203"/>
-      <c r="W50" s="203"/>
-      <c r="X50" s="203"/>
-      <c r="Y50" s="204"/>
+      <c r="B50" s="204"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="204"/>
+      <c r="E50" s="204"/>
+      <c r="F50" s="204"/>
+      <c r="G50" s="204"/>
+      <c r="H50" s="204"/>
+      <c r="I50" s="204"/>
+      <c r="J50" s="204"/>
+      <c r="K50" s="204"/>
+      <c r="L50" s="204"/>
+      <c r="M50" s="204"/>
+      <c r="N50" s="204"/>
+      <c r="O50" s="204"/>
+      <c r="P50" s="204"/>
+      <c r="Q50" s="204"/>
+      <c r="R50" s="204"/>
+      <c r="S50" s="204"/>
+      <c r="T50" s="204"/>
+      <c r="U50" s="204"/>
+      <c r="V50" s="204"/>
+      <c r="W50" s="204"/>
+      <c r="X50" s="204"/>
+      <c r="Y50" s="205"/>
     </row>
     <row r="51" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="184"/>
-      <c r="B51" s="185"/>
-      <c r="C51" s="185"/>
-      <c r="D51" s="185"/>
-      <c r="E51" s="185"/>
-      <c r="F51" s="185"/>
-      <c r="G51" s="185"/>
-      <c r="H51" s="185"/>
-      <c r="I51" s="185"/>
-      <c r="J51" s="185"/>
-      <c r="K51" s="185"/>
-      <c r="L51" s="185"/>
-      <c r="M51" s="185"/>
-      <c r="N51" s="185"/>
-      <c r="O51" s="185"/>
-      <c r="P51" s="185"/>
-      <c r="Q51" s="185"/>
-      <c r="R51" s="185"/>
-      <c r="S51" s="185"/>
-      <c r="T51" s="185"/>
-      <c r="U51" s="185"/>
-      <c r="V51" s="185"/>
-      <c r="W51" s="185"/>
-      <c r="X51" s="185"/>
-      <c r="Y51" s="186"/>
+      <c r="A51" s="235"/>
+      <c r="B51" s="236"/>
+      <c r="C51" s="236"/>
+      <c r="D51" s="236"/>
+      <c r="E51" s="236"/>
+      <c r="F51" s="236"/>
+      <c r="G51" s="236"/>
+      <c r="H51" s="236"/>
+      <c r="I51" s="236"/>
+      <c r="J51" s="236"/>
+      <c r="K51" s="236"/>
+      <c r="L51" s="236"/>
+      <c r="M51" s="236"/>
+      <c r="N51" s="236"/>
+      <c r="O51" s="236"/>
+      <c r="P51" s="236"/>
+      <c r="Q51" s="236"/>
+      <c r="R51" s="236"/>
+      <c r="S51" s="236"/>
+      <c r="T51" s="236"/>
+      <c r="U51" s="236"/>
+      <c r="V51" s="236"/>
+      <c r="W51" s="236"/>
+      <c r="X51" s="236"/>
+      <c r="Y51" s="237"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="253" t="s">
+      <c r="A52" s="133" t="s">
         <v>179</v>
       </c>
-      <c r="B52" s="153"/>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="153"/>
-      <c r="L52" s="153"/>
-      <c r="M52" s="153"/>
-      <c r="N52" s="153"/>
-      <c r="O52" s="153"/>
-      <c r="P52" s="153"/>
-      <c r="Q52" s="153"/>
-      <c r="R52" s="153"/>
-      <c r="S52" s="153"/>
-      <c r="T52" s="153"/>
-      <c r="U52" s="153"/>
-      <c r="V52" s="153"/>
-      <c r="W52" s="153"/>
-      <c r="X52" s="153"/>
-      <c r="Y52" s="254"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="134"/>
+      <c r="H52" s="134"/>
+      <c r="I52" s="134"/>
+      <c r="J52" s="134"/>
+      <c r="K52" s="134"/>
+      <c r="L52" s="134"/>
+      <c r="M52" s="134"/>
+      <c r="N52" s="134"/>
+      <c r="O52" s="134"/>
+      <c r="P52" s="134"/>
+      <c r="Q52" s="134"/>
+      <c r="R52" s="134"/>
+      <c r="S52" s="134"/>
+      <c r="T52" s="134"/>
+      <c r="U52" s="134"/>
+      <c r="V52" s="134"/>
+      <c r="W52" s="134"/>
+      <c r="X52" s="134"/>
+      <c r="Y52" s="135"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="255" t="s">
+      <c r="A53" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="B53" s="221"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="221"/>
-      <c r="E53" s="221"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="221"/>
-      <c r="H53" s="221"/>
-      <c r="I53" s="221"/>
-      <c r="J53" s="221"/>
-      <c r="K53" s="221"/>
-      <c r="L53" s="221"/>
-      <c r="M53" s="221"/>
-      <c r="N53" s="221"/>
-      <c r="O53" s="221"/>
-      <c r="P53" s="221"/>
-      <c r="Q53" s="221"/>
-      <c r="R53" s="221"/>
-      <c r="S53" s="221"/>
-      <c r="T53" s="221"/>
-      <c r="U53" s="221"/>
-      <c r="V53" s="221"/>
-      <c r="W53" s="221"/>
-      <c r="X53" s="221"/>
-      <c r="Y53" s="256"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="137"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="137"/>
+      <c r="L53" s="137"/>
+      <c r="M53" s="137"/>
+      <c r="N53" s="137"/>
+      <c r="O53" s="137"/>
+      <c r="P53" s="137"/>
+      <c r="Q53" s="137"/>
+      <c r="R53" s="137"/>
+      <c r="S53" s="137"/>
+      <c r="T53" s="137"/>
+      <c r="U53" s="137"/>
+      <c r="V53" s="137"/>
+      <c r="W53" s="137"/>
+      <c r="X53" s="137"/>
+      <c r="Y53" s="138"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="257" t="s">
+      <c r="A54" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="187"/>
-      <c r="C54" s="187"/>
-      <c r="D54" s="187"/>
-      <c r="E54" s="187"/>
-      <c r="F54" s="187"/>
-      <c r="G54" s="187"/>
-      <c r="H54" s="187"/>
-      <c r="I54" s="187"/>
-      <c r="J54" s="187"/>
-      <c r="K54" s="187"/>
-      <c r="L54" s="187"/>
-      <c r="M54" s="187"/>
-      <c r="N54" s="187"/>
-      <c r="O54" s="187"/>
-      <c r="P54" s="187"/>
-      <c r="Q54" s="187"/>
-      <c r="R54" s="187"/>
-      <c r="S54" s="187"/>
-      <c r="T54" s="187"/>
-      <c r="U54" s="187"/>
-      <c r="V54" s="187"/>
-      <c r="W54" s="187"/>
-      <c r="X54" s="187"/>
-      <c r="Y54" s="258"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="140"/>
+      <c r="J54" s="140"/>
+      <c r="K54" s="140"/>
+      <c r="L54" s="140"/>
+      <c r="M54" s="140"/>
+      <c r="N54" s="140"/>
+      <c r="O54" s="140"/>
+      <c r="P54" s="140"/>
+      <c r="Q54" s="140"/>
+      <c r="R54" s="140"/>
+      <c r="S54" s="140"/>
+      <c r="T54" s="140"/>
+      <c r="U54" s="140"/>
+      <c r="V54" s="140"/>
+      <c r="W54" s="140"/>
+      <c r="X54" s="140"/>
+      <c r="Y54" s="141"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="64" t="s">
@@ -7893,25 +7869,25 @@
     </row>
     <row r="59" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="65"/>
-      <c r="B59" s="221" t="s">
+      <c r="B59" s="137" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="221"/>
-      <c r="D59" s="221"/>
-      <c r="E59" s="221"/>
-      <c r="F59" s="221"/>
-      <c r="G59" s="221" t="s">
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="137" t="s">
         <v>182</v>
       </c>
-      <c r="H59" s="221"/>
-      <c r="I59" s="221"/>
-      <c r="J59" s="221"/>
-      <c r="L59" s="222" t="s">
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="137"/>
+      <c r="L59" s="168" t="s">
         <v>183</v>
       </c>
-      <c r="M59" s="222"/>
-      <c r="N59" s="222"/>
-      <c r="O59" s="222"/>
+      <c r="M59" s="168"/>
+      <c r="N59" s="168"/>
+      <c r="O59" s="168"/>
       <c r="P59" s="1" t="s">
         <v>184</v>
       </c>
@@ -7931,12 +7907,12 @@
       <c r="I60" s="68"/>
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
-      <c r="L60" s="223" t="s">
+      <c r="L60" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="M60" s="223"/>
-      <c r="N60" s="223"/>
-      <c r="O60" s="223"/>
+      <c r="M60" s="174"/>
+      <c r="N60" s="174"/>
+      <c r="O60" s="174"/>
       <c r="P60" s="68" t="s">
         <v>186</v>
       </c>
@@ -7975,6 +7951,163 @@
     </row>
   </sheetData>
   <mergeCells count="181">
+    <mergeCell ref="A52:Y52"/>
+    <mergeCell ref="A53:Y53"/>
+    <mergeCell ref="A54:Y54"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="N37:T37"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="N36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="S40:Y40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="S41:Y41"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:Y12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:Y14"/>
+    <mergeCell ref="A15:Y15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Y8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:Y6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:Y7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E16:Y16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:Y19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:Y13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:Y10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:Y11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C20:Y20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:Y23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:Y29"/>
+    <mergeCell ref="C30:Y30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="S44:Y44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="S45:Y45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="S43:Y43"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="R39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:K43"/>
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="K33:K39"/>
     <mergeCell ref="L38:M39"/>
@@ -7999,163 +8132,6 @@
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:Y47"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="S44:Y44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="S45:Y45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="S43:Y43"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="R39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:Y29"/>
-    <mergeCell ref="C30:Y30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="C20:Y20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:Y23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:Y13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:Y10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:Y11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E16:Y16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:Y19"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:Y8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:Y9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:Y6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:Y7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:Y12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:Y14"/>
-    <mergeCell ref="A15:Y15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="A52:Y52"/>
-    <mergeCell ref="A53:Y53"/>
-    <mergeCell ref="A54:Y54"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N35:T35"/>
-    <mergeCell ref="N37:T37"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="N36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="S40:Y40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="S41:Y41"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="U34:X34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">

--- a/template/取引成立台帳.xlsx
+++ b/template/取引成立台帳.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fwxWork\MetPro\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC28D67-F5D1-4A3A-A78E-32798A5C3806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32722457-25FF-40CE-8C91-879EE06D6CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D08DF634-D05B-48EB-A5E5-3C43C6308EA5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="218">
   <si>
     <t>成立年月日</t>
     <rPh sb="0" eb="2">
@@ -1396,6 +1396,10 @@
   </si>
   <si>
     <t>$l2_landRentTitle$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$b_apartmentName$</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2597,6 +2601,561 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
@@ -2654,560 +3213,95 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" a